--- a/PanSciArticles.xlsx
+++ b/PanSciArticles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,6 +1270,4548 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>和外星人的第五類接觸！《三體》中的微中子通訊是真的？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375407</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>不要回答！不要回答！不要回答！
+Netflix 版「三體」終於上線了，你覺得與外星人接觸是安全的，還是冒險的？
+其實啊，人類早就多次嘗試與外星文明接觸，三體中的「那個」技術，甚至也已經驗證成功了？到底誰能先與外星人取得聯繫？是中國還是美國？
+接下來的討論可能會暴雷原版小說的設定，但應該不會暴雷 Netflix 版的劇情。
+如果你也有一點想跟外星人接觸，那就來看看人類到底已經跟外星人搭訕到什麼程度了吧！
+對於是否要與外星文明接觸，每個人都有不同想法。三體小說作者劉慈欣在小說中提出一種觀點，那就是人類太弱小，最好避免與外星文明接觸，以免招致不必要的風險。
+但是回到現實世界，如果我們真的身處在三體的世界的話，那人類可真的是不停作死啊。早在 1974 年，科學家就利用阿雷西博天文台，向武仙座的 M13 球狀星團發射了一條著名的訊息，也就是「阿雷西博訊息」。這個目標距離地球不算遠，星星又多，被認為是潛在的外星文明所在。阿雷西博訊息中，則包含人類的 DNA 結構、太陽與九大行星、人類的姿態等資訊。每次想到總覺得是新開的炸雞排在發傳單攬客。
+除了無實體的電波訊息，人類還向太空中發送了實體的「信件」。1977 年，航海家探測器載著「航海家金唱片」進入太空。唱片中收錄了包含台語在內，55 種語言的問候語、大自然與鳥獸的聲音、115 張圖像、還用 14 顆銀河系內已知的脈衝星來標示出太陽系的位置。是一封向宇宙表達人類文明與友好意圖的信件。恩，如果接收到這個訊息的外星人不是很友善的話，那麼……。
+好吧，就算現在說應該要謹慎考慮接觸外星文明的風險，或許已經來不及了。對方是善還是惡，怎麼定義善或惡，會不會突然對我們發動攻擊，我們也只能聽天由命了。
+要確定有沒有外星文明，接收訊號當然跟發送訊號同等重要甚至更重要。1960 年，天文學家法蘭克．德雷克，就曾通過奧茲瑪計畫，使用直徑 26 公尺的電波望遠鏡，觀察可能有外星文明的天苑四和天倉五兩個恆星系統，標誌著「尋找外星智慧計畫」（the Search for Extraterrestrial Intelligence, SETI）的誕生。可惜，累積了超過 150 小時的訊息，都沒有搜尋到可辨識的訊號。
+比較近的則是 1995 年的鳳凰計畫，要研究來自太陽附近一千個恆星所發出的一千兩百到三千百萬赫的無線電波。由於有經費支持，SETI 每年可以花五百萬美元，掃描一千多個恆星，但是目前還沒有任何發現。
+中間有一個小插曲是，1967 年 10 月，英國劍橋大學的研究生喬絲琳．貝爾發現無線電望遠鏡收到了一個非常規律的脈衝訊號，訊號周期約為 1.34 秒，每次脈衝持續時間 0.04 秒。因為有可能是來自外星文明的訊號，因此訊號被開玩笑地取為 Little Green Man 1（LGM-1 號）。但後來他們又發現了多個類似的脈衝信號，最後證實這些脈衝是來自高速自轉的中子星，而非某個文明正在傳遞訊息。
+在中國也有探索外星生命的計畫，大家最關注的貴州天眼望遠鏡，直徑達五百公尺，是地球上最大的單一口徑電波望遠鏡。天眼望遠鏡在探索外星生命這件事，並不只是傳聞而已。2016 年 9 月天眼正式啟用後，也宣布加入 SETI 計畫。現在貴州天眼的六大任務之一，就包含探測星際通訊，希望能捕捉到來自其他星際文明的訊號。
+而背負著地球最大單一口徑望遠鏡的名號，自然也引起不少關注。從 2016 年啟用到現在，就陸續出現不少檢測到可疑訊號的新聞。然而，這些訊號還需要經過檢驗，確定不是其他來自地面或地球附近的干擾源，或是我們過去難以發現的輻射源。可以確定的是，目前官方還未正式聲明找到外星文明訊號。
+即使電磁波用光速傳遞訊息，太陽系的直徑約 2 光年、銀河系直徑約 10 萬光年。或許我們的訊息還需要花很多時間才回得來，更別提那些被拋入太空的實體信件。航海家 1 號曾是世界上移動速度最快的人造物，現在仍以大約時速 6 萬公里的速度遠離地球，大約只有光速的一萬八千分之一倍。就算朝著最近的恆星——比鄰星飛去，最少也需要大約 7 萬 6 千年的時間才會到。
+如果用電磁波傳遞訊息，又容易因為穿越星塵、行星、恆星等天體而被阻擋或吸收。不論是人類還是外星文明，都必須找到一個既快速，又不容易衰退的訊號，最好就是能以光速穿越任何障礙物的方式。
+在三體小說中，就給出了一個關鍵方法：微中子通訊。
+微中子（Neutrino），中國通常翻譯為中微子，是一種基本粒子。也就是說它是物質的最基本組成單位，無法被進一步分割。這種粒子引起了廣泛關注，因為它與其他物質的交互作用極弱，並且以極高的速度運動。微中子能夠輕易穿過大部分物質，通過時幾乎不受阻礙，因此難以檢測。
+在宇宙中，微中子的數量僅次於光子，是宇宙中第二多的粒子。有多多呢？地球上面向太陽的方向，每平方公分的面積，大約是你的手指指尖，每秒鐘都會被大約 650 億個來自太陽的微中子穿過，就是這麼多。但是因為微中子與物質的反應真的是太弱了，例如在純水中，它們平均需要向前走 250 光年，才會與水產生一次交互作用，以至於我們幾乎不會發現它們的存在。
+但是對物理學家來說，更特別的是微中子展示出三種不同的「味」（flavor），也就是三種樣貌，電子微中子，渺子微中子和濤微中子，分別對應到不同的物理特性。 在粒子物理學裏，有個「標準模型」來描述強力、弱力及電磁力這三種基本力，以及所有基本粒子。在這個標準模型中，微中子是不具備質量的。 然而，當科學家發現微中子竟然有三種味，而且能透過微中子振盪，在三種「味」之間相互轉換，證明了微中子必須具有質量，推翻了標準模型中預測微中子是無質量的假設，表示標準模型還不完備。
+微中子在物理界是個非常有研究價值的對象，值得我們花上一整集來好好介紹，這邊就先點到為止。如果你對微中子或其他基本粒子很感興趣，歡迎在留言催促我們。
+我們現在只要知道，微中子不僅推翻了標準模型。宇宙中含量第二多的粒子竟然有質量這件事情，更可能更新我們對宇宙的理解，以及增加對暗物質的了解。
+但回到我們的問題，如果微中子幾乎不與其他粒子交互作用，我們要怎麼接收來自外星文明的微中子通訊呢？ 
+Netflix 版《三體》預告片中，這個一閃而過，充滿金色圓球，帶有點宗教與科幻風格的大水缸，就是其中的關鍵。
+這個小說中沒有特別提到，但相信觀眾中也有人一眼就看出來。這就是位在日本岐阜縣飛驒市，地表 1,000 公尺之下，由廢棄礦坑改建而成的大型微中子探測器「神岡探測器」。
+探測器的主要結構是一個高 41.4 米、直徑 39.3 米的巨大圓柱形的容器。容器的內壁上安裝有 11200 個光電倍增管，用於捕捉微小的訊號。水缸中則需灌滿 5 萬噸的超純水。捕捉微中子的方式是等待微中子穿過整座探測器時，微中子和水中的氫原子和氧原子發生交互作用，產生淡藍色的光芒。這與我們在核電系列中提到，核燃料池中會發出淡藍色光芒的原理一樣，是當粒子在水中超越介質光速時，產生類似音爆的「契忍可夫輻射」。
+也就是說，科學家準備一個超大的水缸來與微中子產生反應，並且用超過一萬個光電倍增管，來捕捉微小的契忍可夫輻射訊號。
+但這樣的設計十分值得，前面提到的微中子可以在三種「味」中互相轉換，就是在這個水槽中被證實的。
+這座「神岡探測器」在建成後 40 幾年來，讓日本孕育出了 5 位的諾貝爾物理獎得主。
+三體影集選在這邊拍攝，真的要說，選得好啊。
+話說回來，有了微中子的捕捉方法之後，現實中還真的有人研究起了微中子通訊！
+來自羅徹斯特大學與北卡羅來納州立大學的團隊，在 2012 年發表了一篇文章，說明它們已成功使用微中子，以接近光速的速度將訊息穿過 1 公里的距離，其中有 240 公尺是堅硬的岩石。訊息的內容是「Neutrino」，也就是微中子。
+這套設備準備起來也不簡單，用來發射微中子的，是一部強大的粒子加速器 NuMI。質子在加速繞行一個周長 3.3 公里的軌道之後，與一個碳標靶相撞，發出高強度的微中子射束。
+用來接收微中子的則是邊長約 1.7 公尺，長 5 公尺的六角柱探測器 MINERvA，一樣身處於地底 100 公尺的洞穴中。
+當然，這兩套設備的重點都是拿來研究微中子特性，而不是為了通訊設計的。團隊只是趁著主要任務之間的空檔，花了兩小時驗證通訊的可能性。
+但微中子那麼難測量，要怎麼拿來通訊呢？團隊換了一個思維，目標只要能傳出０跟１就好，而這裡的０就是沒有發射微中子，而１則是發出微中子，而且是一大堆微中子。多到即使每百億個微中子只有一個會被 MINERvA 偵測到，只要靠著數量暴力，探測器就一定能接收到微中子。最後的實驗結果，平均一秒可以傳 0.1 個位元的訊息，錯誤率 1%。
+因為微中子「幾乎能穿透所有物體」的特性，即便我們還沒有其他外星文明可以通訊，或許還是有其他作用。例如潛水艇的通訊、或是與礦坑深處的通訊。進一步說，他幾乎可以在地球上的任一兩點建立點對點的直線通訊，完全不用擔心中間的阻礙。而對於現在最夯的太空競賽來說，月球背面的通訊問題，微中子也可以完美解決。
+那麼，在微中子的研究上，各國的進度如何了呢？
+除了前面提到的超級神岡，世界上還有幾個有趣的微中子探測器，例如位於加拿大的薩德伯里微中子觀測站（SNO），它有特殊的球體設計並且改為填充重水，專門用來觀測來自太陽的微中子。
+而位於南極的冰立方微中子觀測站，則是將探測器直接埋在南極 1450 到 2450 公尺的冰層底下，將上方的冰層直接作為捕捉微中子的水。非常聰明的設計，這也讓冰立方成為地球上最大的微中子探測器。
+除了已經在使用的這幾個探測器之外，美、中、日也即將打造更先進、更強大的探測器。
+預計在美國打造的國際計畫——地下深處微中子實驗（Deep Underground Neutrino Experiment），預計成為世界上最大的低溫粒子偵測器。接收器位於南達科他州的地底一公里深處，用作研究的微中子訊號源則來自 1300 公里外的費米實驗室，百萬瓦等級的質子加速器，將產生有史以來最強的微中子束。這台地下深處微中子實驗（Deep Underground Neutrino Experiment）的縮寫非常有趣，就是 DUNE，沙丘。
+中國呢，則預計在廣東的江門市，用 2 萬支 51 公分光電倍增管和 2 萬 5000 支 7.6 公分光電倍增管，在地底 700 公尺深處，打造巨大球形的微中子探測器－江門中微子實驗室，內部可以填充兩萬噸的純水。最新的消息是預計 2024 年就能啟用。
+最後，經典的超級神岡探測器也不會就此原地踏步，日本預計打造更大的超巨型神岡探測器。容積將提升 5.2 倍、光電管從 11200 個變成 4 萬個，進一步研究微中子與反微中子之間的震盪。
+這些微中子探測器的研究目標必然是微中子本身的特性。但既然微中子通訊是有可能的，在任務之餘研究一下這個可能性，也不是說不行吧。
+雖然我們現在還沒連繫上我們的好鄰居，但很難說明天就有哪個外星文明終於接收到我們對外宣傳的訊息，發出微中子通訊問候，甚至按圖索驥跑來地球。
+至於那時我們應該怎麼辦呢？我們的網站上有幾篇文章，包括介紹黑暗森林法則，以及從《異星入境》看我們要如何與語言不通的外星文明溝通。有興趣的朋友，可以點擊資訊欄的連結觀看。在外星人降臨之前，也不妨參考我們的科學小物哦。
+最後問問大家，你覺得我們應該主動聯繫外星文明嗎？
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>快速通道與無盡地界：科幻作品裡的黑洞——《超次元．聖戰．多重宇宙》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374128</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>一個無底深淵怎能成為星際飛行的捷徑呢？原來按照愛因斯坦的理論，黑洞是一個時空曲率趨於無限大——也就是說，時空本身已「閉合」起來的區域。但往後的計算顯示，若收縮的星體質量足夠大的話，時空在閉合到某一程度之後，會有重新開敞的可能，而被吸入的物體，將可以重現於宇宙之中。只是，這個「宇宙」已不再是我們原先出發的宇宙，而是另一個宇宙、另一個時空（姑毋論這是甚麼意思）。按照這一推論，黑洞的存在，可能形成一條時空的甬道（稱為「愛因斯坦－羅森橋接」），將兩個本來互不相干的宇宙連接起來。
+這種匪夷所思的推論固然可以成為極佳的科幻素材，但對於克服在我們這個宇宙中的星際距離，則似乎幫助不大。然而，一些科學家指出，愛因斯坦所謂的另一個宇宙，很可能只是這一宇宙之內的別的區域。如果是的話，太空船便可由太空的某處飛進一個黑洞之內，然後在遠處的一個「白洞」（white hole）那兒走出來，其間無須經歷遙遠的星際距離。把黑洞和白洞連結起來的時空甬道，人們形象地稱之為「蛆洞」、「蛀洞」或「蟲洞」（wormhole）。
+「蛆洞」是否標誌著未來星際旅行的「捷徑」呢？不少科幻創作正以此為題材。其中最著名的，是《星艦奇航記》第三輯《太空站深空 9 號》（Deep Space Nine, 1993-1999），在劇集裡，人類發現了一個遠古外星文明遺留下來的「蛆洞」，於是在旁邊建起了一個龐大的星際補給站，成為了星際航運的聚散地，而眾多精彩的故事便在這個太空站內展開。
+我方才說「最著名」，其實只限於《星艦》迷而言。對於普羅大眾，對於「蛆洞」作為星際航行手段的認識，大多數來自二○一四年的電影《星際效應》（Interstellar，港譯：《星際啟示錄》），其間人類不但透過蛆洞去到宇宙深處尋找「地球 2.0」（因為地球環境已大幅崩壞），男主角更穿越時空回到過去，目睹多年前與年幼女兒生離死別的一幕。電影中既有大膽的科學想像，也有感人的父女之情，打動了不少觀眾。大家可能有所不知的是，導演基斯杜化．諾蘭（Christopher Nolan, 1970-）邀請了知名的黑洞物理學基普．索恩（Kip Thorne, 1940-）作顧問，所以其中所展示的壯觀黑洞景象，可不是憑空杜撰而是有科學根據的呢！
+然而事情並非這麼簡單。我們不要忘記，黑洞的周圍是一個十分強大的引力場，而且越接近黑洞，引力的強度越大，以至任何物體在靠近它時，較為接近黑洞的一端所感受到的引力，與較為遠離黑洞的一端所感受到的，將有很大的差別。這種引力的差別形成了一股強大之極的「潮汐張力」（tidal strain），足以把最堅固的太空船（不要說在內的船員）也撕得粉碎。
+潮汐張力的危險不獨限於黑洞，方才提及的中子星，其附近亦有很強的潮汐力。 拉瑞．尼文（Larry Niven, 1938-，港譯：拉利．尼雲）於一九六六年所寫的短篇〈中子星〉（Neutron Star），正以這一危險作為故事的題材。
+尤有甚者，即使太空船能抵受極大的潮汐力，在黑洞的中央是一個時空曲率趨於無限，因此引力也趨於無限的時空「奇點」（singularity）。太空船未從白洞重現於正常的時空，必已在「奇點」之上撞得粉碎，星際旅程於是變了死亡旅程。
+然而，往後的研究顯示，以上的描述只適用於一個靜止的、沒有旋轉的黑洞，亦即「史瓦西解」所描述的黑洞。可是在宇宙的眾多天體中，絕大部分都具有自轉。按此推論，一般黑洞也應具有旋轉運動才是。要照顧到黑洞自旋的「場方程解」，可比單是描述靜止黑洞的史瓦西解複雜得多。直至一九六三年，透過了紐西蘭數學家羅伊・卡爾（Roy Kerr, 1934-）的突破性工作，人類才首次得以窺探一個旋轉黑洞周圍的時空幾何特性。
+科學家對「卡爾解」（The Kerr solution）的研究越深入，發現令人驚異的時空特性也越多。其中一點最重要的是：黑洞中的奇點不是一個點，而是一個環狀的區域。即只要我們避免從赤道的平面進入黑洞，理論上我們可以毋須遇上無限大的時空曲率，便可穿越黑洞而從它的「另一端」走出來。
+不用說，旋轉黑洞（也就是說，自然界中大部分的黑洞）立即成為科幻小說作家的最新寵兒。
+一九七五年，喬．哈德曼（Joe Haldeman,1943-）在他的得獎作品《永無休止的戰爭》（The Forever War, 1974）之中，正利用了快速旋轉的黑洞（在書中稱為「塌陷體」——collapsar）作用星際飛行——以及星際戰爭得以體現的途徑。
+由於黑洞在宇宙中的分佈未必最方便於人類的星際探險計劃，一位科學作家阿德里安．倍里（Adrian　Berry,1937-2016）更突發奇想，在他那充滿想像的科普著作《鐵的太陽》（The Iron Sun, 1977）之中，提出了由人工製造黑洞以作為星際轉運站的大膽構思。
+要特別提出的一點是，飛越旋轉黑洞雖可避免在奇點上撞得粉碎，卻並不表示太空船及船上的人無須抵受極強大的潮汐力。如何能確保船及船員在黑洞之旅中安然無恙，是大部分作家都只有輕輕略過的一項難題。
+此外，按照理論顯示，即使太空船能安然穿越黑洞，出來後所處的宇宙，將不是我們原先出發的那個宇宙；而就算是同一個宇宙，也很可能處於遙遠的過去或未來的某一刻。要使這種旅程成為可靠的星際飛行手段，科幻作家唯有假設人類未來對黑洞的認識甚至駕馭，必已達到一個我們今天無法想像的水平。
+然而，除了作為星際飛行途徑，黑洞本身也是一個怪異得可以的地方，因此也是一個很好的科幻素材。黑洞周圍最奇妙的一個時空特徵，就是任何事物——包括光線——都會「一進不返」的一道分界線，科學家稱之為「事件穹界」（event horizon）。這個穹界（實則是一個立體的界面），正是由當年史瓦西計算出來的「史瓦西半徑」（Schwarzschild radius）所決定。例如太陽的穹界半徑是三公里，也就是說，假若一天太陽能收縮成一個半徑小於三公里的天體，它將成為一個黑洞而在宇宙中消失。「穹界」的意思就是時空到了這一界面便有如到了盡頭，凝頓不變了。
+簡單地說，穹界半徑就是物體在落入黑洞時的速度已達於光速，而相對論性的「時間延長效應」（time dilation effect）則達到無限大。對太空船上的人來說，穿越界面的時間只是極短的頃刻，但對於一個遠離黑洞的觀測者，他所看到的卻是：太空船越接近界面，船上的時間變得越慢。
+而在太空船抵達界面時，時間已完全停頓下來。換句話說，相對於外界的人而言，太空船穿越界面將需要無限長的時間！
+了解到這一點，我們便可領略波爾．安德遜（Poul Anderson, 1926-2001）的短篇〈凱利〉（Kyrie, 1968）背後的意念。故事描述一艘太空船不慎掉進一個黑洞，船上的人自是全部罹難。但對於另一艘船上擁有心靈感應能力的一個外星人來說，情況卻有所不同。理由是她有一個同樣擁有心靈感應能力的妹妹在船上，而遇難前兩人一直保持心靈溝通。由於黑洞的特性令遇難的一剎（太空船穿越穹界的一剎）等於外間的永恆，所以這個生還的外星人，畢生仍可在腦海中聽到她妹妹遇難時的慘叫聲。
+安德遜這個故事寫於一九六八年，可說是以黑洞為創作題材的一個最早嘗試。
+太空船在穹界因時間停頓而變得靜止不動這一情況在阿爾迪斯一九七六年寫的《夜裡的黑暗靈魂》（The Dark Soul of the Night）中，亦有頗為形象的描寫。恆星的引力崩塌，在羅伯特．史弗堡（Robert Silverberg）的《前往黑暗之星》（To the Dark Star, 1968）之中卻帶來另一種（雖然是假想的）危險。故事中的主人翁透過遙感裝置「親身」體驗一顆恆星引力塌陷的過程，卻發覺時空的扭曲原來可以使人的精神陷於瘋狂甚至崩潰的境地。
+以穹界的時間延長效應為題材的長篇小說，首推弗雷德里克．波爾（Frederik Pohl, 1919-2013）的得獎作品《通道》（Gateway, 1977），故事描述人類在小行星帶發現了由一族科技極高超的外星人遺留下來的探星基地。基地內有很多完全自動導航的太空船，人類可以乘坐這些太空船穿越「時空甬道」抵達其他的基地，並在這些基地帶回很多珍貴的，因此也可以令發現者致富的超級科技發明。
+故事的男主角正是追尋這些寶藏的冒險者之一。他和愛人和好友共乘一艘外星人的太空船出發尋寶，卻不慎誤闖一顆黑洞的範圍。後來他雖逃脫，愛人和好友卻掉進黑洞之中。但由於黑洞穹界的時間延長效應，對於男主角來說，他的愛人和好友永遠也在受著死亡那一刻的痛苦，而他也不歇地受著內疚與自責的煎熬。
+故事的內容由男主角接受心理治療時逐步帶出。而特別之處，在於進行心理治療的醫生不是一個人，而是一副擁有接近人類智慧的電腦。全書雖是一幕幕的人機對話，描寫卻是細膩真摯、深刻感人，實在是一部令人難以忘懷的佳作。
+由於這篇小說的成功，波氏繼後還寫了兩本續集：《藍色事件穹界以外》（Beyond the Blue Event Horizon, 1980）及《希徹會晤》（Heechee Rendezvous, 1984）。而且兩本都能保持很高的水準。
+時間延長效應並非一定帶來悲劇。在先前提及的《永無休止的戰爭》的結尾，女主角正是以近光速飛行（而不是飛近黑洞）的時間延長效應，等候她的愛侶遠征歸來，為全書帶來了令人驚喜而又感人的大團圓結局。
+七○年代末的黑洞熱潮，令迪士尼（Walt Disney）的第一部科幻電影製作亦以此為題材。在一九七九年攝製的電影《黑洞》（The Black Hole）之中，太空船「帕魯明諾號」在一次意外中迷航，卻無意中發現了失蹤已久的「天鵝號」太空船。由於「天鵝號」環繞著一個黑洞運行，船上的人因時間延長效應而衰老得很慢。這艘船的船長是一個憤世疾俗的怪人，他的失蹤其實是故意遠離塵世。最後，他情願把船撞向黑洞也不願重返文明。
+比起史提芬．史匹堡（Steven Spielberg, 1946-）的科幻電影，這部《黑洞》雖然投資浩大，拍來卻是平淡乏味，成績頗為令人失望。除了電影外，科幻作家艾倫．迪安．霍斯特（Alan Dean Foster, 1946-）亦根據劇本寫成的一本同名的小說。
+——本文摘自《超次元．聖戰．多重宇宙》，2023 年 11 月，二○四六出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>歐幾里得望遠鏡開工——目標是尋找暗物質證據！一起從科學家的角度欣賞這片夢幻光景！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373886</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14 億歐元天文望遠鏡拍出的照片，你看過了嗎？你看到現在這些照片，揭開了宇宙過去與現在、空間與時間所交織的祕密嗎？
+今年 11 月 7 日，位在 L2 拉格朗日點的歐幾里得望遠鏡，終於傳回來它升空後的第一批照片。這 5 張照片不只展示了望遠鏡的強大性能，更讓我們窺見過去無法看到的，宇宙深處的幽美與奧秘。就讓我們一起透過這些獨特的照片，來一場探索宇宙的奇異之旅吧！
+今年 ７ 月 １ 號升空的歐幾里得望遠鏡，任務是觀察宇宙大尺度結構，來研究暗物質與暗能量在宇宙中的分布與性質，讓我們進一步了解自己身處的這個宇宙。
+去年七月，接棒哈伯望遠鏡任務的詹姆斯．韋伯太空望遠鏡，傳回來了升空後的第一批相片，每張照片都美的震撼人心，也帶著我們從全新的視角，眺望遙遠的系外行星、恆星、星雲與早期宇宙。當時，我們製作了一集節目，和大家分享這批照片背後的重要意義。我們也提到，每個望遠鏡在完成校準以後，都會發布一批「開光照」，向外界傳達望遠鏡已經可以順利運作的好消息，同時也讓大家了解這台新望遠鏡身上，背負了哪些重要的使命與任務。
+而這次，新升空的歐幾里得望遠鏡也終於完成校正，傳回來不同於韋伯望遠鏡，從另一個視角看宇宙的開光照。先讓我們來了解一下歐幾里得望遠鏡。它的觀測波段是可見光到近紅外線波段，目標是觀測大範圍、不同遠近的宇宙天體。預計在 6 年的服役期間，建立完整清晰的宇宙 3D 立體圖像。只是，剛退役的哈伯太空望遠鏡，主要任務就是可見光波段的研究，去年剛任務正式開始的韋伯太空望遠鏡，則是紅外線波段的佼佼者。那歐幾里得望遠鏡有什麼突破之處嗎？這座花費 14 億歐元的望遠鏡當然有它獨到之處，它強大的地方在於，可以在更短時間內獲得更高解析度的照片，同時拍攝更大範圍的宇宙。比如哈伯太空望遠鏡需要好幾天觀測的天體，歐幾里得望遠鏡一個小時就可以搞定，而且解析度更高。
+其實看它們的任務目標就能很快理解，現在在天空上的韋伯和歐幾里得，雖然有部分任務重疊。但韋伯更著重在尋找系外行星與觀察星系、恆星系統的演化。歐幾里得呢，則是將視野放大到整個宇宙，希望了解暗物質、暗能量在整個宇宙間扮演的角色。所以比起韋伯太空望遠鏡著重在拍攝小範圍、高解析度的天體照片，歐幾里得望遠鏡一開始的設計，就是要在短時間內掃描更大片的宇宙。因此，歐幾里得望遠鏡也確實成為建立宇宙 3D 立體圖像的最佳望遠鏡，定期的大範圍掃描天空，讓我們能一窺宇宙隨時間的演化動態。
+那麼，就讓我們來欣賞歐幾里得望遠鏡的第一批照片吧！
+第一張照片，像是在宇宙這張巨大的黑布上，撒下大小珍珠。它是一張距離地球 2.4 億光年，英仙座星系團的影像照。
+宇宙中有許多星系團，英仙座星系團就是其中之一，裡面包含超過 1000 個星系，是宇宙中最大的結構之一。除此之外，這張照片不僅清楚拍下了星系團，如果將照片放大來看，還會發現背景中有許多過去難以看到的星系，數量超過 10 萬個，最遠的甚至達 100 億光年。為什麼第一批照片要選擇拍攝星系團呢？因為研究星系團能幫助我們了解宇宙大尺度結構，進一步推算暗物質與暗能量的比例。
+宇宙中的星系分佈其實是不均勻的，有些地方有許多星系，有些區域則幾乎沒有。整個宇宙中天體的分布看起來就像是一張巨網。可是，為什麼宇宙的大尺度結構是網狀的呢？天文學家認為宇宙大爆炸之後，物質在宇宙中的分佈會有些微的不均勻。當宇宙逐漸冷卻，氣體物質密度較高的地方會因為重力吸引而塌縮。但因為溫度很高，高溫產生的巨大壓力又讓氣體團反彈回來，就像擠壓一個壓力球一樣。來回震盪的過程中氣體會像聲波朝四面八方傳遞出去，稱為重子聲學振盪（BAO，baryon acoustic oscillations）。最後整個宇宙就像下毛毛雨時的池塘，形成由許多漣漪交織的網狀結構，波腹的地方氣體密度較高，變成星系高度聚集的區域，我們稱為星系團。其他地方氣體密度低，形成的星系數量較少，就像是宇宙間的孔洞。
+而根據宇宙學家計算，要形成星系團、宇宙網（cosmic web）這類的宇宙大尺度結構，只靠已知物質提供的重力是不夠的，很可能還有許多我們還不了解的物質參與其中，也就是暗物質。這張照片不僅能幫助科學家研究宇宙大尺度結構，更彰顯歐幾里得望遠鏡的重要任務之一，就是幫助科學家深入了解暗物質的分佈與本質。
+第二張照片是螺旋星系 IC342，離地球只有 1100 萬光年，算是離地球很近的星系，但由於它被明亮的銀河系盤面擋住了，觀測的難度非常高。歐幾里得望遠鏡利用近紅外線儀器穿透塵埃進行觀察，並移除許多銀河系中的恆星光芒，最後才形成這張極高解析度的照片，展現了它觀測隱藏星系的實力。
+這個螺旋星系在天空中的大小相當於一個滿月那麼大，要一次觀測這樣大範圍的天空，同時保有超高解析度，目前只有歐幾里得望遠鏡才辦得到。由於螺旋星系 IC342 和銀河系很像，觀察它的演化有助於科學家理解銀河系的形成過程。未來歐幾里得望遠鏡也會觀測更多隱藏星系和遙遠的天體，繪製出它們的 3D 分佈圖。
+第三張照片是不規則星系 NGC 6822。雖然跟 IC342、銀河系一樣也是星系，但形狀不是螺旋而是不規則的。
+透過光譜分析，我們知道這個星系中的重元素含量很低。重元素是透過大質量恆星核融合所產生的，重元素含量少表示星系裡的恆星才剛形成，也就是一個很早期、相對年輕的星系。科學家認為，在宇宙早期星系剛開始演化時，大部分的星系就長得像這樣，質量小、形狀也不太規則。之後這些小星系會因為重力吸引其他星系，彼此相撞、融合成更大的星系，逐漸產生旋轉的結構，形成像銀河系這樣的大質量螺旋星系。所以藉由觀測這些早期星系，可以幫助科學家了解星系的形成過程。
+另外，照片中一顆顆藍色的圓形區域，是球狀星團。球狀星團中的星星都是由同一團氣體產生，是宇宙最早形成的天體之一，有些甚至比星系本身還早。透過觀測這些球狀星團的運動，能協助我們更了解這個星系的形成史。
+球狀星團大部分分佈在星系的外圍，以很慢的速度繞行星系，可能要好幾年才能觀察到要它們的運動。那科學家要怎麼知道這些星團是如何移動的呢？凡走過必留下痕跡，其中一種方式就是觀察到它們與星系本身互動所留下的痕跡。在歐幾里得望遠鏡傳回來的第四張照片中，就呈現了這些細節。第四張照片是球狀星團 NGC 6397，一個繞行銀河系的球狀星團。
+當星團經過星系中的高密度區域，比如暗物質集中區、旋臂或星系盤面，星團中的星星會受到不同強度的重力吸引，使得星星彼此遠離，這個力量稱為潮汐力。顧名思義與潮汐的產生是相同的原理，由於地球各處受到太陽與月亮的重力總和不相同，在重力較強的地方海水受拉伸而漲潮，重力較弱的地方就會退潮。同樣道理，球狀星團在靠近星系中心的一側受重力較強，遠離星系的一側則較弱，球狀星團因而被拉伸，形成一條由星星組成的尾巴，稱為潮汐尾。
+透過觀測潮汐尾，就可以了解球狀星團，乃至星系的演化過程。如果沒有潮汐尾，也可能代表有暗物質暈阻止外層恆星逃脫，能幫助我們進一步了解暗物質在星系當中的分佈。但要瞭解潮汐尾的形成過程，必須有星團中每顆星星的移動資料，也就是需要同時進行大範圍、短時間、高精度的觀測。而歐幾里得望遠鏡的優勢此時就能充分發揮，它可以一次拍攝整個球狀星團，而且只須一小時就可以得到這張高解析度的照片，連裡面的很暗的星星也看的一清二楚。只要每隔一段時間拍攝一張照片，就可以製作成動畫，了解星團中星體的運動軌跡。
+最後，我們來介紹最後一張照片。它看起來最為夢幻，猶如一張宇宙中以繁星點綴的絲綢。它是距離地球約 1375 光年的馬頭星雲，也是離我們最近，正在形成新生恆星的區域。在星雲的上方（照片之外），有一顆明亮的恆星：獵戶座 sigma 星，這顆星輻射出的紫外光激發了位在馬頭後方的星雲，形成明亮、宛若薄紗的區域。組成馬頭的暗星雲氣體則因為溫度較低，只有些微的熱輻射，形成較為黯淡的前景，並稍微遮掩背後的明亮星雲。前後星雲層層堆疊，就像一幅宇宙給我們的水彩畫。更進一步，藉由歐幾里得望遠鏡高解析度的照片，科學家得以從中看到更多類木星、棕矮星、嬰兒恆星等，協助科學家了解星雲中的恆星形成過程。
+對了，在我們介紹韋伯望遠鏡時有提到過，這些宇宙照通常不是它可見光波段下，真正我們肉眼所見的樣貌。而是選定特定波長後透過顏色校正，甚至將不同波段的照片疊合，才得到的結果。也就是說，選則不同的電磁波波段，或是採取不同的調色方式，得到的照片都會有不同風味。
+所以如果你覺得這張淡麗的馬頭星雲不滿意，也有這張，特別強化氫元素的紅色光譜與氧元素藍色光譜後，成為一張猶如滅世風格，帶有點詭譎濾鏡的另一種美照，是不是跟剛才的氛圍完全不一樣呢？
+順帶一提，對我來說，一樣是星雲照片，韋伯望遠鏡校色出來的照片還是覺得比較好看。例如之前介紹過的，韋伯望遠鏡開光照之一的船底座星雲。還有原本是望遠鏡大前輩哈伯代表作，後來韋伯又重新翻拍的創世之柱，都更令人讚嘆不已，對比與彩度都高上許多，給人一種正在仰望廣闊宇宙的壯烈感。
+我們對於宇宙的瞭解還太少，目前宇宙中的已知物質，包括元素週期表上的所有原子，根據計算只佔宇宙質能的 5%，剩下的估計都是暗物質與和能量。
+但宇宙的奧秘就像一張複雜的拼圖，每拼上一小塊，都會給我們一些線索，猜測周圍的拼圖可能會是什麼。當拼的夠多，我們終有一天能得知宇宙整體的圖畫長什麼樣貌。恆星形成、星系演化方式、暗物質、暗能量等等，都各自是一塊塊重要的拼圖，唯有了解它們才能逐步得知暗物質與暗能量的奧秘。
+舉例來說，暗物質所提供的重力在星系形成中扮演重要角色，目前最被科學界接受的冷暗物質（cold dark matter）模型，假設暗物質是由質量很大的粒子所組成，透過重力吸引聚集成許多小塊，小塊暗物質再彼此融合成更大的暗物質團塊，質量足夠大的團塊就可以吸引夠多的氣體，形成早期星系，之後再彼此融合成為更大的螺旋或橢圓星系。但透過數值模擬，科學家發現這個模型有些問題。理論上來說應該要有數百到數千個小衛星星系，繞行像銀河系這麼大的螺旋星系旋轉。但是天文學家實際上只觀測到約十個小星系繞行銀河系，這是著名的衛星遺失問題（Missing satellite problem）。
+因此科學家又提出更多暗物質模型，比如與冷暗物質相對的熱暗物質（warm dark matter）模型，可以透過熱運動所產生的壓力抵銷重力，使得小暗物質團塊變得不穩定，從而解釋為何小星系的數量這麼少。除了熱暗物質以外，還有眾多的暗物質模型。但要證明哪個模型是正確的，就需要更多觀測數據與星系演化的模擬結果進行比較，才能得到答案。
+不過看過歐幾里得望遠鏡傳回來的第一批照片，並了解其中代表的重要意義，就能充分感受到我們離解開這個謎團又更近了一步。還沒完，預計於 2027 年升空的羅曼太空望遠鏡（Nancy Grace Roman Space Telescope），與歐幾里得望遠鏡相同，都肩負研究暗能量與暗物質的重要任務。兩座望遠鏡將一同一個從可見光，一個從紅外線波段觀察大範圍宇宙，期待能為科學家帶來寶貴的數據，解開這盤旋好幾十年的謎團。
+最後問問大家，在這批照片中，你最喜歡的是哪一張呢？
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>秋季星空中一抹光亮：北落師門殘屑盤的觀測史——《科學月刊》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374220</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>北落師門（Fomalhaut）又稱南魚座 α 星，是秋季星空中著名的亮星之一。去年 5 月，以美國亞利桑那大學（University of Arizona）天文學家加斯帕（András Gáspár）為首的研究團隊在《自然天文學》（Nature Astronomy）期刊上發表，他們藉由詹姆士．韋伯太空望遠鏡（James Webb Space Telescope, JWST，簡稱韋伯望遠鏡），在北落師門周圍殘屑盤（debris disk）中首次發現了「系外小行星帶」的存在。韋伯望遠鏡拍下美麗的照片，也瞬間席捲各大科學與科普媒體的版面（圖一）。
+天文學家選擇北落師門作為目標並非偶然。半個世紀以來，北落師門一直是天文學家研究殘屑盤時的首選目標之一。韋伯望遠鏡的新影像為我們帶來什麼新發現？過去與現在的觀測方式又有什麼差異？本文將帶著大家一起回顧北落師門殘屑盤的觀測史。
+殘屑盤是環繞在恆星周遭，由顆粒大小不一的塵埃所組成的盤狀結構。如果讀者們聽過行星形成的故事，也知道行星是從恆星四周、由氣體與塵埃組成的「原行星盤」（protoplanetary disk）中誕生，那你或許會認為殘屑盤可能就是行星形成後剩下的塵埃。但實際上並非如此，在恆星形成初期的數百萬年間，原行星盤中的氣體和塵埃會被恆星吸積或是吸收恆星輻射的能量後蒸發，同時也會聚集成小型天體或行星，這些原因都會使原行星盤消散。而殘屑盤則是由盤面上的小行星等天體們互相碰撞後，產生的第二代塵埃組成（圖二）。
+這些塵埃發光的機制主要有兩種。第一，塵埃本身可以散射來自母恆星的星光，從而讓天文學家能在可見光與近紅外波段看到它們。第二，塵埃在吸收來自恆星的星光之後，以熱輻射的形式將這些能量重新釋放。由於恆星的光強度與距離成平方反比，愈靠近恆星，塵埃的溫度就愈高，因此發出的輻射以近紅外線為主；反之，愈是遠離恆星，塵埃的溫度就愈低，發出的光就以中遠紅外線為主。
+北落師門殘屑盤的觀測始於 1983 年。當時，美國國家航空暨太空總署（National Aeronautics and Space Administration, NASA）的紅外線天文衛星（Infrared Astronomical Satellite, IRAS）發現北落師門在紅外線波段的亮度異常高，代表周圍很可能有殘屑盤圍繞。由於北落師門離地球僅約 25 光年，這項發現引起眾多天文學家的關注，並在未來數十年前仆後繼地拿出各波段最好的望遠鏡，希望藉此深入了解殘屑盤的特性。其中，哈伯太空望遠鏡（Hubble Space Telescope, HST，簡稱哈伯望遠鏡）、阿塔卡瑪大型毫米及次毫米波陣列（Atacama Large Millimeter/submillimeter Array, ALMA）與韋伯望遠鏡擁有非常好的空間解析度，因此能夠清楚地觀測殘屑盤的結構。
+ 2008 年， NASA 公布哈伯望遠鏡在 2004 與 2006 年對北落師門的觀測結果（圖三），讓天文學家首次清晰地看到北落師門殘屑盤的影像。這張照片是哈伯望遠鏡以日冕儀（coronagraph）在 600 奈米（nm）的可見光波段下拍攝，中間的白點代表北落師門的位置，而周圍的環狀亮帶正是因散射的北落師門星光而發亮的殘屑盤，放射狀的條紋則是日冕儀沒能完全消除的恆星散射光。除此之外，天文學家還發現有一個亮點正圍繞著北落師門運行，並認為此亮點可能是一顆圍繞北落師門的行星，於是將它命名為「北落師門 b 」。很可惜在往後的觀測中，天文學家發現北落師門 b 漸漸膨脹消散，到 2014 年時就已經完全看不見了。因此它很可能只是一團塵埃，而非真正的行星。
+ ALMA 對北落師門的完整觀測於 2017 年亮相，他們展示出更加清晰漂亮的環狀結構，且位置與哈伯望遠鏡的觀測吻合。正如前面提到，殘屑盤中的塵埃溫度愈低，放出的輻射波長就愈長。因此 ALMA 在 1.3 毫米（mm）波段觀測到的影像，主要來自離殘屑盤中恆星最遠、最冷的部分。
+最後則要來看去年韋伯望遠鏡所使用中紅外線儀（mid-infrared instrument, MIRI）拍攝的影像（圖五）。與之前的觀測不同，這次的影像顯示北落師門的殘屑盤其實分成幾個部分：
+首先，哈伯望遠鏡與 ALMA 之前就已觀測到的塵埃環，它的半徑約 136～150 天文單位（AU）、寬約 20～25 AU，而溫度則落在約 50～60 K，與太陽系的古柏帶（Kuiper belt）十分相似，因此被稱為「類古柏帶環」（KBA ring）。雖然在觀測上的溫度相似，但其實此塵埃環與北落師門的距離是古柏帶到太陽的四倍；不過北落師門光度約為太陽的 16 倍，根據前述提及的平方反比關係，才導致兩者的溫度相近。此外，在更外層名為「暈」（halo）的黯淡結構則對應古柏帶外圍天體密度較低的區域。
+再來，韋伯望遠鏡還發現了更多未解的謎團：內側殘屑盤（inner disk）與中間環（intermediate ring）。其實早在本次韋伯望遠鏡的觀測之前，天文學家就已經從北落師門的光譜推測，北落師門的殘屑盤中除了存在前面提過的類古柏帶環之外，應該還有另一批更靠近恆星、溫度更高的塵埃，溫度與大小對應太陽系中的環狀小行星帶。但當韋伯望遠鏡實際觀測後，卻發現與太陽系的環狀小行星帶相比，北落師門有著相當瀰散的內側殘屑盤。為什麼會有這樣的不同呢？目前天文學家也不清楚，仍待進一步研究。
+最後，在類古柏帶環與內側殘屑盤之間，還存在著一個半長軸約 104 AU 的「中間環」，在太陽系中則沒有對應的結構，這項新發現也需要進一步的研究來了解它的來源。
+此外，雖然北落師門 b 最終被證實並不是一顆行星，但這並不代表北落師門旁沒有行星環繞。最初，殘屑盤的形成原因是由小行星等天體不斷碰撞所產生，經過不斷地碰撞合併，其實就有可能已經產生直徑數百到數千公里的行星。從北落師門的殘屑盤還可以推論，在內側殘屑盤與中間環之間可能有一顆海王星質量以上的行星，它就像鏟雪車般清除軌道上的塵埃，從而產生「內側裂縫」（inner gap）的結構。
+另一方面，天文學家也藉由數值模擬發現，如果僅考慮來自北落師門的重力影響，類古柏帶環應該要比觀測到的更寬才對。因此他們推測，很可能在類古柏帶環內外兩側有兩顆行星，像控制羊群的牧羊犬一樣以自身的重力限制塵埃移動，才產生了這麼細的塵埃環。
+北落師門雖然是一顆年齡僅4.4億年的年輕恆星，卻已經是一個擁有殘屑盤、形成行星的成熟恆星系統。而來自韋伯望遠鏡的最新觀測結果，無疑讓天文學家更深入地認識殘屑盤中複雜的結構，也更令他們相信北落師門系統中有多個行星環繞。
+不過，北落師門系統仍舊有許多未解之謎。例如為什麼太陽系有著環狀的小行星帶，北落師門卻是瀰散的內側殘屑盤？在無數的恆星中，究竟是太陽系還是北落師門的殘屑盤構造比較常見？殘屑盤中是否有行星存在？如果有，在北落師門的演化歷史中又扮演著怎樣的角色呢？這些問題都有待更多的觀測與理論模擬來解答。
+在北落師門之後，觀測團隊預計將韋伯望遠鏡指向天琴座的織女星（α Lyr, Vega），以及位於波江座的天苑四（ε Eri），兩者都是離地球非常近且擁有殘屑盤的恆星。其中織女星的溫度與質量比北落師門更大，而天苑四的質量與溫度雖然比太陽小，卻有強烈的磁場活動。藉由觀測不同系統中殘屑盤的性質差異，並與太陽系進行對比，不僅能更加認識殘屑盤的起源、與行星的交互作用，更能理解我們自己的恆星系中，數百萬顆的太陽系小天體從何而來。
+JWST 原始資料的處理過程影片介紹，非常值得一看！</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>我們需要覆蓋率更高的網路！低軌道衛星通訊的好處在哪？臺灣有機會發展自己的「星鏈」嗎？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373545</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>要是海底電纜被截斷，馬斯克的星鏈又不幫忙？台灣會不會成為資訊孤島？
+近年 SpaceX 不斷發射 Starlink，看起來野心滿滿，多到都成為光害了。
+在烏俄戰爭爆發後，Starlink 為烏克蘭提供的不間斷網路服務，更讓全世界看見低軌道衛星通訊的重要性。
+通訊戰已經逐漸打到太空，台灣也不遑多讓。今年 11 月 12 日，鴻海與中央大學合作的兩枚低軌道通訊衛星珍珠號，以及成功大學與智探太空合作的立方衛星「IRIS-C2」已經成功升空，三顆衛星都已經取得了聯繫。台灣，也能很快擁有自己的星鏈嗎？我們還欠缺哪些關鍵技術呢？
+在全民都會上網的現代，我們的電腦網路依靠光纖等實體線路，手機、WIFI 通訊則仰賴周遭的基地台，因此只要手機離基地台太遠，就會收不到訊號。未來，這些問題低軌道通訊衛星都能解決。這些在天上快速移動的衛星，只要數量夠多，就能覆蓋整個地球表面。因此不論你是在遠離基地台的深山，甚至是高空中的飛機，都能透過通訊衛星來連線上網。
+除此之外，在 5G 通訊逐漸成熟的現在，下一代通訊技術 B5G 追求更快、更低延遲的數據傳輸，也會需要低軌通訊衛星來解決傳統基地台功率與覆蓋性不夠的問題。
+但因為人口密集、土地面積小，台灣現在的無線網路服務覆蓋率已經很高了。台灣需要擔心的另一個問題是對外的海底電纜斷裂，使我們與世界失去聯繫手段。
+除了要擔心戰爭爆發時敵人為了封鎖台灣消息，而主動破壞電纜以外。台灣周邊的電纜也常因為底拖網、抽砂船作業時被破壞，甚至天災都可能導致電纜被破壞。例如 2006 年恆春地震發生時，高屏海底峽谷就產生海底濁流，也就是海底的土石流。這股海底濁流一衝而下，破壞了呂宋海峽的數條電纜，不只影響了整個東亞以及東亞到美國、英國之間的通訊，包括許多跨國銀行交易。海底電纜斷裂的影響層面非常廣，2006 年恆春電纜斷裂事件發生後，還被聯合國國際減災策略署（ISDR）形容為「現代新型態災難」。
+不論海底電纜斷裂的原因會是什麼，我們都需要有充足的準備來應對，而低軌道通訊就是其中的首選。
+目前全球有在發展低軌道通訊的不只有 SpaceX 的 Starlink，其他還有 Amazon 的 Kuiper、加拿大的 Telesat 和由美國、歐洲、日本等企業投資的 EutelSat OneWeb 等等。
+當然，其中最受矚目的當然還是 Starlink，而且它的發展速度真的有夠誇張。Starlink 在 2020 年才開始在北美提供服務， 去年 4 月我們製作了一集節目在介紹 Starlink，當時就已經總共有 2,000 顆星鏈衛星被發射上太空，服務使用者有 25 萬人。到了今年 8 月，短短又 16 個月經過，在低軌道運行的衛星數量，從兩千顆增加到了 4500 顆，用戶人數從 25 萬人暴增到突破 200 萬人，這肯定是打了針或是吃了藥。當然，訂閱 Starlink 的服務可能需要考慮考慮，但訂閱泛科學頻道，請不要再考慮了，就在這邊，趕快按下去吧！ 然後別忘了，SpaceX 的野心，是在天上佈下總計 42000 顆的通訊衛星，大約是現在數量的再十倍，當這個目標達成時，我們的通訊手段可能將迎來天翻地覆的變化。
+你可能好奇，這些距離地面遙遠的通訊衛星，能提供多快的上網速度？會不會衛星通訊到頭來只是個噱頭？在光纖電纜的技術進步下，海底電纜的速度確實已經非常快，傳輸速度是低軌衛星的五千到十萬倍左右，這根本是阿烏拉對上芙莉蓮，只有被虐的份啊！
+世界越快心則慢，但網路越慢心更急。Starlink 到底夠不夠用呢？依照 Starlink 實際用戶的實測回饋，雖然星鏈服務的 Ping 值多落在 15~60ms 左右，下載約 100 Mbps，上傳約 15Mbps，但對於一般消費者來說已經算是能接受的了。尤其對於偏遠地區、研究站的通訊，又或是未來 B5G、6G 物聯網中，與大量自動駕駛汽車、智慧裝置的連動，通訊衛星都將成為可考慮的另類選擇。
+但如果我們未來不想只看馬斯克或是大公司的臉色，勢必需要發展屬於自己的通訊衛星。那麼，發展一顆通訊衛星，需要哪些技術呢？
+實際上，在低軌通訊衛星出現之前，我們早就有使用衛星進行通訊的經驗，例如衛星電視使用的廣播衛星。然而廣播衛星和低軌道衛星卻有著完全不同的設計邏輯，這是挑戰，也是機遇。
+廣播衛星位於地球同步軌道，距離地面約 4 萬 2 千公里，優點是距離地面遠，因此一顆衛星的覆蓋範圍極廣，只要三顆衛星就能覆蓋地球大部分地區。缺點就是距離地面真的太遠了，就算以光速傳遞訊息，來回 8 萬 4 千公里，就有 0.28 秒的延遲，想必沒有人希望用這種速度來上網。 而低軌道衛星，例如 Starlink，就將他們的衛星分布在距離地面 350 至 1500 公里之間，只有地球同步軌道的 120 分之一到 28 分之一的距離和訊號延遲。反過來說，低軌道的優點是延遲短，缺點就是覆蓋面積小，因此才需要那麼多的衛星來覆蓋整個地球。
+再來，在天線的設計上也完全不同。接收廣播衛星訊號的天線，就是我們暱稱為小耳朵的衛星碟形天線，通常設計成凹面鏡的樣子。根據光學原理，平行光入射凹面鏡後，會聚焦在焦點。也就是說，接收器不是圓盤本身，我們會將接收器放置在焦點來接受最強的訊號。除了小耳朵之外，大型電波望遠鏡的設計，也是出於同樣的原理。
+Starlink 的做法則不是這樣，因為用戶不只有接收訊息，還需要發送訊息。Starlink 的天線，是一個稱作 Dishy McFlatface 的小圓盤，只是後來變成方形了就是了。當你在自家屋頂或庭院設置了 Dishy，它內建的 GPS 會鎖定自己與附近 Starlink 衛星的位置，並且建立點對點的雙向資料傳輸。
+重點來了，要做到點對點的傳輸，代表這些電磁波訊號不能再是廣播衛星那種廣發的波狀訊號，而是要聚集到一條又窄、能量密度又高，如同雷射般的筆直路線上。
+有在看我們節目的泛糰肯定有印象，這是我們今年第三次提到這個技術了。沒錯，在無線獵能手環還有宇宙太陽能這兩集中，都有遇到需要遠距傳遞電磁波能量或訊號的情況。其實用到的技術都相同，那就是波束成型（Beamforming）。誒，我們都報明牌那麼明顯了，還不趕快找概念股，然後訂閱一下泛科學嗎？
+一般來說，電磁波都會如同水波般向外發散，波束成型會先把一個訊號源拆成數個小訊號源，將這些訊號源排成一排，並且控制大家的相位。在電磁波的互相干涉下，就會形成一條筆直前進的電磁波。你可以想像一群本來正各自單兵作戰的士兵，透過整隊與喊口號將大家都動作同步，那麼這些士兵就會一起筆直地朝一個方向前進。在比較舊的 Dishy 型號中，寬 55 公分的圓形接收器上，裡面共有 1280 個六角型，每個六角形裡面都是一個天線，這些天線在波束成型後，會構成一個筆直、能量又強的電磁波束，與天上的衛星展開通訊。
+咦？但衛星一直在動啊，難道天線也要一直追著衛星跑嗎？其實不用，我們只要對這群士兵下向左轉、向右轉的口令就好。例如我們喊向左轉，那只要左邊的士兵步伐放慢，右邊的士兵加快速度，就能完成轉向。同樣的道理，我們只要改變每個訊號源發出訊號的時機，改變每個波的相位，就能讓干涉出的訊號朝向特定角度，而不用機械式的移動天線本身。而能做到這種功能的天線，我們稱為相控陣列天線。
+知道了地面天線如何和低軌道通訊衛星取得聯繫後，還沒完。這些丟出去的指令，衛星收到了沒錯，但如果你想要連上網際網路，最終這些訊號還是要能連上有線網路。
+在星鏈 1.0 時，每顆 Starlink 衛星都是單獨運作，衛星在接收地面天線發出的訊號後，會傳遞到附近的地面接收站 Gateways，接著 Gateways 一樣會走光纖電纜的方式與網際網路連接，讓用戶得以上網。地面接收站一般設有 9 個雷達天線，每個直徑 2.86 公尺。衛星本體，例如 Starlink 2.0 上，則配有四個陣列天線，兩個用來與使用者相連，兩個連向地面接收站。
+然而，這樣的設計限制了 Starlink 的服務，因為這代表地面接收站與你的天線，必須同時在同一顆衛星的訊號範圍內。但是低軌衛星的覆蓋範圍又不大，一個地面站只能照顧方圓 800 公里內的用戶。因此如果你家附近沒有地面接收站，抱歉，你還是收不到訊號的。如果你在廣闊的大海上，就更不用想了。再來，就算 Starlink 提供全台灣的無線網路服務，但如果這個地面接收站就設置在台灣，那麼當台灣的對外海底電纜斷了，就一樣回天乏術，星鏈的設置可說是毫無價值。
+SpaceX 當然也想擺脫地面接收站的束縛，況且如果到了海上就收不到訊號，那可遠遠無法稱上「全球通訊」。因此到了 Starlink 2.0 時，衛星間通訊技術 LISL (Laser Inter Satellite Link) 全面安裝到了衛星上，藉由衛星間的通訊，取代海底電纜的作用，進行跨地區的通訊服務。你看，現在不只海底有資訊高速公路，在天上也出現了網路任意門。比起過去衛星間使用的無線電傳輸，使用 LISL 技術的衛星與衛星之間，用的是雷射。雷射傳訊不僅頻寬較寬，因為光在真空中的速度是最快的，比在光纖中還快。因此與海底電纜相比，傳輸速度反而有可能更快，衛星間的雷射通訊技術，也成為目前太空研究領域中非常重要的一環。
+在通訊研究中，除了硬體技術的革新外，另一個最大的問題是，如此龐大的星鏈星座網路該怎麼設計？如何選擇地面天線要與哪個衛星通訊？每個衛星該攜帶多少個雷射發射器與接收器？資料傳輸要經過幾個衛星，才不會因為過多的路由，造成網路延遲飆升。哇～諸如此類的網路設計難題，都是因應通訊衛星而生的新型態網路結構所需面對的課題。而當這些問題被解決，那麼 Starlink 將真正全面擺脫地面接收站，並且能向地球上任何一個角落提供不受限的網路服務。
+根據中央社報導，台灣和 SpaceX 從 2019 年開始就展開嘗試性商談，但至今仍未能談妥。今年 11 月 14 日，中華電信成功與另一家公司簽署了台灣低軌衛星的獨家代理合約。這間搶在 SpaceX 之前簽約的公司，就是前面也提到過的 Eutelsat OneWeb。相較於 SpaceX 已經發射升空的 Starlink 大約有 4500 顆，Eutelsat OneWeb 現在的低軌衛星數量大約有 600 顆。台灣的目標，則是在 2024 年底前，布建國內 700 個、國外 3 個非同步軌道衛星的終端設備站點、以及 70 個將資訊候傳的設備站點，建構能完整覆蓋全台的衛星通訊。
+除了與現有的低軌道通訊服務公司簽約外，在打造自製台版星鏈的道路上，也傳來令人振奮的消息，就在簽約的兩天前，11 月 12 日，由中央大學與鴻海科技集團共同研發的珍珠號 PEARL-1C 和 PEARL-1H，兩顆立方衛星升空，並且與地面取得聯繫。搭載的儀器除了中央大學的電離層探測儀之外，還包含了 Ka 頻段的通訊酬載以及剛剛介紹的相控陣列天線，希望能為台灣自製的低軌道衛星通訊打下基礎。
+國家太空中心則預計在 2026 年，將第一顆低軌通訊衛星送入太空，2028 年發射第 2 顆。希望能推動 B5G 的發展，並成為發展台版星鏈的敲門磚。
+目前台灣的太空領域，許多的技術都正在發展、測試階段。除了這集提到的相控陣列天線、衛星間通訊技術，還有這集還來不及提到的長時間航行的充電問題、姿態校正問題，甚至是未來自行發射衛星的所需要的火箭科技，都需要一步步來解決、實踐。而且根據太空中心估計，至少要擁有 120 顆低軌道通訊衛星，才能確保全台 24 小時的通訊都不間斷，要達成這個艱鉅的任務，我們還有好多路要走，好多衛星要升空。
+但千里之行，始於足下，千星之鏈，始於發射架。從福衛系列衛星到獵風者衛星，台灣的太空路線越來越鮮明，也讓人期待包括火箭、衛星到通訊技術的未來發展。
+這集我們以 Starlink 為例，詳細的介紹了低軌通訊衛星的重要性，以及需要面對的技術突破。
+也想問問大家，你覺得未來低軌通訊衛星，會如何改變網路市場呢？
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>暗能量是什麼？看不到也摸不著，我們該如何找到它？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373397</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>愛因斯坦對於宇宙的理解錯了嗎？
+愛因斯坦的廣義相對論重新改寫我們對於時間、空間、與質量的認知，也開啟我們對廣大宇宙研究的大門。
+在宇宙物理學如同大霹靂快速發展之時，我們也發現愛因斯坦最早提出的宇宙模型，可能並不完全正確。
+正確來說，我們發現我們過去對宇宙的理解，可能真的太少了。少到我們至今所觀測到的所有物質，可能仍不到整個宇宙組成的百分之五。並不是說這些能量或物質距離我們太過遙遠，而是他們可能就在附近，而我們卻全然不了解它。
+其中佔了將近宇宙組成七成的「暗能量」，到底是什麼來頭？我們能徹底了解它，同時能為我們宇宙的存在，提供一個正確的解釋模型嗎？又或者我們能掌握它，來改變宇宙的未來嗎？
+暗能量（dark energy）到底是什麼？這聽起來有夠中二的名字，難道是暗影大人的新能力嗎？
+其實暗能量的「暗」，指的是我們看不到也摸不到，用上各種波段的電磁波都察覺不到，甚至現今沒有任何儀器能偵測到它的存在。因為我們無法感受到它、不知道他們的型態，所以稱為暗能量。也就是說，如果暗影大人或是哪個最終 BOSS 的絕招是「暗能量波動」，當巨大的能量朝你襲來，不用擔心，站在原地就好，因為它只會穿過你的身體，打不中你的。同樣的，你可能聽過的「暗物質」，指的也是我們無法探知的未知物質。也就是說，暗物質並不是指某種特定物質叫做暗物質，任何我們現在還無法探測到的，都可能是暗物質的其中一種。題外話，近年某些暗物質面紗底下的容貌，已經逐漸能被我們窺見，例如微中子。這部分，之後我們介紹暗物質的節目中，再來好好討論，今天先來和大家聊聊佔了宇宙質能 7 成的暗能量。
+矛盾大對決來了，既然我們摸不到，也看不到，我們怎麼知道暗能量存在，還是僅存在我們的中二想像中呢？我們得將時間回推到最早認為宇宙中有未知能量存在的那個人，他不是別人，就是鼎鼎大名的愛因斯坦。
+1916 年愛因斯坦推導出廣義相對論，解釋物質和能量如何影響時空的彎曲和演化。愛因斯坦當時認為，宇宙應該是靜態的，但是若宇宙中只有物質，宇宙應該會受重力吸引而塌縮，因此需要與反向的能量來平衡重力，這股能量平均地存在在空間當中。愛因斯坦當時引入了宇宙常數 Λ 來平衡他的靜態宇宙模型，而直到非常近期的 1998 年，暗能量 (dark energy) 這個詞才由物理學家麥可．特納提出。
+在愛因斯坦之後，著名宇宙學家傅里德曼提出不同看法，他認為宇宙不一定是平衡的，也可能正在收縮或膨脹當中，並根據廣義相對論推導出 Fridemann 方程式，關於 Fridemann 方程式的故事，先前我們有好好介紹過。
+暗能量不只存在於理論上的預測，同時期天文學家開始發現我們熟知的銀河系，並無法代表整個宇宙，原來夜空中很多像星雲的天體，其實是遙遠的星系！宇宙遠比以前認為得大的太多了！1929 年，哈伯進一步發現，這些星系竟然正在遠離我們而去，而且距離我們愈遠的星系，遠離的速度就愈快！宇宙竟然真的是以地球為中心，而地球利用強大的排斥力，將其他星系用力向外推開嗎？當然不是，想像一下，宇宙就像一個葡萄乾麵包，上面布滿的葡萄乾就是各種天體，當麵包發酵膨脹時，不論站在哪顆葡萄乾的視角，所有天體的距離都是互相拉遠，而且距離愈遠的天體，彼此遠離的速度就愈快。
+也就是說，哈伯觀測到的結果顯示整個宇宙正在膨脹。但還有一個問題，就是這個宇宙的膨脹速度，是隨著時間經過越來越快的加速膨脹，還是膨脹速度正隨著時間在趨緩的減速膨脹呢？為什麼這個問題很重要？因為如果是減速膨脹，靠現有的重力理論就可以解釋，宇宙中天體所提供的重力，正在使宇宙減速膨脹，甚至宇宙的結局可能會是宇宙重新塌縮。但如果宇宙正在加速膨脹，那麼只考慮重力就不夠了，為了抵抗向內塌縮的重力，勢必要有一股力量要將宇宙向外加速推開。這時，就需要加入暗能量的存在了。
+為了確認宇宙正在減速或加速膨脹，好推算暗能量是否存在，科學家再次將目光投向宇宙深處。隨著觀測技術愈來愈進步，天文學家可以透過不同方式，觀測更早期的宇宙。
+愈遠的天體發出的光，需要經過愈長的時間才能傳到地球。假設我們觀察離地球1億光年遠的星球，由於我們看到的影像是從星球出發後，經過 1 億年後才到達地球，因此在望遠鏡中看到的，其實是該星球一億年前的樣子。只要利用這點，如果我們將望遠鏡頭對向更加遙遠的宇宙深處，就能看到更早期的宇宙樣貌，幫助我們了解宇宙過去的樣子。
+科學家主要透過三種方法，分別用來觀測晚期、中期、到早期的宇宙。第一種方法是觀測 Ia 型超新星爆炸，它指的是當一顆緻密白矮星到了生命末期，吸收大量鄰近伴星的氣體，使得內部重力超過某個極限，引發失控的核融合而形成的超新星爆炸。這個爆炸會在瞬間釋放出許多能量，亮度甚至可以媲美整個星系，因此即使是很遙遠的超新星也可以被地球觀測到。最受天文學家關注的是，因為每個 Ia 型超新星爆炸時產生的尖峰光度都相同，可以直接作為觀測或是亮度的比對參考點，又稱為標準燭光。當它離我們愈遠亮度就愈小，只要觀測亮度就可以得知它離我們的距離。
+接著，透過光譜分析，我們還能得到這個超新星遠離我的的速度。這就像是救護車在靠近和遠離我們的時候，警笛的聲音頻率會因為我們和救護車相對速度的改變而產生變化，同樣的道理放在電磁波上，當超新星遠離我們，電磁波頻譜的頻率會下降，我們稱為頻譜「紅移」。最後，只要我們同時觀測好幾顆超新星，並且量測每一顆的距離和遠離我們的速度，看看是不是真的離我們越遠的超新星離開的速度越快，就可以知道宇宙正在加速或是減速膨脹。
+第二種方法是觀測宇宙大尺度結構，宇宙中星系的分佈其實是不均勻的，有些地方有星系團，也有一些地方是孔洞，整個宇宙就像是網子一樣。這是因為宇宙在形成星系時，向內的重力以及向外的氣體與光壓力會彼此抗衡，就像我們在擠壓彈力球一樣，向內壓時內部壓力會增強，導致物質向外拋射，壓力減弱後又會停止拋射，這樣來回震盪的過程，就在宇宙中形成一個個震波漣漪，稱為重子聲學振盪（BAO，baryon acoustic oscillations）。有趣的是，當好幾個地方都在震盪，就會產生類似好幾個水波互相撞在一起的干涉現象。而這個宇宙規模的超大水波槽中，波腹部份聚集較多物質就會形成星系團，波節部份不足以形成星系就形成孔洞，是不是覺得我們的宇宙就像是一鍋湯，而我們只是裡面毫不起眼的一顆胡椒粒呢？不過即使是連一粒胡椒都不如的我們，透過觀測宇宙星系分布並透過理論計算，人類科學家還是可以得知這些結構的大小，並且推知這些結構上的星系距離我們多遠，最後再搭配紅移光譜，一樣可以算出宇宙膨脹的速度。今年七月升空，11 月 8 號從太空傳回第一張照片的歐幾里得太空望遠鏡，它的其中一項任務，就是專門觀測重子聲學振盪，來研究宇宙大尺度結構。歐幾里得太空望遠鏡有望帶給我們對宇宙的全新認知，關於這一部分，我們很快會再來深入介紹。
+第三種方法是透過觀測宇宙微波背景輻射，它是宇宙的第一道曙光，在此以前，宇宙能量很高，光和電漿相互作用，不會走直線。但是到了宇宙三十八萬歲時，宇宙已經冷卻到足以讓電子與原子核結合，宇宙終於變得乾淨了，光也終於可以走直線。而三十八萬歲時的早期宇宙的畫面，至今仍不斷經過遙遙 137 億年的時間抵達地球，被我們觀測到，稱為宇宙微波背景輻射。有趣的是，根據這些照片，我們能發現早在 137 億年前，宇宙各處就不是均勻的。透過分析這些微波的分布，科學家能計算出當時宇宙的組成成份。這時我們發現，目前的已知物質，也就是元素週期表上看得到的原子，只佔所有能量的 4.93%，而看不到的暗物質，佔 27.17%，那還有 67.9%，將近七成的組成分是什麼？科學家認為就是暗能量。
+哇！暗能量佔的比例這麼高？那我們未來有機會從空間中汲取無限的能量嗎？先不要想的這麼美，其實暗能量在宇宙中的密度很低，依照質能等價公式，質量跟能量是可以互相換算的。換算下來暗能量每立方公分只有 10 的負 24 次方公克，相比之下，水的密度是立方公分 1 公克！真的微乎其微。之所以暗能量在宇宙中佔的能量比這麼大，是因為它均勻的存在在廣大無垠的宇宙中，不像一般的物質，只集中在一些星系和星體中。
+現在我們知道暗能量存在，而且量也不少，但回到最關鍵問題，這些暗能量到底是怎麼來的呢？
+科學家普遍認為暗能量是來自「真空能量」，根據量子力學，我們過往認為的真空，其實會不斷短暫的出現粒子並消失。而這些量子漲落便會產生真空能量。雖然這聽起來很玄，但各位看完我們的影片並按下訂閱之後，這些訂閱數就一定會是真的。都看到影片最後一段了，就拜託大家再多動一下手指吧！
+而量子力學除了能在真空中產生真空能量以外，這個過程甚至可能幫助我們開啟蟲洞！關於真空能量與時空旅行的關係，可以參考我們的這一集哦（閃電俠）。
+為了重新認識我們的宇宙，科學家此時再次拿出了宇宙常數 Λ 和 Fridemann 方程式，建立了一個可以完美解釋前面三種觀測結果的模型－ΛCDM 模型。
+ΛCDM 是近代在解釋宇宙微波背景輻射、宇宙大爆炸時，最常被使用的理論。目前對於宇宙歷史與加速膨脹的圖像，也都基於此模型。
+不過 ΛCDM 理論仍有兩個致命的問題待解決。第一個是理論中的宇宙常數 Λ，應該要與位置、時間無關，是一個不隨時間變化的常數。然而針對觀測早期和晚期宇宙所計算出來的宇宙常數數值卻不一樣，要如何解釋這個觀測差異？第二個問題是，假設暗能量是真空中的量子漲落所造成，依此推算出的宇宙常數數值，還跟觀測差了 120 個數量級！也就是 10 後面有 120 個零，整個宇宙中的原子數量也才 82 個數量級而已！
+因此科學家也提出其他可能的暗物質理論。比如認為暗能量不是來自真空能量，而是由一種未知的粒子場所驅動，而這個場與時間有關，導致早期和晚期宇宙的觀測結果有差異。還有人認為根本沒有暗能量存在，宇宙會膨脹，是因為愛因斯坦的廣義相對論在宇宙學這種大尺度中是不適用的！就像牛頓的萬有引力公式在地球上管用，到了太陽系規模就會出現誤差。或許在宇宙規模還有比廣義相對論更完備的其他理論等待我們發現！另一派科學家也認為沒有暗能量，我們會看到加速膨脹，只是因為銀河系剛好位於宇宙大尺度結構的孔洞中，也就是葡萄乾麵包裡面空氣比較多，口感比較鬆的地方，由於這個地方總體重力比較小，天體也就是葡萄乾之間向外膨脹的速度比較快，但不代表整個葡萄乾麵包都在加速膨脹，宇宙加速膨脹只是局部觀測的假象。
+這些理論或許可以解釋部份的問題，但沒有一個能解釋所有觀測數據，而且由於觀測的限制，這些理論都缺乏數據的佐證。因此目前我們只能說，暗能量的效應確實存在，但我們還不知道它確切是什麼。
+有人可能想問，研究暗物質對我們真的那麼重要嗎？其實，它不只影響了宇宙過去演化的歷史，也影響著我們將來的命運。由於宇宙膨脹，物質的密度會因為膨脹被稀釋，但如果暗能量是常數，就代表密度不會改變，因此宇宙會膨脹的愈來愈快，導致遙遠的星系加速離我們遠去，最後暗能量會超過所有的基本作用力，包括重力、電磁力和核力，星系、太陽系、地球都將被拉開，甚至中子和質子都互相分離，使原子不復存在，進入大撕裂時期，也將是宇宙最孤獨的結局。不過這是一百多億年後的事情，在那之前地球會先被死去的太陽吞沒，我們應該要先煩惱的是要如何移民其他星球才是。
+最後總結一下，暗能量到底是什麼？很抱歉，經過了幾十年的努力，這個問題依舊是一個問號，但藉由宇宙學的研究，使我們更謙卑更加發覺自身的渺小，我們或許已經掌握許多物質運作的原理，也開發出許多高科技產品，但這些只是整個宇宙的 5% 仔，宇宙中還有許多未知等待我們去探索，而它深深關係到我們的過去和未來。
+最後也想問問大家，你覺得當一切真相大白之時，我們會發現暗能量是什麼呢？
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>太空提案創意不設限！2023 RunSpace 太空創新無限挑戰獲獎團隊專訪 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/371886</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">全新的太空時代已經揭開序幕，不同於上一次太空競賽時期，如今的太空發展不再是大國政府限定專利，隨者商業潛力的成長近年民間太空產業蓬勃發展，成為吸引創新思維和專業技能的重要領域。在太空產業充滿機會的新時代，RunSpace 太空創新無限挑戰也在去年正式開辦，為台灣太空新創注入能量！
+RunSpace 是經濟部產業發展署太空計畫的一環，是一項沒有參賽資格限制，不限專業領域背景，不論是學生還是社會人士都可以報名參加的太空提案競賽。參加者除了提案參與競賽之外，也會在主辦單位舉辦的 Space Bootcamp 訓練營中提升實力，並與其他團隊互相交流。
+邁入第二屆的 RunSpace，這次收到了比去年更多優秀且富有創意的提案。最終，三支團隊從決賽脫穎而出，冠軍與亞軍分別由「3Q」與「太空藥局」團隊奪得，而「Project Subsidium」則同時獲得季軍與企業最愛獎。
+電子紙是一種耗電極低且不需背光的顯示器技術，常見的應用包括電子書閱讀器、公車站牌到站資訊等等。但你有想過，這樣的技術居然也可以應用在太空中嗎？本次冠軍團隊「3Q」，提出名為「ASTRID」的可變色電子膠帶。利用電子墨水技術，它能像是烏賊的身體一樣根據環境改變顏色，調整衛星表面的吸熱放熱效率，從而實現衛星的智慧溫控。
+團隊負責人蘇惟思指出，衛星在太空中運行時，其中一面會受到高溫陽光照射，另一面又面向寒冷太空，同時內部的儀器自身也會產熱，因此唯有做好熱控系統，才能維持衛星運作，而散熱器（Radiator）正是衛星熱控系統中重要的一環。傳統上，衛星製造商往往要根據每個衛星的大小、運行軌道與內部儀器的需求，去設計出不一樣的散射器以滿足溫控需求。但若使用 ASTRID 電子膠帶，即可不用針對每個任務重新設計散熱器的形狀、大小與位置，而是透過改變散熱器表面的顏色，去滿足不同熱控需求，如此一來就能大幅降低衛星開發的時間與金錢成本。
+蘇惟思表示，ASTRID 技術的構想與測在他大學就讀太空工程系時就已經開始，今年初他以這項技術在美國成立新創公司 SQUID3 Space，目前也正積極的進行募資與尋找潛在客戶，這次參與 RunSpace 競賽獲獎，也對投資者來說有一些加分效果。
+最後，蘇惟思分享了寶貴經驗，為未來有志投身太空創新創的人提供建議。首先，他強調不要害怕在競賽中失利，或是被投資者、客戶回絕。去年他也有參與第一屆 RunSpace，而當時連前三名都沒有拿到，但不放棄繼續嘗試才有機會有好的成果。他還分享了曾有人告訴他：「如果創業期間，一週內沒有被客戶或投資者拒絕超過一次，就代表你不夠努力。」
+他也提到在創業過程中，許多工程師容易犯一個錯誤，即先開發產品，然後再尋找客戶。在做專題或研究時，開發自己想做的產品，解決自己有興趣的問題是可行的方向，但是在​​創業上不要只埋頭於自己的專案，而沒有先暸解市場的需求。
+冠軍得主3Q團隊，在展覽攤位上以遠距視訊的方式與參展者互動，介紹 ASTRID 的相關資訊。
+RunSpace 是太空主題的競賽，但這並不意味只有航太與工程背景的團隊才能參加。亞軍團隊「太空藥局」就是來自生技產業，他們提出名為「太空方舟」概念，希望未來只要攜帶簡易的裝置和材料，就能在太空中生產人類生存所需營養素與藥品，滿足長時間太空旅行的需求。
+團隊說明，太空方舟的構想是將人體所需的營養或藥物基因保存在經設計過的細胞中，並在需要時使用這些細胞來生產這些營養素與藥物。這樣一來，在資源與空間有限的太空旅行中，可以用很小的空間與循環資源實現永續生產，太空旅行所需的營養素將不再需要全都從地球發射升空，而是在太空船上實現自給自足。
+這次 RunSpace 的提案中，太空藥局以蝦紅素為例，團隊指出蝦紅素是天然超級抗氧化劑，對於太空中長時間逗留的太空人有助於抵抗輻射、保護皮膚、減緩老化和降低罹癌風險。目前傳統蝦紅素的取得方式主要仰賴捕撈磷蝦，或是透過大量土地面積養殖藻類取得，但這兩種方式都需要使用地球上的資源，無法在太空生產，而且也容易對生態造成破壞。
+因此，太空方舟成了理想的解決方案，既實現太空環境下永續生產，也提供一個耗費資源更少、更環保的生產方式。同時太空方舟的技術還可以用於保存重要的營養與藥物生產基因迴路，提供資源安全性的策略，應對氣候變遷和戰爭等風險。
+同時隊長也分享了團隊進入太空產業的想法，他指出太空旅行需在有限的空間與資源下，循環生產足夠人類長時間生存的物資，而台灣的環境其實也與太空旅行有相似之處。台灣沒有廣大的土地與豐富的天然資源，也因此太空方舟不僅是針對太空旅行的藥品、營養品的生產方案，也是未來台灣可以採用的永續生產方式。
+此外，團隊認為生物科技本來就是台灣的強項，非常有潛力可以應用在太空需求，且在太空產業中，生醫領域相對於火箭或是衛星領域還是個藍海，有很多商業與技術發展潛力，值得台灣投入。
+本屆季軍得主則是 Project Subsidium，團隊的兩位成員皆是台科大在學學生，並分別來自電機系與建築系。他們提出了名為 EVAid 的小型太空無人機，旨在成為太空漫步的萬能助手，協助太空人太空漫步的工作進行與活動紀錄拍攝。除了奪下季軍之外，這項提案也獲得了本屆中華電信企業最愛獎的肯定。
+Project Subsidium 團隊表示，這個特殊的團隊名稱取名靈感來自 NASA 的太空探索任務，因 NASA 多採用與任務內容或精神有關的一個英文單字為太空任務取名。團隊也笑著說，在斟酌要使用哪個英文單字後，他們覺得使用拉丁文感覺更酷更有趣一些，而＂subsidium＂則是拉丁文協助的意思，呼應 EVAid 太空無人機能提供太空漫步協助的目標。
+EVAid 外觀呈現四面體，每個端點裝有離子引擎，並在表面設有太陽能板。EVAid 的一大特色是模組化的設計，讓它可根據不同的需求，去設計不同模組安裝在擴充接點上。比如裝設攝影機、燈光、工具架甚至是機械手臂，滿足太空人艙外活動時拍攝、照明、放置工具的需求。由於其自帶推進器，因此 EVAid 也可以成為太空人的移動工具，或是接上太空站的艙體協助移動太空站組件。
+即便成員都不是航太背景，Project Subsidium 團隊認為，太空產業要深入可以非常專業，但在網路資源豐富的現代，一些涉及範圍比較廣的題目，只要有心其實也是每個人也都可以嘗試，也會有自己的專業派上用場的地方。例如在控制系統和無人機相關知識，就與電機系所學相關，而建築系的專長則在設計圖繪製會模型製作上派上了用場。
+團隊也分享了以學生身份參加 RunSpace 過程中遇到的一些小挑戰，像是在參賽過程中還是要顧及學校課程與考試，成果發表與頒獎的時間也很不巧的正好是期中考週。另外他們也提到，暑期團隊成員分隔兩地，也有遠距工作與溝通的問題需要克服。
+最後，Project Subsidium 團隊分享了這兩年參與 RunSpace 學到的寶貴經驗，他們表示不需要一次就試圖做規模龐大，想要＂Do Everythig＂的專案，而是要考量商業可行性。在類似 RunSpace 的競賽中，明確的目標和可行性分析至關重要。
+季軍得主 Project Subsidium 的作品 EVAid 模型展示，端點為離子引擎的噴嘴，中間的圓形處則是與其他模組相接的接點。
+2023 RunSpace 太空創新無限挑戰圓滿落幕，而下一屆的 RunSpace 預計將邀請更多國際上的太空科研單位與業界團隊加入策略夥伴，同時讓更多國際上的團隊報名參賽，共同推動太空創新，也讓 RunSpace 成為更加國際化，主題多元的太空盛事！
+</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>印度登陸月球熱門探測點——月球南極！那裡藏著什麼？為什麼各國爭先恐後？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/371464</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>你準備好要當月球移民了嗎？
+人類再次展開登月競賽，準備重返月球。
+今年八月二十三日，在全世界的矚目下，印度登月艇「月船三號 Chandrayaan-3」成功著陸於月球南極附近，展開為期半個月的科學探測任務，也成為人類史上第四個成功軟著陸於月球表面的國家！這更是 21 世紀以來除了中國嫦娥系列之外唯一的成功登月任務。
+這次的登陸地點選在月球南極附近。除了月船三號，未來印度與日本合作的月船四號，以及中國的嫦娥七號、嫦娥八號任務，甚至是 NASA 阿提米斯計畫的首次載人登陸，地點也選在月球南極。
+問題來了，月球南極到底有什麼樣的魔力，能讓世界各國如此趨之若鶩？是有挖不完的石油？數不清的黃金？還是外星人留下的秘密裝備？
+從人類的生存、家禽動物的飼養、到植物的灌溉，都脫離不了「水」這個在地球上再常見不過的物質。不僅如此，水電解之後得到的氧氣可以用於呼吸，氫氣則可以做為火箭引擎的燃料使用。想要讓人類走出地球，成為跨行星物種，確保充足的水源供給絕對是最核心的要務之一。
+然而，雖然地球上的液態水很多，但正由於我們對水的需求如此龐大，如果要把所有需要的水都從地面用火箭發射進太空，需要的成本將非常驚人。
+因此直接開採並使用本來就在太空中的水資源，才是合理且經濟的做法。沒錯，各國在將人類送上登月前，先將目光鎖定在了月球南極，關鍵就是要尋找「水」。
+如果月球上有水，不僅能幫助人類在月球建立起永久基地。月球，更將成為人類航向廣袤星海的第一片綠洲。
+可是，缺乏大氣保護、日夜溫差超過兩百度的月球表面，真的會有水存在嗎？
+由於缺乏大氣層，液態水在月球上要嘛會因為蒸發而散逸，要嘛會因為低溫結成水冰，很難以液態穩定存在。而即使是固態的水冰，也會在炙烈的陽光下昇華，因此月球表面的大部分地方是幾乎沒有水的。
+但大家可以想像一下，月球的公轉軌道與地球繞太陽公轉的黃道面幾乎平行，夾角只有 5.145°。也就是說，月球不論在哪個位置，陽光總是直射在月球赤道附近。如果此時月球的南極點剛好有個向下凹陷，而且足夠大、足夠深的隕石坑，那麼在隕石坑之中的陰影區，就永遠不會照射到陽光。
+這些地方被稱為「永久陰影區 Permanently Shadowed Areas」。由於不會受到陽光照射，因此永久陰影區附近的水冰，能夠持續存在數十億年的時間。
+但是，雖然有「保存」水冰的條件，關鍵是永久陰影區中真的有水冰存在嗎？如果有，含量又有多少呢？這時，各國的探月任務就接手上場了。
+這些探月任務可不是一時興起，因為過去「月球上沒有水」的印象可是深植人心。直到 1990 年代開始，科學家才陸陸續續從越來越多月球探測器的資料中，發現水可能存在的蛛絲馬跡。
+其中一次重大的進展發生在 2009 年。當時，NASA 使用擎天神五號火箭，同時發射了「月球勘測軌道飛行器 LRO」以及「月球坑觀測和感測衛星 LCROSS」兩個探測器。前者是一顆繞月衛星，後者則是一個撞擊用探測器。
+在發射升空之後，NASA 首先讓 LRO 與火箭分離，並進入月球軌道。接著，還連在火箭第二節上的 LCROSS，則跟著第二節火箭一起朝著月球南極的永久陰影區之一——卡比厄斯環形山飛去。在撞擊前數小時，LCROSS 與第二節分離，並讓第二節火箭以每秒 2.5 公里的高速，直直撞入永久陰影區，激起大量的月表物質。LCROSS 則直直飛入其中，檢測其中的物質成分。並在六分鐘後，同樣撞擊於月球表面。但就在這短短的六分鐘的犧牲打中，LCROSS 收集到的資料向科學家展示了，月球南極的永久陰影區中不僅確定有水冰的存在，更有汞、鎂、鈣、銀、鈉等其他諸多有用的物質資源。
+有了 LCROSS 的資料，再加上其他月球探測器，像是克萊門汀號、月船一號、LRO 等等，提供各種遙測資料，人類終於能掌握月球表面有水存在的證據。
+時間回到現在，月球表面－尤其是月球極區的永久陰影區中，有水冰的存在已經是科學家的共識。但是這些水冰具體有多少，能否支撐人類在月球極區建立太空基地呢？這就只能實際派出登陸艇前往一探究竟了。
+可惜的是，8 月 23 日成功在月球上著陸的月船 3 號和攜帶的月球車 Pragyan，在 9 月 2 號和 4 號就入休眠，推測可能是因為無法承受極低溫環境，至今還未能重新喚醒。
+在未來兩年的月球極區無人探測任務中，NASA 的 VIPER 任務可以說是最值得期待的另一項任務。VIPER 全名為月極揮發物調查漫遊車，是 NASA 有史以來第一台「無人月球車」，同時也是 NASA「商業月球載酬服務 CLPS」系列任務的一員。CLPS 和過去的太空任務不同，是由 NASA 提供科研載酬，由商業公司提供載酬的發射、巡航、著陸等服務。本次 VIPER 任務選定的商業夥伴是美國的 Astrobotic Technology 公司，VIPER 探測車將會乘坐該公司的 GRIFFIN 登陸器降落在月球南極，透過各種儀器勘查月球極區揮發份的組成與分布。
+這台重 430 公斤，體積與高爾夫球車相當的 VIPER ，身上塞有四個主要儀器。
+首先是中子光譜儀，它會藉由量測月球表面中子輻射的能量分布，了解地底下氫原子的分布狀況，從而推測水冰的含量。
+第二，近紅外光揮發份光譜儀，它會以近紅外光燈照射月表，並從揮發份的光譜分析它的化學組成，同時也能判斷水是以結晶、非晶質的冰，或是氫氧根離子的形式存在。
+第三，質譜儀，能藉由電場分離不同荷質比的物質。除了能知道月表有哪些元素以外，還能分辨氘與氫、氧-18 與氧-16 等不同同位素的含量，對分析水的來源至關重要。
+第四個儀器名為 TRIDENT（The Regolith and Ice Drill for Exploring New Terrain），縮寫很酷，名字很長，但簡單來說就是一個裝有溫度計的鑽頭。可以從月面下一公尺處鑽取一段十公分長的岩芯，為前面幾個儀器提供樣品。
+除了這些科研儀器以外，VIPER 上還有一對立體視覺攝影機，能夠拍攝具有距離感的照片，為探測車的導航提供參考。
+有了 VIPER，NASA 還必須想好要把珍貴的探測車派到何處進行調查，才能盡可能發揮他的潛能。除了理所當然地要放在可能有水的地方之外，地表的起伏與材質也有要求，比如太陡峭的山壁顯然就不是個好選擇。同時探測的地點，還必須可以和地球建立通訊。
+更重要的是，由於 VIPER 是太陽能驅動的探測車，探測地點不可以長時間缺乏日光，否則探測車會不僅會因為缺乏電力，還會因為長時間處於酷寒環境中而壞掉。進入休眠的月船三號，就是因為設計上就沒有為度過月球寒夜做準備，因此任務的極限時間一開始就限制在兩週左右。綜合以上條件，科學家選定了月球南極 Nobile 隕石坑西方的高地作為 VIPER 任務的地點。這裡雖然不是嚴格意義上的永久陰影區，但是滿足有日照，且時間足夠短到允許地底下有水冰的存在。
+為了有充分的時間進行探索，VIPER 設計時就有考慮探測器的電力與保溫，可以透過三個休眠時期度過月球的夜晚，執行至少一百天的任務。在這一百天中，VIPER 將會調查隕石坑周圍，了解到底有多少水冰和二氧化碳、二氧化硫等揮發物，為將來的登月計畫鋪路！
+要前往其他星球甚至離開太陽系，比起地球，擁有較低重力的月球，一直被認為是人類出發太空的前線基地。人類想要成為跨行星物種，水則是絕對不可或缺的關鍵資源。而經過數十年的研究，科學家終於在月球發現可能蘊藏大量水冰資源的地方。我們離移民月球或其他行星，又更靠近了一步。
+就讓我們一起期待這些探測器們，幫助我們揭開月球南極的神秘面紗吧。
+跟大家說個小趣聞，月船三號著陸之後，印度為了慶祝任務成功而將月船三號的登陸點命名為「濕婆神之力 Shiv Shakti」。那如果今天是你的探測器成功登月了，你會想幫登陸地點取什麼名字呢？留言與大家分享吧！
+最後也想問問大家，如果人類真的確保水源，並在月球南極建立起了月球永久基地，你會想移民過去嗎？
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>原住民祖先見過明亮的南方之星？傳說是真的，而且超過一萬年！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/370161</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>有些故事代代相傳之下，經歷非常漫長的時光。過去很久以後，五百年、三千年或一萬年，都已經是「很久很久以前」，難以判斷到底多久。2023 年發表的一項研究認為，澳洲南方的塔斯馬尼亞島，有個故事似乎能追溯到超過一萬年前。
+大英帝國的調查隊抵達塔斯馬尼亞初期，估計島上約六千到八千位居民；原住民們統稱為「palawa」，不過又能分成多個有所區別的族群。英國人在公元 1803 年建立第一個殖民地，然後，不意外地起爭議。
+走訪塔斯馬尼亞各地，留下許多紀錄的英國人魯賓遜先生（George Augustus Robinson）。圖／參考資料3
+殖民者與原住民的衝突加劇後，1823 到 1832 年間導致約兩百位殖民者及九百位原住民身亡。有些英國人希望能和平解決問題，最終勸誘加上強迫，1829 到 1835 年間將島上的原住民，都成功遷移到位於塔斯馬尼亞和澳洲之間，巴斯海峽的弗林德斯島（Flinders）。
+英國人認為這是一次「友善」的轉移任務。以當時狀況而言，確實算是相對和平的收場，但是慘遭強制搬遷的原住民依然損失慘重，人口以外，他們脫離原本的家園「Lutruwita」，文化、語言幾乎喪失殆盡。
+遷徙計畫中，英國人魯賓遜先生（George Augustus Robinson）可謂關鍵角色。他走訪塔斯馬尼亞各地，說服原住民搬家，也對當地風俗文化非常好奇，留下大量紀錄。
+這些 1830 年代的紀錄，就像塔斯馬尼亞傳統文化的切片。後來有些原住民重返塔斯馬尼亞，試圖擺脫殖民時，英國殖民者當初搜集原汁原味的資料，也成為重建傳統的材料之一。
+魯賓遜等人搜集的紀錄來自多位原住民的說法，其中一個故事相當費解，至少當年魯賓遜無法理解，新問世的論文總算揭開奧秘。
+祖先的遷徙故事，提到他們來自一片大陸；後來大陸被海水淹沒，當時岸邊附近有冰山漂浮。那時望向南方的天空，可以見到一顆很亮的星。
+塔斯馬尼亞與澳洲之間的地形。兩地之間原本存在陸橋，海水上升後形成巴斯海峽。圖／參考資料1
+塔斯馬尼亞原住民一代一代仰望星空，也建立一些自己的天文學知識，被魯賓遜忠實收錄。那顆南方大星星卻令人費解，因為星空中根本沒有符合描述的那顆星。最可能的對象是老人星（Canopus），也稱為船底座α（α Carinae）。
+星空中最亮的是天狼星，第二就是老人星，顯然它非常顯眼，可是位置明顯有差。是原住民唬爛，還是魯賓遜唬爛，或是魯賓遜紀錄錯誤呢？新的分析指出，他們都是正確的，因為一萬兩千年前的星空，老人星確實處於故事中的那個位置。
+首先，故事提到祖先前來的道路被大海淹沒，冰山在岸邊漂浮。對照現代科學知識，能輕易推論這講的是冰河時期結束，海平面上升，淹沒澳洲與塔斯馬尼亞之間的陸橋，形成巴斯海峽，讓塔斯馬尼亞成為一個四面環海的島。
+接著是星空為什麼不同？從地球表面仰望夜空，星星的分布位置會由於「歲差」緩慢改變。回溯調整成一萬多年前的星空，老人星的確就在那兒。
+地表很多位置都能見到南方明亮的老人星，不同民族、文化各有自己的想像。台灣人即使沒有親眼注意過，也肯定知道老人星，因為這就是福祿壽中的「壽星」，形象化叫作南極仙翁。
+有趣的是，中文名字叫老人星，英文名字 Canopus 則來自特洛伊戰爭傳說中的一位年輕人，他是航海家，後來不幸在埃及被毒蛇咬死……所以中國想像這顆星是老人，歐洲卻想像是年輕小夥。
+回溯塔斯馬尼亞 1831 年 8 月 1 日，凌晨 5 點時的星空。圖／參考資料1
+考慮到魯賓遜紀錄的日期是 1830 年代，更加深故事的真實感，因為當時英國人還不知道「冰河時期結束導致海面上升」。阿加西（Louis Agassiz）首度宣稱冰川歷史的想法要等到 1837 年，更多年後取得較多支持，十九世紀後期才廣為人知。
+魯賓遜等歐洲人對聽到的故事內容難以理解，他們或許會聯想到聖經的大洪水，但是完全想像不到冰河時期。所以這些內容，大概更能免於印象或偏好影響，反映忠實的紀錄。
+據此推敲，塔斯馬尼亞祖傳故事講的是：「大約 1.2 萬年前海水上升之際，明亮的老人星在那個位置」。如果推論正確，這便是傳承 1.2 萬年的口述歷史，堪稱全人類罕見的文化遺產。
+有人或許會好奇，一些研究認為早在四萬年前，已經有人穿過澳洲，抵達塔斯馬尼亞。可是島上原住民的祖先故事，卻是一萬多年前？
+我想可能是因為，記憶對於愈久遠的事情常常會愈壓縮，把更早發生的事情疊加到比較近期，印象很深的事件中。或許原住民的祖先很早就過去，但是海水上升淹沒陸橋令人印象太過深刻，就變成故事的素材。
+另一件啟示是，世界上不知道的事情太多了，當你不太理解聽到什麼的時候，不要試著腦補，就照聽到的忠實紀錄下來！
+本文亦刊載於作者部落格《盲眼的尼安德塔石匠》暨其 facebook 同名專頁。</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>諦聽宇宙深處的低吟，宇宙低頻重力波訊號代表的意義——《科學月刊》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/370846</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2015 年 9 月，位於美國的雷射干涉儀重力波天文臺（Laser Interferometer Gravitational-Wave Observatory, LIGO）成功偵測來自雙黑洞碰撞的重力波訊號（請見延伸閱讀 1）。
+這個發現不僅再次驗證愛因斯坦（Albert Einstein）「廣義相對論」的成功，更引領人類進入嶄新的重力波天文學時代。到了現在，我們不僅能使用各種電磁波波段進行觀測，還多了重力波這個強而有力的工具能夠窺探我們身處的宇宙，甚至還有同時結合兩者的多信使天文學（multi-messenger astronomy）註1，皆能帶給人類許多單純電磁波波段觀測無法觸及的資訊（請見延伸閱讀 2）。
+如同不同波段的電磁波觀測結果為我們捎來不同的訊息，重力波也有不同的頻譜，且頻譜與產生重力波的波源性質有非常密切的關係。以雙黑洞碰撞為例，系統中黑洞的質量與碰撞過程中發出的重力波頻率大致上成反比，因此當系統中黑洞的質量愈大，它產生的重力波頻率就愈低。
+目前地球上的三個重力波天文臺：LIGO、處女座重力波團隊（The Virgo Collaboration, Virgo），以及神岡重力波探測器（Kamioka Gravitational wave detector, KAGRA, or Large-scale Cryogenic Gravitational wave Telescope, LCGT）都受限於干涉儀的長度，只對頻率範圍 10～1000 赫茲（Hz）的重力波有足夠的靈敏度，此範圍的重力波對應到的波源即是一般恆星質量大小的雙黑洞系統。
+然而，來自超大質量黑洞互繞所發出的重力波頻率幾乎是奈赫茲（Nano Hertz，即 10-9 Hz）級別，如果想要探測到此重力波，就需要一個「星系」規模的重力波探測器。雖然這聽起來彷彿天方夜譚，但就在今年 6 月，北美奈赫茲重力波天文臺（North American Nanohertz Observatory for Gravitational Waves, NANOGrav）的團隊利用「脈衝星計時陣列」（pulsar timing array, PTA）成功地觀測到這些低頻重力波存在的證據。
+讀者聽過脈衝星（pulsar）嗎？它是一種高速旋轉且高度磁化的中子星（neutron star）註2，會從磁極放出電磁波。隨著脈衝星的旋轉，它的電磁波會以非常規律的時間間隔掃過地球，因而被身處於地球上的我們偵測到，就像是海邊的燈塔所發出的光，會規律地掃過地平面一般。由於脈衝星的旋轉模式相當穩定，掃過地球的脈衝就如同宇宙中天然的時鐘，因此在天文學上有相當多的應用——甚至可以用來觀測重力波。
+利用脈衝星觀測重力波的第一步，首先要記錄各個脈衝星的電磁脈衝到達地球的時間（time of arrival），並且將這些訊號與脈衝星電磁脈衝的理論模型做比對。
+如果訊號和理論模型相符，那麼兩者相減後所得到的訊號差（residual）只會剩下一堆雜訊；相反的，如果宇宙中存在著重力波，並且扭曲了該脈衝星和地球之間的時空，那麼兩訊號相減之後就不會只有雜訊，而會出現時空擾動的蹤跡。
+然而以觀測的角度來看，即便我們從來自單一脈衝星的訊號中發現訊號差出現偏離雜訊的跡象，也不能直接推論這些跡象一定是來自重力波。畢竟科學家對脈衝星的內部機制和脈衝傳遞的過程也並未完全了解，這些未知的機制都可能會使單一脈衝星的訊號差偏離雜訊。
+因此為了要判斷重力波是否存在，就必須進行更進一步的觀測：利用數個脈衝星組成脈衝星陣列，測量每個脈衝星訊號到達的時間，並且計算這些不同脈衝星訊號的到達時間是否存在某種相關性。
+舉例來說，如果脈衝星和地球之間沒有重力波造成的時空擾動，那麼即便每顆脈衝星的訊號差都出現偏離雜訊的跡象，彼此之間的訊號也會完全獨立且不相干；反之，如果脈衝星和地球之間有重力波經過，這些重力波便會扭曲時空，不僅會改變這些脈衝訊號的到達時間，且不同脈衝星訊號到達的時間變化也會具有某種特定的相關性。
+根據廣義相對論的計算，一旦有重力波經過，不同脈衝星訊號之間的相關性與脈衝星在天球上的夾角會滿足一條特定的曲線，稱為 HD 曲線（Hellings-Downs curve）。
+科學家以兩顆脈衝星為一組觀測單位，藉由觀測多組脈衝星的訊號、計算它們之間的相關性，再比較這些數據是否符合 HD 曲線，就能夠進一步推斷低頻重力波是否存在。值得一提的是，由於重力波訊號非常微弱，用來作為陣列的脈衝星必須有非常穩定的計時條件，因此一般會選擇自轉週期在毫秒（ms）級別的毫秒脈衝星作為觀測對象。
+NANOGrav 在今年 6 月發布的觀測結果就是利用位於波多黎各的阿雷西博天文台（Arecibo Observatory，已於 2020 年因結構老舊而退役）、美國的綠堤望遠鏡（Robert C. Byrd Green Bank Telescope）和甚大天線陣（Very Large Array, VLA）觀測 68 顆毫秒脈衝星。
+他們分析了長達 15 年的觀測數據後，發現這些脈衝星訊號的相關性與 HD 曲線相當吻合，證實了低頻重力波確實存在於我們的宇宙中。
+除了 NANOGrav，其他團隊例如歐洲的脈衝星計時陣列（European Pulsar Timing Array, EPTA）、澳洲的帕克斯脈衝星計時陣列（Parkes Pulsar Timing Array, PPTA）、印度的脈衝星定時陣列（Indian Pulsar Timing Array, InPTA），以及中國的脈衝星計時陣列（Chinese Pulsar Timing Array, CPTA）等，皆得到相符的結果。
+與先前 LIGO 觀測到的瞬時重力波訊號不同，目前利用 PTA 得到的重力波訊號是相當持續的，而且並沒有較明確的單一波源，反而像是由來自四面八方數個波源組成的隨機背景訊號。
+打個比方，LIGO 收到的重力波訊號像是我們站在海邊，迎面而來一波一波分明的海浪，每一波海浪分別對應到不同黑洞碰撞事件所發出的重力波；而 PTA 的訊號則是位於大海正中央，感受到隨機且不規則的海面起伏。
+目前對這些奈赫茲級別的重力波訊號最合理也最自然的解釋，是來自多個超大質量雙黑洞系統互繞而產生的疊加背景。若真是如此，那這項發現將對天文學產生重大的意義。
+過去科學界對於如此巨大的雙黑洞系統能否在可觀測宇宙（observable universe）的時間內互繞仍普遍存疑，如果PTA觀測到的重力波真的來自超大質量雙黑洞互繞，那代表這類系統不僅存在，它們的出現還比過去我們預期的更為頻繁，且產生的訊號也更強。
+不過除了雙黑洞系統，也有其他「相對新奇」的物理機制也可能產生這樣的重力波背景，包含早期宇宙的相變、暗物質，以及其他非標準模型的物理等。若要從觀測的角度去區分這些成因，最重要的關鍵在於，能否從隨機背景中找到特定的波源方向。
+如果是雙黑洞系統造成的重力波，勢必會有來自某些方向的訊號比較強；反之，如果是早期宇宙產生的重力波，那麼這些重力波將會隨著宇宙的膨脹瀰漫在整個宇宙中，因此它們勢必是相當均向的。
+為了找到波源方向，提升訊號的靈敏度成為了當務之急。而若要提升 PTA 的靈敏度，最主要的方式有兩種——其一是將更多的脈衝星加入陣列；其二則是延長觀測的時間。
+目前，不同的 PTA 團隊已經組成國際脈衝星計時陣列（International PTA）互相分享彼此的脈衝星觀測資料。隨著觀測技術的進步，解密這些奈赫茲級別的神祕重力波將指日可待。</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>臺灣南部的特殊陣頭？化妝遊行變成消災解厄的行動神靈？由數名神童組成的百足真人？蜈蚣陣的前世今生——專訪中研院臺灣史研究所謝國興研究員 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375164</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>本文轉載自中央研究院「研之有物」，為「中研院廣告」
+臺灣一年到頭有許多熱鬧的遶境活動，在臺南曾文溪流域流傳一種可愛又傳奇的「蜈蚣陣」，在看不到盡頭的閣枰上，坐著一個個身著華袍、臉帶妝容的孩童，長長的隊伍在村莊或廟宇之間繞行。這種特殊的陣頭究竟從何而來？中央研究院「研之有物」專訪院內臺灣史研究所謝國興研究員，帶我們認識蜈蚣陣的由來，並分享多個別具特色的蜈蚣陣，感受民間信仰與地方文化融合的魅力！
+今日的曾文溪在艷陽照耀下顯得水光瀲灩、整治有度，沙洲上的菅芒迎風搖曳，溪上橫跨著西港大橋，在晴空中跨出一彎弧線。
+以西港大橋為起點，沿著臺 19 線驅車北上，會先後經過西港、佳里、學甲，三座市鎮分別擁護著三個信仰中心：西港慶安宮、佳里金唐殿與學甲慈濟宮。這些曾文溪下游的廟宇，多數每隔三年會舉辦一次大遶境（慈濟宮則是每四年一次），稱為「刈香」或「香科」。
+刈香的最大看點無非是精彩的陣頭，多半由境內各庄自組而成，傳承久遠、訓練有素。例如慶安宮的西港刈香，據說從 240 年前的乾隆年間就開始舉辦，2024 年適逢甲辰香科，若在初夏時節造訪，可見到文武陣頭輪番登場，宋江陣、八家將、大鼓花陣、牛犁歌陣、天子門生……，從大場面到小細節，全是當地人的用心經營。
+眾多陣頭中，很難不注意到一種名為「蜈蚣陣」的陣容。裝飾蜈蚣頭尾的隊伍從遠處浩蕩而來，待到走近後發現，實為一節節綿延不絕的閣枰，每節枰上都坐有孩童，各個身著華袍、臉帶妝容，扮演不同的歷史人物或傳奇角色。
+在天真的年紀，有些孩子享受自如、有些坐得難耐、有些早已睡得東倒西歪。如果他們記得的話，會朝群眾丟出一把平安糖，眾人會爭相接住這份可愛的祝福。
+蜈蚣陣貌似歡愉可愛，其實擔任蜈蚣神童和身為神童家長是非常累人的苦差事。刈香期間半夜兩、三點就得起床化妝，趕在清晨五、六點出陣。家長們還得隨侍在側、幫忙推動車架。幾百人每天繞境超過 12 小時，有時頂著豔陽、有時冒著風雨，回到自家廟宇往往已是深夜，沒休息幾個小時，隔天又得繼續同樣行程。
+即便過程辛苦，家長們依舊熱衷參與，每當廟方公開徵求神童，往往引發報名盛況，常遇到一個角色有多人競爭，還要透過擲筊來決定人選。據信神童能得到神明保佑、平安長大；蜈蚣陣也是世代傳承的記憶，許多家長小時被父母抱上蜈蚣陣，現在為人父母，也想將這份傳統延續下去。
+此外，民眾普遍相信，蜈蚣陣是個巨大的行動神靈，擁有消災解厄的強大能力。例如西港的蜈蚣陣擁有「百足真人」的封號、學甲的則稱為「蜈蚣公」，刈香遶境時，民眾見其停駕休息會來「鑽蜈蚣腳」，有些途中的民家會臨街祭拜，希望替全家求個平安。
+究竟蜈蚣陣這種特殊的陣頭是從何而來？為何在臺灣南部鄉鎮受到熱烈擁護，在其他地方卻不見蹤影？中研院臺灣史研究所謝國興研究員在兩岸田野調查十多個年頭，研究民間信仰的流變與傳承，與我們侃侃而談蜈蚣陣的由來。
+根據謝國興的研究，蜈蚣陣的前身「藝閣」源自九龍江出海口的漳州與廈門地區，在清領臺灣時期，由漢人移民將純粹鬥熱鬧的廟會藝閣文化引進臺灣，經過數代傳承、與地方風俗結合後，發展出今日具宗教意涵的蜈蚣陣。
+早在明代陳懋仁的《泉南雜志》就有記載，泉州地區自古有「以姣童妝扮故事」的廟會遊行，大人們「以方丈木板搭成檯案，索綯綺繪，週翼扶欄，置几于中，加幔於上」，孩童們就身處華麗的閣枰之上由人扛抬遊行。
+此外，清末民初李禧的《紫燕金魚室筆記》描寫廈門地區的廟會，也提到一種名為「蜈蚣棚」的藝閣：「蜈蚣棚者，搭木條如橋狀，木條相接處鑿圓孔，中貫以軸，木條能轉折自如，軸長數尺，以壯夫撐于肩上，棚長一二丈不等，棚上以童男女扮故事，龍頭鳳尾，遊行道上，活動如蜈蚣，故俗以是名之。」
+文中的蜈蚣棚看似與曾文溪的蜈蚣陣相近，但在外觀上以「龍頭鳳尾」裝飾，應是從舞龍陣演變而來。之所以名為「蜈蚣棚」主要是因為抬推閣枰的人數眾多，從遠處望去宛如蜈蚣百足。
+時至今日，漳州與廈門地區依然可見到類似隊伍，現今普遍稱為「蜈蚣閣」，幾乎都是龍頭龍尾、還有持龍珠的人作前導。其中最具代表性的當屬 2011 年入選中國非物質文化遺產的「廈門海滄蜈蚣閣」，藝閣上特別以彩綢裝飾三層小亭閣，雕琢精巧、華麗繁複，可說將藝閣的特色發揮到極致。
+蜈蚣閣剛傳入臺灣是何種樣貌？清領時期少有文獻可供查考，日治時期的報紙則可看到蜈蚣閣在民間廟會、神社慶典、官方典禮中上演，地點遍布艋舺、大稻埕、宜蘭、新竹、彰化、嘉義等地。
+然而，藝閣歸藝閣，今日臺灣南部這些有神靈附體、蜈蚣頭尾的蜈蚣陣，又是怎麼來的？謝國興認為祂們都源自一個古老的傳說。
+西漢成書的《淮南子》這麼介紹蜈蚣：「其性能制蛇，忽見大蛇，便緣而啖其腦。」古人普遍視蜈蚣為蛇的剋星，臺灣早期的漢人移民也有此認知，想到用蜈蚣陣剋制某種如蛇的天災。
+1930 年代曾文溪整治以前，經年泛濫成災，還不時改道沖毀村里，雖然帶來肥沃的沖積平原，但百姓的田宅家屋常毀於一旦。當地人形容曾文溪就像一尾「青盲蛇」（又稱「青暝蛇」）般胡亂流竄，更傳聞有蛇精在溪中作怪。
+在「蜈蚣剋蛇」的認知下，鄉人逐漸把「蜈蚣閣」轉化成代表神靈的「蜈蚣陣」，祈求祂能對治造成溪水氾濫的蛇精。
+原為增添廟會熱鬧的蜈蚣閣，變成具有宗教儀式的蜈蚣陣後，重點轉為對蜈蚣的神性想像，不僅簡化了閣枰上繁複的裝飾，原來的龍頭龍尾也大多改成蜈蚣頭尾，更加體現蜈蚣意象。
+蜈蚣神靈一開始在何時、何庄、何廟現蹤已難以溯源，但可以確定的是，一旦有地方開始運用宗教儀節，就會吸引其他地方跟進，到了日治後期，臺灣多地的蜈蚣閣已有明顯的神靈化特徵。
+當前的曾文溪雖已整治完畢，但蜈蚣陣早已內化成臺灣百姓的文化記憶，在青盲蛇曾肆虐的土地上，祂還繼續行進。根據謝國興的考察，近二十年間尚在出陣的蜈蚣陣約有十陣，多數集中在臺南曾文溪流域、鹽水溪流域，以及臺南、高雄交界的二層行溪下游村莊。
+其中歷史最久遠的，當屬西港刈香的蜈蚣陣，已世代流傳兩世紀之久。大約一百多年前（1914 年前後）曾文溪改道，原來負責籌組蜈蚣陣的庄頭蚵壳港，遭到洪水沖毀，居民遷居到現今曾文溪南岸的公塭和溪埔寮等地。
+雖受水災重創，但眼見「西港香」即將到來，兩庄居民排除萬難，大夥架起閣枰、父母帶上孩童，再次扛起蜈蚣陣行走西港。此後每三年一科延續至今，按時出陣已成為當地人的驕傲。
+西港蜈蚣陣的最大特色是世襲制的蜈蚣神童，不同於其他廟方公開徵求，西港蜈蚣神童的角色與位置都是由各家傳承下來。
+每次香科一到，家族中的適齡孩童就會著裝上陣，許多小小冠帽和袍服已流傳數代人，穿戴在神童身上時常勾起全家人的兒時回憶。
+西港蜈蚣陣還有一項特殊人設，祂是玉皇大帝赦封的「百足真人」，每次出陣前都由公塭萬安宮的主神為蜈蚣頭尾開光，恭請百足真人入靈，接著前往西港慶安宮參加刈香前的開館儀式。
+其他陣頭（如宋江陣、八家將）的開館是在廟前施展陣法，唯獨蜈蚣陣是「蜷（khûn）廟三圈」，接受千歲爺的認可、領令出發，這種獨特的開館又稱為「架枰」。
+儀式完成後，家家戶戶就會推著小孩浩蕩而行。遶境之時，蜈蚣陣走在最前，遇庄穿庄、遇廟蜷廟，不用遷就其他陣頭的路線。穿庄是要帶走鄉境的瘟疫，蜷廟是要淨化聖域，境內許多廟宇在建造時就已預留四周空間，方便將來蜈蚣陣蜷廟祈福。
+西港刈香遶境四天，圓滿結束後，萬安宮的執事人員會將蜈蚣頭尾取下、火化送神，彷彿百足真人升天而去，人間的不幸與災禍也隨之化消在空中。
+另外一隻歷史悠久的蜈蚣陣，出現在學甲慈濟宮的刈香活動中。慈濟宮是臺灣保生大帝信仰的首廟，香火來自現今漳州市的白醮慈濟宮，因此每年保生大帝誕辰前，學甲都會舉行「上白醮」活動。在蜈蚣陣與其他陣頭的開路下，保生大帝來到將軍溪畔的白醮亭，鄰水遙祭祖廟。
+由於上白醮繞境時間僅一天，無法涵蓋學甲十三庄，所以每四年會舉辦盛大完整、歷時三天的「學甲刈香」，當然蜈蚣陣也必然出場，遊走於學甲全境。
+學甲蜈蚣陣由後社集和宮籌組，據說已有一百多年歷史。最驚人之處在於，祂完全由人力扛抬，因為學甲當地認為，用推的只是藝閣，用扛的才叫陣頭。
+學甲蜈蚣也有自己的人設，相傳祂是青龍神轉化、協助保生大帝平亂有功的「蜈蚣公」。不同於其他蜈蚣陣紙糊的蜈蚣頭尾需要開光點眼，蜈蚣公擁有木製的龍頭鳳尾，常態供奉在集和宮，出陣前裝上蜈蚣陣，前往慈濟宮拜廟，拜廟時會在廟埕繞行三圈，圈中經常擠滿想讓蜈蚣公消災解厄的民眾。
+學甲蜈蚣是臺灣唯一尚在出陣、保有龍頭鳳尾造型的陣頭，顯然與漳州、廈門的蜈蚣閣同一淵源，但堅持人力扛抬，又凸顯臺灣人將蜈蚣陣視為神明的代表。
+若是講到蜈蚣陣的長度，學甲蜈蚣陣有 36 位神童、西港蜈蚣陣約 70 位上下，佳里的蜈蚣陣則一口氣來到 108 位，還先後受到兩次金氏世界紀錄認證──世界最長遊行花車。
+佳里的香科稱為「蕭壟香」，由佳里金唐殿主辦，從清代就開始刈香，但在日治時期中斷，直到 1987 年才恢復每三年一次的香科。
+蕭壟香的蜈蚣陣每回需動用 108 名蜈蚣神童，分別扮演 36 天罡與 72 地煞，曾在 2011 年以 201.8 公尺，獲金氏世界紀錄認證。
+輸人不輸陣，輸陣歹看面！佳里另一隻蜈蚣陣由番仔寮應元宮主導，同樣也是 108 人，雖然不是蕭壟香的一部分，也不定期出陣，但在同一年再以 204.538 公尺，打破金唐殿的世界紀錄。應元宮的蜈蚣陣也是純人力扛抬，當年動員了南部各縣市轎班，約 1800 名壯漢分四班輪扛。
+謝國興指出，應元宮的蜈蚣頭也相當程度地保留龍頭外型，出陣時前方有人操弄「蜈蚣珠」引導前進，這些細微之處反映臺灣蜈蚣陣傳承自華南原鄉的痕跡。
+蜈蚣陣只是臺灣眾多陣頭之一，其他還有宋江陣、金獅陣、白鶴陣等，都是謝國興經年累月的研究重點。
+2005 年，謝國興偶然造訪臺南鹿耳門天后宮的媽祖出巡，無意間目睹兒時記憶中的宋江陣，感動之餘，身為歷史學者的他不禁想問，是什麼力量讓人們持續體現百年前的文化？
+為了解開心中的疑惑，原先研究社會經濟史的謝國興，轉而投身臺灣民間信仰的研究與記錄工作，將近二十年的長期田調讓他深刻體會：
+宗教是生活中永遠的需求，因為人總有無助、需要心靈支持的時候，這就是為何時代進步，來拜拜的人並沒有減少。
+這些長遠的文化記憶早已深植於常民生活之中。雖然現代社會大家平日忙於上班上課，只能利用零星的休息時間籌組陣頭，但是共同奮鬥的經歷凝聚了村民對家鄉的認同，獲得肯定的陣頭也讓參與者倍感驕傲。
+此外，大型宗教活動也是村民聯絡感情的最佳時機，多年一次的刈香建醮，讓廟際、家族、外地親友有了相聚的契機，常常一起請總鋪師辦外燴，輪流請對方來吃辦桌，是非常有人情味的表現。
+這些細膩觀察，來自謝國興「比氣長」的田調精神：「田調是一種長期的交陪，必須讓當地人接納你，而不是感覺自己只是一個被研究對象。」
+在訪談過程中，謝國興與我們分享他撰寫的書籍、拍攝的紀錄片，當中許多受訪者都是認識十多年的鄉親。「在戲棚下站得夠久才看得到最精彩的」，謝國興這麼形容長期蹲點的重要性。
+當然，戲棚下也有我們看不到的艱辛之處，例如西港刈香在活動一年半前就會開始籌備，為了記錄到完整過程，團隊也要跟著參與整個儀式與繞境活動。有些建醮選在深夜出巡、半夜燒王船、法事直到清晨才結束，為了記錄到關鍵儀式，團隊必須通宵拍攝記錄。
+但一切的辛苦都是值得的，翻開謝國興的著作，可以看到詳盡的史料佐證習俗的傳承演變，習俗的轉變又反映社會、經濟、文化的巨觀變遷。研究團隊拍攝的紀錄片，在活動紀實中適時穿插人物訪談與專家講解，輔以精美的動畫，更能看出歷史與文化的縱深脈絡。
+謝國興談到自己當前的願景：
+人們常常不了解生活中的文化現象和背後意義，讓大家正確認識我們的民間文化，是我正在做的事情。
+任何活動，吃喝玩樂也罷，只要能持續做出些名堂，就可以形成文化。只可惜為洋作倀的敗家子懂得太少。
+任何活動，吃喝玩樂也罷，只要能持續做出些名堂，就可以形成文化。只可惜為洋作倀的敗家子懂得太少。</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>文明足跡</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>讓 AI 取代真人執法可行嗎？將判斷全交給 AI 可能隱藏什麼危險？——專訪中研院歐美研究所陳弘儒助研究員 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374932</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>本文轉載自中央研究院「研之有物」，為「中研院廣告」
+由人工智慧擔任警察，再也不是科幻電影的情節，交通管制常見的科技執法就是應用 AI 辨識闖紅燈、未依規定轉彎、車輛不停讓行人等違規行為。 AI 的客觀、高效率正在挑戰以人為審判主體的法治領域，這樣的轉變會對我們產生什麼影響呢？中央研究院「研之有物」專訪院內歐美研究所陳弘儒助研究員，他將帶我們思考：當 AI 取代人類執法時，將如何改變人們對守法的認知？
+想像有一天你正在尖峰時段開車，車子停在十字路口等紅燈時，後方出現一輛急駛而來的救護車，你為了讓道必須開過停止線。這時你是否願意冒著違規被開罰的風險？還是承擔風險以換取他人盡速就醫？
+在上述情境中，針對「要不要闖紅燈」我們經歷了一段價值判斷過程。如果剛好十字路口有真人警察，他的判斷可能是：這是情急之下不得不的行為，並非蓄意違規。
+然而，如果負責執法的是「法律人工智慧系統」（Artificially legal intelligent，簡稱 ALI）情況可能截然不同。
+ALI 這個詞源自 Mireille Hildebrandt 的研究，在概念上可區分為兩類：採取傳統程式碼的 IFTTT（if this then that）、運用機器學習的資料驅動。前者是注重法律推理或論證的計算機模型，將法律規範轉為程式碼，藉由程式編寫來執行法律任務。後者則透過大量資料的學習，來預測行為範式，用於再犯率、判決結果預測上有較好的成果。
+一般情況下，應用在交通管制的 ALI 會辨識車輛是否超速、闖紅燈等違規行為，不過交通情境千變萬化，ALI 能否做出包含「道德價值的判斷」將是一大挑戰！
+中研院歐美研究所陳弘儒助研究員察覺，人工智慧（AI）正在左右人們對守法的價值判斷及背後的因果結構，進而反思當我們將原本由人來判斷的事項，全權交由 AI 來執行時，可能產生哪些潛移默化的影響？
+讓我們與陳弘儒展開一場從法哲學出發的對話，探索 AI 與法治價值之間的緊張關係。
+會對 AI 感興趣是因為我很早就對電腦有興趣，我原本大學想唸資訊工程，因為高中有些科目沒辦法唸，於是去唸文組，大學進入法律系就讀，研究所考入「基礎法學組」研讀法哲學。
+後來我到美國讀書，當時 AlphaGo 的新聞造成很大的轟動，啟發我思考 AI 的應用應該有些法律課題值得探討，於是開始爬梳 AI 與法律的發展脈絡。
+AI 這個詞大概在 1950 年代被提出，而 AI 與法律相關的討論則在 1970、80 年代就有學者開始思考：我們能否將法律推理過程電腦程式化，讓電腦做出跟法律人一樣的判斷？
+事實上，AI 沒有在做推理，它做的是機率的演算，但法律是一種規範性的判斷，所有判斷必須奠基在法律條文的認識與解釋上，給予受審對象合理的判決理由。
+這讓我好奇：如果未來廣泛應用 AI 執法，法律或受法律規範的民眾會怎麼轉變？
+至於真正開始研究「法律人工智慧系統」（ALI）是受到我父親的啟發。有一陣子我經常開車南北往返，有一天我跟父親聊到用區間測速執法的議題。交通部曾在萬里隧道使用區間測速，計算你在隧道裡的平均速率，如果超速就開罰。
+父親就問我：「政府有什麼理由用區間測速罰我？如果要開罰就必須解釋是哪一個時間點超速。」依照一般的數學邏輯，你一定有在某個時間點超速，所以平均起來的速率才會超過速限，可是法律判斷涉及規範性，我們必須思考背後的正當性課題，不能只用邏輯解釋，這啟發我逐漸把問題勾勒出來，試圖分析執法背後的規範性意涵。
+我們先來談人類和 AI 在做判斷時的差別。人類無時無刻都在做判斷，判斷的過程通常會先做「區分」，例如在你面前有 A 和 B 兩個選項，在做判斷前必須先把 A 和 B 區分開來，讓選項有「可區別性」。
+在資料龐大的情況下，AI 的優勢在於能協助人類快速做好區分，可是做判斷還需經歷一段 AI 難以觸及的複雜過程。人類在成長過程中會發展出一套顧及社會與文化認知的世界觀，做判斷時通常會將要區分的選項放進這個世界觀中，最終做出符合社會或自身考量的抉擇。
+當我們將判斷程序交由 AI 執行，就會涉及「判斷權限移轉」的問題，這經常在日常生活中發生，你只要發現原本自己可以執行的事情，有另外一個對象做的比你好或差不多好，你就會漸漸把判斷的工作交給它，久而久之，你大概會覺得這是很好的做法，因為可以節省大量時間。
+我擔心這種判斷權限移轉會快速且廣泛的發生，因為 AI 的工作效率極高，可以大幅節省人力成本，但是哪一些權限可以放給 AI？哪一些權限人類一定要守住？我們經常沒有充足的討論，等到發生問題再亡羊補牢可能為時已晚。
+以讓道給救護車而闖紅燈的情境為例，如果讓 AI 來做交管，可以節省警察人力，又可以快速精準地開罰，卻迫使民眾需額外花時間，證明闖紅燈有正當理由。如果是真人警察來判斷，警察通常會認為你的行為有正當理由而不開罰。這對於受法律規範的民眾來說，會產生兩種全然不同的規範作用。
+AI 產生的規範作用會讓民眾擔心事後銷單的麻煩程序，如果無法順利解決，可能會訴諸民意代表或上爆料公社，並漸漸改變民眾對守法的態度。而真人警察產生的規範作用，將使民眾自主展現對法律的高度重視，雖然當下的行為牴觸法律，卻是行為人經過多方權衡後做的判斷，相信法律會支持自己出於同理心的行為。
+我認為法治的核心價值在臺灣並沒有很好的發展，我們常想的是怎麼用處罰促成民眾守法，長久下來可能會得到反效果。當人們養成凡事規避處罰的習慣，一旦哪天不再受法律約束，可能會失去守法的動機。
+事實上，法治最根深柢固的價值為：
+法律作為一種人類行為規範的展現，促使民眾守法的方式有很多種，關鍵在於尊重人的道德自主性，並向民眾陳述判決理由。
+給理由非常重要，可以讓民眾不斷透過理由來跟自己和法律體系溝通。如此也可以形成一種互惠關係，使民眾相信，國家公權力能用適當的理由來制定法律，而制定出的法律是以尊重公民自主性為主。當民眾理解法律對我所處的社會有利，會比較願意自動產生守法的動機。
+AI 執法看似比人類「公正無私」，但它的執法方式以處罰為主、缺乏理由陳述，也沒有對具體情境的「敏感性」。人跟人之間的互動經常需要敏感性，這樣才能理解他人到底在想什麼。這種敏感性是要鍛鍊的，真人警察可在執法過程中，透過拿捏不同情境的處理方式來累積經驗。
+例如在交通尖峰時段應該以維持交通順暢為原則，這時警察是否具備判斷的敏感性就很重要，例如看到輕微的違規不一定要大動作開罰，可以吹個警笛給駕駛警示一下就好。
+我越來越覺得人類這種互動上的敏感性很重要，我們會在跟他人相處的過程中思考：跟我溝通的對象是什麼樣的人？我在他心中是什麼模樣？然後慢慢微調表現方式，這是人類和 AI 最根本的不同。
+我認為會有更複雜的影響。ChatGPT 是基於大型語言模型的聊天機器人，使用大量自然語言文本進行深度學習，在文本生成、問答對話等任務上都有很好的表現。因此，在與 ChatGPT 互動的過程中，我們容易產生一種錯覺，覺得螢幕後好像有一名很有耐心的真人在跟你對話。
+事實上，對於生成式 AI 來說，人類只是刺激它運作的外在環境，人機之間的互動並沒有想像中的對等。
+仔細回想一下整個互動過程，每當外在環境（人類）給 ChatGPT 下指令，系統才會開始運作並生成內容，如果我們不滿意，可以再調整指令，系統又會生成更多成果，這跟平常的人際互動方式不太一樣。
+資工人員可能會用這個理由說明，生成式 AI 只是一種工具，透過學習大量資料的模式和結構，從而生成與原始資料有相似特徵的新資料。
+上述想法可能會降低人們對「資料」（Data）的敏感性。由於在做 AI 訓練、測試與調整的過程中，都必須餵給 AI 大量資料，如果不知道資料的生產過程和內部結構，後續可能會產生爭議。
+另一個關於資料的疑慮是，生成式 AI 的研發與使用涉及很多權力不對等問題。例如現在主流的人工智慧系統都是由私人公司推出，並往商業或使用者付費的方向發展，代表許多資料都掌握在這些私人公司手中。
+資料有一種特性，它可以萃取出「資訊」（Information），誰有管道可以從一大群資料中分析出有價值的資訊，誰就有權力影響資源分配。換句話說，多數人透過輸入資料換取生成式 AI 的服務，可是從資料萃取出的資訊可能在我們不知情的狀況下對我們造成影響。
+國外對於 AI 的運用開始提出很多法律規範，雖然國外關於價值課題的討論比臺灣多，但並不代表那些討論都很細緻深入，因為目前人類跟 AI 的相遇還沒有很久，大家還在探索哪些議題應該被提出，或賦予這些議題重新認識的架構。
+這當中有一個重要課題值得思考：
+我們需不需要訓練 AI 學會人類的價值判斷？
+我認為訓練 AI 理解人類的價值判斷很可能是未來趨勢，因為 AI 的發展會朝人機互動模式邁進，唯有讓 AI 逐漸理解人類的價值為何，以及人類價值在 AI 運作中的局限，我們才有辦法呈現 AI 所涉及的價值課題。
+當前的討論多數還停留在把 AI 當成一項技術，我認為這種觀點將來會出問題，強大的技術如果沒有明確的價值目標，是一件非常危險的事情。實際上，AI 的發展必定有很多價值課題涉入其中，或者在設計上有一些價值導向會隱而不顯，這將影響 AI 的運作與輸出成果。
+思考怎麼讓 AI 理解人類價值判斷的同時，也等於在問我們人類：對我們來說哪一些價值是重要的？而這些重要價值的基本內容與歧異為何？
+我目前的研究有幾個方向，一個是研究法律推理的計算機模型（Computational models of legal reasoning）；另一個是從規範性的層面去探討，怎麼把價值理論、政治道德（Political morality）、政治哲學等想法跟科技界交流。未來也會透過新的視野省視公民不服從議題。
+這將有助科技界得知，有很多價值課題需要事先想清楚，影響將擴及工程師怎麼設計人工智慧系統？設計過程面臨哪些局限？哪些局限不應該碰，或怎麼把某些局限展現出來？我覺得這些認識都非常重要！
+陳弘儒是臺灣少數以法哲學理論研究法律人工智慧系統（ALI）的學者，他結合各種現實情境，與我們談論 ALI、生成式 AI 與當代法治價值的緊張關係。
+由於 ALI 擅長的資料分類與演算，與人類判斷過程中涉及的世界觀與敏感性思辨，有著根本上的差異；以處罰為主、缺乏理由陳述的判斷方式，也容易影響民眾對公權力的信任。因此陳弘儒認為，目前 ALI 應該以「輔助人類執法」為發展目標，讓人類保有最終的判斷權限。
+至於現正快速發展的生成式 AI ，根據陳弘儒的觀察，目前仍有待各方專家探索其中的價值課題，包括資料提供與使用的權力不對等、哪些人類價值在訓練 AI 的過程中值得關注等。
+在過去多是由人文社會學者提出警告，現在連 AI 領域的權威專家也簽署公開信並呼籲：AI 具有與人類競爭的智慧，這可能給社會和人類帶來巨大風險，應該以相應的關注和資源進行規劃和管理。
+在訪談過程中，有一件令人印象深刻的小插曲，陳弘儒希望我們不要稱呼他「老師」，因為他從小就畏懼老師、警察等有權威身分的人，希望以更平等的方式進行對話。
+假如今天以 AI 進行採訪，整個談話過程或許能不受倫理輩分影響，但這也讓我們意識到，在 AI 的世界裡，許多人際互動特有的敏感性、同理反思都可能不復存在。
+陳弘儒的研究讓我們體會，AI 在法治領域的應用不僅是法律問題，背後更包含深刻的哲學、道德與權力課題，也讓我們更了解法治的核心價值：
+法律要做的不只是規範人們的行為，而是透過理由陳述與溝通展現對每個人道德自主性的尊重。
+我們稱許法官「鐵面無私」，卻要機器「網開一面」，這根本是人的問題。所以訓練AI熟悉在各種條件下執法，是必要的。假以時日，必定勝過人類。那時候，人類講理也講不過機器了。這得適應，因為環境的變化是逃不了的。
+我們稱許法官「鐵面無私」，卻要機器「網開一面」，這根本是人的問題。所以訓練AI熟悉在各種條件下執法，是必要的。假以時日，必定勝過人類。那時候，人類講理也講不過機器了。這得適應，因為環境的變化是逃不了的。</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>文明足跡</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ADHD 學童在教育現場面臨哪些挑戰？老師、家長又面臨哪些抉擇？——專訪中研院社會學研究中心曾凡慈副研究員 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374894</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>本文轉載自中央研究院「研之有物」，為「中研院廣告」
+回想求學過程中，你是否曾煩惱特立獨行的行為會成為老師和同學眼中的「異類」？當社會慣用同一套標準檢視每個人，你我都可能被貼上「污名標籤」。中央研究院「研之有物」專訪院內社會學研究所曾凡慈副研究員，她長期投入「醫療社會學」研究，探討社會如何建構正常性與異常性，特別在臺灣的教育現場，有一群「注意力不足／過動症」（ADHD）學童，經常被貼上社會加諸的「疾病污名標籤」。一起來認識 ADHD ，聽聽成人患者、家長與老師們的親身經歷，了解他們如何面對污名？怎麼看待正常與異常的界線？
+就讀小學五年級的小曉，外表與一般小女孩無異，卻經常坐立不安、注意力難集中，甚至瞬間情緒崩潰。在班上不只被同學霸凌孤立，還被其他家長視為問題兒童，責備小曉的父母沒有善盡教養義務。
+小曉的父親長年在國外工作，導致養育責任、就醫治療的重擔全落在母親薇芳身上。面對女兒一天到晚闖禍，在家又不按時吃藥，母女兩人經常爆發衝突。龐大的身心壓力讓薇芳不禁心想：「如果沒有妳，我是不是能做自己？」
+從香港來的新老師保羅試圖幫助小曉融入學校生活、緩解薇芳的壓力，成為母女兩人的避風港，也背負是否因特殊原因而關照小曉的質疑。
+電影《小曉》道盡「注意力不足／過動症」（Attention Deficit/ Hyperactivity Disorder，簡稱 ADHD ）學童在臺灣教育環境經常發生的狀況，以及家長與老師面臨的教養與照護困境。
+究竟 ADHD 在兒童間的盛行率有多少？根據美國精神醫學會 2022 年發行的《精神疾病診斷與統計手冊》顯示， ADHD 在全球兒童中的盛行率推估為 7.2 % 。臺灣 2019 年對全國中小學生進行的抽樣調查研究則發現，符合美國精神醫學會 ADHD 診斷準則（DSM-5）的學生比例高達 10 % 。
+換言之，每 100 名學生中約有 10 名有明顯的 ADHD 症狀。面對這麼高的比例，社會大眾對 ADHD 的認識卻不夠普及。究竟 ADHD 有什麼樣的表現？如何協助孩子調整身心狀況、應對治療伴隨的疾病污名標籤？家長、老師等照護者需要什麼樣的支持？
+中研院社會學研究所曾凡慈副研究員長期投入「醫療社會學」研究，試圖理解社會如何建構正常性與異常性。近年來持續探討 ADHD 等「隱性障礙」在教育場域如何被醫療化、標籤化，以及親職角色面臨的各種教養難題。
+所謂「隱性障礙」是指：病況模糊、有爭議或不可見，需要精神藥物、心理與特殊教育介入，從而為家長帶來尋求診斷與治療的複雜挑戰。
+ADHD 即是一種隱性障礙，對生活的影響通常反映在人際互動與學習表現上，詳細診斷標準可參考臺大神經部衛教說明，主要症狀整理如下：
+由於 ADHD 的行為樣態多元、表現程度不一，而且可能隨著成長過程而改善或惡化，讓位在教學第一線的老師經常面對的難題是：究竟孩子只是不夠努力，還是真的無法控制自己？
+這種判斷困難常出現在孩子重新分班、需適應新環境時。大部分老師會先觀察半學期至一學期，如果孩子的行為一直沒有改善，就會試著與家長溝通，評估是否帶孩子就醫檢查。因此，求學階段通常是孩子被診斷出 ADHD 的高峰期。
+由於臺灣社會長期缺乏隱性障礙的觀念，孩子在學校表現不好會認為是小孩天性調皮，只要嚴加管教就會慢慢改善，並不會直接想到看醫生，而且民眾普遍對看精神科有不好的觀感。
+因此，當老師提議帶孩子就醫，多數家長一時之間可能難以接受，再加上每個家庭具備的文化與經濟資本不同，對親職角色的焦慮程度不一，也進而影響家長選擇的回應方式。
+為了深入了解隱性障礙對親職造成的挑戰，曾凡慈訪談了 50 位家中有隱性障礙學童的家長，分別具備不同教育程度、家庭型態、社經地位等條件，並藉由發展「道德工作」概念來考察這種獨特的親職任務。什麼是「道德工作」呢？
+道德工作指的是：人們在日常生活中如何判斷哪些目標值得追求？怎樣的做法比較適當？又應該相信什麼、感受什麼與做什麼，才算善盡職責？
+這對一般父母來說絕非易事，應該讓孩子養成乖巧懂事還是自由自在？要努力培養未來競爭力還是享受快樂童年？一道道選擇題已夠令人煩惱，如果孩子的氣質特殊，情緒行為不符合大部分孩子的常態時，將更難仰賴一套明確的價值指引行事，因此需要透過更加複雜的道德工作來幫自己和孩子應付日常難題。
+對孩子有隱性障礙的家長來說，道德工作要處理的問題通常包括：該不該用「病」的框架來解釋孩子的違常行為？如果能治療，什麼才是「應該的」目的？要讓孩子擁有公開的障礙身分，還是盡量隱瞞以避免污名？面對孩子持續表現出失序的狀態，該體諒包容還是嚴格要求？
+一起來看看與 ADHD 孩童朝夕相處的家長與老師們做出什麼樣的抉擇。
+曾凡慈發現，從親職的角度考量，家長首先須設法釐清問題屬性：究竟孩子的行為是個性、環境或病理所致？才能決定該往什麼方向努力。
+承認孩子可能患有 ADHD 是家長要克服的首要難題，尤其在臺灣想獲得特殊教育資源，或讓學校接受孩子的差異、提供相應的對待，通常得先取得醫療診斷，使得就醫並接受藥物治療成為某些家長維護孩子受教權的策略。
+緊接著家長要摸索的是，怎麼教導孩子看待吃藥行為可能帶來的「污名標籤」。例如有孩子因為吃藥而被同學取笑，與同學發生紛爭時也常被問「今天是不是沒吃藥」。如果沒有妥善處理，診斷用藥將增加孩子被歧視的風險，也會降低孩子配合治療的意願。
+某些家長則教孩子以「尋常化」的態度看待用藥。例如告訴孩子「每個人身上都有一點病，像是阿公也每天在吃糖尿病的藥」。或者說吃的是「聰明藥」、「專心藥」，吃藥不代表「有病」，而是能在學校表現的更好。
+也有部分家長採取「以醫療模式轉移污名」的策略，讓孩子相信只要「治好」就不會發生污名問題。
+例如有的孩子主要是注意力不足（ ADHD 的一種次類型），家長引用醫生的說法向孩子強調「你是注意力不足不是過動」。每當孩子接受積極治療、在學校的表現明顯進步時，家長也會藉此培養孩子有自信的應對方式，下次再被同學取笑時可以勇敢回覆：「我只是注意力不足」、「我現在都好了」。
+當然也有比較特殊的案例，曾凡慈訪談的家長中，有位媽媽教孩子不要主動挑釁他人，可是一旦別人欺負到你頭上，就一定要捍衛自己。
+例如有人罵孩子吃藥就是神經病，她要孩子大力反擊：「你才有病！又不是你要吃藥，關你什麼事？」雖然這麼做無法改善孩子的人際關係，但曾凡慈指出，我們的社會存在一種奇怪的權力，自以為「正常」的人能隨便對被視為「異常」的人指指點點，這種權力應該被揭露和挑戰：
+教養方式沒有絕對好壞，教孩子言語反擊，看似在破壞社會互動秩序，實際上是讓孩子正面回擊污名化背後的權力關係。
+從事隱性障礙的道德工作時，另一值得注意的是，家長的教養方式可能因不同的文化和經濟資本而產生差異，這將影響家長與老師的溝通，以及孩子可得到的教育與醫療資源。
+例如某些家長比較有能力與老師對等討論，一起摸索出適合孩子的學習方式，也比較有能力爭取醫療資源、進行污名管理。課餘時間還會陪孩子完成課業、調整情緒行為，甚至自費取得其他輔助資源。
+其中一位有教育學博士學位的家長令曾凡慈印象深刻。這位母親為了讓患有 ADHD 的孩子得到最佳照護，自行創辦了幼兒園，過程中投入的金錢與時間精力，超乎一般家長所能想像！
+然而，並非每位家長都有能力為孩子做那麼多，許多家長可能因工作繁忙、手頭不寬裕，或對 ADHD 等隱性障礙缺乏認知，因而無法長期陪伴孩子、或與老師密切溝通，也沒有餘裕定期請假帶孩子回診。
+如果老師跟家長的溝通卡關，又正好遇到老師的教學標準較高，可能會認為只要家長不願帶孩子就醫，就沒有立場對疑似有 ADHD 症狀的學生進行個別調整或導入特教資源，這將導致各方關係陷入惡性循環。
+近期曾凡慈也開始訪問教過 ADHD 學生的老師，希望了解他們遇到的教學難題與處理經驗。
+老師的壓力之大在於，既要在教學上符合全班學生對「公平性」的期待，又要對有特殊需求的學生進行「彈性調整」。如果家長不願讓學生接受診斷，面對看似 ADHD 的學生，究竟要用平常標準要求還是寬容對待？如何避免其他人抱怨老師沒有一視同仁？都將陷老師於左右為難的境地。
+面對教育現場因不同理念而產生的紛爭，老師非常需要家長與專家的支持，也需要額外人力幫忙分擔並改善孩子在學校的狀況，否則老師疲於應付、教學品質也難以維持。
+曾凡慈訪談的老師們也分享了有助增進教學知能的資源，例如現在的教師研習會將 ADHD 等隱性障礙的基本知識與教學策略納入課程，參加教學互助社群也有助交流在教學現場可應用的實務技巧。
+此外，老師們也希望有彈性的人力調度，能適時支援臨時狀況。例如孩子坐不住、或行為失控需要拉開距離時，可以有行政體系的老師陪孩子出去走走、緩和情緒。如何讓專業資源與輔助人力能及時支援教育現場，是日後值得關注的課題。
+未來曾凡慈也將持續訪談成人 ADHD 患者，了解他們怎麼走過求學與治療階段，怎麼看待自己的身心狀態。訪談過程中發現，雖然成長過程有其艱辛之處，但也出現正向看待 ADHD 的社群。
+許多在童年時期被診斷出 ADHD 的孩子已長大成人，並開始透過聚會重新思考 ADHD 對自己的意義，致力推動社會大眾以正向心態看待 ADHD，甚至語帶自信地以「A 咖」自稱！
+曾凡慈非常樂見創造正向標籤的行動能延續下去。例如「 A 咖」社群中有人認為 ADHD 就是一種個人特質，有天馬行空的創意、勇於跳脫常軌，擅長抓住大方向且不拘小節。此外，「怕無聊」的個性讓他們幾乎終其一生都在尋求新鮮挑戰，過著樂在學習的精彩人生。
+然而，曾凡慈也注意到，部分 A 咖仍需要藥物及諮商資源，協助他們應付大學生活，以及工作職場上更加嚴峻的挑戰。有些人很需要心理師擔任一對一的「 ADHD 教練」，訓練人際相處應對、生活安排與工作規畫，或調適因外在刺激而累積的壓力。
+然而，目前心理諮商或治療都所費不貲，如果不住在大都市，相關資源將更難取得，導致他們只能靠自助或社群互助，慢慢摸索自我調適策略，比一般同齡人更加辛苦。
+因此，有些成年患者會為了使用校內免費的心理諮商服務，選擇延畢或繼續念研究所，導致出社會的時間往後拖延、影響職涯發展。
+我們不能否認病症會為患者帶來應付生活的困難，但隨著隱性障礙逐漸被視為人類行為多元光譜的一環，我們也看到了改變的契機。
+曾凡慈期許：「我們不該只想著指認孩子的內在缺失，甚至期待醫師將他們治癒，使他們能適應主流環境。」更該轉向思考的是：
+如何支持個別差異，發展有利於所有人的教育文化與社會體系。
+為什麼吃藥可以，體罰就不行？一樣都會有不良後遺症啊。
+為什麼吃藥可以，體罰就不行？一樣都會有不良後遺症啊。</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>文明足跡</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>綠能當道，敢不談發展電動車嗎？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374055</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>在我看來，一位只讀報紙和當代作家書籍的人就像一個蔑視眼鏡的極度近視眼人：他完全依賴他那個時代的偏見和時尚，因為他永遠看不到或聽到任何其它東西。
+2013 年 7 月，筆者在《科學月刊》之「大家談科學」專欄裡指出：電動車還是需要能量的，因此在考慮發展電動車時，必須同時考慮其能量來源的效率。如果發電廠的發電效率與直接燃燒汽油的汽車效率一樣（見「附錄－熱力學」），那麼發展電動車實質上的優勢只是將環境污染移到鄉下而已。該短文一出現後，立即有讀者分別在《科學月刊》及網際網路上反應，提出電動車的好處，應該發展；為此筆者又寫了兩篇有關發展電動車可能碰到的問題（詳情請參閱《我愛科學》）。
+兩年半後（2016 年 2 月 21 日），筆者又在第 1666 期《世界週刊》提出；中國為燃煤發電的大國，要產生同樣的能量，燃煤所排放的二氧化硫、重金屬（水銀、鉛、鎘、及砷等）及懸浮顆粒（現代汽油車的廢氣中已幾乎不再出現）對人體的健康有巨大的負面影響，因此在未改變整個發電結構之前，在中國大量使用電動車不僅不能「減少空氣污染」，反而會對整個環境造成更大的災害。加上可設置私人充電樁的私宅少，電動車不可能普及化，因此「中國不適合發展電動汽車」。同樣地，此短文一出，立即有讀者反駁，謂中國不能落後，必須跟其它國家一樣，積極發展電動車。
+中國現在已成為全球最大的電動車製造商及市場；截至今年（2023年）9 月，純電動車佔中國汽車銷量 25%。在全世界到處均在高喊發展電動汽車的此時，顯然筆者是錯了！真的嗎？在回答這問題之前，因為可以幫助我們了解電動車的銷售，讓我們在這裡先來複習一下電動車發展的簡史吧。因本文涉及不少時間點（如今年、現在），請讀者注意本文完稿於 2023 年 12 月 19 日。
+電動車當然不是一個新概念；事實上早在 1830 年代，第一輛電動車就已經被開發出來。而在台灣，筆者 1975 年暑「放棄高薪」從義大利回到清華化學系時，當時的工學院院長毛高文就已經積極在推動電動車的研發：1974 年首度發表自製電動車「清華一號」，從新竹走省道一路開到台北，開啟了國內電動車研發的先河。然而，由於各種原因，包括豐富的汽油和缺乏可靠的電池，電動車一直沒有商業化。電動車的真正復興發生於 21 世紀初鋰離子電池的發現與成熟 1。下面可以說是全世界電動車普化的兩個轉捩點：
+第一個轉捩點是日本豐田普銳斯（Priuse）的推出。普銳斯於 1997 年在日本發布，成為世界上第一款量產的混合動力電動車（同時使用電池與汽油，完全不用插電，內燃機提供電源；詳情請參考《我愛科學》之「混動車值得發展嗎」）；2000 年，普銳斯在全球發布，一推出就獲得了名人的青睞，從而提高了該車的知名度。從那時起，不斷上漲的汽油價格和對碳污染的日益關注，使普銳斯成為全球最暢銷的混合動力車。
+另一個幫助重矗電動車的事件是 2006 年矽谷一家小型新創公司。特斯拉（Tesla）汽車公司從美國能源部貸款計畫辦公室獲得了 4.65 億美元的貸款，在加州建立製造工廠；於 2010 年宣布將開始生產一款一次充電可行駛超過 200 英里的豪華電動跑車。此後不久，特斯拉就因其汽車贏得了廣泛讚譽，成為加州最大的汽車行業雇主。特斯拉的成功、日益受到關注的全球氣候溫度上升、加上政府政策的推動與大量金錢補助(特斯拉幾十億及購車者)，電動車開始變得更主流，迫使許多大型汽車製造商加速開發自己的電動車，甚至決定放棄傳統汽車的製造！
+現在一談到電動車，似乎不能不談特斯拉。而一談到特斯拉，似乎便不能不談充滿爭議性、全世界最富有的馬斯克（Elon Musk）：相信很多讀者都以為他是特斯拉的創辦人，但事實上他只是提供創辦資金，不是創辦人！
+現在廣為人知的故事是 2003 年時，艾伯哈德（Martin Eberhard）和塔彭寧（Marc Tarpenning）為了要為他們剛剛成立的新公司收集消費者數據，開車在美國最富有之一郊區、史丹佛大學所在地的帕洛阿爾託（Palo Alto）街道上來回走動，觀察其居民擁有哪些類型的汽車。他們發現在價值 200 萬美元的房屋前，總是停著一輛豪華轎車和一輛當時環保寵兒的普銳斯。因此他們認為環保主義已經來到了富人家門口，可以開始向少數的富人出售電動車，希望最終會滲透到中產階級。他們以塞爾維亞裔美國發明家特斯拉（Nikola Tesla）命名，成立了特斯拉汽車公司。該公司的資金來源中最著名的就是貝寶（PayPal）控股公司聯合創始人馬斯克。馬斯克為這家新企業提供了超過 3000 萬美元的資金，從 2004 年開始擔任該公司董事長；2008 年艾伯哈德和塔彭寧兩人離職後，馬斯克接任執行長。
+特斯拉公司於 2010 年上市；2020 年開始賺錢 2 時，其股票市值首次超過了通用汽車公司和福特汽車的總市值。
+艾伯哈德和塔彭寧相信因為環保主義的抬頭, 富人會買電動車來展示其綠色美德的現象，經濟學家稱為「炫耀性保護」（conspicuous conservation）；他們也相信這最終還是會滲透到中產階級的。果然不錯，富有的愛好者競相排隊購買特斯拉，使得其市值在 2021 年曾經一度超過 1.2 兆美元 3，成為世界上最有價值的公司之一。歲月匆匆，艾伯哈德和塔彭寧所盼望之慢慢普及的時候似乎應該到了，但卻沒有發生！顯然中產階級消費者就是不合作：他們似乎像筆者一樣，對於如何處理收入有自己的想法，他們需要汽車來上班、購物、帶小孩上學、度假、⋯⋯，他們沒有必要、也負擔不起購買一輛昂貴且不實用的電動車來炫耀。
+注意電動車發展的讀者應該都已注意到：最近（2023 年 11 月）報章雜誌都開始報導電動車銷量在一年前就已經開始放緩，促使許多電動車製造商大幅降價，並在第一季引發價格戰。電動車的需求雖然還在擴張，但成長速度已大幅放緩。根據《華爾街日報》報道，繼去年上半年全球成長 63% 後，今年同期僅成長了 49%；而與此同时，2023 年混合動力車銷量卻大幅成長（前三季年增 48%）。
+汽車製造商終於開始有點頭痛了：第一波富有的環保主義者買家已經購買了他們的電動車後，現在該如何推動到中產階級的手中呢？通用汽車、福特、賓士、日產，甚至特斯拉，都因最近需求放緩發出了危險信號：通用汽車縮減了 2024 年的計劃，並表示將推遲新電動卡車工廠的開幕；福特正在考慮削減其去年非常暢銷的電動卡車工廠的班次；日產正在將更多資源轉移到混合動力汽車而不是電動車；馬賽地－賓士將現在的電動車市場描述為「殘酷」；⋯⋯⋯。曾經自稱將是「特斯拉殺手」的美國豪華跑車和旅行車製造商 Lucid 現在看起來也只是「普通而已」，宣布將生產速度放緩 30%，許多人甚至擔心該公司能否在當前電動汽車行業的低迷中生存下來。
+2023 年 4 月 26 日《洛杉磯時報》社論版的副主編加爾薩（Mariel Garza）在「我已準備好更換我的（純）電動車」一文寫道：
+我喜歡我的電動車，我真的喜歡。我喜歡我永遠不需要加汽油；我喜歡它在街上安靜滑行的樣子；我喜歡它有那麼多馬力——如果我願意的話，我真的可以超越汽油動力的跑車；我喜歡貼上可以讓我在高載客量車道上單獨駕駛的貼紙；我喜歡日常維護只不過是旋轉輪胎而已 4。但三年後，我正在認真考慮將其換成插電式混動汽車（見後）。⋯⋯為什麼？ 因為儘管我很喜歡我的車，但我討厭我不能在這個引領電動車革命、確信我可以（隨時）在需要時充電的加州旅行。
+筆者不相信加爾薩的後悔僅是少數人的意見，例如 2022 年 8 月 19 日《世界日報》就報導：
+川渝地區因高溫限電造成大量充電樁暫停營運,使電動車車主感受到前所未有的「充電」壓力 5。有網約車師傅連跑八台充電樁才找到電，也有女性車主半夜 12 時還在外排隊 2 小時以上。充電焦慮讓車主們怕「掛在路上」，大嘆「不是在充電，就是在找充電樁的路上」。⋯⋯公共安全部數據顯示，今年上半年全國新能源汽車保有量已突破 1000 萬大關。高溫限電也引發了新能源汽車充電焦慮，多位網友網上抱怨「還是油車香」、「未來買新能源車要三思了」。
+但是在政府及時髦的推動下，有多少人能獨立地三思、不人云亦云呢？
+贊成發展電動車的還有一個建立在沙灘上的願景，那就是將來的能源將是綠色的，而不是從發電廠燃燒煤（氣）出來的。為什麼這是建立在沙灘上的希望呢？因為根據台電公司的相關資料，我國在 2021 年的再生能源佔比只有 6% 左右，距離原本政府時程內設下的 20% 目標非常遠。又經濟部今年 6 月 21 日公布最新全國電力資源供需報告，揭露 2023 年至 2029 年用電及供電預估，顯示再生能源建置進度較預期延後：原先預估 2025 年綠電占比要達 20％，重新調整為 15.5％，並謂至少必須等到 2026 年 10 月再生能源才會達到 20％ 的目標。讀者相信嗎？
+而上面所提之「川渝地區因高溫限電」正是發生在中國水電第一大城的四川：其水利發電量佔全省發電量的 81.6%！能將日常生活用的電動車能源建立在難以預測與控制的綠能上嗎？由於此一罕見的大旱，北京當局為確保電力供應，宣告擱置優先發展清潔能源計畫，全力擴大煤礦的開採以及增加外國煤炭進口——中國應該發展電動車嗎？美國有線電視（CNN）指出，中國目前對煤炭發電的依賴已超過去年（因為大量使用電動車？），今年 7 月中國煤炭發電環比增加 22%。同樣地，去年歐洲大旱也造成其水利發電量產減少 20%（義大利 40%，西班牙 44%）；筆者好像還在報上看到過：為了達成綠色發電量比的目標，有些歐洲國家因之想將天然氣發電改歸屬於綠色發電！這不是「自欺欺人」嗎？
+現在智慧型手機找充電站已經非常容易，但是想一想：好不容易改道開到充電站，卻發現唯一的充電樁壞了 6，不知道讀者將有何反應，但筆者雖然早已過了兩次四十而不惑，一定還三字經罵個不停！再不然就是所有的充電樁全被佔用了、或有一佔著茅坑不拉屎（已經充電完畢）的車主不知道跑到哪裡去了、……只好五十而知天命了：等吧。
+相信有些人會辯稱那是因為充電站不夠多的關係，如果充電站像現在加油站一樣，這問題就不會出現。但簡單的計算告訴我們：這問題還是存在的，因為最快的充電大概也需要 30 分鐘 7，而一般加油的時間只要 5 分鐘左右！事實上這正是筆者在 2013 年 8 月之「混動汽車值得發展值嗎」所指出的：「即使充電站能像加油站一樣普及，除非你多的是時間，否則等充電大概會讓你急得像熱鍋中的螞蟻。因此筆者認為電動車不可能大量取代汽油車，它只能用於日常上、下班或購物用。」
+反之，在「混動汽車值得發展嗎」裡，筆者也辯謂：完全不用插電之電池與汽油兩用的混動汽車不但無純電動的缺陷，它的（汽油）能量使用效率已高達汽油汽車的兩倍以上，也不需要大量建造充電站來配合，因此應是將來汽車發展方向的主流。
+在這段期間裡，市面上已經出現了一種可以完全使用汽油（不需要充電）、但是也可以充電的「插電式混動汽車（plug-in hybrid）」：以電池為主、汽油引擎為輔的混動汽車；前者可以在家中車房充電，用於日常上、下班或購物用，後者用於長途旅行（不需要找充電站）。事實上中國的插電式汽車市佔率已經突破 37%，高過純電動車的 25%，估計到今年底，將可能接近 40%。在美國，今年第二季混動汽車的 7.2% 輕型車輛市佔率也超過純電動車的 6.7%，插電式混動汽車則從 2021 年初的不到 1% 上升到 1.7%。
+豐田汽車雖然在電動發展史上佔了一席非常重要的地位，但其第一款純電動的汽車卻遲滯到 2022 年 5 月才出現 8。在全世界一片發展電動車的時髦下，讀者應該不難想像到其執行長所受的壓力。今年元月，豐田汽車創始人的孫子豐田章男終因緩慢採用電動車，導致其領導能力受到質疑，而決定於 4 月 1 日辭去當了將近 14 年的執行長及總監職。 
+在特斯拉 10 月中公佈了災難性的第三季收益，投資者意識到電動車並不是獲利的靈丹妙藥後，當時已改任豐田汽車公司董事長的豐田章男終於喘一口氣，表示銷售放緩事實上證明了他對電動車的抵制是正確的，並補充說：「人們終於看到了（電動車的）現實」。豐田北美業務銷售主管克里斯特（David Christ）11 月 26 日向《華爾街日報》表示：「這是一個異常火爆的市場」，豐田正在盡可能大量生產混合動力車。
+同樣地，平時很少得到讀者的直接反應，但筆者在 2013 年及 2016 發表不贊同發展純電動車的看法時（因為有更好的方案），立即受到一些批評；使得筆者在 2017 年出版之《我愛科學》的自序裡覺得「高處不勝寒」。10 年後的今天，看來或許已經不再那麼冷了？！
+美國環保署今年發布了令人非常沮喪的《2022 年汽車趨勢報告》，謂 2021 年的最終數據顯示，美國在汽車減少二氧化碳排放方面仍然進展甚微，他們說是因為消費者（富人）雖買了電動車，但車房裡停的卻是更浪費汽油、更豪華的大車子。但更可能的解釋不正是筆者所說的「發展電動車未必能減少空氣污染」嗎？
+即使在汽車大國的美國，私人汽車所造成的空氣污染佔不到 20%，因此筆者認為發展什麼樣的車子都只是表面的裝飾而已，因為全球加速暖化與空氣污染背後的主要原因是：人類永無止境的慾望。只要人的慾望不降、鼓勵消費的經濟理論不改，世界能量的使用將只會有增無減，否則將被識為「經濟衰退」或「落後國家」！而如「附錄－熱力學」所言，能量大部分都是透過效率最差的熱來產生的，在產生的同時，一定要製造出大量的廢熱，這些廢熱通常消散到大氣、河流、湖泊、甚至海洋等大型水體中，導致水的內部熱量增加。根據 2022 年年底美國太空總署的估計，自 1955 年有記錄以來，百分之九十的全球暖化都發生在海洋中。筆者不知道為什麼我們不談這一更嚴重的問題：掩耳盜鈴？眼不見為淨？不願意面對必須節慾的事實？⋯⋯或正是愛因斯坦所說的「時代的偏見和時尚」？
+麥肯錫（McKinsey）2022 年 4 月報告謂；「如果到 2030 年，所有銷售車輛中有一半是零排放車輛（符合美國聯邦目標），我們估計美國到那一年將需要 120 萬個公共電動車充電樁和 2,800 萬個私人電動車充電樁。⋯⋯消耗資本超過 350 億美元。」這巨額開支（台灣 2023 年總生產額的 3% 左右）用來改進現有的基礎設施（如發電效率、增加其二氧化碳的排放回收等）不是更實際有用嗎？
+熱也是一種能量，但熱力學告訴我們它是品質最差的一種，我們一旦將其它能量變成熱，就再也不能 100% 地將它改回或改為其它能量形式，所以透過熱來發電是一種非常沒有效率的方法。例如高山上的水，對地面而言具有位能，我們原則上可以將它 100% 的改成電能，這正是水利發電的原理（其效率可以高達 90%）；但如果我們讓它掉到地面變成熱，再用這些熱來發電或做功，那麼其效率就受到熱力學的限制，原則上再也不可能 100% 了（實用上均難以達到 50%）：在改回其它能量形式的同時，一定要製造出一些廢熱（見圖）。不幸地，這正是內燃機（包括汽車引擎）和發電廠（包括核電廠）的操作方式，因此它們的效率都不高：燃煤電廠與核電廠的平均效率約為 33%，天然氣發電廠大約在 33% 至 43% 之間，內燃機的效率因類型和引擎的不同而變化很大（15%-45%），汽油引擎的效率只有 30% 到 35% 左右。
+《我愛科學》（華騰文化有限公司，2017 年 12 月出版）：收集筆者自 1970 年元月至 2017 年 8 月在《科學月刊》及少數其它雜誌所發表之文章。內含熱力學與能源利用、電動車值得發展嗎、混動汽車值得發展嗎、再談電動車值得發展嗎、如何有效地儲存電力、台灣應該發展電動車嗎、中國不適合發展電動車等等與本文有關的文章。</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>文明足跡</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>民眾黨是未來台灣政治的樞紐？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374532</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>選後的立法院三黨不過半，但民眾黨有八席不分區立委，足以與民進黨或國民黨結成多數聯盟，勢將在國會居於樞紐地位。無獨有偶的是：民眾黨主席柯文哲在總統大選得到 26.5% 的選票，屈居第三，但因其獲得部分藍、綠選民的支持，在選民偏好順序組態的基礎上，它卻也同樣地居於樞紐地位。這個地位，將足以讓柯文哲及民眾黨在選後的台灣政壇持續激盪。
+這次總統大選，誰能脫穎而出並不是一個特別令人殷盼的問題，更值得關心的問題是藍白綠「三跤㧣」在選民偏好順序組態中的消長。台灣總統大選採多數決選制，多數決選制英文叫 first-past-the-post（FPTP），簡單來講就是票多的贏，票少的輸。在 10 月中藍白合破局之後，賴蕭配會贏已經沒有懸念，但這只是選制定規之下的結果，換了另一個選制，同樣的選情可能就會險象環生。
+從另一個角度想：選制是人為的，而選情反映的是社會現實。政治學者都知道天下沒有十全十美的選制；既定的選制推出了一位總統，並不代表選情的張力就會成為過眼雲煙。當三股社會勢力在制度的帷幕後繼續激盪，台灣政治將無法因新總統的誕生而趨於穩定。
+如果在「三跤㧣」選舉之下，選情的激盪從候選人的得票多少看不出來，那要從哪裡看？政治學提供的一個方法是把候選人配對 PK，看是否有一位候選人能在所有的 PK 中取勝。這樣的候選人並不一定存在，如果不存在，那代表有 A 與 B 配對 A 勝，B 與 C 配對 B 勝，C 與 A 配對 C 勝的 A＞B＞C＞A 的情形。這種情形，一般叫做「循環多數」（cyclical majorities），是 18 世紀法國學者孔多塞（Nicolas de Condorcet）首先提出。循環多數的存在意涵選舉結果隱藏了政治動盪。
+另一方面，如果有一位候選人能在配對 PK 時擊敗所有的其他候選人，這樣的候選人稱作「孔多塞贏家」（Condorcet winner），而在配對 PK 時均被擊敗的候選人則稱作「孔多塞輸家」（Condorcet loser）。三角嘟的選舉若無循環多數，則一定會有孔多塞贏家和孔多塞輸家，然而孔多塞贏家不一定即是多數決選制中贏得選舉的候選人，而多數決選制中贏得選舉的候選人卻可能是孔多塞輸家。
+如果多數決選制中贏得選舉的候選人不是孔多塞贏家，那與循環多數一樣，意涵選後政治將不會穩定。
+那麼，台灣這次總統大選，有沒有孔多塞贏家？如果有，是多數決選制之下當選的賴清德嗎？我根據戴立安先生調查規劃的《美麗島電子報》追蹤民調第 109 波（1 月 11 日至 12 日），也是選前最後民調的估計，得到的結果令人驚訝：得票墊後的柯文哲很可能是孔多塞贏家，而得票最多的賴清德很可能是孔多塞輸家。果然如此，那白色力量將會持續地激盪台灣政治！
+我之前根據美麗島封關前第 101 波估計，侯友宜可能是孔多塞贏家，而賴清德是孔多塞輸家。現在得到不同的結果，顯示了封關期間的三股政治力量的消長。本來藍營期望的棄保不但沒有發生，而且柯文哲選前之夜在凱道浩大的造勢活動，還震驚了藍綠陣營。民調樣本估計出的孔多塞贏家本來就不準確，但短期內的改變，很可能反映了選情的激盪，甚至可能反映了循環多數的存在。
+根據這波民調，總樣本 N=1001 位受訪者中，如果當時投票，會支持賴清德的受訪者共 355 人，佔 35.4%；支持侯友宜的受訪者共 247 人，佔 24.7%。支持柯文哲的受訪者共 200 人，佔 19.9%。
+美麗島民調續問「最不希望誰當總統，也絕對不會投給他的候選人」，在會投票給三組候選人的 802 位支持者中，一共有 572 位對這個問題給予了明確的回答。《美麗島電子報》在其網站提供了交叉表如圖：
+根據這個交叉表，我們可以估計每一位明確回答了續問的受訪者對三組候選人的偏好順序，然後再依這 572 人的偏好順序組態來判定在兩兩 PK 的情形下，候選人之間的輸贏如何。我得到的結果是：
+所以柯文哲是孔多塞贏家，賴清德是孔多塞輸家。當然我們如果考慮抽樣誤差（4.1%），除了柯文哲勝出賴清德具有統計顯著性之外，其他兩組配對可說難分難解。但在這 N=572 的小樣本中，三位候選人的得票率分別是：賴清德 40%，侯友宜 33%，柯文哲 27%，與選舉實際結果幾乎一模一樣。至少在這個反映了選舉結果的樣本中，柯文哲是孔多塞贏家。依多數決選制，孔多塞輸家賴清德當選。
+不過以上的分析有一個問題：各陣營的支持者中，有不少人無法明確回答「最不希望看到誰當總統，也絕對不會投給他做總統」的候選人。最嚴重的是賴清德的支持者，其「無反應率」（nonresponse rate）高達 34.5%。相對而言，侯友宜、柯文哲的支持者則分別只有 24.1%、23.8% 無法明確回答。為什麼賴的支持者有較多人無法指認最討厭的候選人？一個假設是因為藍、白性質相近，對許多綠營選民而言，其候選人的討厭程度可能難分軒輊。反過來說，藍、白陣營的選民大多數會最討厭綠營候選人，因此指認較無困難。無論如何，把無法明確回答偏好順序的受訪者歸為「遺失值」（missing value）而棄置不用總不是很恰當的做法，在這裡尤其可能會造成賴清德支持者數目的低估。
+補救的辦法之一是在「無法明確回答等於無法區別」的假設下，把「遺失值」平分給投票對象之外的其他兩位候選人，也就是假設他們各有 1/2 的機會是無反應受訪者最討厭的候選人。這樣處理的結果，得到
+此時賴清德是孔多塞贏家，而柯文哲是孔多塞輸家。在這 N=802 的樣本中，三位候選人的得票率分別是：賴清德 44%，侯友宜 31%，柯文哲 25%。雖然依多數決選制，孔多塞贏家賴清德當選，但賴的得票率超過實際選舉結果（40%）。用無實證的假設來填補遺失值，反而造成賴清德支持者數目的高估。
+如果擔心「無法明確回答等於無法區別」的假設太勉強，補救的辦法之二是把「遺失值」依有反應受訪者選擇最討厭對象的同樣比例，分給投票對象之外的其他兩位候選人。這樣處理的結果，得到
+此時柯文哲又是孔多塞贏家，而賴清德又是孔多塞輸家了。這個樣本也是 N=802，三位候選人的得票率分別是：賴清德 44%，侯友宜 31%，柯文哲 25%，與上面的結果一樣。
+以上三種無反應處理方法都不盡完美。第一種把無反應直接當遺失值丟棄，看似最不可取。然而縮小的樣本裡，三位候選人的支持度與實際選舉結果幾乎完全一致。後兩種以不同的假設補足了遺失值，但卻過度膨脹了賴清德的支持度。如果以樣本中候選人支持度與實際結果的比較來判斷遺失值處理方法的效度，我們不能排斥第一種方法及其結果。
+無論如何，在缺乏完全資訊的情況下，我們發現的確有可能多數決輸家柯文哲是孔多塞贏家，而多數決贏家賴清德是孔多塞輸家。因為配對 PK 結果缺乏統計顯著性，我們甚至不能排除循環多數的存在。此後四年，多數決選制產生的總統能否在三角嘟力量的激盪下有效維持政治穩定，值得我們持續觀察。
+柯文哲之所以可以是孔多塞贏家，是因為藍綠選民傾向於最不希望對方的候選人當總統。而白營的中間偏藍位置，讓柯文哲與賴清德 PK 時，能夠得到大多數藍營選民的奧援而勝出。同樣的，當他與侯友宜 PK 時，他也能夠得到一部份綠營選民的奧援。只要他的支持者足夠，他也能夠勝出。反過來看，當賴清德與侯友宜 PK 時，除非他的基本盤夠大，否則從白營得到的奧援不一定足夠讓他勝出。民調 N=572 的樣本中，賴清德得 40%，侯友宜得 33%，柯文哲得 27%。由於柯的支持者討厭賴清德（52.5%）遠遠超過討厭侯友宜（23.7%），賴雖然基本盤較大，能夠從白營得到的奧援卻不多。而侯雖基本盤較小，卻有足夠的奧援。柯文哲之所以成為孔多塞贏家，賴清德之所以成為孔多塞輸家，都是這些因素的數學結果。</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>文明足跡</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>快！還要更快！讓國家級地震警報更好用的「都會區強震預警精進計畫」 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374348</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">本文由 交通部中央氣象署 委託，泛科學企劃執行。
+從地震儀感應到地震的震動，到我們的手機響起國家級警報，大約需要多少時間？
+臺灣從 1991 年開始大量增建地震測站；1999 年臺灣爆發了 921 大地震，當時的地震速報系統約在震後 102 秒完成地震定位；2014 年正式對公眾推播強震即時警報；到了 2020 年 4 月，隨著技術不斷革新，當時交通部中央氣象局地震測報中心（以下簡稱為地震中心）僅需 10 秒，就可以發出地震預警訊息！
+然而，地震中心並未因此而自滿，而是持續擴建地震觀測網，開發新技術。近年來，地震中心執行前瞻基礎建設 2.0「都會區強震預警精進計畫」，預計讓臺灣的地震預警系統邁入下一個新紀元！
+「都會區強震預警精進計畫」起源於「民生公共物聯網數據應用及產業開展計畫」，該計畫致力於跨部會、跨單位合作，由 11 個執行單位共同策畫，致力於優化我國環境與防災治理，並建置資料開放平台。
+看到這裡，或許你還沒反應過來地震預警系統跟物聯網（Internet of Things，IoT）有什麼關係，嘿嘿，那可大有關係啦！
+當我們將各種實體物品透過網路連結起來，建立彼此與裝置的通訊後，成為了所謂的物聯網。在我國的地震預警系統中，即是透過將地震儀的資料即時傳輸到聯網系統，並進行運算，實現了對地震活動的即時監測和預警。
+地震中心在臺灣架設了 700 多個強震監測站，但能夠和地震中心即時連線的，只有其中 500 個，藉由這項計畫，地震中心將致力增加可連線的強震監測站數量，並優化原有強震監測站的聯網品質。
+在地震中心的評估中，可以連線的強震監測站大約可在 113 年時，從原有的 500 個增加至 600 個，並且更新現有監測站的軟體與硬體設備，藉此提升地震預警系統的效能。
+由此可知，倘若地震儀沒有了聯網的功能，我們也形同完全失去了地震預警系統的一切。
+除了加強地震儀的聯網功能外，把地震儀「放到地下」，也是提升地震預警系統效能的關鍵做法。
+為什麼要把地震儀放到地底下？用日常生活來比喻的話，就像是買屋子時，要選擇鬧中取靜的社區，才不會讓吵雜的環境影響自己在房間聆聽優美的音樂；看星星時，要選擇光害比較不嚴重的山區，才能看清楚一閃又一閃的美麗星空。
+地表有太多、太多的環境雜訊了，因此當地震儀被安裝在地表時，想要從混亂的「噪音」之中找出關鍵的地震波，就像是在搖滾演唱會裡聽電話一樣困難，無論是電腦或研究人員，都需要花費比較多的時間，才能判讀來自地震的波形。
+這些環境雜訊都是從哪裡來的？基本上，只要是你想得到的人為震動，對地震儀來說，都有可能是「噪音」！
+當地震儀靠近工地或馬路時，一輛輛大卡車框啷、框啷地經過測站，是噪音；大稻埕夏日節放起絢麗的煙火，隨著煙花在天空上一個一個的炸開，也是噪音；台北捷運行經軌道的摩擦與震動，那也是噪音；有好奇的路人經過測站，推了推踢了下測站時，那也是不可忽視的噪音。
+因此，井下地震儀（Borehole seismometer）的主要目的，就是盡量讓地震儀「遠離塵囂」，記錄到更清楚、雜訊更少的地震波！​無論是微震、強震，還是來自遠方的地震，井下地震儀都能提供遠比地表地震儀更高品質的訊號。
+地震中心於 2008 年展開建置井下地震儀觀測站的行動，根據不同測站底下的地質條件，​將井下地震儀放置在深達 30~500 公尺的乾井深處。​除了地震儀外，站房內也會備有資料收錄器、網路傳輸設備、不斷電設備與電池，讓測站可以儲存、傳送資料。
+既然井下地震儀這麼強大，為什麼無法大規模建造測站呢？簡單來說，這一切可以歸咎於技術和成本問題。
+安裝井下地震儀需要鑽井，然而鑽井的深度、難度均會提高時間、技術與金錢成本，因此，即使井下地震儀的訊號再好，若非有國家建設計畫的支援，也難以大量建置。
+臺灣人口主要聚集於西半部，然而此區的震源深度較淺，再加上密集的人口與建築，容易造成相當重大的災害。
+許多都會區的建築老舊且密集，當屋齡超過 50 歲時，它很有可能是在沒有耐震規範的背景下建造而成的的，若是超過 25 年左右的房屋，也有可能不符合最新的耐震規範，並未具備現今標準下足夠的耐震能力。 </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>文明足跡</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>已經不能沒有「它」？悄悄改變我們生活的「家庭科技」 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373866</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>我們生活在一個高度依賴科學與技術的社會，但幾乎所有的人對科學與技術都一無所知。
+在「日常生活範式的轉變：從紙筆到 AI」一文裡，筆者談到 50 年來的科技發展完全改變了我們自己日常生活的方式，如筆者已經不再用紙筆寫文章、不在圖書館裡找資料、旅行不需要攜帶地圖、在家逛街購物、買股票不需要透過券商下單、與親友及科學月刊通訊都是瞬間達成、⋯⋯等等。最近人工智能的正式登場更可能讓人人成為寫文章高手，讓讀者懷疑這篇文章是不是筆者自己寫的。
+除了這些有形的日常生活方式的改變外,事實上還有一些無形、沒有改變我們生活方式的科技正在我們家中發生的。其中最明顯的就是電視, 我們看電視的方法還是一樣, 但年輕的讀者可能不知道不管從軟體或硬體來看, 電視機已經完全不再是 1970 年代的電視機了。我們在這裡就來談談這些偷偷摸摸進入我們家庭生活的三大無形改變吧，免得被名科幻小說及科普作家薩根（Carl Sagan）嘲笑：我們生活在一個高度依賴科學與技術的社會，但幾乎所有的人對科學與技術都一無所知。
+早期的電視機是由真空管及陰極射線管（CRT）組成的，體積膨大。1940 年代，半導體器件的發明使得生產固態電子器件成為可能，它比熱真空管更小、更高效、更可靠、更耐用、更安全、更涼爽、更經濟。從 1960 年代中期開始，熱電子管可以說完全被晶體管取代。然而直到 21 世紀初，陰極射線管（也是一種真空管）仍然是電視監視器和示波器的基礎。
+1982 年，愛普生（Seiko Epson）發布了第一台用液晶（liquid crystal）當平面顯示器（display）的液晶電視（LCD TV）；1984 年，愛普生又發布了第一台全彩袖珍液晶電視。夏普（Sharp）於 1988 年推出第一台商用液晶電視；第一台電漿（plasma）電視於 1997 年出現。電漿電視畫面是透過顯示器上面畫素（Pixel）點發光，不是像液晶電視機在畫面後面照光，因此在畫質方面比液晶顯示器強多了，但因在價格上沒辦法競爭，早已被淘汰掉了，最近被類似的有機發光二極體（organic light emitting diode, LED）電視機取代。
+除了硬體外，電視影像訊息的傳播編碼（coding）也大異於前：早期使用類比訊號（analog signal）編碼，現在則使用數字（digital）。後者在其開發時就立即被認為是自 1950 年代彩色電視出現以來，電視技術上之一項創新進步的重大變革。類比廣播到數字廣播的轉變始於 2000 年左右；經過多次及多年的拖延，美國終於於 2009 年 6 月 12 日正式取消無線類比電視廣播，台灣也已於 2012 年 7 月全面廢除無線類比電視廣播,改用數位電視。詳情請參見高畫質數位電視。
+我們一般都將發明燈泡的功勞歸於愛迪生（Thomas Edison），事實上早在他 1879 年申請專利之前，英國發明家就已經知道用弧光燈當燈泡。但愛迪生不但將白熾燈泡商業化，並發明了將電力帶入住家所需的整個系統——發電機、電線、保險絲、燈的開關。1904 年出現了取代碳絲燈泡之更亮的新型鎢絲燈泡，1913 年發現在燈泡內放入氮氣等惰性氣體可以提高壽命，沿用至今。 
+電燈照明的原理是因為任何溫度不為絕對零度的物體，總是不停地對外放出各種頻率的輻射能（見「科學家如何找到黑體輻射光譜，引發 20 世紀初的量子革命？」）。不幸的是：這些不同頻率的輻射能中只有非常少的一部分是可見光，因此利用鎢絲加熱來照明的電燈效率非常低（見「電燈的效率」）。
+筆者在「太陽能與光電效應」裡探討了「二極體」（diode）的物理，其用途甚廣（如整流器及控制器等）。它可以透過光來發電製造太陽面板；它也可以透過電來發光——「發光二極體」（light emitting diode, LED）——製造上面提到之有機發光二極體電視機及二極體燈泡。因我們可以用不同材料來控制發出來之輻射在可見光範圍，所以二極體燈泡效率比傳統鎢絲燈泡高得非常多：例如前者只需 18 瓦特就可達到後者 100 瓦特（W）的亮度。加上它不使用高溫，壽命也因之比較長；但因其製造成本高，所以直到最近美國才宣布禁售傳統鎢絲燈泡，強迫使用二極體燈泡1。
+發光二極體需要在直流電下運作，一般家用二極體燈泡設計在低電壓 1.2－3.6V 之間。然而，為了變壓方便及減少輸送過程中的能量浪費（見「高壓危險」），全世界電力公司都用高電壓的交流電輸送電力，到住宅區附近的變電所後再減壓到 120-240V，因此二極體燈泡的設計非常不同於傳統燈泡：它的首要任務是將高電壓交流電降壓整流為低壓的直流電。除此之外，因固態線路特性，它也必須考慮電壓及電流的穩定、散熱等問題，因此在設計上比鎢絲燈泡複雜多了，成本也貴得多。
+與電視機及燈泡相比，家庭電話可以說是改變最少的；事實上自從行動電話普及後，許多家庭已不再使用固定的家用電話，改變了我們日常生活的方式。但仍有不少像筆者一樣頑固的長者保留家用電話的，他們將發現：雖然現在的電話機比以前的加了很多功能，如來電顯示、留言、無線分機等,但其基本結構還是保留在 1962 年世界博覽會上首次以商品名「按鍵音（Touch-Tone）」推出的按鈕撥號（也就是說 1970 年代的電話現在還是可以用的，也還可以在市面上買到）。
+傳統電話系統通話依賴於兩個節點間的直接物理連接，在通話中這條線是不能斷的。為了覆蓋廣泛的地區，任何兩點間都直接連線當然是不可能的，因此出現了稱為「電路交換」（circuit switching）的呼叫切換技術。早期的呼叫切換是由電話接線員來完成的，但隨著電話覆蓋範圍的擴大，美國電話及電報公司（AT&amp;T）開始推出機械交換系統，人們可以從家裡手動撥打其它號碼，不再需要人工操作員接通。到 1978 年左右，完全自動化終於消滅了電話接線員這一職業。
+自從互聯網（Internet）及一種可用寬頻連線進行語音通話的互聯網協定語音（voice over internet protocol, VoIP）出現後，網路語音（VoIP）電話開始慢慢侵食傳統的家庭電話。不像電視機及燈泡，事實上傳統的家庭固定電話是有其優點，如不受斷電及不穩定網路的影響等，但因網路語音電話成本較低及較高彈性，美國聯邦通訊委員早在 2022 年 8 月就宣布不再要求美國電信公司提供銅線固定電話服務，因此相信傳統的電話系統不久將在美國消失了2。
+電路交換技術的一大缺點是：兩點一旦連接在一起，別人便不能再使用那整條電路3，浪費了有限的資源。現在網路語音電話的交換網絡依賴於「分組交換」（packet switching）技術。分組交換概念是波蘭裔美國工程師巴蘭（Paul Baran）於 1960 年代初提出，首先使用於美國國防部的阿帕網（ARPANET）。使用者透過網路傳送檔案時，先將檔案分割為較小的數位「資料包」（packet）形式來進行傳輸。每個資料包都有一個包括來源位址、目標位址、資料包數量和序號等的資料包頭，因此它們可以各走其獨立路線(網路節點負責指揮交通)，發送者和接收者之間沒有必要（也從未）直接連接在一起，可以充分且更有效率地利用傳輸媒體。數位資料包到達目的地後，經組合再透過數據機（modem）將數位數據轉回電話線的類比訊號，傳到傳統的電話上。
+以前傳統電話因為要用實體電線接到區域交換總機，所以可以從區域號碼知道這支電話的所在地；網路語音電話只要連接到任何一個網路節點就可以，所以家用電話號碼可以隨搬家移動到別的區域（例如台北的 02 區域電話號碼可以在阿里山出現），因此區域號碼已經失去其區域的意義。
+這些悄悄來的家庭科技中，改變最多的是電視：在軟體（數位訊號傳輸）及硬體方面（平面顯示器）都完全擺脫了舊科技，以全新的面貌在家庭中出現；接觸過舊電視的讀者，應該不難發現影像的改進不可同日而語。燈泡則只改變硬體（二極體燈泡），網路語音電話只改變軟體（分組交換訊號傳輸）。
+筆者雖然喜歡新科技，但因一則較貴，再則可能不穩定，而不願做新技術的天竺鼠（實驗對象），對新技術的接受總是很遲的；即使如此，筆者的家庭也已經全面「現代化」了。但是內人除了發現電視機不同及燈泡比以前更接近太陽光4外，根本不知道老公花了多少心血將狗窩現代化。</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>文明足跡</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NCC 公民培力活動百花齊放，公私協力推動媒體素養 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373960</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>本文為 國家通訊傳播委員會 廣告
+疫情加速全球數位化發展，也改變了大眾接收資訊的方式。隨著影音媒體平台及自媒體崛起，每個人除了是訊息接收者，也是內容的生產者，百花齊放的訊息管道也帶來了內容及資訊管理上的挑戰。
+國家通訊傳播委員會（NCC）因應全球性之數位匯流發展及監理革新趨勢，致力於促進通訊傳播健全發展，保障消費者及尊重弱勢權益，打造多元文化均衡發展，迄今持續推動「廣電媒體專業素養培訓與公民培力推廣計畫」。
+本年度（ 112 年）公民培力推廣部分，藉由與廣電媒體產製端合作，包括公視、正聲廣播、新聲廣播、鳳鳴廣播、陽明山電視和全聯電視，及與大學、公民團體包括國立臺灣師範大學、朝陽科技大學、法律白話文、臺灣新聞記者協會等共 11 個單位，於 7 月至 12 月在北、中、南、東四大區域舉辦共 20 場媒體識讀活動，累積超過 1,300 人次參與，參與者豐富多元，包含媒體專業人員、銀髮族、身障群體、新住民、兒童及青少年、 YouTuber 、 KOL 等，多面向推廣媒體素養意識。
+本次公民培力活動形式多元，合作夥伴邀請各方講師發揮所長，針對不同參與對象因材施教，如正聲廣播電臺透過辦理相聲演出，讓平時不易接觸到媒體素養資訊的長輩、偏鄉學生，透過有趣的段子逐漸認識辨別假訊息的重要；國立臺灣師範大學大眾傳播研究所舉辦媒體素養營隊，至臺東教授國中生性別平等的重要性；公視透過舉辦電視台參訪，讓想認識電視媒體運作、節目製播的民眾得以大開眼界。許多單位也透過不同議題講座、互動與大學生或地方社區產生共鳴，散播媒體素養的種子，民眾課後紛紛表示收穫良多。
+NCC 以提升廣電媒體專業及社會大眾媒體識讀能力為已任，透過每年持續舉辦公民培力活動，幫助閱聽者對廣電媒體的認識、思考，以及對訊息評估的能力，讓不同年齡層及族群得以將媒體素養教育的種子深埋在心、向下扎根，進而提高全民媒體素養，打造更優質的社會環境。</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>文明足跡</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>選舉的秘密：票多的贏，票少的輸！候選人該怎麼增加支持者？造勢、掃街有用嗎？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374072</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘿，他們正在操控你的選票！
+選舉不只是投票，更是一場宣傳技術大展。策略專家運用心理學，了解選民的需求和期望。造勢、辯論、掃街、情勒，萬式齊發。但這些招數真的有效嗎？一場造勢的成本，動輒百萬、千萬，如果只有死忠的會參加，不是把錢灑進水溝嗎？某些經典甚至老套的選舉策略，為何顛撲不破？請務必看到最後，因為看破所有招數背後原理的你，將左右這一場選舉！
+當然有，第一，造勢能鞏固鐵粉，拉進新支持者。造勢活動為粉絲們提供了一個聚集的場所，甚至，有些搖擺不定的選民可能也受到造勢現場的激情感染而入陣。
+第二，造勢能影響媒體報導。當候選人舉辦造勢活動時，媒體通常會進行報導，甚至透過塑造「媒體框架」來帶風向，在增加曝光度的同時，塑造候選人的特定形象。關於框架塑造的詳細攻略，歡迎回去我們的這一集複習。
+不過，看在旁人眼中，造勢看起來不過是把大家集合在一起，講講話罷了。但代誌絕對不是你所想的那麼簡單，這一切其實都是競選團隊安排好的心理圈套？
+當你在造勢場合中望著台上的候選人，他的一言一行彷彿散發出領導人魅力。看著看著，你可能也忘了他的政見是什麼，但不知道為什麼，就覺得他一定是一位好的領導者，能帶領我們走向未來。這稱作月暈效應，指的是人們看見他人的一個正面特質，卻延伸成對整個人全面的好印象，當然相反的負面印象也適用。這就像天空中只有月亮，但月亮周圍的夜空也被照亮，產生一圈光環，因此稱為月暈效應。
+每個候選人肯定都有其優點與缺點，至少有些本事才能站上政治舞台。但無法否認的，造勢場合上不論是越大越好的舞台與造勢場所，還是將主角放在壓軸登場的特殊橋段，甚至搭配高亢激昂的音樂，營造出該總統候選人是天選之人的印象，都是要利用月暈效應讓我們越來越暈，提升對眼前候選人的好印象。
+1977 年，社會心理學家理查德．尼斯貝特做了一個實驗。它將 118 名學生分成兩組，觀看同一個帶有口音的老師的上課錄影。雖然兩組學生看到的是同一個老師，但他們看到的片段，一個是充滿熱情、鼓勵學生回答問題的樣子；另一個是對學生提問顯得冷漠的樣子。
+在看完影片後，尼斯貝特請學生評價對這個老師的外表、舉止、口音三者的喜好程度，結果三項的評分結果，冷漠組都低於熱情組。沒想到吧，行為表現也會影響到別人對你的外表評價哦。
+這就是月暈效應。最重要的是，當尼斯貝特問到，你認為你對老師的個人喜好，是否影響了你對他其他特質的客觀評估時，不論哪一組的受試者，外表、舉止、口音三個都是以勾選「無影響」居多（圖表中中間最高的都是＂NO EFFECT＂）。顯然，大多數人都很難察覺自己正被片面印象，影響著對人的整體評價。
+1848 年美國總統選舉期間，總統候選人扎卡里．泰勒利用樂隊花車來吸引民眾參與他的選舉集會，人們會喊著＂Jump on the bandwagon＂，意思就是跳上遊行中樂隊馬車，吸引更多人一起加入同樂。這句英文後來也衍伸出跟風、趕流行的意思。
+泰勒之後成功贏下選舉，成為美國第 12 任總統。雖然這與他在美墨戰爭的經歷有關，但這種透過群眾帶動更多人的「從眾效應」，在此之後也被稱為「樂隊花車效應」。造勢或大型活動不僅能展現自己的支持者的數量，還能吸引那些沒有明確政治立場的選民，讓他們跟隨多數人的意見。
+1956 年，心理學家所羅門．阿希（Solomon Asch）進行了一個經典的從眾實驗，實驗設計本身很簡單，就只是詢問受試者右邊卡片的三條直線哪條和左邊的直線長度一樣。很明顯地，直線 C 就是正確答案。有趣的是，如果有受試者是和研究者請來的 6 位暗樁一起做實驗，並聽到他們都回答直線 A 才是和左邊的直線長度一樣，結果竟然發現超過百分之 75 的受試者都曾出現跟著錯誤回答的情況，說明人們會被無形的社會壓力影響而做出決定。
+今年的搞笑諾貝爾獎，也正是頒給另一個 1969 年的經典從眾實驗。實驗發現，只要路上有一人抬頭，就會有 40% 的人會跟著模仿。當眼前有 5 個人一起抬頭，高達 80% 的人都會一起抬頭。
+好的，你知道透過造勢和從眾心理，可以製造更多的支持者了，接下來，要怎麼確保這些支持者會出門投票，把這些人的票都催出來呢？
+記得，一定要出門投票！就算你再怎麼支持特定候選人，要是支持者不出門投票，他就永遠選不上。雖然拜票形式五花八門，但最終目的都是希望民眾能真的走出門，把自己手中的一票投給他，也就是動員投票，Get-out-the-vote （GOTV）。但這真的有效嗎？美國政治科學家哈洛德·戈斯內爾作為先驅，在 1927 年就使用統計分析來研究拜票是否能有效增加投票率，還出版了《投票：刺激投票的實驗》這本書。在其中一項實驗，他將提醒小卡寄到民眾的信箱提醒民眾投票，並在選舉後統計了有收到與沒收到提醒小卡的投票率。最後發現，有收到小卡的投票率從 47% 提升到了 57%，顯示拜票還真的能催出更高的投票率。所以呢，我們也會不斷提醒大家訂閱泛科學，想必一定會有好效果的，你說對吧？
+為什麼候選人總是要走進街頭，一個一個地跟人握手呢？大家可能都有這個經驗，在學校時，是不是更容易和坐在旁邊的同學們更容易變成朋友？這種拉近物理距離，也會拉近心理距離的現象稱作「鄰近原則」（Proximity principle），彼此靠近的人們更容易建立人際關係，經常見面的人的關係也往往會更牢固。另外，根據心理學的解釋級別理論，我們對於對象的心理距離，會隨時間距離、空間距離、社會距離和假定距離而改變。距離的遠近，會影響我們是用抽象還是具體的解釋方式，也就是所謂的解釋水平。由於我們物理距離上相當靠近候選人，更可能讓我們覺得政治離我們很近，需要投入實際行動如投票來參與。
+這看似簡單的一個肢體接觸，卻能影響著我們的大腦，增強彼此的社會連結，增加有利的互動。透過功能性核磁共振照影（fMRI），發現握手增加的親近友善行為與杏仁核（Amygdala）、顳上溝（Superior temporal sulcus）以及依核 （Nucleus Accumbens）活性上升有關。 此外，也有研究顯示溫和接觸會讓俗稱愛情賀爾蒙的催產素（Oxytocin）分泌上升。 催產素是哺乳動物大腦分泌的一種激素，能增強信任感並與他人產生社會連結。也就是說，握手也是有訣竅的，不是一股腦兒握好握滿就好。這裡我們就不特別介紹，如果想要我們介紹握手攻略，留言告訴我們吧！
+呼，講到這邊就懂了吧。雖然你不會馬上變成選舉大師，但至少知道，這些選舉策略為什麼總是萬年不變。原來拉票、催票手段背後都經過許多理論支持跟實證驗證。
+當然，心理學理論畢竟是理論，不是問題的所有解答。而且呈現的多是群體現象或趨勢，個體間還是存在差異。做為具有選舉權的公民，要投給誰，能不能客觀看待政見而不受到這些戰術的影響，還是只能問問自己。
+最後想問問大家，這次的選舉你會想投給誰？啊不是，是想問：你覺得哪種選舉宣傳作法到目前為止，最能影響你的投票傾向呢？
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>文明足跡</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>數學無聊是誰的錯？數學家其實很幽默？——《數盲、詐騙與偽科學》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374046</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>雖然很少有學生小學畢業後還不懂乘法表，但有很多人確實不會算，如果一個人開車的速度是每小時 56 公里，開了 4 小時之後，他就開了 224 公里。要是每公克花生賣 40 美分，而 1 袋花生賣 2.2 美元，那麼，這袋花生裡就有 5.5 公克花生。假如全世界人口中有 1/4 是中國人，其餘的 1/5 是印度人，那麼，印度人在全世界的人口中就占了 3/20，或說是 15％。當然，要理解這些問題，並不像學會算 35×4＝140、（2.2）/（0.4）＝5.5、1/5×（1–1/4）＝3/20＝0.15＝15％ 這麼簡單。對很多小學生來說，這不是自然而然就會的東西，要靠做很多很實用、或是純屬想像的問題，才能進一步學會。
+至於估計，學校裡除了教一些四捨五入之外，通常也沒有別的了。四捨五入和合理的估計與真實人生大有關係，但課堂上很少串起這樣的連結。學校不會帶著小學生估計學校砌一面牆要用掉多少塊磚、班上跑最快的人速度多快、班上同學爸爸是禿頭的比例多高、一個人的頭圍與身高之比是多少、要堆出一座高度和帝國大廈等高的塔需要幾枚 5 美分硬幣，還有他們的教室能否容納這些 5 美分硬幣。
+幾乎也沒人教歸納推理，也不會用猜測相關性質和規則的角度，來研究數學現象。在小學數學課裡談到非形式邏輯（informal logic）的機率，就跟講到冰島傳說一樣高。當然，也不會有人提到難題、遊戲和謎語。我相信，這是因為很多時候，聰明的 10 歲小孩輕輕鬆鬆就能打敗老師。
+數學科普作家葛登能最不遺餘力探索數學和這些遊戲之間的密切關係。他寫了很多極有吸引力的書，也在《科學美國人》撰寫專欄，而這些都是會讓高中生或大學生感到很刺激的課外讀物（前提是有人指定他們去讀的話）。此外，數學家喬治．波利亞（George Polya）的《怎樣解題》（How to Solve It）和《數學與合情判讀》（Mathematics and Plausible Reasoning），或許也屬於這一類。有一本帶有這些人的文風、但屬於較初階的有趣好書，是瑪瑞琳．伯恩斯（Marilyn Burns）所寫的《我恨數學》（The I Hate Mathematics! Book），書裡有很多啟發性的提示，帶領讀者解題與發想各種奇思異想，是小學數學課本裡罕見的內容。
+有太多教科書仍列出太多人名和術語，就算有說明解析，也很少。比方說，教科書上會說加法是一種結合律運算（associative operation），因為（a + b）+ c＝a +（b + c）。但很少人會提到非結合律運算，因此，充其量來說，結合律運算的定義是畫蛇添足。不管是結合律或非結合律，你知道了這些資訊之後要怎麼應用？書上還會介紹到其他術語，但除了用粗體字印在書頁中間的小框框裡，看起來很了不起之外，也沒什麼值得提的理由。這些術語滿足了很多人認為，知識就好比一門普通植物學，每種學問都可以在體系中，找到自己的類別和位置。相比之下，把數學當成有用的工具、思維方式或是獲得樂趣的途徑，在多數小學教育課綱中都是很陌生的概念（即使教科書內容不錯也一樣）。
+或許有人會認為，在小學階段，可以用電腦軟體，來幫助學生掌握基本的算數原理及相關應用（應用題、估計等等）。可惜的是，目前可用的程式通常是從教科書上擷取無趣的例行練習，轉化成電腦螢幕版本而已。我不知道有任何軟體可用整合、一致且有效的方法，來教算術與解題應用。
+小學階段的數學教學品質普遍不佳，最終必會有人怪罪於老師能力不足，而且對數學沒什麼興趣、或不懂欣賞數學。我認為，這當中有一部分又要歸咎於大專院校的師資培養課程中，很少或根本不強調數學。以我自己的教學經驗來說，我教過的學生中，表現最差的是中學生，而不是大學主修數學的學生。準小學老師的數學背景也很糟，很多時候甚至根本沒有相關的數學教學經歷。
+而每所小學聘用一、兩位數學專才，在學校裡每天分別到不同班級輔導（或教授）數學，或許可以解決部分問題。有時我認為，如果大學數學教授和小學老師每年可以交換個幾星期，會是個好方法。同樣的，把主修數學的大學生和研究生交到小學老師手裡，不會造成傷害（事實上，後者或許能從前者身上學到一些東西）。而三、四、五年級的小學生則可以在完全適任的老師教導下，接觸到數學謎題與遊戲，將可大大獲益。
+稍微打個岔，謎題與數學之間很有關係，而且相關性會一直延續到大學與研究階段的數學。當然，把謎題換成幽默也通。我在《數學與幽默》（Mathematics and Humor）書中試著說明，數學和幽默都是某種益智遊戲，與猜謎、解題、遊戲和悖論多有共通之處。
+數學和幽默都是把概念組合、拆開再拼回來，然後從中得到樂趣。慣用的手法包括並列、歸納、迭代和倒向（比方說「aixelsyd」就是把「dyslexia」﹝閱讀障礙﹞的字序倒過來）。那麼，如果我放寬這個條件，但緊縮另一個條件會怎樣？某一個領域的概念（像是綁辮子），和另一個看來完全不同領域的概念（如某些幾何圖形的對稱性）有什麼共通點？當然，即便不是數盲，可能也不熟悉數學這個面向，因為你必須要先具備一定程度的數學概念，才可以拿來耍弄。其他像獨創性、不協調感以及精簡的表達，對於數學和幽默來說也都同樣重要。
+可能有人說過，因為所受訓練之故，數學家有一種特殊的幽默感。他們往往會接受字面意義，但字面上的解讀又常和標準用法的意義不同，因此很好笑。比方說，哪種運動比賽時要蓋臉？答案是，冰上曲棍球以及痲瘋病人拳擊（按：原文「Which two sports have face-offs」，「face-off」其中一個字面意義為「蓋臉」，而這也是冰上曲棍球常用的術語，意指「爭奪球權」）。他們也很沉溺於歸謬法（reductio ad absurdum），或設定極端前提條件然後做邏輯演練，以及各式各樣的字組遊戲。
+如果可以透過小學、中學或大學階段的正式數學教育，或是非正式的數學科普書籍，傳達數學有趣的面向。我認為，數盲就不會像現在這麼普遍。
+——本書摘自《數盲、詐騙與偽科學》，2023 年 11 月，大牌出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>文明足跡</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>溫室效應有救了？把二氧化碳埋進地底吧！   - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375271</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">本文由 台灣中油股份有限公司 委託，泛科學企劃執行。 
+近年全球對於氣候變遷的關注日益增加，各國紛紛宣布淨零排放（Net Zero Emissions）的目標，聯手應對氣候變遷所帶來的挑戰。淨零排放是指將全球人為排放的溫室氣體量和人為移除的量相抵銷後為零。而「碳捕存再利用技術（Carbon Capture Utilization and Storage，簡稱 CCUS）」技術被視為達成淨零重要的措施之一。 
+CCUS 技術可以有效地將二氧化碳從大氣中捕捉並封存，進而減少溫室氣體的排放。CCUS 包含捕捉、運輸、封存或再利用三個階段，也就是將二氧化碳抓下來，並且存起來或是轉換成其他有價值的化學原料。關於如何捕捉二氧化碳，可以參考我們先前拍的影片《減碳速度太慢？現在已經能主動把二氧化碳抓下來！？抓下來的二氧化碳又去了哪裡？》。 
+至於捉下二氧化碳之後，該存放在哪裡呢？科學家們看上一個經過數千萬年驗證、最適合儲存的地方——地底。沒錯，地底可不只有石頭跟蜥蜴人，只要這些石頭中存在孔隙，就可以儲存氣體或液體。最常見的就是天然氣與石油。現在，我們只要將二氧化碳儲存到這些孔隙就好。 
+封存的地質條件也很簡單，第一，要有一層擁有良好空隙率及滲透性的「儲集層」，通常是砂岩。第二，有一層緻密、不透水且幾乎無孔隙的岩石，用來阻擋儲集層的氣體向上逸散的「蓋層」，常見的是頁岩。只要儲集層在下，蓋層在上，就是一個理想的儲存環境。 
+臺灣由東往西，從西部麓山帶、西部平原、濱海到臺灣海峽，都有深度達 10 公里的廣大沉積層，並且砂岩與頁岩交替出現，可說是良好的儲氣構造。 
+至於臺灣適合封存二氧化碳的地點，有個很直接的作法，就是參考石油、天然氣的儲存場域就好，也就是所謂的「枯竭油氣層」。將開採過的天然氣或石油的空間，重新拿來儲存二氧化碳。而臺灣的油氣田，主要集中在西部的苗栗與臺南一帶，在 1959～2016 年，累計產了 500 億立方公尺的天然氣，和超過 500 萬公秉的凝結油。 
+而至今這些枯竭油氣田，適合來做二氧化碳的封存。例如苗栗縣通霄鎮的鐵砧山是臺灣目前陸上發現最大的油氣田，不只是封閉型背斜構造，更擁有厚實緻密的緻密蓋岩層。在原有油氣田枯竭後，從民國 77 年開始轉為天然氣儲氣窖利用原始天然氣儲層調節北部用氣的方式，已持續超過 35 年。因此中油也正規劃在鐵砧山氣田選擇合適的蓋層和鹽水層，進行小規模的二氧化碳注入，作為全國首座碳封存的示範場址。並同時進行多面向的長期監測，驗證二氧化碳封存的可行性與安全性。 
+更多詳細內容及國際 CCUS 案例，歡迎觀看影片解惑！ </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>除了蚯蚓、地震魚和民間達人，那些常見的臺灣地震預測謠言 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374794</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>本文由 交通部中央氣象署 委託，泛科學企劃執行。
+災害性大地震在臺灣留下無數淚水和難以抹滅的傷痕，921 大地震甚至直接奪走了 2,400 人的生命。既有這等末日級的災難記憶，又位處於板塊交界處的地震帶，「大地震！」三個字，總是能挑動臺灣人最脆弱又敏感的神經。
+因此，當我們發現臺灣被各式各樣的地震傳說壟罩，像是地震魚、地震雲、蚯蚓警兆、下雨地震說，甚至民間地震預測達人，似乎也是合情合理的現象？
+今日，我們就要來破解這些常見的地震預測謠言。
+說到在坊間訛傳的地震謠言，許多人第一個想到的，可能是盛行於日本、臺灣的「地震魚」傳說。
+在亞熱帶海域中，漁民將「皇帶魚」暱稱為地震魚，由於皇帶魚身型較為扁平，生活於深海中，魚形特殊且捕獲量稀少，因此流傳著，是因為海底的地形改變，才驚擾了棲息在深海的皇帶魚，並因此游上淺水讓人們得以看見。
+因此，民間盛傳，若漁民捕撈到這種極為稀罕的深海魚類，就是大型地震即將發生的警兆。
+然而，日本科學家認真蒐集了目擊深海魚類的相關新聞和學術報告，他們想知道，這種看似異常的動物行為，究竟有沒有機會拿來當作災前的預警，抑或只是無稽之談？
+可惜的是，科學家認為，地震魚與地震並沒有明顯的關聯。當日本媒體報導捕撈深海魚的 10 天內，均沒有發生規模大於 6 的地震，規模 7 的地震前後，甚至完全沒有深海魚出現的紀錄！
+所以，在科學家眼中，地震魚僅僅是一種流傳於民間的「迷信」（superstition）。
+透過動物來推斷地震消息的風俗並不新穎，美國地質調查局（USGS）指出，早在西元前 373 年的古希臘，就有透過動物異常行為來猜測地震的紀錄！
+人們普遍認為，比起遲鈍的人類，敏感的動物可以偵測到更多來自大自然的訊號，因此在大地震來臨前，會「舉家遷徙」逃離原本的棲息地。
+當臺灣 1999 年發生集集大地震前後，由於部分地區出現了大量蚯蚓，因此，臺灣也盛傳著「蚯蚓」是地震警訊的說法。
+​當街道上出現一大群蚯蚓時，密密麻麻的畫面，不只讓人嚇一跳，也往往讓人感到困惑：為何牠們接連地湧向地表？難道，這真的是動物們在向我們預警天災嗎？動物們看似不尋常的行為，總是能引發人們的好奇與不安情緒。
+如此怵目驚心的畫面，也經常成為新聞界的熱門素材，每年幾乎都會看到類似的標題：「蚯蚓大軍又出沒 網友憂：要地震了嗎」，甚至直接將蚯蚓與剛發生的地震連結起來，發布成快訊「昨突竄大量蚯蚓！台東今早地牛翻身…最大震度4級」，讓人留下蚯蚓預言成功的錯覺。
+然而，這些蚯蚓大軍，真的與即將來臨的天災有直接關聯嗎？
+蚯蚓與地震有關的傳聞，被學者認為起源於 1999 年的 921 大地震後，在此前，臺灣少有流傳地震與蚯蚓之間的相關報導。
+雖然曾有日本學者研究模擬出，與地震相關的電流有機會刺激蚯蚓離開洞穴，但在現實環境中，有太多因素都會影響蚯蚓的行為了，而造成蚯蚓大軍浮現地表的原因，往往都是氣象因素，像是溫度、濕度、日照時間、氣壓等等，都可能促使蚯蚓爬出地表。
+大家不妨觀察看看，白日蚯蚓大軍的新聞，比較常出現在天氣剛轉涼的秋季。
+因此，下次若再看到蚯蚓大軍湧現地表的現象，請先別慌張呀！
+事實上，除了地震魚和蚯蚓外，鳥類、老鼠、黃鼠狼、蛇、蜈蚣、昆蟲、貓咪到我們最熟悉的小狗，都曾經被流傳為地震預測的動物專家。
+但可惜的是，會影響動物行為的因素實在是太多了，科學家仍然沒有找到動物異常行為和地震之間的關聯或機制。
+這座每天發生超過 100 次地震的小島上，擁有破萬成員的地震討論臉書社團、隨處可見的地震預測粉專或 IG 帳號，似乎並不奇怪。
+國內有許多「憂國憂民」的神通大師，這些號稱能夠預測地震的奇妙人士，有些人會用身體感應，有人熱愛分析雲層畫面，有的人甚至號稱自行建製科學儀器，購買到比氣象署更精密的機械，偵測到更準確的地震。
+然而，若認真想一想就會發現，臺灣地震頻率極高，約 2 天多就會發生 1 次規模 4.0 至 5.0 的地震， 2 星期多就可能出現一次規模 5.0 至 6.0 的地震，若是有心想要捏造地震預言，真的不難。 
+在學界，一個真正的地震預測必須包含地震三要素：明確的時間、 地點和規模，預測結果也必須來自學界認可的觀測資料。然而這些坊間貼文的預測資訊不僅空泛，也並未交代統計數據或訊號來源。
+作為閱聽者，看到如此毫無科學根據的預測言論，請先冷靜下來，不要留言也不要分享，不妨先上網搜尋相關資料和事實查核。切勿輕信，更不要隨意散播，以免造成社會大眾的不安。
+此外，大家也千萬不要隨意發表地震預測、觀測的資訊，若號稱有科學根據或使用相關資料，不僅違反氣象法，也有違反社會秩序之相關法令之虞唷！
+由於地底的環境太過複雜未知，即使科學家們已經致力於研究地震前兆和地震之間的關聯，目前地球科學界，仍然無法發展出成熟的地震預測技術。
+與其奢望能提前 3 天知道地震的預告，不如日常就做好各種地震災害的防範，購買符合防震規範的家宅、固定好家具，做好防震防災演練。在國家級警報響起來時，熟練地執行避震保命三步驟「趴下、掩護、穩住」，才是身為臺灣人最關鍵的保命之策。</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>找回擁有食物的主導權？從零開始「菇類採集」！——《真菌大未來》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374570</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>在新冠肺炎（COVID-19）大流行後，馬斯洛「需求層次理論」裡的食品與安全在眾目睽睽下被抽離出來，變成後疫情時代最重要的兩個元素。對食物的焦慮點燃人們大腦中所有生存意志，於是大家開始恐慌性地購買，讓原本就已經脆弱、易受攻擊的現代糧食系統更岌岌可危。
+值得慶幸的是，我們的祖先以前就經歷過這一切，留下來的經驗值得借鏡。菇類採集的興趣在艱難時期達到顛峰，這反映了人類本能上對未來產生的恐懼。1 無論是否有意，我們意識到需要找回擁有食物的主導權，循著古老能力的引導來找尋、準備我們自己的食物，如此才能應付食物短缺所產生的焦慮。
+我們看見越來越多人以城市採集者的身分對野生菇類有了新的品味，進而找到安全感並與大自然建立起連結。這並不是說菇類採集將成為主要的生存方式，而是找回重新獲得自給自足能力的安全感。此外，菇類採集的快感就足以讓任何人不斷回歸嘗試。
+在這個數位時代，菇類採集是讓我們能與自然重新連結的獨特活動。我們早已遺忘，身體和本能，就是遺傳自世世代代與自然和諧相處的菇類採集者。走出現代牢籠、進入大自然從而獲得的心理和心靈滋養不容小不容小覷。森林和其他自然空間提醒著我們，這裡還存在另一個宇宙，且和那些由金錢、商業、政治與媒體統治的宇宙同樣重要（或更重要）。
+只有願意撥開遮蓋的落葉並專注尋找，才能體認到菇類的多樣性和廣泛分布。一趟森林之旅能讓人與廣大的生態系統重新建立連結，另一方面也提醒我們，自己永遠屬於生命之網的一部分，從未被排除在外。
+腐爛的樹幹不再讓人看了難受，而是一個充滿機遇的地方：多孔菌（Bracket Fungi）──這個外觀看起來像貨架的木材分解者，就在腐爛的樹幹上茁壯成長，規模雖小卻很常見。此外，枯葉中、倒下的樹上、草地裡或牛糞上，也都是菇類生長的地方。
+菇類採集是一種社會的「反學習」（遺忘先前所學）。你不是被動地吸收資訊，而是主動且專注地在森林的每個角落尋找真菌。不過度採集、只拿自身所需，把剩下的留給別人。你不再感覺遲鈍，而是磨練出注意的技巧，只注意菇類、泥土的香氣，以及醒目的形狀、質地和顏色。
+菇類採集喚醒身體的感官感受，讓心靈與身體重新建立連結。這是一種可以從中瞭解自然世界的感人冥想，每次的發現都振奮人心，運氣好的話還可以帶一些免費、美味又營養的食物回家。祝您採集愉快。
+菇類採集就像在生活中摸索一樣，很難照既定計畫執行，而且以前的經歷完全派不上用場。最好的方法就是放棄「非採集到什麼不可」的念頭，持開放心態走出戶外執行這項工作。菇類採集不僅是享受找到菇的滿足感，更重要的是體驗走過鬆脆的樹葉、聞著森林潮濕的有機氣味，並與手持手杖和柳條筐的友善採菇人相遇的過程。
+你很快就會明白為什麼真菌會有「神秘的生物界」的稱號。真菌無所不在但又難以捉摸，採集過程幾乎就像玩捉迷藏，只不過你根本不確定自己在找什麼，甚至根本不知道要找的東西是否存在。但還是要有信心，只要循著樹木走、翻動一下原木、看看有落葉的地方，這個過程就會為你指路。一點點的計畫，將大大增加你獲得健康收益的機會。所以，讓我們開始吧。
+林地和草原，是你將開始探索的兩個主要所在。林地底層提供真菌所需的有機物質，也為樹木提供菌根關係。橡樹、松樹、山毛櫸和白樺樹都是長期的菌根夥伴，所以循著樹種，就離找到目標菇類更近了。
+草原上也會有大量菇類，但由於這裡的樹木多樣性和環境條件不足，所以菇類種類會比林地少許多。如果這些地點選項對你來說都太遠了，那麼可以試著在自家花園或在地公園綠地當中尋找看看。這些也都是尋菇的好地方。
+澳洲可以說是真菌天堂。與其他大陸隔絕的歷史、不斷變化的氣候以及營養豐富的森林，讓澳洲真菌擁有廣大的多樣性。澳洲新南威爾斯州（New South Wales）的奧伯倫（Oberon）就有一座超過四萬公頃的松樹林，是採集菇類的最佳地點之一。
+在那裡，有廣受歡迎的可食用菌松乳菇（又稱紅松菌），據說這種真菌的菌絲體附著在一棵歐洲進口樹的根部，而意外被引進澳洲。 1821 年，英國真菌學家塞繆爾・弗里德里克・格雷（Samuel Frederick Gray）將這種胡蘿蔔色的菇命名為美味乳菇（Lactarius deliciosus），這的確名符其實，因為「Deliciosus」在拉丁語中意為「美味」。如果想要在奧伯倫找到這些菇類，秋天時就要開始計劃，在隔年二月下旬至五月的產季到訪。
+在英國，漢普郡的新森林國家公園（Hampshire’s New Forest）距離倫敦有九十分鐘的火車車程。它由林地和草原組成，當中有種類繁多的植物群、動物群和真菌可供遊客觀賞，甚至還有野生馬匹在園區裡四處遊蕩。
+這片森林擁有兩千五百多種真菌，其中包括會散發惡臭的臭角菌（Phallus impudicus），它的外觀和結構就如圖鑑中描述般，與男性生殖器相似且不常見。還有喜好生長於橡樹上，外觀像架子一樣層層堆疊的硫色絢孔菌（Laetiporus sulphureus ，又稱林中雞）。該國家公園不允許遊客採收這裡的菇，所以請把時間花在搜尋、鑑別與欣賞真菌上。如果幸運的話，該地區可能會有採集團體可以加入，但能做的也僅限於採集圖像鑑別菇類，而非採集食用。
+甚至紐約市的中央公園也有採集菇類的可能性。雖然在 1850 年代公園建造之時並未刻意引進菇類物種，但這個占地八百四十英畝的公園現已登錄了四百多種菇類，足以證明真菌孢子的影響之深遠。
+加里・林科夫（Gary Lincoff）是一位自學成才、被稱作「菇類吹笛人」2 的真菌學家，他住在中央公園附近，並以紐約真菌學會的名義會定期舉辦菇類採集活動。林科夫是該學會的早期成員之一，該學會於 1962 年由前衛作曲家約翰・凱吉（John Cage）重新恢復運作。凱吉也是一位自學成才的業餘真菌學家，並靠自己的能力成為專家。
+進行菇類採集時，找瞭解特定物種及其棲息地的在地專家結伴同行，總是有幫助的。如果你需要一個採集嚮導，求助於所在地的真菌學會會是一個正確方向。
+在適當的環境條件下（例如溫度、光照、濕度和二氧化碳濃度），菌絲體全年皆可生長。某些物種對環境條件較敏感，但平均理想溫度介於 15~24 ℃ 之間，通常是正要進入冬季或冬季剛過期間，因此秋季和春季會是為採集菇類作計畫的好季節。
+當菌絲體從周圍吸收水分時，會產生一股破裂性的力量，讓細胞充滿水分並開始出菇。這就是菇類通常會出現在雨後和一年中最潮濕月份的原因。牢記這些條件，就可以引導你找到寶藏。但也要記得，因為菇類受溫度變化模式和降雨量的影響很大，所以每年採菇的旺季時間會略有不同。
+——本文摘自《真菌大未來：不斷改變世界樣貌的全能生物，從食品、醫藥、建築、環保到迷幻》，2023 年 12 月，積木文化出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>素肉怎麼做？讓菌絲體開啟素食新境界！——《真菌大未來》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374549</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>人類應用發酵已有很長一段歷史，也產生許多令人驚訝的結果，其中一個令人愉快的意外之作就是天貝（tempeh）。天貝是 1800 年代初起源於印尼的一種素食主食 1。歷史學家經考究認為，天貝是無意間產生的食物，很可能是在試圖將大豆隔夜保存免受熱影響時被發現的。2
+在保存大豆的過程中，少孢根黴菌（Rhizopus oligosporus）的孢子落到大豆上，引起發酵過程並形成天貝的緻密餅狀物。少孢根黴菌將大豆或其豆類基質結合在一起，形成 100 % 可食用又富含蛋白質、礦物質和維他命的網狀棉質菌絲體。
+諾馬餐廳（Noma）前發酵負責人大衛・齊爾伯（David Zilber）將天貝帶往新的境界。素食運動的推動，讓世界各地的廚師都在嘗試使用肉類替代品來複製漢堡中的牛肉餅。齊爾伯開發出一種由藜麥製成的天貝，作法是將藜麥穀物接種菌絲體，並在露天下發酵以降低水分含量，只留下足以在烹飪時保持多汁的水分，最後在天貝上塗抹一層諾馬餐廳以真菌發酵自製的酵母魚醬和蠶豆醬油，就大功告成了。
+這款漢堡被品評專家譽為「最佳素食漢堡」。齊爾伯對此評論：「三種真菌和一種穀物，證明也許只要掌握一點技巧，好的烹飪就可以幫助拯救和養活一個需要療癒的世界」。3
+是什麼讓天貝富含營養？又為什麼，它會成為一種神奇的食物？天貝不僅含有飲食中的一些基本成分，也就是蛋白質、碳水化合物和來自大豆的脂肪，其中的菌絲體，更提供類似於菇類的益處：富含全部九種人體無法合成的必需氨基酸、纖維、維他命和礦物質，熱量低且不含膽固醇。天貝的例子讓我們瞭解到，不僅菇類可以吃，菌絲也是可以吃的。最棒的是，一些真菌菌絲體與肉的質地非常相似，成為素食饕客餐盤裡的熱門選擇。
+溫斯頓・丘吉爾（Winston Churchill） 1931 年發表的文章〈五十年後〉（Fifty Years Hence）裡，他預測「將發展出新的微生物菌株，並為我們量產化學物」，並總結道「當然，未來也將會使用合成食品」。4 現在看來，丘吉爾的說法完全正確。
+ 1985 年，馬洛食品（Marlow Foods）推出闊恩素肉（quorn），這是一種以真菌菌絲體製成的素食派餅產品系列，品牌名稱為「真菌蛋白」（Mycoprotein）。「真菌蛋白」的商業成功歸功於鑲片鐮孢菌（Fusarium venenatum），其能迅速將澱粉轉化為高含量的蛋白質。
+該公司對這種生產工藝的專利已在 2010 年過期，所以其他有興趣的廠商可以進入生產真菌蛋白的領域了。然而，如今闊恩素肉在超市中仍隨處可見，且提供越來越多的無動物肉類和大豆成分所製造的禽肉、牛肉和魚肉。
+艾本・拜耳（Eben Bayer）和蓋文・金泰爾（Gavin McIntyre）於 2007 年創立生態創新生物技術公司（Ecovative），正利用真菌製造用於包裝、紡織品和肉類替代品的菌絲體材料。他們最新的獨創觀念是「最終食品」（atlast food），也就是控制溫度、氣流、二氧化碳供應和濕度，藉以促使菌絲體的纖維組織長成各種形狀的合成肉。這個複雜過程也是一種發酵形式，使菌絲體在十天內就能形成具有不同質地、強度和纖維的成分，口感類似於動物肉。
+菌絲體肉的開發，是希望能減輕畜牧業對地球造成的負擔。「最終食品」的生產設施由垂直農業基礎設施組成，與傳統肉類生產相比，土地需求少了十倍、產生的二氧化碳也降低許多。「最終食品」的第一個產品「菌絲體培根」，其用水量就比傳統豬肉生產少了一百倍。
+生物技術的進步使該工業能找到可行的解決方案，為未來創造永續的食物來源。如果可以使用更少的資源，且對自然造成更少的傷害來人工種植食物，就不必再從大自然中做擷取。當時拜耳對所有等待菌絲體肉的人們說，希望三年內就能實現全球供應。5 菌絲體革命即將到來。
+維他命 D 對於保持骨骼、牙齒和肌肉健康來說相當重要。《澳洲醫學雜誌》（The Medical Journal of Australia）建議，如果無法曬太陽，那每天至少要補充 400 IU6 的維他命 D。對於照射陽光不足的人來說，菇類是唯一天然、非動物性的維他命 D 來源。只要將菇類暴露在陽光下就可以產生維他命 D 7，這是在家裡就可以辦到的工作。
+把菇類放在窗臺上讓菌褶朝向陽光，放置 15 分鐘後再烹調，這樣的簡單步驟即可將菇類變成維他命 D 的絕佳來源。僅 84 公克新鮮、暴露於紫外線的洋菇，就含有超過 600 IU 的維他命 D，且與維他命 D 營養補充品一樣容易被身體吸收。8
+——本文摘自《真菌大未來：不斷改變世界樣貌的全能生物，從食品、醫藥、建築、環保到迷幻》，2023 年 12 月，積木文化出版，未經同意請勿轉載。
+因為人類幾丁質酶雖然有在胃表達，但是並非集中在分泌消化液的相關? 那究竟，類似WHO把有完整細胞壁的蔬果中的糖列為非添加糖，果汁果泥果糊列為自由糖，通常分子量又比葡萄糖更大的維生素跟蛋白質，被幾丁質細胞壁影響釋出的狀況，應該會比被纖維素半纖維素木質素細胞壁封鎖住的，更嚴重? 因為可能本來內部成分就更難出去，外面的酵素也更難進來?
+因為人類幾丁質酶雖然有在胃表達，但是並非集中在分泌消化液的相關? 那究竟，類似WHO把有完整細胞壁的蔬果中的糖列為非添加糖，果汁果泥果糊列為自由糖，通常分子量又比葡萄糖更大的維生素跟蛋白質，被幾丁質細胞壁影響釋出的狀況，應該會比被纖維素半纖維素木質素細胞壁封鎖住的，更嚴重? 因為可能本來內部成分就更難出去，外面的酵素也更難進來?</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>每次呼吸都會吸入十個孢子？一朵菇如何形成？無所不在的真菌生命循環！——《真菌大未來》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374477</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>孢子是真菌生命週期的開始，也是結束。這些單細胞單元裡，包含著新真菌個體的繁衍密碼。面對無數微生物競爭者和惡劣的環境條件，孢子萌芽的機率極低，因此真菌釋放出數萬億個孢子來提高生存機會。孢子維持在一個暫停於生死之間的狀態，密切留意周遭世界並尋找適合落腳的地方。孢子很微小，無處不在，所以根本無法躲避它們，以我們自己而言，每次的呼吸都會吸入十個孢子。
+被稱為「胚種假說」（Panspermia）的生命起源論甚至認為：生命的藍圖被包裹在一顆孢子當中，並在太空中旅行，在宇宙中尋找適合落腳的家園。儘管對此假說爭論不休，但我們確實知道孢子可以耐受極端溫度、抗輻射，甚至可以在真空狀態的太空中存活。 1988 年，和平號空間站（mir）的俄羅斯太空人就注意到，他們的鈦石英窗外有「東西」在生長，而且正在漸漸「啃穿」鈦石英。後來證實，這個「東西」就是一種真菌。1
+就像植物一樣，大多數真菌也都採用「紮根在土壤當中」這種耗時的繁殖方式：它們利用菌絲體生長，或透過孢子飄散到新的棲息地。在渴望繁衍其 DNA 的動力下，有些真菌採取巧妙的策略，確保其孢子在新環境中得以繁殖。
+擁有誘人香氣的美食佳餚黑松露（Tuber melanosporum）就是一個很好的例子。這種跟黃金一樣珍貴的真菌生長在地底下，隨著孢子成熟，其所散發出的香氣會吸引動物、松露獵人和來自世界各地的美食家。松露的孢子不易被消化，所以最終會安全通過有幸一飽口福者的消化道；在理想狀況下，孢子應已遠離原來被採集到松露的位置。
+在地面上，圓形的巨型馬勃（Calvatia gigantea）子實體保護著數以百萬在內部熟成的孢子。有趣的是，只要戳一下成熟的馬勃，它就會噴出一股煙霧狀的孢子粉，讓風帶走飄散的孢子。
+生長在糞便之中的水玉黴菌屬（Pilobolus）真菌，藉由分泌水分充滿泡囊增加壓力，最後像水槍一樣排射出泡囊頂部的孢子囊。有研究經計算發現，孢子囊能以至少 20,000 g （重力）的速率被噴射出去。相較之下，訓練有素的美國國家航空暨太空總署（NASA）太空人在太空船中穿著抗重力服（G-Suit）所承受的重力是 3 g ，而子彈是以 9,000 g 的加速度行進的。
+還有能在黑暗中發光的真菌，光線會吸引昆蟲將它們的孢子散布到森林底層。例如，加德納臍菇（Neonothopanus gardneri，俗稱椰子花）就受到晝夜節律的調節，在夜間會發出明亮的光。 2所有這些演化而來的調整，都是為了確保繁殖能夠延續。
+當孢子落在一個溫度適中、靠近食物和水的地方時，它就會萌芽。孢子經由細胞壁吸收水分，並長出一種稱為菌絲的線狀管。當菌絲在營養基質上生長，就會分支出更多菌絲並形成一條細線。原本的菌絲繼續利用可能是木頭、昆蟲或土壤的基質，由尖端處長出更多菌絲。菌絲間開始融合相連，形成一個相互連接、被稱為菌絲體的物質。
+每條菌絲的生長都結合了物理力量和化學策略。菌絲會分泌出作用相當於強力消化酸的酵素來分解物質。這個分泌酵素的作用，讓真菌能穿透最堅硬的基質：先將營養物質萃取出來，再經由菌絲體吸收。就像我們唾液中的酵素一樣，很快就可以將口中的麵包變成濕糊狀。
+菌絲體如同漣漪一般，從孢子萌芽之處輻射向外生長。附近有營養物質出現時，菌絲體就會以圓形的方式使其表面積最大化，朝營養來源方向生長。當一個區域的食物來源耗盡，菌絲體中心處的舊菌絲就會被自己消化掉。殘存在被消化舊菌絲當中的可用資源，則會被重新傳送到菌絲體最外圈，供生長正旺盛的菌絲所用。
+最後，菌絲體會長成一個廣大的空心環，也就是有時我們在草地上看見的「仙女環」。隨著資源被重新傳送到菌絲體生長的外緣，中心會逐漸消失，環的周長則逐漸增加。只要有養分和水，菌絲體就可以持續以這種方式不斷地生長下去。
+在此階段，除了酵母菌以外的真菌就能由菌絲形成孢子，進行無性生殖。黴菌、銹病和粉狀黴菌等微型真菌總是以這種方式繁殖，例如麵包上所見的黴菌黑點就含有超過五萬個孢子。
+然而，屬於單細胞微型真菌的酵母菌，則採取不同於絲狀真菌的方式進行無性生殖。酵母菌利用分裂產生複製體進行無性生殖，雖然這種方法很有效率，但卻因此錯過了可以經由有性生殖確保遺傳多樣性的樂趣。3
+除了透過無性生殖的方式繁殖，若環境條件惡劣（通常情況就是這樣），大型真菌也可以進行有性生殖。當兩個有性生殖相容的菌絲體相遇，它們就會進行融合並形成更大的團塊。
+融合後已經具備遺傳多樣性的新菌絲體，等待著合適的環境條件到來，就會聚集它的菌絲、吸收水分膨脹，並形成被稱為原基（primordium）的菇蕾。幾天後，原基逐漸伸長菌柄，將菌傘推出基質表面。最後，菌傘打開就變成了一個完全成熟的菇。菇類的顏色、質地和形狀會因種類而異。
+根據菇類產生和釋放孢子的方式，可以將大型真菌分成兩群：一群是在封閉囊內產生孢子的子囊菌（asomycota），另一群是從菌褶中形成並釋放孢子的擔子菌（basidiomycota）。擔子菌的菌褶有一層菌膜保護，隨著菇的成熟，該菌膜就會剝落。
+菇的本身可以說就是一個慶典，慶祝擁有數萬億待釋放新世代真菌（孢子）的出現。孢子將再次進入那已經持續循環數十億年的過程之中。自然不會多愁善感，所以慶典終將結束；菇類在完成產生孢子的工作之後，就會開始腐爛消失。
+它們已經達成自然所交付的任務，而且也不吝讓我們一窺正大自然發自內在的美。菇類的出現是真菌生命循環的最美麗時刻，也許因為這樣，菇類才會如此受到歡迎。
+——本文摘自《真菌大未來：不斷改變世界樣貌的全能生物，從食品、醫藥、建築、環保到迷幻》，2023 年 12 月，積木文化出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>海洋綠洲——花紋海豚棲地利用分析 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374580</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>編按：海洋綠洲棲地利用調查截至 2023/10/19 共出航 56 趟調查、共計 435 小時，追蹤時間少於 30 分鐘的花紋海豚航跡將不會被納入此分析。
+國際自然保護聯盟在 2016 年開始推動「海洋哺乳動物重要棲息地」（ Important Marine Mammal Areas, 下文將簡稱為 IMMAs ），以跨國界的尺度整合瀕危海洋哺乳動物的棲地分佈、移動路線與生存威脅等資料。截至 2022 年，世界上一共劃設了 200 多個 IMMAs（圖二），並且每年持續增加中！隨著能源轉型、貴金屬日益匱乏，新能源、採礦也漸漸由陸地發展到海洋，加上目前海上充斥著各式各樣的船隻、漁具、海洋廢棄物與各式汙染等。秉持「預防勝於治療」的精神，海洋綠洲第二階段的目標即是將東部海域的鯨豚生態資料彙整申請 IMMAs ，透過國際的認證，我們期望能喚起臺灣民眾、政府對鯨豚保育的重視。
+要申請 IMMAs ，其中一項重要指標便是要瞭解鯨豚對於花蓮近海這片棲地是否具有休息、覓食與繁殖哺育的重要性，在這項指標下，我們鎖定了花蓮海域最常出現的老鄰居：花紋海豚（Grampus griseus）與飛旋海豚（Stenella longirostris），透過一年四季共 20 趟的調查，我們期望能瞭解長年在花蓮外海走跳的牠們，究竟在哪些區域哺育、繁殖、休息、覓食或社交，同時也希望藉由調查瞭解牠們的行為狀態是否會受到賞鯨、漁業活動的影響？在 2021 年 4 月的試航之後，我們正式展開了為期三年的調查，持續在海上蒐集資料；今年秋天的第一篇電子報，我們將要跟讀者分享這三年來在花紋海豚身上的新發現。
+棲地利用調查的範圍以鹽寮港為南界、和平溪口為北界，之間共劃設北、中、南三個重點調查區域（圖三），觀察花蓮近海最常見的飛旋海豚與花紋海豚的族群樣貌與行為狀態，為了要長時間追蹤鯨豚，一趟海上調查大約會落在 8 – 10 小時。
+棲地利用的調查方法為「焦點群體採樣 Focal animal sampling 」，跟以往賞鯨點狀的紀錄不同，在海上我們的工作就像是「狗仔」，當我們在預計的重點調查區域範圍遇見飛旋海豚或花紋海豚時，我們會鎖定狀態較穩定的主要群體，以不影響鯨豚行為狀態的前提下，能跟同一群鯨豚多久就跟多久，最久甚至高達 7 小時呢！在調查過程中，辛苦的調查員們會記錄下牠們每 5 分鐘做了些什麼，同時海豚當下的泳向、下潛時間跟角度、個體間距與泳速等都會被詳盡地記錄下來，並搭配錄影、拍照作為判斷狀態的依據（表一）。為了要盡可能記錄鯨豚未受人為干擾的狀態，我們會盡量與鯨豚保持 200 公尺以上距離，用望遠鏡遠遠地觀察，只有最後蒐集水下聲音、拍攝特寫時才會靠近牠們。
+在調查過程中我們有發現花紋海豚出現幾次嘗試覓食的行為——「魚雷式下潛」（圖五），這種下潛方式初次被描述於亞速爾群島（Azores）的研究，當地學者在花紋海豚身上裝置吸盤式資料蒐集器（Data TAG），發現花紋海豚魚雷式下潛時，能在短時間內更快地潛入深海，並且在下潛後，吸盤式資料蒐集器也有錄到花紋海豚搜尋獵物的喀答聲（Clicks）以及滋滋聲（Buzz），由於滋滋聲是齒鯨在最後嘗試覓食時會發出的，證明在魚雷式下潛過後，牠們有在水下嘗試覓食。而讓我們覺得振奮人心的是，我們居然也在花蓮近海紀錄到花紋海豚的魚雷式下潛，說明花紋海豚很有可能在這片海域覓食！
+本次分析採用了 38 群花紋海豚，總共約 84 小時的調查航跡，並使用 3×3 km² 的網格1 分析各個行為狀態的使用區域。透過過去三年的資料來看，我們發現花紋海豚最常在花蓮近海游走，範圍主要在立霧溪以南至芭崎離岸約 15 公里的範圍內，並且在北邊也有少量高比例區域；至於第二常見的社交行為狀態，大略可以分為三個核心區域，由北至南分別是大濁水溪、崇德以及芭崎的外海離岸約 5 公里的範圍內；花紋海豚休息的位置主要位於立霧溪出海口約 7 公里以內的範圍；繞圈徘徊主要在七星潭外海、鹽寮外海約 7 公里以內的範圍；覓食則位在花蓮溪出海口至鹽寮外海約 10 公里以內的範圍。同時我們也發現目擊的花紋海豚群次，有 45.8 % 有出現母子對，而這也代表我們調查的範圍內是花紋海豚育幼的重要區域。
+由於調查船追蹤鯨豚時，是平行地跟隨在鯨豚側邊，透過分析船隻追蹤期間的速度，我們也可以概略得知鯨豚的平均泳速。在分析追蹤群體的泳速後，我們發現花紋海豚整體泳速介於 0.5 – 4 節2 ，繞圈徘徊的速度較快，介於 2 – 4 節；而在五種狀態中最慢的為休息，介於 1.2 – 3 節間；覓食跟游走的速度範圍廣，介於 0.5 – 4 節。我們也希望可以了解花蓮近海頻繁的賞鯨活動是否對花紋海豚會造成影響？透過獨立出賞鯨船靠近的航跡，我們發現泳速並無太多變化，但在少數賞鯨船靠近的經驗中，我們發現群體的行為狀態會有些變化，例如群體泳向變得不一致、或賞鯨船離開後群體變得更加分散，甚至也有最後下潛離開的案例。
+透過棲地利用分析，我們初步瞭解了花蓮近海花紋海豚的關鍵生命週期活動，同時也發現到部分花紋海豚群體有受到賞鯨船的影響，未來我們將會彙整這些分析的數據，並對於保育策略提供更實際的經營管理建議，同時根據本次分析成果，我們也呼籲讀者支持提倡友善賞鯨的商家，讓花蓮近海的老鄰居們持續優游於此。海洋綠洲棲地利用調查需要長時間且耐心的觀察，能累積到今日的成果，我們要向所有參與調查的調查員、合作的船家以及船長表示最誠摯的感謝，同時我們也感謝捐款支持黑潮的企業、民眾、和政府單位，讓海洋綠洲計畫能夠順利執行。</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>地震前兆研究的另一條路：慢地震 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373798</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>本文由 交通部中央氣象署 委託，泛科學企劃執行。
+大家印象中的地震是什麼樣子呢？是災難電影中，地震來了就是天搖地動、山崩地裂？還是曾經在新聞上看到路面裂開、房屋損壞？
+其實地震可以根據不同區域、產生原因等分成許多種類。像是火山地震、隕石地震、冰川地震⋯⋯等。如果我們用物理特性來分類，可以把地震分為快地震及慢地震。
+一個斷層存在著接近脆性變形（可以想像這時地層像餅乾一樣，受到壓力會破碎）的孕震區，當應力累積到極限時，就會發生破裂產生地震；隨著溫度及壓力改變，會慢慢接近韌性變形（這時地層比較像黏土，受到壓力不會破碎，而是直接變形，難以累積應力）的穩定滑移區。
+當然也存在介於兩個性質之間的區域，就是慢地震常發生的地方，累積應力到一定程度時破裂，但又緩慢回彈，形成維持時間長但瞬時能量不大的一種地震，稱為「慢地震」。
+在 21 世紀前，地球科學家們就有共識，斷層依照破裂方式可大約分成兩個種類：一種是會被鎖定一段時間，發生錯動產生地震的黏滑斷層（stick-slip faults）；另一種則是持續穩定滑移的潛移斷層。
+慢地震的發現，讓我們了解並驗證斷層的錯動方式，有介於上述兩者之間的模式，可以像黏滑斷層一樣累積應力，錯動的方式卻類似潛移斷層。
+慢地震分成非常多種，像是長微震（Tremor）、低頻事件（LFT）、超低頻事件（VLF）、慢滑移事件（SSE）⋯⋯等。有些名字很早就被拿去火山地區使用，因為岩漿等流體造成的震動，也會有長微震、低頻事件出現。2002 年，日本學者首次發現非火山區的板塊交界帶出現了長微震，臺灣則是在 2008 年開始出現相關研究。現在學界會特別區分這些微震是屬於火山區（volcanic ）還是非火山區（non-volcanic）。
+在臺灣，非火山長微震主要位於中央山脈南段下方的地震空區。那裡有高 Vp/Vs 值、高地熱梯度、低電阻⋯⋯等特性，說明了在隱沒過程中，脫水產生的流體在此富集。往北方經歷更多碰撞作用時，應力在深部呈現局部集中，孔隙壓劇烈變化產生了長微震訊號。
+臺灣發現的長微震比其他國家的更短、更微弱。根據文章的描述，2007 年至 2012 年中在臺灣搜尋到的長微震，最長僅約半小時左右。
+此外，臺灣的慢地震有明顯的年週期性：長微震數量多時，氣壓較低、潮位較高、降水量較低，地下水位也較低。這跟我們說明了，地下水位變化帶來的應力擾動和潮汐力一樣重要，其綜合效應可能有效加速慢地震的活動性。
+為什麼近年來慢地震開始受到地震前兆研究關注呢？因為研究發現，這些微震對應力的變化非常敏感，甚至潮汐力的改變都有可能影響長微震的發生率。那是不是有個可能，地震發生前的應力改變，也會反映到長微震身上呢？
+一篇 2017 年發表在《美國地球物理研究期刊》的論文，就以 2010 年甲仙地震（規模 6.4）為目標，研究團隊分析地震發生前的長微震發生率。結果顯示在甲仙地震發生的 2 個月前以及 3 週前都看到長微震發生率的顯著變化！另一方面，研究團隊也比較了 GPS 地表位移場的資料，同樣發現在這兩個時間點出現了異常變化。
+除了主震之外，團隊還研究了比較大的餘震。同樣在 2011 年 1 月一場規模 4.2 的餘震也看到類似的異常現象。不過，並不是所有餘震都能觀察到，像是 2010 年 7 月規模 5.7 的餘震就沒有觀察到任何異常變化。研究團隊表示，可能是主震造成長微震的影響還在，所以沒辦法觀測到顯著的變化。
+這也說明了，利用長微震異常作為地震預測的手段還是存在許多限制。但這份研究的確為地震前兆開啟新的可能，觀察到顯著的關聯並提出可能的物理機制，為地震前兆研究注入一股新的力量！</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>地震教育大會考！你有辦法逃出地牛翻身的魔掌嗎？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373787</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>本文由 交通部中央氣象署 委託，泛科學企劃執行。
+網路上不乏有外國人來臺灣旅遊時，巧遇地震而大驚失色的影片紀錄；比起驚慌失措的外國旅客，畫面中的臺灣人總是顯得游刃有餘、不驚不躁。
+畢竟，對於自家就在環太平洋地震帶的臺灣人來說，地震可以說是家常便飯，除非是國家級警報大響，多數臺灣人仍然都能在談笑風生間，平靜地度過地震的搖晃。
+然而，這真的就代表你我真的更懂地震、更懂得如何逃命嗎？接下來，不妨來測試看看自己對地震有多了解吧！
+921 大地震後，「黃金三角」的理論突然在臺灣瘋傳。這個理論假設當建築物倒塌的時候，會在大型家具旁邊形成一個讓人們存活下來三角空間，藉此呼籲大家躲在大型家具的旁邊來保命。如果這個家具越大、越堅硬，因為家具不容易變形或損壞，人們生存下來的機率就越大。
+看到這裡，你覺得這個理論正確嗎？
+這是一個在臺灣流傳多年的地震逃難說法，乍聽下來或許合理，但大家仔細想想，應該就可以發現它的嚴重漏洞：地震來襲時，你覺得人們是被崩塌的房屋壓死的機率比較高，還是比較有可能被掉落物砸傷呢？
+當然是後者！
+因此，黃金三角理論最嚴重的錯誤之一，就是它假定建築物都會被地震「震毀」，讓屋樑、柱子倒塌，並且只關注於如何在崩塌的梁柱中尋找求生空間。但如此一來，就忽略了我們在地震期間更容易面對的非結構性的威脅，例如掉落的電燈、傾倒的衣櫃、震碎的窗戶玻璃。
+除此之外，要在短短幾分鐘內找出黃金三角的位置，甚至奔跑到你認定的生存空間，也是非常不切實際的想像。在大地震來襲時，我們不讓自己跌倒都很困難了，更別說是跑向特定位置了，那是天方夜譚啊！
+因此，比起尋找可能不存在的黃金三角，請盡快趴下，並尋找掩護物抓緊桌腳，盡量穩住自己的身體，才是相對安全的保命行動唷！
+許多專家指出，房屋搖晃時，可能造成大型家具移位，甚至是物品掉落砸傷人。我們無法判斷家具倒下的方向，因此躲在旁邊反而可能因此被壓住。
+在現行的地震預警系統技術中，地震發生後，氣象署可以使用短短數秒地震波，搭配過往地震資料和地形效應形成的經驗公式，快速計算出該次地震的預估規模和預估震度。
+當氣象署預估該次地震的規模超過 5 時，會透過通訊技術，將警報傳送到預估震度大於 4 級的地區民眾手機上，讓民眾可以在地震波傳到之前，聽到震耳欲聾的警報，掌握黃金的幾秒鐘避難。
+然而，這不代表每一次大地震前，你我都可以提早收到地震警報！
+為什麼呢？
+屏除手機的硬體限制，或是設定錯誤等狀況，仍有許多原因導致我們無法提早接收預警。其中，目前尚難以 100% 克服、也最常見的原因是「預警盲區」。
+當我們距離震央太近時，即使氣象署已經花費極少時間完成運算、發布警報了，也有可能跟不上地震波傳遞的速度，使得地震波傳播到我們腳下之後，手機才開始警鈴大作，因此發生「震完才響」或是「邊震邊響」的狀況。
+擁有地震預警技術和國家級警報，並不等於臺灣民眾永遠的保命符！
+地震預警並非地震預測，無法保證在地震之前警告所有民眾撤離，而且礙於地震科學和地震觀測的歷史太年輕，人類的經驗公式、對地球的了解都尚未成熟，當震源位於外海或是震源太深時，都有可能影響預警的準確性。
+即使地震預警技術已經是目前人類最有效的防震減災方法之一，大家仍然不可忘記做好地震避難演練，日常就必須做好各式防震的措施和準備唷！
+回顧 20 幾年前在臺灣造成最嚴重震災的「921 大地震」，車籠埔斷層的劇烈錯動，造成了規模 7.3 的大地震，在千萬臺灣人民的心中烙下不可抹滅的傷痛。
+規模 7.3 就造成如此可怕的傷亡，如果哪天臺灣發生規模 10，甚至是規模 20 的地震，那該會有多可怕？在思考類似這類型「What if」的問題之前，我們首先要討論的是，發生這種情況的機率，到底高不高！
+所謂的「規模」，是我們人類為了描述地震能量大小所發展出的單位，地震學界也發展出許多不同計算規模的方式，例如我們臺灣人最熟悉的芮氏規模，還有地震矩規模、表面波規模、體波規模等等。
+為了方便大家理解，本文將使用「地震矩規模」的計算方式來想像：如果臺灣發生規模 12 的地震，到底會發生什麼事情？
+根據地震科學家的研究顯示，若斷層的面積越大、滑移量越長，會造成規模更大的地震，因此，在地震矩規模的公式原理中，即是透過斷層的面積和滑移量來描述地震的能量大小。
+以歷史上赫赫有名的地震為例，2004 年的印尼蘇門答臘地震規模 9.3，斷層面積為 1,300 公里乘上 200 公里，滑移量為 11 公尺；1906 年的美國舊金山地震規模 7.8，斷層面積為 470 公里乘以 20 公里，滑移量為 4 公尺；臺灣人的惡夢—— 921大地震中，車籠埔斷層造成了規模 7.3 的地震，面積為 2,000 平方公里，滑移量為 3 公尺。
+若要催生出規模 12 的地震，以面積為 2,000 平方公里的車籠埔斷層為例，大概需要造成 0.2 兆公里的錯移量！拜託～地球的圓周長也不過 4 萬多公里呢！
+由此可知，雖然根據人類的定義，可以描述出規模 12 的大地震，但我們必須考量地球各處的地體構造條件。在現實生活中，無論是斷層的面積還是滑移量，都不可能無限大！
+地函深處的溫度非常高，因此隨著岩層越往地函深處移動，岩石也會變得越來越「不脆」，無法累積應力、產生地震，就像是我們難以在黏土上造成劇烈的震動一樣。
+臺灣每天都能偵測到 100 次左右的地震，然而，並不代表熟悉地震的我們，都懂得如何與地震共存、不被網路謠言煽動。
+即使面對錯誤的說法有一定的抗性，理解了地震的原理和避難守則，事到臨頭時，也不一定能夠及時反應。
+因此，防震、防災的演練和教育必須從生活做起！每年 9 月 21 日國家防災日時，請大家務必落實地震避難演練行動，平日備好地震包、檢查家中家具的擺放位置，針對老屋建築進行防震補強。如此一來，才能在地震頻頻的島嶼上，保護好你我的生命財產安全唷！</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>地震預測行不行：地震前兆研究 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373779</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>本文由 交通部中央氣象署 委託，泛科學企劃執行。
+地震災害真的這麼可怕嗎？綜觀 1900 年以來天然災害事件的死亡人數排名，第一名的確不是地震災害（根據統計資料，目前死亡人數最多的是發生在 1931 年的江准水災，造成約莫 200 萬人死亡）。但以前十名來說，地震災害就佔了一半了，分別是：2010 海地地震 31 萬人、2004 年印度洋大地震 30 萬人（南亞大海嘯）、1920 年海原大地震 27 萬人、1976 年唐山大地震 24 萬人以及 1923 年關東大地震 14 萬人。
+這說明了地震災害對人類社會有一定的致命性。它沒辦法像颱風、豪大雨可以發布透過天氣預報，也不像土石流、火山爆發有明確的指標能提早預警，做出相對應的防災措施。以目前的科技來說，地震發生到具有強大破壞性的 S 波到達，只有短短幾秒的預警時間。雖然地震測報技術比起十幾年前大有進步，距離理想的防災機制還有一大段路要走。
+這也是為什麼地震預測對我們來說這麼重要。如果真的能做到像天氣預報一樣，我們就有更充裕的時間針對震災做出對應的防災動作。這篇文章統整了地震前兆相關研究及背後可能的物理機制，讓我們來認識什麼是地震前兆吧！
+地震發生前會有什麼現象呢？首先要探討地震發生的原因及過程。撇除火山爆發、隕石撞擊、人為活動⋯⋯等因素，世界上多數地震都是由斷層錯動產生的。
+因為地球板塊無時無刻都在運動，當一個區域基於一些因素而鎖定，地層就會持續的累積應力。某處發生形變、岩石產生破裂，而使地層回彈，就是地震發生的物理過程。
+在這個假設下，地震要發生前必須要有應力累積，這就是地震前兆的第一個突破口。如果我們能觀察、監測到異常的應力變化，或許我們就能推測地震什麼時候可能發生。
+當然，應力畢竟是一種能量，我們需要藉由其他方式去觀測、計算。像是在應力持續增加下，岩層中的裂隙可能會越來越多、孔隙率可能也會改變，以至於深層的流體往上跑，讓地下水或土壤成分發生變化；又或者因為應力改變造成岩石的磁感率發生變化，進而導致大地磁場、電場，甚至是電離層的電子濃度發生改變。
+接下來我們就來討論地震前兆研究中，幾種相對直觀的前兆訊號：地殼異常形變、地下水改變、小地震增加。
+大地應力的來源大多是板塊移動，換句話說，監測地表位移就是檢驗大地應力結構的方法之一。
+最直接的測量方法就是在出露的斷層兩側加上應變計（應力計）、潛變計⋯⋯等測量儀器，像是在大坡國小裡就能看到裝在池上斷層兩側的潛變計。日本地震學家坪川家恒曾經提出的「地殼異常持續天數」與「下一個可能發生的地震規模」的關係式。
+隨著科技的進步，遙測技術也應用在大地位移場的監測。一部分的科學家把注意力放在遙測資料上，它可以更大範圍了解整體地塊移動情況，克服難以部署設備的困境，像是 GNSS、InSAR⋯⋯等方法，不過它們的缺點就是解析度有限。
+有時候深部的變化沒辦法直接反映在地表形變，這時我們就需要參考其他數據。地下水就是一個不錯的方式，主要可以分成兩個指標：地下水位變化、地下水成分變化。
+後者比較好理解，一開始我們提到，在地震發生前應力累積的時期，地層可能已經出現許多裂隙，而深部的氣體就可以沿著這些通道往地面移動。如果遇到地下水層，氣體就會進入地下水，造成地下水組成的變化。
+最常使用的目標氣體就是氡氣（Rn），它在空氣的組成非常稀少，主要存在地球內部。所以當地下水監測到異常的氡氣含量，我們就會推測可能有什麼原因造成地球內部氣體往地表擴散。1966 年的蘇聯，就有科學家在加爾姆地區的地下水井中觀測到氡氣異常，進而預測接下來發生的塔什干地震。
+而地下水井的水位變化，地震發生前累積應力導致地層產生應變，可能會使地層產生微小的裂隙，改變地層的孔隙率及滲透率，而造成地下水位高度變化。921 集集地震前，車籠埔斷層附近地下水井的地下水位出現明顯升降的變化。然而除了地震可能影響地下水位變化外，包括降雨、大氣壓力、潮汐甚至人為抽水等其他因素都會影響地下水井的水位變化，因此地下水前兆研究尚有重重難關，還需要更多的觀測及研究。
+在應力累積的階段，斷層上小小的破裂也會產生地震，這些破裂可能隨著應力累積而持續增加，地震數量也會增加直到主震發生。在中國海城地震發生前，就曾經觀測到微震的數量突然增加。
+至於地震前應力會在哪裡累積？目前還沒有一個準確的答案，可能就在震源附近，或是完全沒有預期的遙遠區域！科學家們也在研究其中的可能。
+應力改變可能還會影響到什麼呢？除了在壓力表現之外，同時也可能改變岩石的磁感率。這時我們就有機會藉由觀測大地電場及磁場的改變，尋找地震前兆的線索。
+可以想像地球就像一個巨大的發電機，時時刻刻都在產生電磁場，而這些原生電磁場會在地下岩層產生或大或小的渦電流，進而產生次生電磁場穿出地表。
+如果地下岩石的物理性質改變，次生電磁場也會發生異常的變化，進而造成大地電磁場異常。而另一個理論是，當岩石破裂會產生電流，伴隨強大的電磁場。
+像是中央大學的研究團隊，就曾經在美濃大地震前，觀測到震央周圍數個測站出現異常的電訊號，為地震前兆研究注入了一劑強心針。雖然以目前的技術及知識，沒辦法在每次大地震前都觀測到電場異常，但它確實是一個有利的研究方向！
+擴大來看，電磁場異常還會影響遠在太空中的電離層。921 集集大地震前三天，臺灣上空的電離層濃度相較於前 15 天的中位數有降低的趨勢；在四川大地震前也曾經觀測到四川地區上空的電離層濃度明顯減少。
+為什麼會影響電離層呢？目前學界有非常多相關物理模型，像是岩層可能具有壓電特性，受到壓力就會釋放出正電，形成渦電流影響電離層；或是當岩石破裂產生的電流影響電磁場，使電離層中的電漿溫度升高、體積膨脹而導致電漿粒子減少濃度降低。不過相關的理論及研究尚未成熟，其中還有許多限制及假設。
+當然有人會問：「以前聽過動物行為異常也代表有大地震發生，難道動物行為不能當作地震前兆嗎？」
+現在科學家也沒辦法給出明確的答案，因為動物的行為機制太複雜了！可能某些物種能捕捉到人類無法發現的前兆，但現在階段我們真的不能確認，今天冬眠的蛇大量跑出洞穴，是因為有地震要發生？還是有其他環境因子？或者牠們只是心情不好想要透氣而已？
+這些可能的方法，需要靠更多跨領域科學家們合力研究，將可能的原因及現象一一分析，未來十年、二十年後，或許地震前兆研究可以更完整、更多元。
+回到現實層面，既然有這麼多地震前兆研究方法，為什麼地震預測到現在還沒有像天氣預報這麼成熟的系統呢？
+雖然理論看起來可行，實際上會遇到許多困難：
+地層是非均勻的。理論上我們會形容底下的地層被鎖定、在累積應力，但現實上，是有些地方被鎖定、有些地方已經破裂、有些地方呈現韌性的穩定滑移⋯⋯。理論指出的現象沒辦法穩定且顯著的發生，因為存在太多變數了！
+不同地方一定存在差異，何況同一條斷層也可能因時間推移產生改變。之前就有學者嘗試計算斷層的活動週期，但結果不如預期。當時算出的地震發生週期，就在下一次地震時，又脫離了原本的週期。這也說明了斷層活動不只具有空間變異性，也同時具有時間的變異性。
+為了突破這個困境，不同領域都在努力精進。相信有朝一日人類能準確地預測地震，這是災防的一大突破，也代表更了解我們所在的地球！</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>全球與台灣面臨怎樣的水資源困境？有解方嗎？【2023 臺灣國際水論壇】 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373663</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>本文由 經濟部水利署 委託，泛科學企劃執行。
+人體有 70% 是水，而地球表面亦有 70% 被水覆蓋。「水」對人類來說，是賴以為生的必要資源，又因「水」相對容易取得，讓人們不易察覺水的珍貴。
+在近年氣候變遷衝擊下，旱澇交替已成常態，經濟部水利署賴建信署長接受泛科學專訪時亦表示，依據聯合國政府間氣候變遷專門委員會（IPCC）第 6 次評估報告（AR6）分析，未來臺灣連續不降雨日數及最大暴雨強度將明顯增加，對於水資源及水環境帶來嚴峻挑戰。
+具體來說，未來降雨將會更集中在特定時間與地點，在降雨地區造成更嚴重的洪災，讓非降雨地區的缺水情形更加嚴重。結果是降雨地區的水庫會不斷洩洪，無法有效收集雨水，而非降雨地區的水庫又會完全沒水。
+這情景也預示著我們平常容易取得的「水」，將轉變為更稀缺珍貴的資源；然而，水又是人生存所必須，若現在不採取行動，水資源終將成為人類生存的最大束縛。
+為了讓企業、政府、學術單位能更重視未來所面臨的水資源問題，水利署於 10 月 23 日舉辦的「2023 臺灣國際水論壇」以「水未來」（Vision for Water）為主題，針對「水與企業永續」、「水與能源鏈結」、「水與自然解方」、「水與減碳科技」，希望形成創新的漣漪，向外擴散，激盪出國內外產、官、學界合作契機。
+而擔任「水與ESG-厚植企業永續競爭力」場次的講者，是來自東海大學國際學院永續科學與管理學士學位學程的 Aleksandra Drizo 教授，她以數據與實際案例，揭露水資源短缺到底有多麼迫在眉睫。
+Drizo 指出，聯合國 2023 年公布的 SDGs 第六項「確保所有人都能享有水、衛生及其永續管理」報告中，指出世界上 35 億人缺乏乾淨用水與基本衛生條件，並強調：「獲得安全用水，環境衛生和個人衛生是人類健康與福祉的最基本需求。」而若要達到 SDGs 的 其他目標，又以第六項為最重要的核心，因為唯有確保人人都能用上乾淨的水，才有路徑完成其他目標，例如：第二項「終止飢餓」，就必須在確保有穩定乾淨的水源情況下，才可能達成。
+Drizo 進一步指出，近幾十年來，儘管在改善飲用水和衛生條件方面有所進步，但仍有大量人口無法獲得安全飲用水和基本衛生設施。根據聯合國發布的 《Development and Globalization: Facts and Figures 2016》 資料，從 1990 年到 2015 年間，全球人口增長了 26 億，對水資源的調度與供給造成了巨大壓力。而在 2023 年世界衛生組織提供的乾淨飲用水調查資料中，直到2022年，仍有 22 億人口無法獲得安全飲用水，也與前面聯合國 2023 年的調查報告呼應，再次呈現水資源問題日益棘手的趨勢。
+水資源困境並非全是全球人口成長惹的禍，全球氣候變遷造成更加頻繁的極端天氣事件，正讓全球面對過往不曾出現的乾旱。《衛報》2022 年報導歐洲面臨前所未見的熱浪與旱災，法國、荷蘭、比利時、瑞士、義大利、西班牙的河流，已經能直接看到河床，當時西班牙政府宣布限水，表示全國儲水量已達歷史新低，只有總儲水量的 40%，且每周都以 1.5% 的速率持續下降。
+如今全球氣候變遷造成的水資源問題，也逐漸成為常態，《紐約時報》2023 年 10 月報導，如今西班牙仍處於缺水中，西班牙南部的水龍頭已經流不出水了，甚至連水井都已經枯竭，不只農業無法正常發展，民眾還必須仰賴水罐車或罐裝水維生，根據西班牙政府的報告，若缺水成為常態，則本世紀末將有近 74% 的西班牙國土，將面臨沙漠化的問題。
+臺灣也未能逃離缺水的命運。2021 年春天，發生了 56 年來最嚴重的乾旱，當時外國媒體全都持續關注這場旱災，深怕缺水影響新竹科學園區的產線。而水利署搶先在 2021 年開通的「桃園—新竹備援管線」，從桃園每日調度 20 萬噸的水給新竹，才讓外媒的擔心沒有成真。
+此外，臺灣水污染與地下水過度開採也導致水資源匱乏。要扭轉這一局面，則需要從多方面著手，水利署也已經開始建置相關工程並陸續投入使用，例如：高屏溪的「伏流水」與臺中水楠經貿園區淨化污水再利用的「再生水」，為地方開創多元水源，創造更有保障的用水環境。
+Drizo 表示，臺灣的水庫也因氣候變遷面臨「優氧化」問題。由於水庫的水停滯過久，營養物質（氮和磷的化合物，相當於肥料）逐漸累積在水中，加上近年溫度上升，讓水中藻類與浮游生物孳生。在 2023 年的水利署水質檢測報告中，全國 20 個主要水庫中有 8 個水庫的水質已經優養化，這些優養化的水會對淨水廠造成額外負擔，而過濾出來的廢棄物處理也是個難題。
+而 Drizo 針對優養化問題，提出以自然為本的解決方案（Nature-based Solutions, NbS)），並分享過去在各地施行的案例，例如：在 2009 至 2011 年與屏東科技大學的研究計畫，架設的社區小型污水淨水廠，以及用在美國俄亥俄州的農業污水淨水方案。最後 Drizo 分享了將廢棄物轉化生成富營養肥料等高附加價值產品的相關技術研發。也就是說，在淨水的同時，還能把廢棄物轉換為有價值的肥料，這不僅可以提高水資源利用效率，也具有重要的環保意義。
+Drizo 的演講代表了學界在水資源問題上的重視，也提到了水利署正一步一腳印地改善臺灣用水環境，那麼身為用水大戶的企業，又有什麼作為呢？
+臺灣美光記憶體的環安衛、風險管理暨永續發展處處長江頴俊在「水與ESG-厚植企業永續競爭力」場次分享該公司的實際經驗，臺灣美光記憶體透過「綠色基礎設施」、「流程優化」和「設備更新」的措施，成功達成每一滴水重複利用三次的目標，這項措施每年節省約 6000 萬立方公尺的水，相當於 6500 座奧運游泳池的水量。
+然而，像美光這樣能提出具體目標與可信成果的企業並不多見，一同演講的法國北方高等商學院基礎建設研究中心 （EDHEC infra）的資深研究工程師 Nishtha Manocha，則說明大部分企業的永續發展目標缺乏 「設定具體可行的環保目標」以及「準確量化環保成果」。
+許多企業的永續發展目標僅停留在概念階段，並沒有具體的達成路徑與量化檢核指標，這種模糊不清的目標將無法帶領企業持續行動。而更嚴重的是在量化成果這塊，目前企業仍多以內部數據來評估成效，缺乏第三方機構的驗證，資料的真實性可能會遭到質疑，也衍生出了「漂綠」的相關問題。
+同場演講者—資誠聯合會計師事務所所長暨執行長周建宏，則表示「永續發展」已經是熱門的投資標的，投資人也害怕自己把錢給了「漂綠」的公司，最後虧得血本無歸。因此，在投資人的引導下，企業的永續發展目標會更為清晰，加上相關監管機構陸續成立，企業勢必將花更多心思在財報與資料呈現上，不能再打著永續發展的大旗，來跟投資者畫大餅。
+在「水與ESG-厚植企業永續競爭力」這場演講中，我們看到政府、企業、學界一同合作，共同討論如何解決水資源匱乏的難題。無論是學界針對水質優養化問題所提出的解決方案，抑或是透過投資人監督，讓企業能落實永續發展目標，都能看見世界正迅速朝永續水資源管理轉型。然而，各項監測指標仍顯示氣候變遷亦在加速，將我們推入未知領域，我們必須加快行動，才不會讓更嚴峻的水資源稀缺成為未來世代的枷鎖。</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>每次呼吸都會吸入十個孢子？一朵菇如何形成？無所不在的真菌生命循環！——《真菌大未來》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374477</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>孢子是真菌生命週期的開始，也是結束。這些單細胞單元裡，包含著新真菌個體的繁衍密碼。面對無數微生物競爭者和惡劣的環境條件，孢子萌芽的機率極低，因此真菌釋放出數萬億個孢子來提高生存機會。孢子維持在一個暫停於生死之間的狀態，密切留意周遭世界並尋找適合落腳的地方。孢子很微小，無處不在，所以根本無法躲避它們，以我們自己而言，每次的呼吸都會吸入十個孢子。
+被稱為「胚種假說」（Panspermia）的生命起源論甚至認為：生命的藍圖被包裹在一顆孢子當中，並在太空中旅行，在宇宙中尋找適合落腳的家園。儘管對此假說爭論不休，但我們確實知道孢子可以耐受極端溫度、抗輻射，甚至可以在真空狀態的太空中存活。 1988 年，和平號空間站（mir）的俄羅斯太空人就注意到，他們的鈦石英窗外有「東西」在生長，而且正在漸漸「啃穿」鈦石英。後來證實，這個「東西」就是一種真菌。1
+就像植物一樣，大多數真菌也都採用「紮根在土壤當中」這種耗時的繁殖方式：它們利用菌絲體生長，或透過孢子飄散到新的棲息地。在渴望繁衍其 DNA 的動力下，有些真菌採取巧妙的策略，確保其孢子在新環境中得以繁殖。
+擁有誘人香氣的美食佳餚黑松露（Tuber melanosporum）就是一個很好的例子。這種跟黃金一樣珍貴的真菌生長在地底下，隨著孢子成熟，其所散發出的香氣會吸引動物、松露獵人和來自世界各地的美食家。松露的孢子不易被消化，所以最終會安全通過有幸一飽口福者的消化道；在理想狀況下，孢子應已遠離原來被採集到松露的位置。
+在地面上，圓形的巨型馬勃（Calvatia gigantea）子實體保護著數以百萬在內部熟成的孢子。有趣的是，只要戳一下成熟的馬勃，它就會噴出一股煙霧狀的孢子粉，讓風帶走飄散的孢子。
+生長在糞便之中的水玉黴菌屬（Pilobolus）真菌，藉由分泌水分充滿泡囊增加壓力，最後像水槍一樣排射出泡囊頂部的孢子囊。有研究經計算發現，孢子囊能以至少 20,000 g （重力）的速率被噴射出去。相較之下，訓練有素的美國國家航空暨太空總署（NASA）太空人在太空船中穿著抗重力服（G-Suit）所承受的重力是 3 g ，而子彈是以 9,000 g 的加速度行進的。
+還有能在黑暗中發光的真菌，光線會吸引昆蟲將它們的孢子散布到森林底層。例如，加德納臍菇（Neonothopanus gardneri，俗稱椰子花）就受到晝夜節律的調節，在夜間會發出明亮的光。 2所有這些演化而來的調整，都是為了確保繁殖能夠延續。
+當孢子落在一個溫度適中、靠近食物和水的地方時，它就會萌芽。孢子經由細胞壁吸收水分，並長出一種稱為菌絲的線狀管。當菌絲在營養基質上生長，就會分支出更多菌絲並形成一條細線。原本的菌絲繼續利用可能是木頭、昆蟲或土壤的基質，由尖端處長出更多菌絲。菌絲間開始融合相連，形成一個相互連接、被稱為菌絲體的物質。
+每條菌絲的生長都結合了物理力量和化學策略。菌絲會分泌出作用相當於強力消化酸的酵素來分解物質。這個分泌酵素的作用，讓真菌能穿透最堅硬的基質：先將營養物質萃取出來，再經由菌絲體吸收。就像我們唾液中的酵素一樣，很快就可以將口中的麵包變成濕糊狀。
+菌絲體如同漣漪一般，從孢子萌芽之處輻射向外生長。附近有營養物質出現時，菌絲體就會以圓形的方式使其表面積最大化，朝營養來源方向生長。當一個區域的食物來源耗盡，菌絲體中心處的舊菌絲就會被自己消化掉。殘存在被消化舊菌絲當中的可用資源，則會被重新傳送到菌絲體最外圈，供生長正旺盛的菌絲所用。
+最後，菌絲體會長成一個廣大的空心環，也就是有時我們在草地上看見的「仙女環」。隨著資源被重新傳送到菌絲體生長的外緣，中心會逐漸消失，環的周長則逐漸增加。只要有養分和水，菌絲體就可以持續以這種方式不斷地生長下去。
+在此階段，除了酵母菌以外的真菌就能由菌絲形成孢子，進行無性生殖。黴菌、銹病和粉狀黴菌等微型真菌總是以這種方式繁殖，例如麵包上所見的黴菌黑點就含有超過五萬個孢子。
+然而，屬於單細胞微型真菌的酵母菌，則採取不同於絲狀真菌的方式進行無性生殖。酵母菌利用分裂產生複製體進行無性生殖，雖然這種方法很有效率，但卻因此錯過了可以經由有性生殖確保遺傳多樣性的樂趣。3
+除了透過無性生殖的方式繁殖，若環境條件惡劣（通常情況就是這樣），大型真菌也可以進行有性生殖。當兩個有性生殖相容的菌絲體相遇，它們就會進行融合並形成更大的團塊。
+融合後已經具備遺傳多樣性的新菌絲體，等待著合適的環境條件到來，就會聚集它的菌絲、吸收水分膨脹，並形成被稱為原基（primordium）的菇蕾。幾天後，原基逐漸伸長菌柄，將菌傘推出基質表面。最後，菌傘打開就變成了一個完全成熟的菇。菇類的顏色、質地和形狀會因種類而異。
+根據菇類產生和釋放孢子的方式，可以將大型真菌分成兩群：一群是在封閉囊內產生孢子的子囊菌（asomycota），另一群是從菌褶中形成並釋放孢子的擔子菌（basidiomycota）。擔子菌的菌褶有一層菌膜保護，隨著菇的成熟，該菌膜就會剝落。
+菇的本身可以說就是一個慶典，慶祝擁有數萬億待釋放新世代真菌（孢子）的出現。孢子將再次進入那已經持續循環數十億年的過程之中。自然不會多愁善感，所以慶典終將結束；菇類在完成產生孢子的工作之後，就會開始腐爛消失。
+它們已經達成自然所交付的任務，而且也不吝讓我們一窺正大自然發自內在的美。菇類的出現是真菌生命循環的最美麗時刻，也許因為這樣，菇類才會如此受到歡迎。
+——本文摘自《真菌大未來：不斷改變世界樣貌的全能生物，從食品、醫藥、建築、環保到迷幻》，2023 年 12 月，積木文化出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>lifescience</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>海洋綠洲——花紋海豚棲地利用分析 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374580</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>編按：海洋綠洲棲地利用調查截至 2023/10/19 共出航 56 趟調查、共計 435 小時，追蹤時間少於 30 分鐘的花紋海豚航跡將不會被納入此分析。
+國際自然保護聯盟在 2016 年開始推動「海洋哺乳動物重要棲息地」（ Important Marine Mammal Areas, 下文將簡稱為 IMMAs ），以跨國界的尺度整合瀕危海洋哺乳動物的棲地分佈、移動路線與生存威脅等資料。截至 2022 年，世界上一共劃設了 200 多個 IMMAs（圖二），並且每年持續增加中！隨著能源轉型、貴金屬日益匱乏，新能源、採礦也漸漸由陸地發展到海洋，加上目前海上充斥著各式各樣的船隻、漁具、海洋廢棄物與各式汙染等。秉持「預防勝於治療」的精神，海洋綠洲第二階段的目標即是將東部海域的鯨豚生態資料彙整申請 IMMAs ，透過國際的認證，我們期望能喚起臺灣民眾、政府對鯨豚保育的重視。
+要申請 IMMAs ，其中一項重要指標便是要瞭解鯨豚對於花蓮近海這片棲地是否具有休息、覓食與繁殖哺育的重要性，在這項指標下，我們鎖定了花蓮海域最常出現的老鄰居：花紋海豚（Grampus griseus）與飛旋海豚（Stenella longirostris），透過一年四季共 20 趟的調查，我們期望能瞭解長年在花蓮外海走跳的牠們，究竟在哪些區域哺育、繁殖、休息、覓食或社交，同時也希望藉由調查瞭解牠們的行為狀態是否會受到賞鯨、漁業活動的影響？在 2021 年 4 月的試航之後，我們正式展開了為期三年的調查，持續在海上蒐集資料；今年秋天的第一篇電子報，我們將要跟讀者分享這三年來在花紋海豚身上的新發現。
+棲地利用調查的範圍以鹽寮港為南界、和平溪口為北界，之間共劃設北、中、南三個重點調查區域（圖三），觀察花蓮近海最常見的飛旋海豚與花紋海豚的族群樣貌與行為狀態，為了要長時間追蹤鯨豚，一趟海上調查大約會落在 8 – 10 小時。
+棲地利用的調查方法為「焦點群體採樣 Focal animal sampling 」，跟以往賞鯨點狀的紀錄不同，在海上我們的工作就像是「狗仔」，當我們在預計的重點調查區域範圍遇見飛旋海豚或花紋海豚時，我們會鎖定狀態較穩定的主要群體，以不影響鯨豚行為狀態的前提下，能跟同一群鯨豚多久就跟多久，最久甚至高達 7 小時呢！在調查過程中，辛苦的調查員們會記錄下牠們每 5 分鐘做了些什麼，同時海豚當下的泳向、下潛時間跟角度、個體間距與泳速等都會被詳盡地記錄下來，並搭配錄影、拍照作為判斷狀態的依據（表一）。為了要盡可能記錄鯨豚未受人為干擾的狀態，我們會盡量與鯨豚保持 200 公尺以上距離，用望遠鏡遠遠地觀察，只有最後蒐集水下聲音、拍攝特寫時才會靠近牠們。
+在調查過程中我們有發現花紋海豚出現幾次嘗試覓食的行為——「魚雷式下潛」（圖五），這種下潛方式初次被描述於亞速爾群島（Azores）的研究，當地學者在花紋海豚身上裝置吸盤式資料蒐集器（Data TAG），發現花紋海豚魚雷式下潛時，能在短時間內更快地潛入深海，並且在下潛後，吸盤式資料蒐集器也有錄到花紋海豚搜尋獵物的喀答聲（Clicks）以及滋滋聲（Buzz），由於滋滋聲是齒鯨在最後嘗試覓食時會發出的，證明在魚雷式下潛過後，牠們有在水下嘗試覓食。而讓我們覺得振奮人心的是，我們居然也在花蓮近海紀錄到花紋海豚的魚雷式下潛，說明花紋海豚很有可能在這片海域覓食！
+本次分析採用了 38 群花紋海豚，總共約 84 小時的調查航跡，並使用 3×3 km² 的網格1 分析各個行為狀態的使用區域。透過過去三年的資料來看，我們發現花紋海豚最常在花蓮近海游走，範圍主要在立霧溪以南至芭崎離岸約 15 公里的範圍內，並且在北邊也有少量高比例區域；至於第二常見的社交行為狀態，大略可以分為三個核心區域，由北至南分別是大濁水溪、崇德以及芭崎的外海離岸約 5 公里的範圍內；花紋海豚休息的位置主要位於立霧溪出海口約 7 公里以內的範圍；繞圈徘徊主要在七星潭外海、鹽寮外海約 7 公里以內的範圍；覓食則位在花蓮溪出海口至鹽寮外海約 10 公里以內的範圍。同時我們也發現目擊的花紋海豚群次，有 45.8 % 有出現母子對，而這也代表我們調查的範圍內是花紋海豚育幼的重要區域。
+由於調查船追蹤鯨豚時，是平行地跟隨在鯨豚側邊，透過分析船隻追蹤期間的速度，我們也可以概略得知鯨豚的平均泳速。在分析追蹤群體的泳速後，我們發現花紋海豚整體泳速介於 0.5 – 4 節2 ，繞圈徘徊的速度較快，介於 2 – 4 節；而在五種狀態中最慢的為休息，介於 1.2 – 3 節間；覓食跟游走的速度範圍廣，介於 0.5 – 4 節。我們也希望可以了解花蓮近海頻繁的賞鯨活動是否對花紋海豚會造成影響？透過獨立出賞鯨船靠近的航跡，我們發現泳速並無太多變化，但在少數賞鯨船靠近的經驗中，我們發現群體的行為狀態會有些變化，例如群體泳向變得不一致、或賞鯨船離開後群體變得更加分散，甚至也有最後下潛離開的案例。
+透過棲地利用分析，我們初步瞭解了花蓮近海花紋海豚的關鍵生命週期活動，同時也發現到部分花紋海豚群體有受到賞鯨船的影響，未來我們將會彙整這些分析的數據，並對於保育策略提供更實際的經營管理建議，同時根據本次分析成果，我們也呼籲讀者支持提倡友善賞鯨的商家，讓花蓮近海的老鄰居們持續優游於此。海洋綠洲棲地利用調查需要長時間且耐心的觀察，能累積到今日的成果，我們要向所有參與調查的調查員、合作的船家以及船長表示最誠摯的感謝，同時我們也感謝捐款支持黑潮的企業、民眾、和政府單位，讓海洋綠洲計畫能夠順利執行。</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>lifescience</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>我們可以怎麼運用幹細胞？克隆技術可以解決同性生殖問題嗎？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373591</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>因被極有彈性的膜和果凍層包圍著，非洲爪蟾的卵與其它兩棲動物的卵不同，使得微量移液器無法穿透，所以我第一次嘗試在非洲爪蟾中移植細胞核完全不成功。⋯⋯如果實驗——或其他事情——沒有立即成功，請不要放棄！
+在「認識病毒全攻略！病毒的發現、與細菌的不同、科赫假說和致病機制」一文裡，筆者提到細胞是生命的基本單位，它主要由基因組（genome）、細胞膜（cell membrane）、細胞質（cytoplasm）、和核醣體 （ribosome）組成。細胞質為執行細胞生長、代謝、和複製功能的地方，為細胞中的微觀工廠；核醣體將遺傳密碼從核酸的分子語言翻譯為氨基酸的分子。細胞本身含有代謝酶，因此有營養系統；不需宿主活細胞，即可自行繁殖。
+高等動植物的細胞不像細菌，具有真正的細胞核（nucleus），故稱為真核細胞（eukaryotic cell）。它們沒有細菌的「質粒」(plasmid)，但卻有像消化系統一樣的「線粒體」（mitochondria）來吸收營養，分解營養，並為細胞創造能量豐富的分子。
+在大多數物種中，只有兩種完全不同類型稱為「配子（gamete）」的生殖細胞：卵子與精子。卵子是生物體中最大的細胞，而精子則是最小的；它們可以說是「發育不完全」的精簡細胞：卵子只具有細胞核及細胞質，精子則只具有細胞核及粒線體；它們的細胞核內均只有一半的染色體（稱為「單倍體基因組」）。儘管如此，卵子還是是最引人注目的動物細胞：因為一旦被精子活化（精子與卵子融合，稱為「受精」1），它可以在幾週內產生一個全新的個體。
+人類的卵子受精後約五到六天，就會分裂形成大約一百個細胞的囊胚（blastocyst），見上圖右半。囊胚由內部細胞群（inner cell mass）及囊胚外層（trophectoderm）組成：前者將繼續分裂發展成胚胎（embryo 2），後者則將附著在子宮內膜成為胎盤 （placenta），保護和滋養發育中的胚胎。因為受精卵（zygote）可以分裂產生所有的細胞（包括胎盤），故稱為「全能幹細胞（totipotent stem cell）」。內部細胞群的細胞則因能繼續分裂發展成生殖細胞及體細胞（somatic cell）的人體各部位器官，故稱為「多能幹細胞 （pluripotent stem cell）」，又稱為「胚胎幹細胞（embryo stem cell）」，簡寫為 ES。
+生殖細胞及體細胞一旦形成後，就有其特定「專業化」的功能，不能再如幹細胞一樣轉換成其它細胞。因此自 20 世紀初以來，一直困擾細胞生物學家的問題是：體細胞在基因上與它們所源自的受精卵相同嗎？一個受精卵如何會在胚胎分化中形成許多功能完全不同的體細胞呢？這些體細胞又如何記得繼續分裂成同樣的體細胞呢？
+布里格斯（Robert Briggs）和金 （Thomas King）於 1952 年在活體生物體中進行了首次青蛙核移植 （nuclear transfer）實驗：將一個早期胚胎細胞核移植到去核的卵細胞中。他們發現不同發展階段的胚胎核可以造成非常不同的結果：早一天的可以繼續發展成青蛙，晚一天的則胎死腹中。此結果顯然回答了第一個問題：細胞核的遺傳物質在開始分化時會發生不可逆轉的改變，如重新排列遺傳物質使其變得更加專業化、永遠有效地關閉不使用的基因、甚或拋棄數百個不再需要的基因等等。
+格登（John Gurdon）1933 年出生於英國漢普郡（Hampshire）迪彭霍爾（Dippenhall）。就讀於伊頓公學 （Eton College）寄宿學校時，成績不是特別好。在上了一學期的生物學後，老師寫了一份報告說：「我相信格登想成為科學家，但從目前的情況來看，這是相當可笑的。如果他不能學習簡單的生物學事實，他就沒有機會從事專家的工作，這對他和那些必須教他的人來說都純粹是浪費時間。」所以格登畢業後申請了牛津大學的古典學課程，但招生導師因為缺少理科生，告訴他說：「我很高興地告訴你，我們可以接受你，但有兩個條件：一是你得立即開始，第二是你不要學習你參加入學考試的科目。」就這樣，格登終於追求到他的夢想，最後在牛津大學取得發育生物學博士學位。你說人生不是一連串的巧合與意外麼？
+1956 年格登開始了核移植的博士研究：但不是移植正在發展中的胚胎細胞核，而是移植已經發展完全的體細胞核到去核的未受精卵內——稱為「體細胞核移植 (somatic cell nuclear transfer，SCNT，見上圖左半 )」。格登早期得到的結論因與布里格斯和金的結論相左，因此受到了強烈的批評。1962 年，格登將西部矮爪蛙（學名 Hymenochirus curtipes）的腸細胞核移植到未受精、去核的非洲爪蟾卵中，竟然發現這種經過改造的卵細胞可以長成一隻新的西部矮爪蛙！這毫無疑問地證明了：(1) 成熟的細胞核仍含有形成所有類型細胞所需的遺傳訊息(即與受精卵具有同樣的基因)，(2) 幹細胞在發展中專業化成體細胞是可逆的。
+格登成功地從體細胞核複製／克隆 (clone) 了兩棲類動物青蛙，當然立刻有科學家想到是否可以用同樣的方法來複製哺乳動物。可是為什麼要等到 30 多年才出現克隆的多莉羊 (Dolly the sheep 3 ) 呢？原來格登選青蛙是有其理由的：兩棲類動物的卵子都是透明、且非常大，一產就大量排出體外。即使這樣，他的成功率還是低的；還好正如筆者在「愛因斯坦所相信的上帝，是你以為的那位上帝嗎？」一文裡所說的「要證明上帝存在比證明祂不存在簡單多」，格登只要在幾百個實驗中不被合理質疑地克隆出一隻青蛙就夠了。
+多莉的生命始於試管中的一個單細胞（取自芬蘭多塞特羊的乳腺細胞核和蘇格蘭黑臉羊的去核卵細胞），六天後在實驗室確認正常發育後，胚胎就被轉移到代孕母親體內，於 1996 年 7 月 5 日出生。但在英國羅斯林研究所 (Roslin Institute) 發表論文前，白臉多莉的出生一直被保密。1997 年 2 月 22 日宣布她的誕生後，全世界的媒體紛紛湧向羅斯林去一睹這只如今聞名的綿羊風采，也引發了媒體關於克隆倫理的爭論。
+現在大部分先進國家都已經禁止克隆人的實驗，因此各地的實驗室大都只克隆人類胚胎細胞，作為研究及治療用。2018 年，中國科學院上海神經科學研究所首次利用 SCNT 成功克隆靈長類動物，誕生了兩隻名為「中中」和「華華」的食蟹雌獼猴。
+到了 21 世紀初，研究胚胎幹細胞的科學家已經鑑定出二十多個似乎對胚胎幹細胞至關重要的基因。這些基因的功能不一定相同：有些對於自我更新很重要（即一個 ES 細胞分裂形成兩個 ES 細胞），而另一些則用來阻止幹細胞分化。科學家也找到如何在培養皿中維持多能胚胎幹細胞的方法，及如何改變培養條件使其分化成各種細胞類型，如肝細胞、心臟細胞、和神經元等。但他們能否利用這些資訊將完全分化成熟的體細胞變成像胚胎一樣的幹細胞嗎？
+2006 年，日本京都大學的山中伸彌（Shinya Yamanaka）和博士後研究員高橋（Kazutoshi Takahashi）終於宣稱只要透過其中四個基因，即可將小鼠纖維母細胞（只能產生其它纖維母細胞）重新編程 （reprogramming），成為能產生多種不同類型細胞的多能幹細胞。他們將這樣製造出來的幹細胞稱為「誘導多能幹細胞（induced pluripotent stem cell, iPSC）」。山中伸彌與格登兩人因研究出如何將專業化的成熟細胞重新編程使其具有多能性，而一起榮獲 2012 年諾貝爾醫學獎。
+精子和卵子像體細胞一樣，也是由受精卵分化出來了，所以應該是一個高度專業化的細胞，但它們融合成受精卵後又變成全能幹細胞，因此顯然融合後的細胞核被卵子微觀工廠的細胞質重新編程，失去大部分分化時的分子記憶（尤其是精子核，變成一張幾乎完全空白的畫布）。格登與複製綿羊的維爾穆特（Ian Wilmut）和坎貝爾（Keith Campbell）就是利用了這種重新編程現象，將體細胞核插入卵細胞質中創造出了新的克隆。
+卵子的細胞質顯然就像一個巨大的分子橡皮擦，它能非常迅速地在 36 小時內完成這個重新編程過程，擦掉了細胞分裂過程中專業化的修飾痕跡（imprinting）。在提高山中伸彌之體細胞重新編程為 iPSC 細胞的效率（遠低於1%）和速度（需要數週）上，分子生物學家雖然已經取得了很大進展，但與自然界一比，仍相差甚遠。
+筆者寫這篇文章的動機事實上是出於想解救同性戀的傳宗接代問題。研究顯示雖然不存在單一的同性戀基因，但來自數十萬人的 DNA 也揭示了一些與同性性行為有關的基因變異。在「同性戀、熊貓、與適者生存」（科學月刊 2014 年 7 月號，見《我愛科學》）一文裡，筆者提到：傳宗接代為「種族生存」的必要條件；同性戀者不能傳宗接代，不是遲早將從地球上絕跡嗎？一個筆者想到的解救的方法是：像體細胞核移植一樣，用同性「夫妻」的配子核取代受精卵中尚未融合的雌性與雄性原核 (pronuleus)，希望它們融合後能繼續發展成胚胎⋯⋯。
+筆者正在幻想如何申請專利賺大錢時，卻發早在 1980 代，肯亞裔的英國發育生物學家蘇拉尼（Azim Surani 4）就已經開始了類似的研究。他以老鼠為對象的實驗毫無疑問地證明了哺乳動物的繁殖不只是傳遞系統的問題：不僅需要兩個單倍體基因組來融合形成一個二倍體核的受精卵，事實上其中一個必須來自母親，另一個來自父親！顯然卵子之細胞質的重新編程不是 100% 地擦掉了所有分裂過程中的修飾、專業化痕跡，而是至少保留了一些必要的基因來源資訊！⋯⋯夢想破滅，只好重做馮婦執筆寫文章（保證不是人工智能代寫的），悲哉！請點個「讚」以聊慰筆者之失望吧！先謝啦！
+幹細胞具有非凡的自我更新潛力：在生命早期和生長過程中可以在體內發育成許多不同的細胞類型。幹細胞可以分成多能幹細胞和「成體幹細胞（adult stem cell）」兩類。前者就是我們討論過的胚胎幹細胞和誘導多能幹細胞；後者也稱為「體幹細胞（somatic stem cell）」，它們已在許多器官和組織中被發現（通常在特定的解剖位置5）。這些特定器官的體幹細胞雖然不是多能的，但在生物體的整個生命週期中，卻扮演著非常重要的內部修復工作：它們可能會長時間保持靜止（不分裂），直到需要替代因正常磨損或疾病而損失的細胞時才被活化。
+即使法律上不准複製人，相信讀者早已看出幹細胞在醫療上的可能作用：如果我們能用與我們體內相同的新細胞來取代罹患第一型糖尿病時失去的胰島素分泌細胞、或阿茲海默症失去的腦細胞、或骨關節炎失去的軟骨生成細胞等，那就不必擔心器官移植所造成的免疫系統排斥問題，或缺乏可用來移植的器官的困擾。這種使用克隆幹細胞來作為醫學治療用的領域稱為「治療性克隆（therapeutic cloning）」。
+本文只回答了 20 世紀初以來一直困擾細胞生物學家的第一個問題：體細胞在基因上與它們所源自的受精卵相同嗎？至於如何重新編程、一個受精卵如何在胚胎分化中形成許多功能完全不同的體細胞、這些體細胞又如何在分子層面上被修飾使其只能繼續分裂成同樣的體細胞等更複雜的問題，則需等待新興的「表觀遺傳學（epigenetics）」來回答。</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>lifescience</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>伺機性病原菌在你我左右 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/372022</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>真菌是自然環境中不可或缺的一環，然而，某些真菌對人體卻構成潛在風險。特別是伺機性病原菌，如足分枝菌屬群，對免疫弱勢者具有致命危險。雖然臨床對其有一定了解，但我們對這些真菌在環境中的分佈卻知之甚少。本篇聚焦於臺灣各類環境，旨在深入了解足分枝菌屬群真菌的分佈特性，以提供更全面的防控策略。
+自然環境乃至周遭充斥著各種各樣對人類有害或有益的真菌。其中對人類生活有益處的有：釀酒酵母、黑殭菌、腐生及藥用真菌；對人類有害的除了黴菌、植物病原菌外，還有一群在人體免疫低下時感染人類的真菌—伺機性病原菌。伺機性病原菌可造成表皮、皮下、深部或系統性真菌病。常見的伺機性病原菌為麴菌屬（Aspergillus spp.）、白色念珠菌（Candida albicans）、新型隱球菌（Cryptococcus neoformans）等。此外，2010 年以前至今，歐美各國以及臺灣也開始出現由足分枝菌屬群 〔如：足分枝菌屬（Scedosporium）和節莢孢菌屬（Lomentospora）] 真菌所導致的感染 (1)。這兩屬真菌皆涵蓋對免疫功能低下和偶爾免疫功能完全的人類有感染性，導致呼吸道感染、皮膚感染、過敏反應、局部或全身性真菌病等疾病。
+足分枝菌屬群真菌為溫帶地區廣泛分佈的土壤微生物，但被認為在熱帶地區很罕見。它們偏好存在於高營養成分的介質，如：園藝土壤，受原油污染之土壤，家畜、鳥禽、牛隻的糞便等。此外，也可從低通風且高滲透壓的介質分離出來，像是下水道污泥、受污染的池塘底部、半鹹水、海埔地和廢水處理廠。足分枝菌屬群在環境的高盛行率，為重要的新興病原菌，尤其在醫院和室內，對患有慢性呼吸道疾病或免疫功能低下的人構成危害。
+根據 264 起病例分析，感染此屬群真菌之免疫功能低下患者的死亡率為 22.2%，免疫功能完全患者則為    14%，全身性感染的死亡率甚至可達 80% (2)。而且，對很多現有的抗真菌藥物，像是弗路欣（5-flucytosine），兩性黴素 B（amphotericin B），三唑類（triazole）等低感受性導致其治療十分困難，需要更多的資源投入研究其診斷方式，有效的治療方式以及系統性的調查。然而，這些伺機性病原菌的研究絕大部分著重在臨床研究上，我們對這些病原菌的在環境中的分佈認識少之又少。臺灣的相關研究僅是零星臨床案例報告以及一個醫院系統的環境調查，缺乏系統性的環境樣本調查。
+以黃尹則博士等人於 2023 年發表於醫學真菌學期刊的研究 (3)，調查足分枝菌屬群物種於全臺灣環境中的土壤樣本之分佈現況。為了評估這些物種於各個環境設施所存在風險，比較自然環境以及都市環境樣本的物種分佈現況，並將醫院獨立出來一同分析。想知道（1）人類干擾度高的環境是否比自然環境有較多足分枝菌屬群的物種？（2）衛生敏感區域相較都市區域是否有較多的真菌物種？
+他們的研究結果顯示足分枝菌屬群的物種常見於臺灣的土壤樣本中（圖三），尤其在人類干擾環境如都市和醫院。此外，衛生敏感區域的真菌生物量沒有比都市區域多且與先前的研究一致。此外，研究發現自然環境有較低的真菌生物量。意味著都市生活的人們暴露在伺機性病原菌的環境當中，時時刻刻都有機會被感染。研究調查到的物種可分成三大類：臨床主要物種一共佔了 84.3%，尖端足分枝菌為最優勢，佔了 42.5%；鮑氏足分枝菌（S. boydii），橘色足分枝菌（S. aurantiacum）和多生節莢孢菌分別佔了 27.5%，8.7% 和 5.6%、臨床次要物種為荷赫氏足分枝菌（S. dehoogii），佔 15.0% 以及腐生物種為海口足分枝菌（S. haikouense），佔 0.6%。結果還發現尖端足分枝菌和多生節莢孢菌在公園鳥類餵食區域有較高的物種豐度，作者推測可能是因為鳥類糞便堆積使土壤含氮量提高所造成的現象。不論地理區域還是氣候區域，尖端足分枝菌都是優勢物種，顯示其有潛力成為人類活動的指標生物。
+然而，該篇研究缺少了養分濃度、酸鹼值、導電度、土壤質地、生物因子（共存微生物相）等資訊，暫時無法釐清真菌物種分佈的歧異度與環境生物因子的相關性。不過該篇研究提供這些足分枝菌屬群物種於東亞至關重要的基礎資訊，有待未來的研究進行土壤樣本的物理和化學性質分析以及分子族群遺傳研究以探討土壤菌株伺機性致病力的關鍵。</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>lifescience</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>「意識」是什麼？人們已經找到答案了嗎？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/372855</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>「意識」是什麼？
+直到現在，仍是宗教、哲學、心理學、神經科學都還無法解答的難題。
+但是今年， 2023 年，一場來自神經學家與哲學家對於「意識」解釋的賭注，在經過長達 25 年的研究後，終於要畫下句點了嗎？到底是誰贏了？對自己頭上頂著的大腦，我們又了解多少了？
+ 1998 年，神經科學家克里斯托夫・科赫（Christof Koch）和哲學家戴維・查爾莫斯（David John Chalmers）打賭一箱葡萄酒，如果 25 年後，人們已經能清楚地解釋意識背後的神經機制，那麼就是科赫贏了。反之，如果還是未能解答意識之謎，就是查爾莫斯贏了。
+但在揭曉勝者之前，我們要先來談談一個最基本的問題，「意識」到底是什麼？首先我們要先定義清楚，因為在中文中，意識指的可能是一個人的清醒狀態、也可以是對內在自我的一種感知、又或是包含感知、情緒、思考等等的一種總和、又甚至可以是指在精神分析理論中與前意識和潛意識的比較。
+若要深入探討意識定義的發展以及不同的哲學論點，那真的不做個三十集做不完，在這集的時間內，就讓我們把重點放在感質（Qualia）的相關概念。感質，指的是個人直接體驗的主觀感受，被認為無法通過客觀描述或第三人稱觀察來完全理解或解釋。我們感知世界的方式、感受事物的質感、觸覺、視覺、聽覺、嗅覺等等都是屬於感質。
+舉一個例子。若是把一顆紅蘋果放在大家面前，詢問蘋果這是什麼顏色，相信大家應該都會說這是紅色。然而，雖然科學能解釋紅色是因為有波長約 620 到 750 奈米的光，刺激到視網膜的錐細胞，產生一連串的神經反應，最後形成大腦的表徵，但卻無法解釋我們對紅色的主觀感受是怎麼形成的。
+哲學家們也常思考，你看到的紅色，和我看到的紅色究竟是否一樣，是否有可能我眼中的紅其實是你眼中的綠。
+舉另一個例子，這件數年前爆紅的衣服，你覺得是藍色與黑色相間，還是白色與金色相間呢？
+另外，像是這張圖究竟是兔子還是鴨子？
+這張圖究竟是狗還是小女孩？
+明明有張客觀的圖片存在，每個人的主觀感受卻有不同的答案。
+在意識賭局中的哲學家戴維・查爾莫斯，就提出感質以及主觀經驗為什麼（why）存在以及如何（how）產生是所謂的困難問題（Hard problem of consciousness），相較於簡單的問題是討論意識相關的功能和行為，困難問題涉及意識的經驗（現象、主觀），是沒辦法客觀觀察測量。也就是這個問題，是沒有答案的。
+舉一個屬於困難問題的例子，明明都只是大腦的神經在放電，為何某些神經放電後會導致飢餓感而不是其他感覺，譬如口渴？他認為即使沒有飢餓這種「感覺」，飢餓衍伸出的行為，例如進食，也可以發生。因此這些產生的感覺，無法單純簡化由大腦等物理系統解釋。
+然而，困難問題的說法其實也存在爭論。根據 2020 年哲學期刊文章的互動式學術資料庫 PhilPapers 的調查， 29.72% 的受訪哲學家認為難題不存在，而 62.42% 的受訪哲學家認為難題是一個真正的問題。
+也有一群神經科學家們雖然接受困難問題的存在，卻也認為困難問題未來可以被解決，又或是被證明這不是一個真正的問題。並開啟了他們對於意識相關神經區（neural correlates of consciousness）簡稱 NCC 的研究發展，試圖找到足以產生意識的最小神經集合。
+但 NCC 的研究被認為最多只能找到神經反應與意識的相關性，解決的仍然只是簡單問題而非困難問題。為了突破 NCC 本身的限制，人們又開始轉往重視意識理論（theories of consciousness (ToCs)）的發展。希望透過意識理論來超越以 NCC 為基礎的方法論，轉向提供更具解釋性見解的意識模型。
+在意識模型這邊還在爭論不休，讓我們先把鏡頭換到神經學家這一邊。
+面對意識這個艱難的大哉問，克里斯托夫・科赫當初怎麼那麼有自信，敢發起這個看起來勝算就不大的挑戰呢？有那麼愛喝嗎？
+ 1998 年，年輕有為的克里斯托夫・科赫已經是加州理工學院的助理教授，並和生命科學領域大咖中的大咖弗朗西斯・克里克，合作研究意識這個主題。沒錯，就是和華生一同發現 DNA 是雙股螺旋結構的克里克。除此之外，克里斯托夫還擁有物理的碩士學位，擁有跨領域的知識，讓他更加相信透過實證的方式，能找到意識的神經機制。
+當時有許多大腦研究的技術蓬勃發展，像是功能性磁振造影（fMRI）已經獲得廣泛使用，使得科學家們能在對象進行活動或是受外界刺激時，同步從大腦血氧濃度的變化來推斷神經反應。
+此外，光學遺傳學（optogenetics）技術也在那個時期開始萌芽，這讓研究者能用極佳的時間解析度來調控特定的大腦神經元，並藉此解碼大腦的秘密。舉例來說，現在的光學遺傳學能讓科學家們鎖定小鼠的特定神經細胞，並在小鼠頭上裝上 LED 光纖，只要開啟 LED 的光刺激，那些特定神經細胞就會興奮或抑制。藉由觀察小鼠行為的變化，就能了解不同行為表現是由哪些神經元所調控。
+厲害的是，在 1979 年光學遺傳學的技術還未誕生前，克里克就認為如果想要了解大腦的運作，精準控制大腦中一種類型的所有細胞是非常重要的，而若想要有極佳的時間和空間精細度，必須使用光的技術，這與後來光學遺傳學的發明不謀而合。
+有了這些科技加持，長達 25 年對於意識的賭注也即將來到結局。
+ 2023 年 6 月 23 日，在科學意識研究協會的年會上，揭曉了這長達 25 年的賭局。神經科學家克里斯托夫・科赫（Christof Koch）最終承認，目前還不能解釋大腦的神經元是如何產生意識，並買了一箱好葡萄酒（1978 Madeira）給哲學家戴維・查爾莫斯（David John Chalmers）實現諾言。
+當然，這不是說意識的來源永遠沒有解答，只是當初賭局設下的 25 年時限到了。實際上到了 2018 年，他們兩位根本都忘了這場賭局，直到一位科學記者佩爾・斯納普魯德重新提及這個話題，才讓大家重新想起。
+恰巧那個時間點，克里斯托夫・科赫和戴維・查爾莫斯都參與了鄧普頓世界慈善基金會支持加速意識研究的大型項目。該計畫建立一系列意識理論的「對抗性」實驗，希望透過讓兩個或多個持相反觀點的競爭對手共同合作研究，來挑戰各種意識假設。
+而其中包含兩個著名的意識理論，全局工作空間理論（Global Workspace Theory （GWT））和整合資訊理論（Integrated Information Theory （IIT））。
+全局工作空間理論（Global Workspace Theory （GWT））的概念，最早是由認知科學家伯納德・巴爾斯和斯坦・富蘭克林在 1980 年代晚期提出。他們認為意識的產生就像是劇場聚光燈一樣，當這個意識劇場透過名為選擇性注意的聚光燈在舞台上照出內容，我們就會產生意識情境。這聚光燈的投射也代表著全局工作空間，只有當感官輸入、記憶或內在表徵受到注意時，它們才有機會整合成為全局工作空間的一部分，被我們主觀意識到。而我們的行為決策，也是透過這個全局工作空間整合訊息，並分配到其他系統所產生。目前認為全局工作是發生於大腦前方的前額葉區域。
+與全局工作空間理論打對臺的，是整合資訊理論（Integrated Information Theory （IIT）），最早由朱利奧・托諾尼（Giulio Tononi）在 2004 年提出。這理論認為，意識背後是有數學以及物理為基礎的因果關係。應該先肯定意識的存在，再回推尋找其背後的物質基礎，並認為主觀意識是由客觀的感覺經驗產生的。克里斯托夫・科赫就是此理論的擁護者，他進一步認為，意識背後的那個神經機制，就存在於大腦後方後皮質熱區（Posterior cortical hot zone），包括頂葉、顳葉和枕葉的感覺皮質區域。
+讓我們稍微總結一下兩者差異：
+全局工作空間理論——
+整合資訊理論——
+然而，經過六個獨立實驗室的研究，雖然有較多的證據支持整合資訊理論，但兩個理論都存在缺陷和質疑，直到目前都尚未有明確解答能解釋意識的神經機制，這也讓克里斯托夫・科赫大方承認自己輸掉了這 25 年的賭局。
+隨著科學測量技術的演進以及越來越多的研究進展，有一些神經科學家認為意識理論即將崛起，目前的狀態只不過是一種研究過渡期。科學哲學家托馬斯・庫恩（Thomas Kuhn）將這種過渡期以「前典範式」（preparadigmatic science）來形容，認為一門不成熟的科學在成熟前，會面臨相互競爭的思想流派並各說各話。就像是當初達爾文提出演化論的物競天擇前有拉馬克主義、災變論與均變論來試圖解釋物種起源一樣。
+雖然這次的打賭由戴維・查爾莫斯獲得一勝，但克里斯托夫・科赫在今年加倍賭注，認為下一個 25 年他一定會贏。到時候克里斯托夫已經 91 歲，戴維 82 歲了。
+大家別擔心，這一集是會員共同選出來的題目， 25 年之後，我們也會再為各位泛糰做一集討論賭局的結果。
+最後也想問問大家， 25 年之後，你賭這場對決會是誰贏呢？
+趕快來留言吧，記得 25 年後要回來看啊！
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！
+意識是 「能」以各種形式(主動或被動)展現「知道」「自己」「當下的」「感覺」。而「知道」(包含不知道)是與記憶比對的結果。對生物或無生物都適用。
+意識是 「能」以各種形式(主動或被動)展現「知道」「自己」「當下的」「感覺」。而「知道」(包含不知道)是與記憶比對的結果。對生物或無生物都適用。
+#1 「不知道」應該是「知道不是」。
+#1 「不知道」應該是「知道不是」。</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>lifescience</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>【從中國經典認識大腦系列】「風聲鶴唳，草木皆兵」——戰爭與創傷壓力造成的精神傷害 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/370473</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>「風聲鶴唳，草木皆兵」形容疑神疑鬼、驚恐不安，典故來自歷史上著名的「肥水之戰」。當時的慘烈狀況，前秦苻堅甚至可能出現與戰爭有關的創傷後壓力症候群 PTSD 的症狀。
+根據《晉書·卷一一四．苻堅載記下》和《晉書．卷七九．謝安列傳》的記載，東晉時期野心勃勃的前秦苻堅意圖征服中原，東晉太元八年（前秦建元十九年）（西元 383 年），他率領龐大的八十萬大軍逼近肥水，準備進攻東晉。
+東晉派出大將謝玄和謝石帶領八萬精兵抵抗。苻堅錯誤地認為東晉兵力不足，自以為佔有優勢，計劃迅速擊敗晉軍。然而未料到謝玄巧妙運用奇襲戰術，使苻堅損失了許多重要將領和士兵。
+在肥水戰前，苻堅登上壽陽城觀察晉軍的情勢，卻發現晉軍部隊整齊有序，士氣高昂，戰鬥力十分強大。他遙望八公山，發現山上長滿無數草木，隨著風吹過，那些草木地晃動就像無數士兵在移動，於是他轉身對弟弟苻融說：「你看那山上，還有那麼多實力強大的軍隊，誰說晉軍很少呢？」這顯示出他內心的憂慮和恐慌，也是「草木皆兵」的由來。
+後來苻堅的軍隊在淝水一戰中遭受重大失敗，苻融壯烈戰死；苻堅本人中箭受傷，只能率領殘兵拼命逃回北方。當他們逃亡的過程中，只要聽到風聲呼嘯、飛鶴的鳴叫聲，他們都以為晉軍仍然緊追不捨，他們日夜奔逃，飢寒交迫。然而，當他們最終回到北方時，龐大的百萬大軍已經損失了七八成。逃亡的過程他們疑神疑鬼，恐懼不安，也是成語「風聲鶴唳」的由來。
+我們對於 PTSD 的了解，並非一朝一夕就在醫學上產生了共識，從誤解到了解，是數百萬歸來士兵們的真實體驗。
+1914 年，第一次世界大戰發生的早期， 英國遠征軍（British Expeditionary Force）發現多達 10% 的英國軍官和 4% 的士兵在戰鬥後出現一些醫學上的症狀，包括耳鳴、健忘症、頭痛、頭暈、震顫和對噪音過敏，甚至有人表現出恐慌、恐懼、逃跑，或是嚴重到無法思考推理、睡眠、行走或說話。由於這些症狀和腦部神經直接受傷類似，當時被認為是一種因中樞神經受傷而導致的精神疾病，但奇怪的是那些士兵們的頭部其實並未發現任何的外傷。
+1915 年，英國醫生查爾斯·邁爾斯（Charles Myers）首次在醫學期刊柳葉刀（The Lancet）使用「彈震症」（shellshock）一詞，用來形容因為爆震衝擊而造成生理以及心理受損的士兵。
+第二次世界大戰（ 1939 年至 1945 年）後，隨著對士兵出現的壓力症狀有很多的認識，醫師的診斷上開始使用戰鬥反應壓力（Combat Stress Reaction (CSR)）取代彈震症。雖然比起彈震症有了更多的了解，但醫學界們對於該症狀的出現仍不清楚。
+1955 年，越戰爆發，美國總共派出 270 萬人前往越南作戰，最後高達 70 萬人需要某種形式的心理治療。
+創傷後壓力症候群 PTSD 被發現以前，已遭受精神創傷的士兵們可能需要面對社會歧視所造成的二次傷害。當時由於對彈震症的成因了解極少，有士兵因此被指控逃兵以及懦弱被送上軍事法庭，甚至因此被處決。越戰後雖然試圖重新融入社區的遭受創傷的退伍軍人數量相當驚人，但他們既無法獲得適當的治療，也無法從退伍軍人管理局獲得殘疾撫卹金，導致美國產生極大的家庭以及社會問題，也催生許多描述退伍士兵因戰爭創傷導致無法正常回歸社會的經典影視作品，如電影《越戰獵鹿人 The Deer Hunter 》（1978），以及《第一滴血 First Blood 》（1982）。
+在 1970 年代，臨床上醫師開始使用創傷後壓力症候群（posttraumatic stress disorder），簡稱 PTSD 一詞來診斷越戰回來的退伍軍人出現的症狀。一直到 1980 年代，美國精神學會（American Psychiatric Association）才將 PTSD 納入精神疾病診斷與統計手冊（Diagnostic and Statistical Manual of Mental Disorders, Third Edition (DSM-III)）。雖然 PTSD 被正式承認為精神疾病，但診斷上仍面臨許多挑戰。最大的困難就是 PTSD 的症狀與太多的精神疾病相似，如強迫症（Obsessive Compulsive Disorder）和廣泛性焦慮症（Generalized Anxiety Disorder）。這也使得 PTSD 的歸類和診斷需要不斷的精進修正，在 DSM-IV 時 PTSD 歸類在焦慮症（Anxiety Disorder）的範疇，但在最新版本的 DSM-V，PTSD 已經和焦慮症分開來，有著自己的分類——創傷及壓力相關疾患（Trauma- and Stressor-related Disorders）。這也有助於醫界以及學界提高對 PTSD 的重視，能更了解 PTSD 對神經的影響以及治療方式。
+根據《晉書．卷一一四．苻堅載記下》和《晉書．卷七九．謝安列傳》的描述，苻堅和許多他隊伍中的士兵已經出現 PTSD 的症狀，但西方國家一直到西元 1970 年代才對 PTSD 有更多醫學上的見解，那究竟古代中國是如何治療那些精神上受到創傷的軍人們呢？
+中國傳統醫學的奠基之作，也是現存最早的中醫理論經典著作——《黃帝內經》，成書於戰國至秦漢時期，並在東漢至隋唐時期經過多次的修訂和補充。PTSD 出現的症狀，可能接近中醫所說的「驚悸」、「健忘」、「情志病」的範疇。在《黃帝內經》中《素問》的《舉痛論》就記載「百病生於氣也，怒則氣上，喜則氣緩，悲則氣消，恐則氣下，寒則氣收，炅則氣泄，驚則氣亂，勞則氣耗，思則氣結」，說明人的七情（喜、怒、憂、思、悲、恐、驚）傷人先造成氣的變化﹐然後才有各式疾病的產生。七情分別屬於五臟（心、肝、脾、肺、腎），以喜、怒、思、悲、恐為代表，稱為五志。五志與五臟的對應關係為心志為喜，肝志為怒，脾志為思，肺志為憂（悲），腎志為恐，所以說怒傷肝、思傷脾、喜傷心、憂傷肺、恐傷腎。
+雖然 PTSD 涵蓋中醫許多症狀的描述，但古代中國並未有明確文獻指出治療的方式，透過現代醫學診斷以及中醫的結合，有研究認為 PTSD 最可能是熱、火或體虛引起的心神失調；肝氣鬱結；及腎虛。次要的模式是長期肝氣鬱結（肝主脾胃、肝火、痰火、痰濕和心火）以及心、腎和脾器官系統體質缺陷的結果（Sinclair-Lian et al., 2006）。如此治療上就可以根據中醫師的評估來進行各臟器的調節。
+我們能從許多經典文學和改編真實歷史事件的影視作品認識到戰爭的殘酷，但這遠遠比不上親身面臨戰場上的恐怖和帶來的創傷。戰爭奪取無數人的性命，存活者面臨的巨大的壓力也將改變一個人的一生。</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>lifescience</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>人類有可能扮演上帝嗎？喬治．丘奇的基因科學之夢（下）——《未來的造物者》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/371661</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>二○一三年，「去滅絕」觀念在集結分子生物學者、環保主義者與記者的 TED x 去滅絕研討會上廣受接納，與會者討論了讓長毛象、袋狼（Tasmanian tiger）等物種起死回生的可能性。布蘭特在會上發表了一場引人深思的演說，論及生物多樣性的喪失，以及利用丘奇的科技再次賦予滅絕動物生命的機會。他藉著研討會與 TED 平臺推出「基因重現及復原計畫」（Revive and Restore），旨在調查生物滅絕的原因、保存生物學與遺傳上的多樣性，並且應用生物科技修復我們的生態系統。
+布蘭特的 TED 演講大受好評，同時卻也令許多人又驚又怒，一些科學家、環保主義者聽到布蘭特想讓滅絕已久的生物死而復生，不禁感到十分驚恐。這可不僅是複製現存的動物那麼簡單——也不是在複製曾經生存在地球上的動物——而是模糊了現存與滅絕動物之間原本分明的壁壘。況且，丘奇也表明自己不僅對長毛象與鴿子感興趣，還想拿尼安德塔人（Neanderthal）的 DNA 來做實驗——他不僅想復活其他動物，甚至想改良人類。
+你也許和過去的科學家一樣，認為尼安德塔人是原始的次人類物種，基本上就是粗獷、野蠻版的人類。不過從近期的研究看來，尼安德塔人其實十分聰明，他們不僅建造了有組織的文明，以物種而言也十分成功，存活了二十五萬年。（作為對比，研究者認為最古老的智人〔Homo sapiens〕生存於三十萬年前的地球。）尼安德塔人的身體能有效保溫，因此能在嚴酷的環境生存，而且他們非常強壯——這部分倒是符合人們對他們的刻板印象——卻也擁有良好的精細肌動技能（fine motor skills），能夠做到精細的動作。若製作智人與尼安德塔人（Homo neanderthalensis）的雜交種，或許就能創造較健壯的人類物種，這種新尼安德塔人可能可以面對現代的氣候變遷難題與極端天氣事件，也比較有可能在遷徙至全新環境時存活下來。
+目前已經有人定序歐洲與亞洲出土的幾組尼安德塔人化石基因體，接下來科學家便能小片段分析與合成此基因體，在人類幹細胞中拼組出正確的尼安德塔人 DNA 序列，如此一來，理論上就能做出尼安德塔人複製體了。我們來聽聽丘奇的說明吧：
+你會先從成年人類的幹細胞基因體著手，逐步反向操作回推至尼安德塔人基因體，或者是合理程度上相近的基因體。這些幹細胞可以生產組織與細胞。假如未來社會接受複製動物的觀念，也重視真正的人類多樣性，那甚至能將完整的尼安德塔人複製出來。
+出生於現代的尼安德塔人當然會面臨許多挑戰，舉例而言，典型的西方人飲食多為乳製品、精緻穀物製品與加工食品，即使是鐵胃的尼安德塔人可能也無法消化塔可鐘（Taco Bell）的起司玉米片多力多滋瘋狂塔可餅——你如果沒吃過，可以把它想像為多力多滋做成的塔可餅，裡頭包著調味過的廉價絞肉與抗結劑做成的切達起司混合物。尼安德塔人再怎麼健壯，兩份塔可餅下肚後，他們——還有他們的史前消化系統——想必也會舉旗投降。
+你或許認為復活尼安德塔人這種想法糟糕至極，那如果我們單純借用幾段尼安德塔人基因，稍微修改人類自己的身體呢？你想想看，尼安德塔人可是沒有乳糜瀉（celiac disease）這種疾病，不會像現代一些人一樣對麩質過敏而導致身體疼痛。他們的免疫反應與我們不同，研究者也許能藉助尼安德塔人免疫系統，找出根治類風溼關節炎（rheumatoid arthritis）、多發性硬化症（multiple sclerosis）與克隆氏症（Crohn’s disease）等自體免疫疾病的方法。此外，尼安德塔人的骨骼非常堅硬，我們也許能借用骨骼密度相關的基因，用以治療數億女性在逐漸老化時不得不面對的骨質疏鬆問題。
+＊＊＊
+你也許會覺得混合尼安德塔人與智人基因並讓代理孕母生下這樣的融合生物，聽起來完全就是恐怖片或反烏托邦科幻小說的劇情——沒錯，許多虛構作品的確探討了類似的議題，而在大部分故事中，人類試圖改變上帝偉大的計畫時，往往會招致災難。這類作品包括：H．G．威爾斯（H. G. Wells）的《攔截人魔島》（The Island of Dr. Moreau，一八九六）、阿道斯．赫胥黎（Aldous Huxley）的《美麗新世界》（Brave New World，一九三一）、法蘭克．赫伯特（Frank Herbert）的《沙丘》（Dune，一九六五）、娥蘇拉．勒瑰恩（Ursula Le Guin）的《黑暗的左手》（The Left Hand of Darkness，一九六九）、南希．克雷斯（Nancy Kress）的《西班牙乞丐》（Beggars in Spain，一九九一），以及理查．摩根（Richard Morgan）的《碳變》（Altered Carbon，二○○二）。這同時也是《星艦迷航記》（Star Trek）與漫威（Marvel）X戰警（X-Men）系列頻頻討論的議題，後者的反派角色萬磁王（Magneto）甚至打算「讓智人臣服於變種人！」。
+綜觀歷史，無論是科學或社會都不樂見任何人扮演上帝，甚至是談論扮演上帝相關的議題。瑪麗．雪萊僅僅是撰寫了關於怪物的故事——並不是創造出真正的怪物——就因為故事太具顛覆性而不敢以本名出版作品，以免政府剝奪她扶養孩子的權利。
+桃莉羊成功複製出來時，全球各地無數人召開了緊急會議與記者會，幾乎無人注意到桃莉羊計畫明文道出的宗旨：增進我們對生物發育過程中細胞變化的瞭解。人們迅速做出了極端負面的反應，密蘇里大學聖路易斯分校（University of Missouri in St. Louis）醫學倫理學者隆納．孟松（Ronald Munson）博士對《紐約時報》表示：「精靈已經從神燈裡放出來了。」他接著質問道：下一步會是什麼，難道要用十字架上的一滴血把耶穌基督也複製出來？波士頓大學（Boston University）公共衛生學院公衛法律系主任喬治．安納斯（George Annas）教授也對生物學與遺傳學界表示譴責。「正確的反應該是驚恐才對。」他說道，並聲稱按邏輯推演，下一步想必就是複製人類了。「父母並沒有權利收集孩子的細胞，做出那個孩子的複製品。大眾對於複製人的反對聲浪是對的。」蘇格蘭教會甚至正式頒布教令，要求聯合國通過具約束力的禁令，禁止複製生物行為。該教會引用《舊約》的《耶利米書》（Jeremiah）1:4-5，表明人類不可取代上帝：「耶和華……〔說〕：『我未將你造在腹中，我已曉得你；你未出母胎，我已分別你為聖。』」美國總統比爾．柯林頓特地舉辦一場活動並安排電視轉播，在活動上宣布禁止聯邦政府提供經費給任何複製人類相關的研究計畫。
+CNN與《時代》（Time）雜誌在一九九七年三月一日發表的調查結果顯示，多數美國人突然對核轉置技術——生物複製技術之一——產生了明確的意見。現在說來你也許會覺得難以置信，不過在桃莉羊誕生前，那些人大多從未花心思想過複製生物議題，也從沒思考過核轉置技術相關的問題。那份調查中，三分之一填答者表示他們為桃莉羊的存在深感不安，甚至願意參加反對生物複製的公眾示威與抗議。在桃莉羊問世將近二十五年後的今日，我們獲得了重要的知識、新生物科技，以及對生命運作模式更廣泛的理解。地球可還沒被惡魔複製羊攻占呢。多虧了桃莉羊，科學家開始複製成人的幹細胞，進而創造出人工「誘導性多功能幹細胞」（induced pluripotent stem cell，iPSC），並將之用於醫學研究。有了 iPSC 之後，利用胚胎做研究的需求減少了，多少消弭了胚胎研究多年來引起的倫理疑慮。研究者能用 iPSC 研究老化過程——並且首次將成年細胞再程序化，表現出年輕細胞的特性。這類研究開啟了新一道大門：人類也許能使用各種幹細胞療法治療疾病，畢竟解藥若出自病人自身的遺傳密碼，那就不可能受免疫系統排斥了。今天已經有許多再生醫學療法可用以治療血液相關疾病，其中包括白血病、淋巴癌（lymphoma）與多發性骨髓瘤（multiple myeloma），以及心衰竭等其他退行性疾病。
+要改變人們的信念與觀感往往要花費大量時間，而這也無可厚非——我們畢竟受數百年的著作與根深柢固的社會價值觀影響。科學家經常在無預警的情況下發表驚天動地的新發現，當我們面對這些挑戰現存思想的新聞時，自然會感到震驚、疑惑，甚至是焦慮，而有時連科學界內部人士也會感到不安。當丘奇的生物去滅絕想法廣泛傳開後，《科學人》（Scientific American）的編審委員會在二○一三年寫了一篇帶諷刺意味的譴責文章，主要論點是丘奇花在這份實驗性技術上的金錢，應該用在傳統保育行動上才對。丘奇自己也在《科學人》發表一篇文章反駁他們，在文中鎮定地說明讓滅絕生物復活的目的，並表示自己的計畫不是為了製作「絕種生物的完美活體複製品，也不是為了成為實驗室或動物園裡一次性的展演」。他解釋道，他的研究重點是探討我們能對現存生態系統做出的調整，以確保在人為環境變遷過後，人類仍能存活下去。
+截至二○二○年十二月，丘奇與他的哈佛研究團隊已逐步逼近他們複製長毛象的「巨大」目標了。亞洲象的基因體和長毛象約有百分之九十九．九六相似，然而剩下那百分之○．○四加總起來卻等同DNA序列當中的一百四十萬處差異。這些差異大多無關緊要，不過在我們寫這本書的目前為止，丘奇團隊已辨識出一千六百四十二段重要的不相似基因，仍須持續做研究才有可能複製出長毛象。團隊還在努力逐一設計、測試與微調他們在實驗室裡培養的細胞，希望能製作出正確的基因序列，讓類似長毛象的亞洲象得以存活下來。他們希望能用長毛象與亞洲象相似的基因作為基底，只不過這頭大象會擁有長毛象濃密的毛髮、適應嚴寒氣候的血紅素、積存多層脂肪的能力，以及其他優點，例如可讓鈉離子通透的細胞膜，這對長毛象適應冬季嚴苛環境大有幫助。在調整出正確的特性組合之後，研究團隊便能將這些改良版皮膚細胞注入幹細胞，做出活生生的（有點長毛的）長毛象。丘奇與德州企業家班恩．拉姆（Ben Lamm）在二○二一年九月成立了巨大公司（Colossal），專門支援他們的長毛象研究計畫。
+假使成功製造出長毛象，這些二十一世紀版的長毛象將會居住在新的家園裡——一個靈感起源於小說家麥克．克萊頓（Michael Crichton）作品的新家，只不過這地方不會取名為侏儸紀公園，而會以更新世為名。更新世公園（Pleistocene Park，沒錯，真的是這個名字）是位於西伯利亞的實驗區，許多原生物種在多年工業化衝擊過後，終於得以重返這個自然保護區，在此再野化（rewild）的物種包括雅庫特馬、加拿大馬鹿、美洲野牛、犛牛等動物。若將修改版長毛象野放於此，就能看出大動物踩踏雪地與永凍土是否能改善氣候問題了。
+——本文摘自《未來的造物者》，2023 年 11 月，臉譜出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>lifescience</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>人類有可能扮演上帝嗎？喬治．丘奇的基因科學之夢（中）——《未來的造物者》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/371656</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>在研究路上，丘奇認識了哈佛分子生物學者吳昭婷（Chao-ting Wu）博士。吳十分欣賞他不受拘束的工作態度與創意，也支持他瘋狂的想法，兩人墜入愛河，在一九九○年結婚。他們在數年後生了個女兒，女兒的睡眠模式和父親同樣不尋常。吳提議父女都去做檢查，結果丘奇和女兒都被診斷出猝睡症（narcolepsy）。丘奇意識到自己若接受標準治療就會失去清醒夢狀態，於是他決定接受嗜睡症狀，繼續照常生活。他不再開車，但也學了一些保持清醒的方法，例如站立或在雙腳之間轉移重心。
+儘管與眾不同，丘奇仍在家人幫助下活出精采的人生，他深受家人啟發，開始大力支持其他人的想法。到了二○○○年代初期，他門下已有背景各異的學生，發表論文數也多達數百，其中許多篇奠定了現今合成生物學的基礎。二○○四年一篇論文提出平價 DNA 合成方法，並示範了將一條條 DNA 印在微型晶片上的技巧。二○○九年一篇重大的研究論文中，丘奇提出能同時分析數百萬份基因體序列的新科技。那之後，丘奇想到了加速基因建造與拼組過程的方法：他想將生物演化應用在實驗室裡。還記得先前介紹的青蒿素嗎？在研究青蒿素合成方法的過程中，研究團隊費了約二千五百萬美元與約一百五十人一年份的辛勞——而當時的任務僅是稍微調整數十段基因，和合成一整隻生物相比差得太遠了。丘奇認為不必從零編寫一份完美的 DNA 密碼，而是能讓機器從設計草圖開始自動發展出多種變化，之後再挑選出最成功的幾個版本。
+他和實驗室一小群人還真製造出這麼一臺機器，它是機械手臂、燒瓶、管線與偵測器組成的四不像，全都由電腦操作。他們的第一場實驗是稍微改變一株大腸桿菌，讓它生產更多茄紅素（lycopene）——讓番茄呈紅色的類胡蘿蔔素。機器做出了一百五十億個新菌株，每一株的遺傳密碼都經過調整，有些菌株能生產比原菌株多達四倍的茄紅素。丘奇將這種方法稱為「多路自動化基因體工程」（multiplex automated genome engineering，MAGE），這可以算是生物演化，只不過是加強版演化。他還想到幾種實際應用方法，例如創造各不相同的人類細胞株做研究使用——有了這種方法，科學家就能瞭解突變造成疾病的機制等等，有機會大幅改變我們醫學與醫療發展。我們或許可以設計出對病毒有抗性的幹細胞，將它們用於細胞療法，或者也可以設計並培養對疾病有抗性的新器官。我們理論上還能調整基因體之後用體外受精技術讓受精卵在母體子宮著床，最後生下對病毒有抵抗力的嬰兒。
+但是說到底，丘奇最重大的貢獻可能是在二○一二年發現輕易改變 DNA 序列、修改基因功能的方法，進而奠定 CRISPR 技術的基礎。CRISPR 是基因編輯的科技基石，全稱為「常間回文重複序列叢集」（clustered regularly interspaced short palindromic repeats，CRISPR），這是基因體當中特定一種重複的 DNA 序列，序列無論是正讀或反讀都一樣。廣泛而言，這是一種有廣泛用途的技術，可用以改正基因缺陷，還可用以創造生命力較頑強的植物或消滅病原體。
+丘奇和從前的博士後學生——哈佛博德研究所（Broad Institute）的張鋒（Feng Zhang）——合力在《科學》期刊發表數篇論文，提出了用 CRISPR 技術引導細菌酶 Cas9 精準剪切人類細胞 DNA 的方法。他們以微生物學者伊紐曼．夏彭蒂耶（Emmanuelle Charpentier）與生物化學學者珍妮佛．道納（Jennifer Doudna）早先的發現為基礎；夏彭蒂耶、道納兩人當時分別在瑞典優密歐微生物研究中心（Umeå Centre for Microbial Research）與加州大學柏克萊分校做研究，她們發明了用 CRISPR 關聯蛋白質（CRISPR associated proteins）這種酶有效剪貼 DNA 的方法。她們的 CRISPR 系統在二○一○年代引起了一波淘金狂潮，致使兩人在二○二○年獲得諾貝爾化學獎，成為有史以來第一個贏得諾貝爾科學獎項的全女性團隊。丘奇雖也有貢獻卻未得獎，但他不以為忤，反而對記者表示「我覺得這個選擇非常棒……那是關鍵的新發現」，並接著誇讚夏彭蒂耶與道納優秀的工作成果。
+過去二十年來，丘奇平均每年合作成立一家新公司，主要是為了幫助自己門下最有潛力的博士後研究員離開實驗室、正式出社會。他另外申請了六十份專利、輔導了新一代基因工程師，協助新世代研究者塑造明日世界。到了二○○○年代中期，他萌生了重新發明塑膠杯的想法，只不過這次不用石化材料。簡單而言，丘奇團隊將微生物的遺傳訊息再程序化，讓微生物吃下糖之後生產聚羥基丁酸酯（polyhydroxybutyrate），這種強韌且可生物分解的材料能用以短時間容納液體，對攤販而言再適合不過。團隊在二○○九年甘迺迪表演藝術中心（Kennedy Center）一場演出的中場休息時間首次推出新產品，杯子上貼著得意洋洋的宣言：「百分之百植物製成的塑膠。」
+丘奇另外和一小支科學家團隊提出了腦科學計畫（BRAIN Initiative），結合國家科學基金會、國防高等研究計畫署等公私部門的力量，試圖解析大腦的運作原理。他在二○○五年推出個人基因體計畫（Personal Genome Project），用以交流基因體、健康與遺傳特徵等公眾數據。為了推動計畫，丘奇與科學界許多著名人物公開了自己的基因體數據，希望能促使人們自由分享數據，以便讓科學家研究人類的基因與遺傳特徵，並且開啟關於個人遺傳密碼透明度與隱私的討論。公開自身基因體數據的人包括受過太空人訓練的投資者與慈善家艾絲特．戴森（Esther Dyson）、哈佛醫學院的科技主任約翰．哈拉姆卡（John Halamka）、客製化醫療保健公司賽歐納（Sciona）的創辦人羅莎琳．吉爾（Rosalynn Gill）、知名心理學者與作家史迪芬．平克（Steven Pinker），而丘奇本人當然也參與其中。十組基因體並不算太多，而數據本身雖然沒有署名，這十位著名人物的身分還是對大眾公開了，所以不可能完全保證他們的隱私。他們願意提供資料，完全是多虧了丘奇的請託。
+讀到此處，你想必看得出丘奇是聰慧且願意挑戰自己與他人的思想家、啟發人心的導師，也許還有一口氣接下太多計畫的毛病。換言之，他就是那種會去研究如何讓絕種動物復活的研究者——而他特別想復活的動物，正是四千年前在更新世（Pleistocene）絕跡的長毛象。
+四千年以前，長毛象已經在地球極北存活數千年。你可以將牠們想像為大象的近親，只不過身上長著粗糙的毛髮與多層脂肪以便抵抗冰河時期的嚴寒，還有可用以覓食的長象牙。（過了很久很久以後，創作者從牠們身上得到靈感，創造了《星際大戰》〔Star Wars〕中的虛構生物「班薩」〔bantha〕。）我們不清楚長毛象滅絕的確切原因，不過研究者認為是人類狩獵與氣溫變化減少了長毛象族群數目與食物來源。
+長毛象算是「關鍵物種」（keystone species），生態系統裡其他物種在許多方面都仰賴牠們的存在，才得以穩定生存。長毛象成群行動、找尋可食用的枯草時會將樹木撞倒，也會將雪層壓實，保持永凍土層的穩定。一旦長毛象與其他大型草食動物不再吃枯草也不再將雪地壓實，生態系統就發生了變化：表面的雪層融得快了些，以致永凍土遭受陽光直射，開始以驚人的速率融化並將溫室氣體釋放到大氣中，造就了惡性循環。氣溫升高導致冰雪加速消融，釋放出更多溫室氣體，使得氣溫繼續提升，就這麼不斷循環下去。若能使長毛象起死回生，野放到加拿大與俄羅斯，那或許有機會修復失衡的生態系統，而且——老實說吧——如果能用這種方式抵抗氣候變遷造成的生存危機，那不是超級新奇、超級酷嗎？
+丘奇花了不少心思考慮去滅絕（de-extinction）的執行方法，不過第一個做這種嘗試的人並不是他。全世界第一隻哺乳類複製動物——桃莉羊（Dolly the sheep）——誕生於一九九六年，牠之所以能被複製出來是多虧了一種稱為「核轉置」（nuclear transfer）的技術，而這種技術開啟了讓滅絕生物起死回生的大門。核轉置的主旨在於將一顆完整細胞的細胞核小心翼翼地抽取出來，置入同物種或近親物種的卵子，餘下步驟則近似製作試管嬰兒的方法：雜交卵子置入動物子宮後著床，若一切順利，孕母將會在孕期結束時產下健康的雜交動物。在二○○○年，世上最後一頭庇里牛斯山羊（一種野生的山羊）死了，不過人們用液態氮將那最後一頭山羊的細胞保存下來，後來到了二○○三年，研究者成功用核轉置方法複製出一頭小羊——可惜牠出生後只活了短短幾分鐘。核轉置技術雖能用以複製動物，但也有其限制，只有保有完整且具功能性之基因體的動物才有機會被複製出來——舉例而言，研究者必須要有冷凍保存得異常完好的動物屍體，而北極圈內恰巧有好幾隻保存完好的長毛象屍體。然而即使在屍體存在且保存完好的情況下，讓滅絕物種起死回生的研究也不一定能成功，複製出來的動物也許無法存活。這種動物早已在數千年前絕跡，牠的基因體想必無法適應今日的地球環境。
+因此，丘奇想到了另一種解決辦法：他想反其道而行，以近親物種完整、健康的細胞為起點，再加入滅絕物種留存下來的基因片段，一步步倒推回去。我們以旅鴿（passenger pigeon）為例，這種鴿子一度遍布全美，數以百萬計的鴿群從天上飛過時，甚至能遮蔽白晝陽光，但牠們卻在一九一四年絕跡了。我們能使用目前仍存活的近親物種——野鴿（rock pigeon）——的幹細胞，讓旅鴿重回地球。我們可以將旅鴿的部分基因置入野鴿幹細胞，接著轉形（transform）到精子細胞，再注入卵子細胞後發育成受精卵，最後生出帶有旅鴿特徵的野鴿。
+這類想法深深吸引了創辦《全球概覽》（Whole Earth Catalog）期刊與尖端線上服務「The WELL」的科技界傳說級人物史都華．布蘭特（Stewart Brand），以及生技業經理（也是布蘭特之妻）萊恩．菲蘭（Ryan Phelan）。布蘭特、菲蘭與丘奇聯手推出了去滅絕關鍵物種的新計畫，其中包括旅鴿與長毛象——確切而言，是有點長毛的長毛象，畢竟他們製作出的不會是真正的長毛象，而是和長毛象現存親緣關係最近的物種——亞洲象——幹細胞基因剪接（splicing）後誕生的生物。
+——本文摘自《未來的造物者》，2023 年 11 月，臉譜出版，未經同意請勿轉載。
+只因為能做而做，而非因為該做而做。是現代科技的最大隱憂。
+只因為能做而做，而非因為該做而做。是現代科技的最大隱憂。</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>lifescience</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>人類有可能扮演上帝嗎？喬治．丘奇的基因科學之夢（上）——《未來的造物者》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/371647</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>幾乎所有文化在面對生命本源的問題時，都會用一些角色與故事回答問題。在希臘神話中，最初只有卡俄斯（Chaos）——虛無——的存在，接著蓋亞（Gaia）從虛無而生，然後生下天空烏拉諾斯（Uranus）。他們的後代包括泰坦（Titan）、獨眼巨人（Cyclopes）、百臂巨人（hundred-handed creatures）、諸神（赫斯提亞〔Hestia〕、狄蜜特〔Demeter〕、宙斯〔Zeus〕等），以及後來的人類。古蘇美人則相信母神納木（Nammu）生下了天與地，並且誕下動植物與人類。在拉科塔族（Lakota）傳說中，這個世界存在之前還有另一個世界，那個世界的人類罪孽深重，因此大靈（Great Spirit）用洪水淹沒大地，只有烏鴉康吉（Kangi）活了下來。大靈另外派三隻動物取了泥回來，由大靈塑造成土地與世界各地的動物，然後又用紅、白、黑、黃四色的泥塑造出男人與女人。而在基督教故事中，上帝先是創造出無形的荒蕪，接著創造光、天空、土地、動物，以及掌管所有生物、後來成為人類始祖的亞當與夏娃。
+這些故事都編造於我們理解生物學、天擇與生命演化之前。《創世紀》（Genesis）記載了許多戲劇化的故事，故事中世界遭遇危難、一家人盼望生下孩子，還有人遠行尋找未來的家園，它的多位作者根本沒聽過好幾世紀後達爾文對於天擇的觀察，也沒聽過格雷高爾．孟德爾（Gregor Mendel）提出的遺傳法則。（若能研究《聖經》中幾個著名家族——例如撒拉〔Sarah〕、利百加〔Rebecca〕與拉結〔Rachel〕的家系——的基因序列，那也許可以找出她們難以懷孕或成功生育的原因。）
+蘇格蘭哲學家大衛．休謨（David Hume）曾觀察到，我們人類共同的這些創世神話之所以存在，是因為我們需要用有因果關係的故事理解周遭世界，也是因為當社會規則有前後文脈絡時，社會才能運作得更好。那麼如今，隨著合成生物學打破我們自古流傳下來的規則，迫使我們重新思考這些規則的合理性、挑戰自己原先相信的起源故事，我們又該如何是好呢？到了今天，科學家忙著在數百間實驗室裡幻想、設計與生產生命的未來——而在其中一間實驗室裡，一位備受敬慕的研究者邀我們檢視與調和自己對科學及信仰的信念。
+＊＊＊
+喬治．丘奇在生物學界絕對算得上「大」人物，他同時是麻省理工學院與哈佛大學的教授與實驗室主任。即使不穿鞋，他的身高也達六呎五吋（約一百九十五公分），校區內甚至有幾道門太矮，他必須彎腰低頭才有辦法通過。他擁有天使般大大的可愛笑容、紅潤的雙頰、一頭茂密的白髮，以及蓬鬆的長鬍子。簡而言之，他可說是聖誕老人的遺傳學家弟弟，脾氣也和聖誕老人同樣和藹可親。人們常因丘奇的研究主題而將他和查爾斯．達爾文——甚至是更偉大的人物——相提並論。在討論如何利用合成生物學設計與操控生物學未來時，喜劇演員史蒂芬．荷伯（Steven Colbert）一度打斷了丘奇，急切地問道：「我們有重新設計的必要嗎？」他接著說道：「第一次發明我們的是上帝，是創造天地的主。先生，你這是在扮演上帝嗎？你這個鬍子的確很有假扮上帝的潛力。」荷伯也許沒發現，他這句笑話其實有幾分真實，因為丘奇花費了大量心血想創造新生命，以及復活已死的生物。
+丘奇在一九五四年誕生於佛羅里達州麥克迪爾空軍基地（MacDill Air Force Base），從小在鄰近坦帕灣（Tampa Bay）的中產階級社區長大，生活環境不算特殊。丘奇的父親是空軍中尉，同時也是賽車手、光腳滑水運動員，比起寧靜的家庭生活，他對刺激的活動感興趣得多。丘奇的母親則是律師、心理學者與作家，她優秀又有想法，早就受夠了丈夫的行徑。她兩度再婚，第二次對象是一位名為蓋洛．丘奇（Gaylord Church）的醫師，蓋洛正式收養了當時九歲的喬治。喬治立刻對繼父包包裡的醫療器材深感興趣，蓋洛教好奇的兒子如何消毒針頭，甚至偶爾讓喬治為他注射藥物。
+這段時期，丘奇在天主教學校的老師都對他頭疼不已。丘奇雖然禮貌，卻頻頻提出修女們答不上來的問題，經常帶著老師們鑽神學的牛角尖。他高中就讀麻州名聲極佳的寄宿學校——菲利普斯學院，也就是馬文．閔斯基的母校——這所學校就比較適合他了。他在此鑽研電腦學、生物學與數學——卻也發現自己越來越無法在夜裡完全入眠，日間也難以保持清醒，即使在他深愛的數學課上也會打瞌睡。其他學生不停拿這件事笑他，代數學老師甚至叫他乾脆別來上課了：既然他這麼常在課堂上打瞌睡，那就自己想辦法學數學吧。丘奇為自己辜負師長的期許而感到羞愧，同時也恨自己無法融入群體。
+後來他就讀杜克大學（Duke University），睡眠問題仍不見起色，他常在會議或研討課中不小心睡著，睡幾分鐘後聽見自己的名字，他又會像沒睡著一樣猛然驚醒、回應對方。有次在一位系主任的課堂上，系主任見學生斗膽打瞌睡，甚至氣得拿粉筆丟他。儘管如此，丘奇還是在短短兩年內拿到了化學與動物學的學士學位，接著繼續在杜克大學讀生物化學研究所。他很快便被晶體學（crystallography）吸引，這在當時是一門新學問，可用以研究轉運 RNA（tRNA）的三維結構，深入瞭解這種負責解碼 DNA、將遺傳指令運輸到細胞其他部分的 RNA。
+丘奇的睡眠問題並沒有好轉，大多數人都以為他不過是太無聊或在做白日夢，孰料他其實是無意間迅速進入了睡眠的快速動眼期（REM sleep）——也就是人們睡眠時做夢的階段——並且將清醒時的想法帶進了夢裡。在清醒夢狀態中，他看見了未來的各種可能性，探索了不同排列組合的科學方法——換作是清醒的人，絕不可能想到用如此古怪、瘋狂的方式應用科技。
+在學生時期，丘奇老是因太過好奇與容易分心（當然還有打瞌睡）而惹上麻煩，他每週花上百小時做尖端晶體學研究，以致從不出席核心課程，最後想當然耳被當掉了。他被逐出了生物化學系，只能試圖轉系、繼續從事研究，然而他修的課程太雜、個人名聲不佳，而且研究領域又很奇怪，沒有教授想收他。此時的丘奇二十歲了，他發表過重大論文、獲得了著名的國家科學基金會（National Science Foundation）青年學者獎，卻被學術界的官僚體制拒之門外。
+話雖如此，丘奇仍設法轉學到了哈佛，並下定決心讀完研究所。到了哈佛大學後的第一學期的早秋某一天，丘奇上課遲到了幾分鐘，於是他悄悄溜進教室、在最後一排找位子坐下。他取出筆記本、抬頭看向老師的投影片，赫然發現當日主題是自己的一篇論文。那堂課的教授是分子生物學界首屈一指的學者華特．吉爾伯特（Walter Gilbert），他沒發現丘奇也是這堂課的學生。（吉爾伯特在三年後因開發出 DNA 定序的早期方法之一而獲得諾貝爾獎。）
+丘奇繼續做著生物化學相關的夢，提出了許多大膽的想法，其中之一是能低成本且快速解讀 DNA 的機器，還有一者是用現成分子改寫基因體、改良自然造物的方法。在他的想像中，他可以用特定的酶修改基因體當中不同的部分，還能讓神經多樣（neurodiverse）者——例如有強迫症或自閉症的人們——調控他們的特殊能力，而不是用藥物抑制這些能力。丘奇的想法被他帶進了實驗室，他致力於基因體定序與分子多工（molecular multiplexing）的研究，後者是能夠同時定序數條 DNA 的技術，不必像當時廣受使用的方法一樣，一次僅定序一條 DNA。這其實不是新技術，但大部分科學家認為這種想法太過荒謬，所以並沒有繼續順著這條路研究下去。丘奇證實了此事的可行性，一次定序多條 DNA 的方法很快便被許多人接受，大幅降低了 DNA 定序的成本。
+——本文摘自《未來的造物者》，2023 年 11 月，臉譜出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>lifescience</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>合成生物學：開啟人類未來的鑰匙？——《未來的造物者》導讀 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/371632</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>這幾年在大學教書，每逢金秋十月的諾貝爾獎季節，整個校園都彌漫著一股躁動與期待。尤其在生理醫學獎、物理學獎和化學獎公布前夕，各種猜測和傳聞紛紛出現，談論著獎項可能頒給合成生物學領域。這些傳言不僅在學生和老師之間流傳，甚至吸引了媒體的關注。有幾次，校方和記者會提前找到我，希望從我這打著合成生物學旗號的研究學者得到一些線索或看法。這樣的情境不僅凸顯了合成生物學在科學界的日益重要性，也充分反映了合成生物學打破學科界限，跨越不同領域的研究。事實上，合成生物學不僅僅在健康醫療領域取得進展，其創新技術和理論已悄悄滲入到每個人的日常生活中，包括永續環境、智慧農業、奈米科技，甚至是政府政策與法規的擬定，展現真正的跨領域合作。
+二○二三年三月，美國白宮科學和技術政策辦公室公布了對生物技術的未來展望，明確標示出合成生物學在全球科學發展的關鍵角色，從氣候變遷到供應鏈韌性、從農業創新到人類健康，合成生物學的影響與應用已無所不在。而美國並非唯一看到這趨勢的國家。近年來，中國將合成生物學列為其戰略前瞻性重大科學領域和重點發展生物技術，反映出中國對於這門學科的高度重視。同時，在台灣，國家發展委員會近年也積極推動與合成生物學相關的研發策略，融入其六大核心戰略產業和五加二產業創新計畫中。這些策略決策不僅展現了各國政府對合成生物學的信心，也凸顯了它在全球科技發展中的核心地位。
+當我們邁入二十一世紀，面對合成生物學這一革命性的學科成為我們日常生活中不可或缺的一部分，我們首先要回答的問題是：合成生物學到底是什麼？它為什麼如此重要，以至於受到如此多的關注和期待？合成生物學結合了生物探索、工程設計和跨領域的技術應用，致力於發展和構建新的生物系統。與傳統的基因工程不同，傳統的基因工程技術主要著重於研究及修改基因，從而修補或增強基因的某些功能。然而，合成生物學的範疇遠不止於此。
+合成生物學的目標是全面理解生物系統的工作原理，並根據這些知識重新設計和構建具有特定功能的生物機器。它不只是在既有的生物框架上進行微調，還可以從零開始，系統性地設計和構建全新的生物系統。由於需要將複雜的生物元件進行重組和調控，近年結合人工智慧，使科學家能夠更精準地預測、模擬和控制生物系統，這是傳統基因工程難以實現的。這其中的挑戰遠超我們的想像，但所帶來的可能性也是前所未有的。
+舉例來說，在精準醫療領域中，合成生物學已經開發出能夠生產新型藥物、治療遺傳性疾病，甚至對抗癌症的智慧細胞。在環境保護領域，我們可以設計微生物來處理汙水、減少溫室氣體排放或修復受汙染的土地。在農業上，合成生物學提供了更為高效、節水、高產的作物品種，這對於食品安全和全球糧食問題都具有深遠的意義，而這只是冰山一角。隨著技術的發展和研究的深入，合成生物學將在未來幾十年內帶來更多創新和驚喜。不難想像，在不遠的將來，我們的生活、工作甚至教育都將深受其影響。
+合成生物學的發展確實為人類打開了無數的可能性，從創造具有特殊功能的生物，到解決困擾已久的醫學難題。但與此同時，我們也不能忽略合成生物學帶來的挑戰和風險。例如，如何確保這些被重新設計的生物體不會對環境和人類健康產生意想不到的影響？我們應該如何看待和處理因基因修改而產生的生物機器？這些問題需要我們集體思考和探索，並與各領域專家共同合作，確保合成生物學的發展能夠真正造福人類。
+在課堂教授合成生物學時，我常以電影《侏羅紀公園》的離氨酸權變（lysine contingency）帶領學生反思當科技進步與人類控制意願之間出現衝突時可能會發生的事情。在侏羅紀公園中，為了防止恐龍逃出公園威脅全球生態系統，科學家亨利．吳（Henry Wu）進行了基因改造，使得恐龍無法製造其中一種必須氨基酸離氨酸（lysine）。此設計的初衷是讓恐龍只能依賴公園提供的離氨酸食物，進而防止它們逃離公園。這是一種典型的「安全措施」，旨在確保基因改造生物不會帶來無法預料的風險。然而，正如影片中所呈現，這種所謂的「完美」控制計畫卻遭遇了意外。雖然恐龍依賴離氨酸來生存，但它們找到了其他途徑來獲取這種氨基酸，這意味著即使在有限的條件下，生命也會找到生存下去的方法。
+這故事讓我們明白即使是最先進的技術，也不能保證完全的控制。當我們嘗試限制和控制生物，自然界總是有其應對方式。這對於合成生物學家來說是一個警示，因為我們在改造生命的過程中，必須充分考慮到潛在的不確定性和風險。面對快速進步的科技，我們必須問自己：我們是否真的準備好面對所有潛在的後果？在追求科學進步的同時，我們也應該謹慎行事，確保我們的決策不僅是基於技術的可能性，還要考慮到其對生態和人類社會的影響。
+對於熱愛科學的我們來說，這是一個充滿機會的時代。每一次的科技進步都驗證了人類的智慧和創造力。透過這本書，我相信讀者將更深入地認識和理解合成生物學，體會其獨特魅力及即將面對的挑戰。我期望這本書能夠鼓勵大家抱持開放、謙虛且謹慎的態度面對科技的發展。同時，希望此書能激發更多人對科學和未來進行深入的思考，並鼓勵大家投入合成生物學的創新研究和人才培育之中。
+——本文摘自《未來的造物者》，2023 年 11 月，臉譜出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>lifescience</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>筆耕卅五載，洞鑒電路板春秋——專訪PCB切片權威白蓉生 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375204</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>本文轉載自顯微觀點
+拆開任何現代電子產品，都可以發現印刷電路板（Printed Circuit Board, PCB）的踪影。從地球外的人造衛星、最新款 iPhone 到傳統桌上型電話，印刷電路板都在其中乘載元件、傳遞訊號，因此也被稱為「電子產品之母」。
+臺灣是舉世聞名的 PCB 出口大國，儘管出現廠商逐廉價勞動力外移的趨勢，臺灣企業的市占率依然超過三成，位居全球第一。
+在追求精密化、提高良率的產業進步過程中，分析 PCB 切片顯微影像是不可或缺的步驟。要看得細膩真確，則有賴 PCB 樣本製備及影像判讀，兩項需要精密操作、耐心和敏銳判斷力的技術。
+現年 85 歲的白蓉生，是兩岸 PCB 業界備受尊敬的分析技術權威，曾獨立經營《電路板資訊雜誌》8 年，並擔任臺灣電路板協會《電路板季刊》總編輯 25 年。他磨練 PCB 切片檢驗與判讀能力 40 餘年，持續對業界分享他的獨門 PCB 顯微分析心得。
+自 1980 年代以來，白蓉生公開發表超過 800 篇圖文並茂的 PCB 檢測技術文章，並擔任國內外重要廠商的技術顧問。他不藏私的經驗分享，促成 PCB 製造商的技術躍進與營業成長。
+PCB 檢測過程中，光學顯微檢驗是最為基礎，也提供最多資訊的步驟。進入顯微載物台之前，PCB 需要經過切片取樣、封膠、研磨、拋光、微蝕等步驟。其中切片與研磨、拋光需要格外細緻的操作能力，才能在顯微鏡下呈現清晰平整的切面。
+良好的 PCB 切片樣本，可以將整個切面維持在同一個焦平面，均勻呈現孔道的鍍銅品質、不同金屬間介面的良窳，整個水平面上的顯微景觀都維持清晰對焦。透過尋找細微瑕疵，來改進 PCB 的製造過程。
+「在放大 1000 倍、3000 倍後，都可以維持切面對焦的樣本，才是合格的切片樣本。」
+白蓉生以業界檢驗分級 QC（Quality Control, 品質管理）, QA（Quality Assurance, 品質保證）, FA（Failure Analysis，故障分析）為案例，「合格的 FA，追求整個切片視野的焦聚一致，一覽無遺。一般 QC 或 QA 人員，慣於接受觀察球面樣品，對於看不清楚的部分不了了之。」
+他指出，業界常見的球面切片無法得到清晰的全面影像，是研磨與拋光的技術與耐心不足。焦點起伏不定的切面無法展現細節中的魔鬼，工程師自然也無法精進製程、更換材料以祛除瑕疵，。
+現任職欣興電子技術顧問的白蓉生，在廠內建立 FA 切片師的培訓與考試機制，30 年來僅有 20 多人合格。製備合格切片之後，影像判讀是分析製程的必須能力，因此白蓉生設立與 FA 切片師並行的 FA 判讀師制度，迄今也只有 20 多人合格。
+白蓉生感嘆，「切片與判讀都需要下苦功練習，30 年來只有 3 個人獲得切片師與判讀師雙料合格。」
+白蓉生笑說，「來學切片判讀的，常常是經理或副理，對專業經驗自視甚高。但他們所學愈深，就愈是謙遜。登堂入室，才發現前方學海無涯。」
+隨著顯微技術演進，業界流行使用電子顯微鏡觀察切片，認為看愈小愈好。白蓉生卻堅持以光學顯微影像作為判讀依據。因為在電子顯微鏡下，只有黑白影像，無法利用顏色分辨不同材質。
+白蓉生說「用電顯判讀的結果，無法分析顏色。我認為都是胡說，像是文盲在看書。儘管能看到很小的顆粒，分析人員也只能看著黑白影像說：『那是雜質』。」
+切換明視野、暗視野、偏光干涉等光學技術，再搭配透視與立體顯微鏡的組合，PCB 切片中不同金屬在白蓉生鏡下呈現明顯對比，相同金屬也會因為歷經不同處理而呈現不同顏色。電鍍銅與化學銅的差異、電鍍與焊接的品質，都在白蓉生的顯微影像中一覽無遺。
+除了基本的明場自然光，白蓉生也分享他常用的顯微技巧：以明場光源搭配干涉，在最暗與最亮的偏光下可獲得透視效果。明場兼用偏光與干涉可以使銅面呈現立體效果，且電鍍銅會呈現藍色易於分辨。採用偏光與干涉的單純暗場則能呈現最佳的材質對比效果。
+白蓉生強調，「因為能看出金屬介面的細緻型態，我們才能知道技術要如何改進。」
+在白蓉生指引的工藝改革下，原本表現平庸的欣興電子成為精密載板的重要國際供應商。他得意地說，「我們製作的 Daisy Chain 載板佈線連貫強韌，承受 500 次熱漲冷縮測試之後，電阻增加不到 5%。技術紮實到連 Nvidia 這種頂級客戶都大吃一驚。」
+欣興電子雇用白蓉生為顧問後，他追求精進的態度製程水準帶來革命般的改變。白蓉生回憶，早先欣興電子的產品良率不到八成，「或許剛好可以維持公司運作，但也無利可圖。」
+現在欣興電子的高階 IC 載板良率已穩定超過 9 成 5，股價也成長超過十倍。白蓉生笑說，「我沒有因為公司股票賺錢！我原本就不想要賺大錢，因為錢多了沒用，只是徒增煩惱。」
+話雖如此，白蓉生也坦承，「當年創立《電路板資訊雜誌》是生活所需，因為從安培離職，沒工作就沒收入啦！」
+從資深工程師轉為科技月刊發行人兼總編輯，白蓉生的生活更加忙碌，全副精神都浸泡在 PCB 技術知識的研讀和傳遞中。
+他回憶，當時他自己擔任總編輯兼送報生，手稿交由妻子與另一位打字員處理，在沒有網路的時代，每一期要繳出 5 萬字圖文並茂的稿子。除了努力訪問國內廠商、專家，也要大量編譯國外刊物內容。當年雜誌收入以廣告費為主，每個月可以得到超過 20 份廣告委託，在沒有前例的科技月刊市場上，開拓出意外佳績。
+《電路板資訊雜誌》從 1988 年發行至 1996 年，白蓉生在 8 年間自力編譯、採訪、寫作，從早晨六點到午夜睡前，都在蒐集資料、勤奮筆耕。
+「我一周六天都在編雜誌，沒有應酬娛樂，也沒請過病假，因為連生病的時間都沒有！」
+雜誌停刊之後，白蓉生享受了兩年退休生活，發現自己閒得發慌。他受邀擔任臺灣電路板協會（Taiwan Printed Circuit Association, TPCA）的顧問及《電路板季刊》總編輯，繼續研究、傳授電路板顯微影像的判讀方法，以及細緻的製程改善技巧。
+《電路板季刊》迄今已發行 100 期，白蓉生也成為華語世界最重要的電路板知識傳遞者。
+懷有珍貴 PCB 分析知識與技術的白蓉生，在兩岸業界深受重視，是各大廠商極力邀請的講師。他的判斷力不是來自學校或公司的教育體系，而是靠著多年來的勤奮自學。
+白蓉生說，他少時家貧，因此就讀師範學校以省下學費，還能領錢和白米幫助家境。但師範學校學歷不如一般大學（當時師範學校專門培育小學校教師，僅需 3 年教育），心有不甘的白蓉生在小學任教三年後，考上中興大學化學系，同時擔任小學老師和大學生。
+白蓉生在大學畢業後進入中華航空擔任化學工程師，反覆的電鍍工作並未帶給他成就感，他於是轉職美商安培電子（Ampex）。1969 年起，白蓉生在安培電子大量接觸 PCB 製造與檢測的第一線作業，開啟了鑽研 PCB 分析判讀的專業道路。
+1969 年，安培電子於桃園設廠，是臺灣 PCB 生產王國的發軔時刻。白蓉生在此接觸到國內最先進的 PCB 工藝。他樂於在下班之後繼續研究檢測材料，探索各種慣例外的顯微方法，逐步建立自己的 PCB 切片檢查技巧。
+除了 PCB 製造工藝的獨到見解，對文學的喜愛也是白蓉生筆耕不輟的動力來源。他說，自己求學時力求節儉，一直步行上學，超過 40 分鐘的漫漫路途是他背誦古文的時間，對文學的興趣、寫作的欲望隨著路程逐漸滋長。
+對於中年轉行，成立沒有前例可循的專業技術雜誌，白蓉生笑稱，「當初發行頭幾期雜誌就燒完 6 萬塊積蓄，我還真不知道能不能回本。」
+從技術專家、顧問到專業刊物總編輯，白蓉生拓展並傳承 PCB 分析工藝將近半世紀。他至今保持30年前「永晝方塊每隨飯，長夜蟹文伴枕眠」的強韌動力，投入 PCB 檢測、寫作與講課，建構低調踏實的臺灣電路板工藝文化。
+他認為，電子產業是臺灣立國基礎，業界訓練可以彌補產學落差，但好學、勤奮與謙虛的心態是學校或企業不能代勞的，得要由年輕世代主動保持。端正的學習心態結合不藏私的深入技術指導，能養成更多專業人才，使電路板工藝精進，提升業界整體價值。</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>scicomm</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>左看右看 貓頭鷹、寶石竟是斑馬魚 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375199</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>本文轉載自顯微觀點
+乍看以為是寶石結晶的斑馬魚肌纖維、如竹林屏風般的斑馬魚尾鰭，到似貓頭鷹的斑馬魚鏡像圖以及充滿生命力大樹般的斑馬魚神經樹突，每一幅影像都以斑馬魚為題，卻拍出不同的趣味。
+本次 Taiwan 顯微攝影競賽八名優選獎中，就有四位得獎者是中研院細胞與個體生物學研究所陳振輝老師的學生。這些拍出技術與美感兼具作品的研究者，分別為 Uday Kumar、Marco De Leon、陳樂融和劉昱秀。
+其中， 來自印度的 Uday Kumar 參加第一屆顯微攝影競賽至今，年年獲獎，更榮獲首屆金獎。而他的同儕，來自菲律賓的 Marco De Leon 也因受到他的啟發參賽，於今年獲得優選。
+陳振輝老師實驗室主要以斑馬魚為樣本進行再生研究。他的學生們各自探索斑馬魚的不同組織或器官；有人專精於研究心臟、有人專門研究神經，有人則專門研究肌肉纖維。
+Uday Kumar 表示，由於每個人研究的方向不同，因此必須從基因工程到成長過程，各自「顧好」自己的斑馬魚。
+這些攸關研究進度與實驗設計的斑馬魚，養殖在細生所地下室的魚房。數十個排列整齊畫一的魚缸，裡頭有著各式大小、不同生長階段和品系的斑馬魚。
+為了能夠取卵進行基因轉殖，從養殖器皿到時間都必須加以控制。Uday Kumar 表示，除了一般魚缸外，養殖斑馬魚會再裝置一個多孔的產卵盒。晚上將公魚和母魚用隔板隔開，並保持環境黑暗，避免交配產卵。
+等到隔天上午將隔板拿掉，讓公魚、母魚相會，並利用光周期誘發產卵、受精後，必須將特製的產卵盒斜置，好讓受精卵下沉到魚缸底部。如此一來，也可避免斑馬魚將受精卵吃掉。
+陳振輝老師實驗室專注於「多顏色細胞標誌技術」（Brainbow/Skinbow）。利用基因重組的方式，將紅、藍、綠三種不同色的螢光蛋白在個別細胞裡表現不同數量，依不同比例產生更多顏色來標誌不同細胞。
+Uday Kumar 表示，要將目標基因注入細胞內，需要使用顯微注射技術，在立體顯微鏡下將注射管準確地插入受精卵中。
+不過這對他來說，顯微注射已經是一件熟練到「像騎腳踏車」般簡單的事，一天注射超過 500 顆受精卵都沒問題。
+雖然基因轉殖對這些研究者來說已是熟能生巧的事，但要建立新的基因轉殖魚仍然要花上漫長的時間，通常需要 6 個月到一年，品系才會逐漸穩定。以 Uday Kumar 於 2021 年獲得金獎的作品來說，就是花了兩年才培育出能以正確比例呈現美麗色彩的斑馬魚。
+顯微攝影的每一幅作品除了呈現出精彩美麗的影像外，背後更蘊含著每一位研究者精湛的技術以及長久累積的研究心血。
+斑馬魚（Danio rerio）是常見的模式生物之一，原分布於孟加拉、印度、巴基斯坦、緬甸、尼泊爾等南亞淡水流域。其體長約 3 至 4 公分，雄魚體修長且背部呈淺橄欖黃色，雌魚體渾圓腹部較彭大；適合生長溫度為 23 至 28℃。
+斑馬魚胚胎透明、發育期間短，容易觀察；且屬於脊椎動物，與人類有相似器官如心血管、神經等，加上基因組序列已解開，基因轉殖容易，種種優點使得牠成為非常適合作為遺傳研究及藥物篩選的脊椎動物模式。</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>scicomm</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>【科學說文解字】才不是白色情人節！是 π DAY！公式裡常見的符號到底該怎麼寫、怎麼唸？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374697</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>各位觀眾～今天是什麼節日呢？
+什麼？情人節？
+嘖嘖嘖，只知道這個的話就膚淺了。
+今天可是圓周率日、愛因斯坦的生日、霍金的忌日……是巧合嗎？我可不這麼認為！總之，對於科學界來說，3 月 14 日不僅僅是白色情人節，而是一個意義非凡的日子！
+那圓周率又有什麼酷酷的地方讓科學家如此著迷，甚至有一個專門的節日呢？快點進影片，一探究竟吧！
+除了 π（pi）之外，你還認得哪些希臘字母呢？從國中就認識的朋友——代表波長的 λ（lambda）：
+還是代表頻率，長得很像 v，常常害小編認錯的 ν（nu）？
+在高中認識的 μ（mu），除了用於微米、代表摩擦係數，它還有什麼意思呢？
+快動動你的指頭搜尋一下吧！
+最後這個像蛇的符號是什麼啊？長得有點像 Z 的書寫體？
+沒錯！拉丁字母的 Z 就是從 ζ（zeta）來的。
+而數學上有許多 ζ 函數，其中，最為知名的便是發現質數規律的黎曼 ζ 函數。
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>scicomm</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>超壓縮的水會變成冰？！二維奈米薄冰能在室溫下穩定存在嗎？有什麼用途？——專訪中研院原分所謝雅萍副研究員 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374949</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>本文轉載自中央研究院「研之有物」，為「中研院廣告」
+水在攝氏零度以下會結冰。然而，當水被擠壓到極限時，會形成二維的奈米薄冰，不僅室溫下穩定存在，還有從未見過的鐵電特性（Ferroelectricity），而石墨烯則是實現這種擠壓條件的關鍵。中央研究院「研之有物」專訪院內原子與分子科學研究所的謝雅萍副研究員，她與我們分享了實驗室如何意外發現這層特殊的二維薄冰，以及團隊如何利用二維薄冰的鐵電特性製作有記憶電阻功能的奈米元件，研究成果發表在科學期刊《自然通訊》（Nature Communications）。
+謝雅萍的主要研究題目之一就是合成新穎的二維材料，這是奈米科技的領域。奈米是什麼？奈米（nanometer）是長度單位，即 10-9 公尺，一根頭髮的直徑長度約為 1 奈米的十萬倍。奈米尺度之下，很多物質的特性會隨之改變，最常見的例子是「蓮花效應」，因為蓮花葉上具有奈米等級的表面結構，為蓮葉賦予了疏水與自我清潔的特性，髒污與水珠都不易附著在蓮葉上。
+奈米材料（nanomaterial）是指三維尺寸的材料，至少有一個維度的尺寸小於 100 奈米。只縮小一維，就是平面的二維材料（2D），例如石墨烯；縮小兩個維度，就是奈米線（1D）；三維都縮小，就是零維的奈米顆粒（0D）。
+奈米科技（nanotechnology）的概念最早可追溯到 1959 年美國物理學家理查費曼（Richard Feynman）在演講中提出的願景「為什麼我們不能把大英百科全書全部寫在一根針頭上呢？」。1974 年日本科學家谷口紀男則是首度創造「奈米科技」這個詞的人，他認為奈米科技包括原子與分子層次的分離、固定與變形。
+過去有不少科學家嘗試奈米材料的研發，但受限於製造技術不成熟，而無法順利製作出精細製程的奈米材料。1981 年，在掃描隧道顯微鏡（Scanning Tunneling Microscope, STM）發明之後，不僅有助於材料的微觀分析，操縱單個原子和分子也成為可能，奈米科技也逐漸實現。
+我們生活周遭的奈米科技俯拾即是，從大賣場商品到半導體產業的電子元件都有。謝雅萍舉例：防曬霜之所以是白色，是因為裡面有二氧化鈦的奈米顆粒；許多塗料與噴漆亦會以奈米添加物，來增進耐蝕、耐磨、抗菌與除汙的特性，例如汽車鍍膜或奈米光觸媒；羽球拍或牙醫補牙會使用奈米樹脂，讓球拍和補牙結構更堅固。
+至於半導體產業，奈米科技更是關鍵。透過縮小元件尺寸以及調整奈米元件的幾何形狀，以便於在單一晶片上乘載更多電晶體。「當今的電晶體大小皆是奈米等級，製作電子元件就等同在處理奈米科技的問題」，謝雅萍說道。
+對謝雅萍來說，發現二維的奈米薄冰是個意外的驚喜。最初謝雅萍團隊其實是要製作以石墨烯為電極的開關，畢竟石墨烯是實驗室的主要研究項目，理論上當兩層石墨烯很靠近時，分別給予兩端電壓會是導通的「ON」狀態，沒電時就是斷開的「OFF」狀態。
+然而，實驗過程中團隊卻發現當電壓為零時，石墨烯開關仍會導通，甚至要給予負電壓時才會成為 OFF 狀態。這個奇特的現象讓研究團隊苦惱許久，嘗試思考了各種可能性，但都無法完善的說明此現象。
+「原本以為實現石墨烯開關應該是一件能夠很快完成的題目，沒想到過程中卻出現了這個意料之外的難題，因此這個研究比預期多花了一兩年」，謝雅萍無奈地笑道。
+靈感總是突如其來，某次謝雅萍在與朋友討論研究時，突然想到一個可能的方向：「一直以來都有人猜測水是否為鐵電材料，但都沒有真正證實。臺灣氣候潮濕，開關關不緊會不會就是水的影響？」
+設計實驗跑下去之後，謝雅萍團隊終於擺脫了一直以來的疑雲。原來，兩層石墨烯結構中，真的有水分子的存在！「一般水分子用手去捏，還是會維持液體的狀態。但是我們發現，當水被兩層石墨烯擠壓到剩下原子厚度時，水分子就會變成具有鐵電特性的二維薄冰！」，謝雅萍開心地說道。
+換句話說，當極限擠壓之下，水會結成冰，而這層超薄的平面奈米薄冰會轉變成鐵電材料，而且可以在室溫下穩定存在！
+鐵電材料乍聽之下很抽象，謝雅萍表示：「相較於會吸磁鐵的鐵磁材料，大多數人對鐵電材料比較不熟悉，其實概念十分相似」。她說，鐵磁材料經過外加磁場的「磁化」之後，即使不加磁場仍可維持原本的磁性。相對地，鐵電材料經過外加電場的「極化」之後，即使不加電場仍可維持原本的電荷極化方向。
+謝雅萍團隊發現的二維冰具有鐵電性，這意味著水分子的正負極在外加電場之下會整齊排列，形成一個永久的電偶極，並且在電場消失後保持不變。
+接著，謝雅萍發現，二維冰的鐵電性只存在於單層原子，增加多層原子之後，鐵電性會消失，變成普通的冰，這是因為多層原子的交互作用會打亂原本的極化排列。因此研究團隊發現的二維冰，是非常特殊的固態水，不是手搖飲加的冰塊那麼簡單。
+因為石墨烯的擠壓和固定，二維冰可以在室溫下穩定存在，不會蒸發。謝雅萍團隊實驗發現，要升溫到攝氏 80 度，被夾住的二維冰才會變成水。如此大範圍的操作溫度，這讓謝雅萍開始思考將二維冰作為鐵電材料使用的可能性。
+於是，謝雅萍團隊嘗試開發新型的電子元件，他們將二維冰與石墨烯整合成機械式的奈米開關。由於二維冰具有鐵電特性，在施加不同外加電壓之後，元件可以維持上次操作的電阻值，並保留至下次操作，有這種特性的元件稱為「憶阻器」（memristor）。
+憶阻器這個詞是由記憶體（memory）與電阻（resistor）組合而成，字面上的解釋便是：具備記憶先前電阻值的能力。
+謝雅萍表示：「我們可以藉由不同的外加大電壓寫入電阻值，再以微小電壓讀取之前的電阻值，允許快速存取」。而單獨一個二維冰奈米開關可以記住 4 個位元的資料，具備未來記憶體的發展潛能。
+此外，二維冰奈米開關也是很好的開關裝置，團隊驗證導通電流和截止電流的比值可以達到 100 萬，開路和斷路的功能極佳，並且允許雙向操作。而開關的功能經過 1 萬次循環還不會衰減，相當穩定。
+謝雅萍團隊是全世界第一個證實二維薄冰鐵電性的團隊，並實現第一個以石墨烯為架構的二維冰機械式憶阻器。她的團隊將往新穎二維材料的方向繼續邁進，目前實驗室有和台積電（TSMC）合作，希望透過產學合作，將更多奈米技術的應用落地實現。
+謝雅萍目前除了是中研院原分所的副研究員，同時也是國立臺灣大學 MY Lab 實驗室的共同主持人，她和人生伴侶 Mario Hofmann 教授共同指導的 MY Lab 發揮了 1+1&gt;2 的效果，創意與想法的激盪和交流，是產生傑出研究的關鍵。
+回到碩博士時期，謝雅萍都在臺大物理所，鑽研材料的光電性質與新穎光電元件的機制。她回憶：「當時我們都要向化學系要材料，他們給什麼我們就得用什麼，但難以了解整個材料製造的細節。」後來她體認到，擁有製造材料的調控能力才能真正突破元件設計上的侷限。
+謝雅萍在博士班時申請到了千里馬計畫，讓臺灣博士生獲得國科會補助前往國外頂尖研究機構，進行為期約半年至一年的研究。「我認為這個計畫非常好，也可以幫助學生建立重要人脈！」在指導教授引薦下，謝雅萍因緣際會進入美國麻省理工學院（MIT）的二維材料實驗室，自此與二維材料結下不解之緣，她認為：「好材料與好元件是相輔相成的，前瞻材料更是如此。」
+「我到了 MIT 之後，深刻體悟到他們做研究的態度與臺灣學生的不同。臺灣學生像是把研究當作一份工作，然而我在 MIT 時就感受到他們學生對於自身研究的熱忱。討論風氣也非常盛行，學生之間會互相分享自己的研究內容，互相幫忙思考、激盪出新想法」，謝雅萍分享自己在 MIT 時期的觀察。
+當年二維材料還在萌芽階段，她所在的 MIT 實驗室已是此領域的佼佼者，她也因此立下了目標：「希望未來我有能力時，能夠自己掌控自己的材料做出好元件！」如今，謝雅萍正走在自己目標的道路上，過去認識的朋友也都是各頂尖大學的二維材料實驗室主持人，直到現在都還會互相幫忙。
+從物理到二維材料，身處這些男性為主的學術環境，謝雅萍顯得自在，而且積極參與討論和交流。「我發現女科學人會把自己變得較中性，讓自己融入整個以男性居多的環境中，才不會在團體中有突兀的感覺」，她分享道。
+謝雅萍的實驗室 MY Lab，是與臺大物理系 Mario Hofmann 教授共同主持的奈米科技實驗室，他們除了是工作上的夥伴，更是人生中的最佳拍檔！當初兩人就是在美國麻省理工大學 MIT 相識，再一起回到臺灣。
+讓「研之有物」團隊好奇的是：這種共同主持的模式與一般實驗室相比，是否有特別之處？
+「從多個面向而論，我認為都是 1+1&gt;2 的」，謝雅萍說道，「實驗室會有兩倍的資源、儀器、計畫與兩倍的人脈。遇到一個題目，兩個人思考時會從不同的觀點切入。即便是夫妻，我們在研究上看的面向也都不一樣，因此可以激盪出許多有趣的想法」。
+她補充，不僅對實驗室本身而言，對學生也有很大的好處，「因為學生的研究必須同時說服我們兩個人，代表學生的研究成果會非常扎實，也可以為學生帶來信心。」重要的是，「學生也會得到兩倍的照顧與關愛，我覺得我們的學生是蠻幸福的」，謝雅萍笑笑地說。
+以電阻改變與否來當記憶體，是個省能源的好做法。但要有電路設計的人一起進來。不然只是米粒，做不出大餐的。
+以電阻改變與否來當記憶體，是個省能源的好做法。但要有電路設計的人一起進來。不然只是米粒，做不出大餐的。</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>scicomm</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>改良天然氣發電技術不會產生二氧化碳？灰氫、藍氫、綠氫分別是什麼？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374302</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>用天然氣發電可以完全沒有二氧化碳排放？這怎麼可能？
+ 2023 年 11 月，台電和中研院共同發表去碳燃氫技術，說是經過處理的天然氣，燃燒後可以不產生二氧化碳。
+誒，減碳方式百百種，就是這個聽起來最怪。但仔細研究後，好像還真有這麼一回事。這種能發電，又不產二氧化碳的巫術到底是什麼？大量使用天然氣後，又有哪些隱憂是我們可能沒注意到的？
+去碳燃氫，指的是改良現有的天然氣發電方式，將甲烷天然氣的碳去除，只留下乾淨的氫氣作為燃燒燃料。在介紹去碳燃氫之前，我們想先針對我們的主角天然氣問一個問題。
+最近不論台灣、美國或是許多國家，都提升了天然氣發電的比例，但天然氣發電真的有比較好嗎？
+好像還真的有。
+根據聯合國底下的政府間氣候變化專門委員會 IPCC 的計算報告，若使用火力發電主要使用的煙煤與亞煙煤作為燃料，並以燃燒率百分之百來計算，燃料每釋放一兆焦耳的能量，就會分別產生 94600 公斤和 96100 公斤的二氧化碳排放。
+如果將燃料換成天然氣，則大約會產生 56100 公斤的二氧化碳，大約只有燃燒煤炭的六成。這是因為天然氣在化學反應中，不只有碳元素會提供能量，氫元素也會氧化成水並放出能量。
+除了碳排較低以外，煤炭這類固體燃料往往含有更多雜質，燃燒時又容易產生更多的懸浮顆粒例如 PM 2.5 ，或是溫室效應的另一主力氧化亞氮（N2O）。具體來說，產生同等能量下，燃燒煤炭產生的氧化亞氮是天然氣的 150 倍。
+當然，也別高興這麼早，天然氣本身也是個比二氧化碳更可怕的溫室氣體，一但洩漏問題也不小。關於這點，我們放到本集最後面再來討論。
+雖然比較少，但也有燃煤的六成。像是綠能一樣的零碳排發電方式，不才是我們的終極目標嗎？別擔心，為了讓產生的二氧化碳量減到最小，我們可以來改造一下甲烷。
+在攝氏 700 至 1100 度的高溫下，甲烷就會和水蒸氣反應，變成一氧化碳和氫氣，稱為蒸汽甲烷重組技術。目前全球的氫氣有 9 成以上，都是用此方式製造的，也就是所謂的「灰氫」。
+而產物中的一氧化碳，還可以在銅或鐵的催化下，與水蒸氣進一步進行水煤氣反應，變成二氧化碳與氫氣。最後的產物很純，只有氫氣與二氧化碳，因此此時單獨將二氧化碳分離、封存的效率也會提升不少，也就是我們在介紹碳捕捉時介紹的「燃燒前捕捉」技術。
+即便我們能將甲烷蒸氣重組，但只要原料中含有碳，那最終還是會產生二氧化碳。那麼，我們把碳去掉不就好了？去碳燃氫，就是要在第一步把甲烷分解為碳和氫氣。這樣氫氣在發電時只會產生水蒸氣，而留下來的碳黑，也就是固態的碳，可以做為其他工業原料使用，提升附加價值。
+在氫氣產業鏈中，我們習慣將氫氣的來源做顏色分類。例如前面提到蒸氣重組後得到的氫氣被稱為灰氫，而搭配碳捕捉技術的氫，則稱為藍氫。完全使用綠能得到的氫，例如搭配太陽能或風力發電，將水電解後得到最潔淨的氫，則稱為綠氫。而介於這兩者之間，利用去碳燃氫技術分解不是水而是甲烷所得到的氫，則稱為藍綠氫。
+但先不管它叫什麼氫，重點是如果真的不會產生二氧化碳，那我們就確實多了一種潔淨能源可以選擇。這個將甲烷一分為二的技術，聽起來應該也不會太難吧？畢竟連五◯悟都可以一分為二了，甲烷應該也行吧。
+很簡單，加溫就好了。
+只要加溫到高過攝氏 700 度，甲烷就會開始「熱裂解」，鍵結開始被打斷，變成碳與氫氣。
+等等等等…為了發電還要耗費能源搞高溫熱裂解，划算嗎？
+甲烷裂解確實是一個吸熱反應，也就是需要耗費能量來拆散原本的鍵結。根據反應式，一莫耳甲烷要吸收 74 千焦耳的熱量，才會裂解為一莫耳的碳和兩莫耳的氫氣。但是兩莫耳的氫氣燃燒後，會產生 482 千焦耳的熱量。淨能量產出是 408 焦耳。與此相對，直接燃燒甲烷產生的熱量是 891 千焦耳。
+而根據現實環境與設備的情況，中研院與台電推估一公噸的天然氣直接燃燒發電，與先去碳再燃氫的方式相比，發電量分別為 7700 度和 4272 度。雖然因為不燃燒碳，發電量下降了，但也省下了燃燒後捕存的成本。
+在近二十幾年內，科學家嘗試使用各種材料作為催化劑，來提升反應效率。最常見的方式，是將特定比例的合金，例如鎳鉍合金，加熱為熔融態。並讓甲烷通過液態的合金，與這些高溫的催化劑產生反應。實驗證實，鎳鉍合金可以在攝氏 1065 度的高溫下，轉化 95% 的甲烷。
+中研院在 2021 年 3 月，啟動了「 Alpha 去碳計畫」，進行去碳燃氫的設備開發。但團隊發現，盡管在理論上行得通，但實際上裝置就像是個不受控的火山一樣，熔融金屬與蒸氣挾帶著碳粒形成黏稠流體，不斷從表面冒出，需要不斷暫停實驗來將岩漿撈出去。因此，即便理論上可行，但熔融合金的催化方式，還無法提供給發電機組使用。
+有趣的是，找了好一大圈，驀然回首，那人卻在燈火闌珊處。
+最後大家把目光放到了就在你旁邊，你卻不知道它正在等你的那個催化劑，碳。其實過去就有研究表明碳是一種可行的催化劑。但直到 201 3年，才有韓國團隊，嘗試把碳真的拿來做為去碳燃氫的反應催化劑。
+他們在高溫管柱中，裝填了直徑 30 nm 的碳粒。結果發現，在 1,443 K 的高溫下，能達到幾乎 100 % 的甲烷轉化。而且碳本身就是反應的產物之一，因此整個裝置除了碳鋼容器以外，只有碳與氫參與反應，不僅成本低廉，要回收碳黑也變得容易許多。
+目前這個裝置需要加緊改良的，就是當碳不斷的積蓄，碳粒顆粒變大，反應會跟著下降。如何有效清除或更換濾網與反應材料，會是能否將此設備放大至工業化規模的關鍵。
+最後，我們回頭來談談，在去碳燃氫技術逐漸成熟之後，我們可能需要面對的根本問題。
+這是因為甲烷的燃燒速度是每秒 0.38 公尺，氫氣則為每秒 2.9 公尺，有著更劇烈的燃燒反應。因此，目前仍未有高比例氫氣的發電機組，氫氣的最高比例，通常就是 30 % 。
+目前除了已成功串連，使用 10 % 氫氣的小型發電機組以外。台電預計明年完成在興達電廠，使用 5 % 氫氣的示範計畫，並逐步提升混和氫氣的比例。根據估計，光是 5 % 的氫氣，就能減少每年 7000 噸的二氧化碳排放。
+但隨著天然氣的使用量逐步提高，我們也應該同時留意另一個問題。
+根據 IPCC 2021 年的報告，若以 20 年為評估，甲烷產生的溫室效應效果是二氧化碳的 82.5 倍，以 100 年為評估，效果為 29.8 倍，是僅次於二氧化碳，對於溫室效應的貢獻者第二名。這，不可不慎啊。
+從石油、天然氣井的大量甲烷洩漏，加上運輸時的洩漏，如果沒有嚴格控管，我們所做的努力，很有可能就白費了。
+非營利組織「環境保衛基金」曾在 2018 年發表一篇研究，發現從 2012 到 2018 年，全球的甲烷排放量增加了 60 % ，從煤炭轉天然氣帶來的好處，可能因為甲烷洩漏而下修。當然，我們必須相信，當這處漏洞被補上，它還是能作為一個可期待的發電方式。
+另一篇發表在《 Nature Climate Change 》的分析研究就說明，以長期來看，由煤炭轉為天然氣，確實能有效減緩溫室氣體排放。但研究也特別提醒，天然氣應作為綠能發展健全前的過渡能源，千萬別因此放慢對於其他潔淨能源的研究腳步。
+確實，綠氫很香。但是，綠氫的來源是電解水，而反應裝置也不可能直接使用雜質混雜的海水，因此若要大規模發展氫能，通常需要搭配水庫或海水淡化等供水設施。另外，綠氫本來就是屬於一種儲能的形式，在台灣自己的綠能還沒有多到有剩之前，當然直接送入電網，還輪不到拿來產綠氫。
+相比於綠氫，去碳燃氫針對的是降低傳統火力發電的碳排，並且只需要在現有的發電廠旁架設熱裂解設備，就可以完成改造。可以想像成是在綠能、新世代核能發展成熟前的應急策略。
+當然，除了今天提到的灰氫、藍氫、綠氫。我們還有用核能產生的粉紅氫、從地底開採出來的白氫等等，都還沒介紹呢！
+除了可以回去複習我們這一集的氫能大盤點之外，也可以觀看這個介紹白氫的影片，一個連比爾蓋茲都在今年宣布加碼投資的新能源。它，會是下一個能源救世主嗎？
+最後，也想問問大家，你認為未來 10 年內，哪種氫能會是最有潛力的發展方向呢？
+什麼？你覺得這幾個選項的顏色好像很熟悉？別太敏感了，下好離手啊！
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！
+你好作者’我我很喜歡你們的文章’請問你們可否在youtube裡面把關於講解下’因為我對於此話題很感性趣 :˙)
+你好作者’我我很喜歡你們的文章’請問你們可否在youtube裡面把關於講解下’因為我對於此話題很感性趣 :˙)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>scicomm</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>馬斯克不屑一顧；比爾蓋茲卻視若珍寶！氫能源會成為永續發展的救世主嗎？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374277</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">馬斯克曾多次斷言發展氫能是個愚蠢的決定，更說氫氣不會自然出現在地球上。
+然而今年 7 月，美國新創公司 Koloma 從比爾蓋茲與其他投資者手中，獲得了總計 9100 萬美元的融資，準備開採地下氫氣。今年 9 月，地質學家更是直接在法國的地底下發現大量氫氣，總量估計有 4,600 萬噸。而且比起需要搭配綠能或是熱裂解設備才能製造的綠氫與灰氫，這些氫氣價格將會十分低廉，難道，氫氣的時代要到來了嗎？為了環保，我們得挖呀挖呀挖？
+這拍攝於澳洲的珀斯盆地，大大小小的圓圈被稱為仙女圈，在仙女圈內沒有植物生長，甚至向內凹陷形成鹽湖。當科學家調查這些仙女圈，他們意外發現土壤中竟然含有氫氣。氫氣與仙女圈之間的確切關係還未知，有人推測可能氫氣抑制了植物或是微生物菌落的生長，使得該區光禿甚至土壤流失。
+我們知道氫氣是世界上最輕的氣體，一旦進入大氣，就會向上飄散，直至被拋至太空，離開大氣層。然而地球的大氣層中還是有少量的氫氣被束縛住，大氣濃度約為 0.55 ppm ，是臭氧的 13 倍。
+但只要沒有進入大氣，還是被封在地底的氫氣因為不容易溢散，至今存量還很豐富。不只在澳洲，世界各地都觀察到了氫氣從地底向地表洩漏的情形。
+位於土耳其奧林匹斯山山谷，就在希臘火神赫菲斯托斯的神廟廢墟上方，大大小小的火焰從土石間冒出，就好像赫菲斯托斯至今都還存在在該處一樣。該地的冒火處有十幾個，總燃燒面積高達 5000 平方公尺。
+根據地質學家推估，這片火焰已經燃燒了 2500 年，根據史料比對，很有可能就是最早奧林匹克聖火的發源地。
+地質學家調查了這股火焰的形成原因，發現從岩石中噴出的氣體，除了含有 87 % 的甲烷以外，還含有百分之 7.5 到 11 是氫氣。這股持續 2500 年間不斷冒出的氣體，根據地質學家推估，與石油、天然氣成因不同，並不是因為遺骸或微生物等生物原因才產生的。而是大地之母地球源源不斷提供給我們的，這又是怎麼一回事？
+這與岩石的變質作用息息相關，我們知道火成岩、沉積岩會在高溫高壓下產生變質作用，轉為性質截然不同的變質岩。而富含鎂與鐵的矽酸鹽類礦物，例如橄欖石、輝石，當他們在高溫環境下與水作用，會轉為蛇紋石、水鎂石、磁鐵礦等礦物，這個過程稱為蛇紋石化作用。
+這種作用是一種化學反應，會將大量的水吸入岩石，讓岩石的密度下降。在反應結束後，除了礦物特性產生變化以外，還會生成副產物，也就是氫氣。如果地層中又剛好有二氧化碳存在，就會在高溫的環境下進一步甲烷化，將氫氣與二氧化碳轉成甲烷。
+目前科學家認為，大部分地層中非生物性原因產生的的氫氣與甲烷，多是由這樣的過程產生的。奧林匹斯山的聖火，推測也是這樣產生的。
+而對於地質學家來說，也代表尋找天然氫氣這一目標，也可以從盲目搜尋，轉為限縮在尋找有經歷過蛇紋石化作用的地層上。
+但除了蛇紋石化作用以外，大自然還有兩種生產氫氣的主要方式：深層蘊藏與水的輻解。
+在地底深處，推測蘊藏著大量氫氣。它們深達地底，甚至可能存在於地函與地核之中。
+我們現在的技術當然無法直接來個地心探險開採這些氣體，但科學家陸續從美國、俄羅斯、東歐等地的岩石鑽探結果可以觀察到，在越深的地方氫氣濃度越高。因此地質學家推測這些氫氣可能來自更深的地方，並正從橄欖岩緩緩地擴散，進入靠近地表的岩層之中。
+然而，因為我們還無法進入地底，因此即便我們知道它們存在，但對於這些氫的形成原因目前還未有結論。有些科學家放眼整個太陽系的形成過程，推測在原始地球形成時，整顆行星包含地核之中就有氫的存在。而也有人認為，地核中的鐵元素與水反應，形成氧化鐵與一氫化鐵兩種物質型態，將氫存在地核之中。
+這個問題的解答，就等待地球科學家為我們帶來解答吧。而且了解這些元素存在於地核、地函的形式，也可以解開許多未知謎團，例如地核的詳細組成分、地函存在異常低電阻區的原因、改善地函動力學模型，以及找出哥吉拉到底在哪裡等等。
+地殼中的釷、鈾等放射性元素，在漫長的衰變過程中，會緩慢地將地層中的水分子鍵結破壞，形成氧氣與氫氣。例如一顆 1 MeV 的 α 粒子，平均足以讓 10 個水分子解離。而當岩石擁有更高的孔隙率， α 粒子會更有機會與水分子產生作用，會有更高的氫氣產量。
+但其實，考慮到衰變的速度以及放射性元素存在於地底的超低含量，這個方式的效率並不高，而且實際上 α 粒子用來解離水分子的能量只消耗了 1 % ，剩餘的能量都還是被附近的岩層吸收，以熱的形式消耗掉。
+除了產量不高以外，理論來說在輻射發生的地方，應該要能看到氫氣與氧氣同時存在，但目前實地調查的結果，都只有發現氫氣。氧氣是否進一步參與了其他反應，或是已經逸散，或甚至這個理論需要再做調整，還需要更多的研究。
+好的，我們知道氫氣是怎麼產生的，那麼重點是，我們到底有多少氫氣能用呢？
+世界各地都有發現自然氫氣的存在。對了，雖然這張地圖看起來氫氣的發現地點都集中在北亞與東歐，但這只是因為目前的探勘都聚集在這邊，並不代表真實的氫氣分布。
+這些來自地底的氫氣，我們稱為地質氫，如果用顏色來分類，則稱為白氫或是金氫。如果氫氣的開採規模能像天然氣一樣龐大，白氫的價格，預計會落在每公斤 1 美元。
+相比之下其他的氫氣生產方式，例如我們上次提到，由蒸汽重組產生的灰氫，售價約為 0.9~3.2 美元。由綠能生成的綠氫則是 3~7.5 美元。因此，如果白氫正式被大量使用，將大幅降低現在的氫氣價格，甚至帶動氫氣運輸、儲存、發電機組等產業鏈的發展，連帶降低其他顏色氫氣的隱含成本。
+與馬斯克看衰氫能不同，比爾蓋茲不僅投資白氫的開發，也投資了不少氫能產業。
+例如他就投資了西班牙公司 H2SITE ，一間致力於氫能運輸與氫氣製造的公司。因為現在運輸氫氣的成本是製造氫氣的三倍，如果能降低運輸成本，將有助於整個氫氣產業的發展。在開採方面，各國也都開始投入地質氫的調查與開採技術研發。
+美國地質調查局初步估計，全球地底下可能藏有百億噸的氫氣等著被開發，能滿足全人類數千年的能源需求。當然，這個數字並沒有考慮到開發的困難度，只是單純地以全球存量作分析。
+但也有人正打算轉個念頭，何不將熱水注入富含鐵的岩層中，促使更多的氫氣產生？類似於地熱發電會使用的增強型地熱系統，只是我們獲得的不是直接的熱能，而是氫氣。
+話說回來，氫氣真的會成為救世主嗎？先等等，事情可能沒那麼簡單。
+氫氣作為最輕的氣體，存在於大氣的壽命大約只有兩年。但氫氣在存在的這段時間中，會與大氣中的羥自由基和其他氣體作用，產生一系列的反應。造成的結果包含增加甲烷停留在大氣的時間、臭氧的增加、與平流層中水氣的增加。
+因此，氫氣屬於一種「間接」溫室氣體，氫氣的一百年全球暖化潛勢 GWP 100 ，被評估為 11.6 ，也就是以 100 為區間進行評估，氫氣的溫室效應是二氧化碳的 11.6 倍。
+此外，我們對氫氣的研究還太少，所以才到現在才發現它就在我們的身邊。而就跟我們上次提到的一樣，大量使用天然氣，就意味會有許多天然氣洩漏。而伴隨著氫氣被大量開採，一定會有更多的氫氣被釋放到大氣之中。這對我們的大氣是否會產生負面效應，甚至於弊大於利，都還需要更多研究。
+最後想問問大家，馬斯克與比爾蓋茲，對氫能的看法十分兩極。你呢？你認為氫能會改變未來的能源形式嗎？
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>scicomm</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>秋季星空中一抹光亮：北落師門殘屑盤的觀測史——《科學月刊》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374220</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>北落師門（Fomalhaut）又稱南魚座 α 星，是秋季星空中著名的亮星之一。去年 5 月，以美國亞利桑那大學（University of Arizona）天文學家加斯帕（András Gáspár）為首的研究團隊在《自然天文學》（Nature Astronomy）期刊上發表，他們藉由詹姆士．韋伯太空望遠鏡（James Webb Space Telescope, JWST，簡稱韋伯望遠鏡），在北落師門周圍殘屑盤（debris disk）中首次發現了「系外小行星帶」的存在。韋伯望遠鏡拍下美麗的照片，也瞬間席捲各大科學與科普媒體的版面（圖一）。
+天文學家選擇北落師門作為目標並非偶然。半個世紀以來，北落師門一直是天文學家研究殘屑盤時的首選目標之一。韋伯望遠鏡的新影像為我們帶來什麼新發現？過去與現在的觀測方式又有什麼差異？本文將帶著大家一起回顧北落師門殘屑盤的觀測史。
+殘屑盤是環繞在恆星周遭，由顆粒大小不一的塵埃所組成的盤狀結構。如果讀者們聽過行星形成的故事，也知道行星是從恆星四周、由氣體與塵埃組成的「原行星盤」（protoplanetary disk）中誕生，那你或許會認為殘屑盤可能就是行星形成後剩下的塵埃。但實際上並非如此，在恆星形成初期的數百萬年間，原行星盤中的氣體和塵埃會被恆星吸積或是吸收恆星輻射的能量後蒸發，同時也會聚集成小型天體或行星，這些原因都會使原行星盤消散。而殘屑盤則是由盤面上的小行星等天體們互相碰撞後，產生的第二代塵埃組成（圖二）。
+這些塵埃發光的機制主要有兩種。第一，塵埃本身可以散射來自母恆星的星光，從而讓天文學家能在可見光與近紅外波段看到它們。第二，塵埃在吸收來自恆星的星光之後，以熱輻射的形式將這些能量重新釋放。由於恆星的光強度與距離成平方反比，愈靠近恆星，塵埃的溫度就愈高，因此發出的輻射以近紅外線為主；反之，愈是遠離恆星，塵埃的溫度就愈低，發出的光就以中遠紅外線為主。
+北落師門殘屑盤的觀測始於 1983 年。當時，美國國家航空暨太空總署（National Aeronautics and Space Administration, NASA）的紅外線天文衛星（Infrared Astronomical Satellite, IRAS）發現北落師門在紅外線波段的亮度異常高，代表周圍很可能有殘屑盤圍繞。由於北落師門離地球僅約 25 光年，這項發現引起眾多天文學家的關注，並在未來數十年前仆後繼地拿出各波段最好的望遠鏡，希望藉此深入了解殘屑盤的特性。其中，哈伯太空望遠鏡（Hubble Space Telescope, HST，簡稱哈伯望遠鏡）、阿塔卡瑪大型毫米及次毫米波陣列（Atacama Large Millimeter/submillimeter Array, ALMA）與韋伯望遠鏡擁有非常好的空間解析度，因此能夠清楚地觀測殘屑盤的結構。
+ 2008 年， NASA 公布哈伯望遠鏡在 2004 與 2006 年對北落師門的觀測結果（圖三），讓天文學家首次清晰地看到北落師門殘屑盤的影像。這張照片是哈伯望遠鏡以日冕儀（coronagraph）在 600 奈米（nm）的可見光波段下拍攝，中間的白點代表北落師門的位置，而周圍的環狀亮帶正是因散射的北落師門星光而發亮的殘屑盤，放射狀的條紋則是日冕儀沒能完全消除的恆星散射光。除此之外，天文學家還發現有一個亮點正圍繞著北落師門運行，並認為此亮點可能是一顆圍繞北落師門的行星，於是將它命名為「北落師門 b 」。很可惜在往後的觀測中，天文學家發現北落師門 b 漸漸膨脹消散，到 2014 年時就已經完全看不見了。因此它很可能只是一團塵埃，而非真正的行星。
+ ALMA 對北落師門的完整觀測於 2017 年亮相，他們展示出更加清晰漂亮的環狀結構，且位置與哈伯望遠鏡的觀測吻合。正如前面提到，殘屑盤中的塵埃溫度愈低，放出的輻射波長就愈長。因此 ALMA 在 1.3 毫米（mm）波段觀測到的影像，主要來自離殘屑盤中恆星最遠、最冷的部分。
+最後則要來看去年韋伯望遠鏡所使用中紅外線儀（mid-infrared instrument, MIRI）拍攝的影像（圖五）。與之前的觀測不同，這次的影像顯示北落師門的殘屑盤其實分成幾個部分：
+首先，哈伯望遠鏡與 ALMA 之前就已觀測到的塵埃環，它的半徑約 136～150 天文單位（AU）、寬約 20～25 AU，而溫度則落在約 50～60 K，與太陽系的古柏帶（Kuiper belt）十分相似，因此被稱為「類古柏帶環」（KBA ring）。雖然在觀測上的溫度相似，但其實此塵埃環與北落師門的距離是古柏帶到太陽的四倍；不過北落師門光度約為太陽的 16 倍，根據前述提及的平方反比關係，才導致兩者的溫度相近。此外，在更外層名為「暈」（halo）的黯淡結構則對應古柏帶外圍天體密度較低的區域。
+再來，韋伯望遠鏡還發現了更多未解的謎團：內側殘屑盤（inner disk）與中間環（intermediate ring）。其實早在本次韋伯望遠鏡的觀測之前，天文學家就已經從北落師門的光譜推測，北落師門的殘屑盤中除了存在前面提過的類古柏帶環之外，應該還有另一批更靠近恆星、溫度更高的塵埃，溫度與大小對應太陽系中的環狀小行星帶。但當韋伯望遠鏡實際觀測後，卻發現與太陽系的環狀小行星帶相比，北落師門有著相當瀰散的內側殘屑盤。為什麼會有這樣的不同呢？目前天文學家也不清楚，仍待進一步研究。
+最後，在類古柏帶環與內側殘屑盤之間，還存在著一個半長軸約 104 AU 的「中間環」，在太陽系中則沒有對應的結構，這項新發現也需要進一步的研究來了解它的來源。
+此外，雖然北落師門 b 最終被證實並不是一顆行星，但這並不代表北落師門旁沒有行星環繞。最初，殘屑盤的形成原因是由小行星等天體不斷碰撞所產生，經過不斷地碰撞合併，其實就有可能已經產生直徑數百到數千公里的行星。從北落師門的殘屑盤還可以推論，在內側殘屑盤與中間環之間可能有一顆海王星質量以上的行星，它就像鏟雪車般清除軌道上的塵埃，從而產生「內側裂縫」（inner gap）的結構。
+另一方面，天文學家也藉由數值模擬發現，如果僅考慮來自北落師門的重力影響，類古柏帶環應該要比觀測到的更寬才對。因此他們推測，很可能在類古柏帶環內外兩側有兩顆行星，像控制羊群的牧羊犬一樣以自身的重力限制塵埃移動，才產生了這麼細的塵埃環。
+北落師門雖然是一顆年齡僅4.4億年的年輕恆星，卻已經是一個擁有殘屑盤、形成行星的成熟恆星系統。而來自韋伯望遠鏡的最新觀測結果，無疑讓天文學家更深入地認識殘屑盤中複雜的結構，也更令他們相信北落師門系統中有多個行星環繞。
+不過，北落師門系統仍舊有許多未解之謎。例如為什麼太陽系有著環狀的小行星帶，北落師門卻是瀰散的內側殘屑盤？在無數的恆星中，究竟是太陽系還是北落師門的殘屑盤構造比較常見？殘屑盤中是否有行星存在？如果有，在北落師門的演化歷史中又扮演著怎樣的角色呢？這些問題都有待更多的觀測與理論模擬來解答。
+在北落師門之後，觀測團隊預計將韋伯望遠鏡指向天琴座的織女星（α Lyr, Vega），以及位於波江座的天苑四（ε Eri），兩者都是離地球非常近且擁有殘屑盤的恆星。其中織女星的溫度與質量比北落師門更大，而天苑四的質量與溫度雖然比太陽小，卻有強烈的磁場活動。藉由觀測不同系統中殘屑盤的性質差異，並與太陽系進行對比，不僅能更加認識殘屑盤的起源、與行星的交互作用，更能理解我們自己的恆星系中，數百萬顆的太陽系小天體從何而來。
+JWST 原始資料的處理過程影片介紹，非常值得一看！</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>scicomm</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NCC 公民培力活動百花齊放，公私協力推動媒體素養 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373960</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>本文為 國家通訊傳播委員會 廣告
+疫情加速全球數位化發展，也改變了大眾接收資訊的方式。隨著影音媒體平台及自媒體崛起，每個人除了是訊息接收者，也是內容的生產者，百花齊放的訊息管道也帶來了內容及資訊管理上的挑戰。
+國家通訊傳播委員會（NCC）因應全球性之數位匯流發展及監理革新趨勢，致力於促進通訊傳播健全發展，保障消費者及尊重弱勢權益，打造多元文化均衡發展，迄今持續推動「廣電媒體專業素養培訓與公民培力推廣計畫」。
+本年度（ 112 年）公民培力推廣部分，藉由與廣電媒體產製端合作，包括公視、正聲廣播、新聲廣播、鳳鳴廣播、陽明山電視和全聯電視，及與大學、公民團體包括國立臺灣師範大學、朝陽科技大學、法律白話文、臺灣新聞記者協會等共 11 個單位，於 7 月至 12 月在北、中、南、東四大區域舉辦共 20 場媒體識讀活動，累積超過 1,300 人次參與，參與者豐富多元，包含媒體專業人員、銀髮族、身障群體、新住民、兒童及青少年、 YouTuber 、 KOL 等，多面向推廣媒體素養意識。
+本次公民培力活動形式多元，合作夥伴邀請各方講師發揮所長，針對不同參與對象因材施教，如正聲廣播電臺透過辦理相聲演出，讓平時不易接觸到媒體素養資訊的長輩、偏鄉學生，透過有趣的段子逐漸認識辨別假訊息的重要；國立臺灣師範大學大眾傳播研究所舉辦媒體素養營隊，至臺東教授國中生性別平等的重要性；公視透過舉辦電視台參訪，讓想認識電視媒體運作、節目製播的民眾得以大開眼界。許多單位也透過不同議題講座、互動與大學生或地方社區產生共鳴，散播媒體素養的種子，民眾課後紛紛表示收穫良多。
+NCC 以提升廣電媒體專業及社會大眾媒體識讀能力為已任，透過每年持續舉辦公民培力活動，幫助閱聽者對廣電媒體的認識、思考，以及對訊息評估的能力，讓不同年齡層及族群得以將媒體素養教育的種子深埋在心、向下扎根，進而提高全民媒體素養，打造更優質的社會環境。</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>scicomm</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>被垃圾科學耽誤的人生：哈沃德的冤獄與平反——《法庭上的偽科學》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373983</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>紐約市沃斯街四十號，無辜計畫
+基思．艾倫．哈沃德可以說是一名倖存者。他被維吉尼亞州錯誤定罪，但是逃過死刑執行。而且還是兩次。梅克倫堡矯正中心在一九八四年爆發了所謂的「大逃亡」（The Great Escape）1，那是有六名死囚越獄的空前維安漏洞，哈沃德面對其後的嚴密禁閉也倖存了下來。哈沃德面臨過殘酷的獄警、僅存的希望全被澆熄、父母的死訊，他的身分也被侵蝕到只能淪為 1125797 號罪犯，但是他倖存了下來。
+他在維吉尼亞州刑罰體系中所有最嚴酷的監獄裡倖存下來了，先是梅克倫堡，接著是奧古斯塔（Augusta），然後又在蘇塞克斯二監（Sussex II）待了十年，還有現在的諾托韋，他在諾托韋那樣環境惡劣的監獄醫務室裡進行了重大的腸道手術，並且活了下來。雖然很勉強。
+在被錯誤監禁的三十四年裡，哈沃德排的這條等待救援的隊伍從未向前移動。大量監禁讓他身邊的囚犯如雨後春筍般湧現，因此這條隊伍只會越排越長。他最初因為傑西．佩隆的入室謀殺案和對他妻子特蕾莎．佩隆的性虐待案而被關到梅克倫堡時，維吉尼亞州每十萬名居民中有大約一百五十人遭到監禁。
+當我們發現特蕾莎用過的性侵採證套組、把它送去做 DNA 檢驗時，維吉尼亞州的監禁率已經超過每十萬名居民有四百五十多名囚犯，每十萬名黑人居民則是超過兩千四百人。2在那個看不見的國度裡，到底住著多少無辜的 1125797 號囚犯，我們不會知道。但是統計顯示，在維吉尼亞州和全國有數千名無辜的人被關在牢裡；他們大部分人都永遠不會再拿回他們的名字了。
+維吉尼亞州剝奪了哈沃德生命中的每一個里程碑。他沒能結婚，沒有小孩，沒有做過除海軍之外的其他職業。他在二十幾歲之後，除了監獄檔案的照片，就只有一張自己的照片。他具有指標意義的生日，三十歲……四十歲……五十歲……六十歲，都是在鐵牢裡度過的，他只是沒死而已。
+事情一開始不是這樣的。他也曾經奮鬥過。他從獄中出庭為自己辯護一事，曾經讓他的有罪判決遭到撤銷。為他贏來一次重新審判的機會、再一次讓真相大白的機會。但是當陪審團第二次做出有罪判決、上訴法院也維持這個裁決時，哈沃德體內的鬥志突然被掏空了。他決定放棄，讓餘生都在監獄裡度過。就像他有一次對我說的：「我就待在牢裡等死算了。」
+就訴訟而言，二○一六年發現了性侵採證套組，州也同意進行檢驗，這使得前進的道路變得清晰。哈沃德和史蒂夫．錢尼不同，他不需要維吉尼亞州法院或是其他法院承認咬痕證據完全不可靠。他不需要新法律或是定罪完善小組就可以重返法庭。也不需要當初把哈沃德的牙齒和特蕾莎．佩隆大腿上的咬痕「配對」的六名牙醫取消他們的證詞。
+哈沃德很幸運：他有 DNA 。檢測開始之後，就會像是一顆小圓石被丟出來，滾下山坡引起 被壓住的真相一波又一波的雪崩。其規模之大，會讓哈沃德甚至不需要重回法庭。
+他幾乎立刻就被排除在可能的嫌疑人之外，也就是說所有檢驗項目，包括性侵採證套組、凶手蓋在特蕾莎頭上的尿布，以及她被性侵時的沙發墊，上面的生物證據都不可能是他的。
+我的辦公室裡傳來更多歡呼聲。這種感覺不同於最初發現物證箱時的那種驚喜。是好消息，但也是預期中的結果。無辜計畫法律團隊的每個人都相信基思．哈沃德是清白的，也都知道他是清白的。
+之前在訴訟中移交的文件就已經證明了：刑事專家不實宣稱在犯罪現場收集到的血清證據，根據在 DNA 之前的血型技術無法確定。其實在審判之前就可以將哈沃德排除在取樣之外了。後來他又被排除在 DNA 證據之外，就是理所當然的了。
+接著，我們得知 DNA 分析人員可以從保存的生物樣本中發展出完整的基因輪廓。這表示除了可以排除哈沃德是 DNA 的來源，甚至還有可能得知到底是誰的 DNA ；不同於史蒂夫．錢尼案中的 DNA 已經受到毀損，只能夠做到排除錢尼。
+從每一件證據中提取的 DNA 輪廓都沒有更新的資訊。它們都來自同一名男性，既不是基思．哈沃德，也不是特蕾莎的丈夫傑西。反而是一名陌生人把他的 DNA 留在整個犯罪現場。發現證據的位置和特蕾莎的證詞完全一致，因此顯得更有說服力，這份證據也與哈沃德自己的陳述一致；哈沃德說他從來沒有進過佩隆家。
+這在大多數州就足以推翻有罪判決了。但也還是有可能出現荒謬的「沒被起訴的共同射精者」理論。不過，這個案件中有一名受害者還活著。特蕾莎強忍著痛苦和性侵她的人共度了三小時。她知道那天晚上只有一個入侵者。一名殺了她丈夫的凶手。一個「咬了她的人」。
+早在 DNA 排除哈沃德之前，特蕾莎本人就為哈沃德的清白提供了最有說服力的證據：她拒絕指認哈沃德。哈沃德是因為咬了他的女朋友而被逮捕，而且還戴著手銬，在這樣容易誤認的情境中，特蕾莎都沒有指認哈沃德就是毀了她家庭的那名水手。
+她的這個立場在兩次審判中都沒有絲毫動搖。許多犯罪受害者很可能會接受暗示，或是不論有意或無意，急著指認被警方確信是凶手的那個人。的確，證人指認時的誤認，通常是因為警方的建議而導致的無心之過，是錯誤定罪的一大主因。
+除了咬痕，另外的唯一證據就是駐衛指認了哈沃德。然而，即使在當時，他的證詞也是勉強得來而且不可靠的，我們得知在取得他的證詞時，用了可以「強化」記憶的祕密催眠，因此顯然缺乏可信度。
+即使用催眠誘導的指認可以相信，不過駐衛也只是說在襲擊案發生當晚，他有看到哈沃德回到基地。是的，他是說那個人穿了血跡斑斑的制服，不過那人其實不是基思．哈沃德，而且在當時的紐波特紐斯，喝醉酒的水手在酒吧跟人打架，然後滿身是血回到船上，也不是什麼罕見的事。歸根究柢，不論證人指認的這番話具有多少分量，它都不代表哈沃德那天晚上有進入佩隆家。只有洛威爾．萊文和阿爾文．凱吉的專家證人證詞明確說出了這一點。而 DNA 也證明了兩位牙醫是錯的。
+哈沃德的案件已經走向崩解。真正的證據（affirmative evidence）不是指向他有罪，而是指向另一個第三人。無論在哪一州，這個「新發現」的證據應該都對推翻任何一個有罪判決綽綽有餘了，但是維吉尼亞州和大多數州都不一樣。維吉尼亞州是全美國對無罪主張最有敵意的州之一。被判無期徒刑的囚犯很少有活著走出來的。要讓無辜者重獲自由，通常前提是必須破案。
+然後「聯合 DNA 索引系統」（CODIS）就找到他了：在訴訟中喊出了「將軍！」
+根據美國的 DNA 數據庫「聯合 DNA 索引系統」，確定性侵取證套組、沙發墊和尿布上的 DNA 是來自一名叫做傑里．克羅蒂的人。在這起性侵謀殺案發生時，克羅蒂是卡爾文森號航空母艦的一名水手，這艘航空母艦當時停泊在紐波特紐斯的船塢。
+基思．哈沃德也在這艘船上服役。克羅蒂和哈沃德長得有點像，他曾經因為綁架罪而在俄亥俄州的監獄服刑，並在十年前死於獄中。在哈沃德入獄期間，他還犯下其他暴力犯罪，但是都沒有像一九八二年對佩隆一家的暴行那樣殘忍；當然，除非克羅蒂還犯了其他沒有被偵破的案件，或是被以為已經破案的犯罪。
+媒體壓力再次升高。但不是像一九八二年那樣，當時行凶的水手逍遙法外，因此有兩名美國參議員敦促要盡速逮捕他；這次的壓力是要推翻多年前因為媒體推波助瀾而造成的有罪判決。
+弗蘭克．格林（Frank Green）是《里奇蒙時報》（Richmond Times-Dispatch）的記者，他長期以來都對維吉尼亞州對無辜者的敵意有批判性觀察，他詳細報導了哈沃德的故事，從聲請推翻他的有罪判決的那一刻起。連諾托韋裡面的囚犯都注意到了。
+哈沃德在監獄裡的朋友們都為他打氣。他們開始從監獄圖書館的報紙上剪下與哈沃德案件有關的新聞剪報，並保留給他。隨著哈沃德的案件從一團混亂的垃圾科學訴訟，轉變成教科書等級的 DNA 平反案件，格林的報導刊登位置也越來越靠近頭版。當哈沃德的聲請在等待維吉尼亞州最高法院的決定時，他成了頭版新聞，而當 DNA 檢驗證明哈沃德是無辜的時候，他直接登上頭條。
+既然已經在「聯合 DNA 索引系統」找到符合者了，但凡有一點基本的正當程序概念，都會覺得繼續監禁哈沃德是不可接受的。他顯然是無辜的。任何殘存的反對意見都消失無蹤了。
+總檢察長在一場匆忙召開的新聞發布會上，公開承認哈沃德是無罪的，並要求該州高等法院盡速對其聲請做出裁決。維吉尼亞州最高法院在第二天就宣布基思．哈沃德是一個無辜的人。
+——本文摘自《法庭上的偽科學》，2023 年 12 月，商周出版，未經同意請勿轉載。
+其實最特別的或許是，一些美國警探劇中提到的生物辨識庫，雖然說聯邦與各州多有針對駕照，以及泛公務員人員，甚或包含有接受聯邦補助經費的私立學校的教職人員，但是，也有沒跟聯邦或一些州分享的，運作上應該是要把資料送到該州比對，感覺有點類似歐盟GDPR? 以及，目前有對泛公務員包含私立學校教職員建立指紋DNA等資料庫嗎? 包含比如說，其實一些國家或地區入境就是要留下生物識別?
+其實最特別的或許是，一些美國警探劇中提到的生物辨識庫，雖然說聯邦與各州多有針對駕照，以及泛公務員人員，甚或包含有接受聯邦補助經費的私立學校的教職人員，但是，也有沒跟聯邦或一些州分享的，運作上應該是要把資料送到該州比對，感覺有點類似歐盟GDPR? 以及，目前有對泛公務員包含私立學校教職員建立指紋DNA等資料庫嗎? 包含比如說，其實一些國家或地區入境就是要留下生物識別?</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>scicomm</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>科學鑑定並非絕對正確？垃圾科學可能造成冤案？——《法庭上的偽科學》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373969</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>科羅拉多州丹佛市的科羅拉多州會議中心第六十一屆美國鑑識科學學會科學年會
+二○○九年二月十九日，美國國家科學院投下了長達三百頁的震撼彈。全世界的頭條新聞都是宣告絕對正確的鑑識神話破滅。這份後來被稱為《 NAS 報告》的《提升美國司法科學：前進之路》（Strengthening Forensic Science in the United States: A Path Forward），讓聚集在丹佛參加美國鑑識科學學會年會的鑑識社群都深受打擊。自從一九六○年代中期的山姆．謝潑德審判以來，無論是法庭或流行文化都一直認為司法科學是萬無一失的。
+即使出現了錯誤定罪，也沒有削弱這個被廣泛認同的信念。二○○九年美國鑑識科學學會的「科學會議」議程就反映出對這件事不存在絲毫懷疑。在該年的五百三十六篇發表文章中，只有一篇是討論錯誤定罪，發表人是一名加拿大的辯護律師，而該科學的可靠性則完全沒有成為關注議題。1
+《 NAS 報告》在一夜之間讓會議議程顯得無關緊要，彷彿是上個世代的產物。垃圾科學害得無辜的人被判有罪，這不能再怪是因為「一粒老鼠屎壞了一鍋粥」。美國國家科學院解釋因 DNA 的平反揭露了「一個令人不安的冤案數量，有些還是死刑案件，並暴露了美國常用的一些鑑定方法的嚴重侷限性」。
+即使是在最高法院作成對道伯案的意見之後，糟糕的科學依然在司法制度中占據主導地位。《 NAS 報告》回顧了上個世紀如史詩般的侵權責任之爭，它導致了道伯案這個具有里程碑意義的判決。儘管彼得．胡伯的《伽利略的復仇》一書講述像「中了頭獎」的人身傷害訴訟，讓「現在已眾所周知的『垃圾科學』變得普及，並批評司法制度接受不可靠的專家證詞來支持侵權主張」，但《 NAS 報告》提到的「垃圾科學辯論」幾乎「完全忽略刑事訴訟」。2
+鑑識體制中大部分是善意而不習慣接受批評的公務員，對司法科學界來說，美國國家科學院的批評是對個人的一種極大侮辱。大部分從業人員都是跟隨廣受尊敬的導師學習這一行，但現在幾乎所有鑑識行業公認的智慧都遭到駁斥：「訓練應該從學徒式的實務傳承轉向大學等級的教育，並且要根據科學上的有效原則。」該報告總結道：「我們需要的是一個新的、強大而且獨立的單位，要切斷與過去的連結，且它要有權威和資源實施新的作法，解決委員會發現、在本報告討論到的許多問題。」
+美國鑑識科學學會的議場傳出了鑑識專家們抗議的悲鳴。《鑑識科學期刊》發表過大量經同儕審查的文獻，在過去六十年間，在美國鑑識科學學會的科學會議上也發表了上萬篇經評審的演講和「學術研討會」。全國法院都宣布法醫從業人員是「專家證人」。
+現在來了一些統計學家，就想要說我們沒有科學？ 我們不知道自己在做什麼？ 問問那些教授，他們最後一次從屍體上採下帶血的指紋是什麼時候！
+前 FBI 實驗室分析人員馬克斯．胡克回憶道：「每個人都快氣瘋了。」3
+很少人能斷然放棄長期以來的信念，無論反面的事實多麼令人信服。這就是人性，司法科學也絕對不是第一個抗拒新事實的科學領域。一九八○年代中期的醫學就是這樣，歷經了漫長而緩慢的轉變過程，才從「根據大師怎麼說」（依照該領域的領導者傳下來的智慧），轉向實證的治療方法（依據精心設計的研究做出醫學決定）。
+以「萬物的隱藏面」為主題的公共廣播節目《 Freakonomics 》做了一個〈劣藥〉（Bad Medicine）的四集報導，其中便呈現出司法科學社群對《 NAS 報告》的反應，也顯示出它和醫學界對「考科藍協作組織」（Cochrane Collaboration）的反應有著令人驚異的相似之處——考科藍組織所做的事便是對幾世紀以來的醫學文獻進行前所未見的系統性檢視。
+這份一千五百頁、分成兩冊的報告於八○年代末在該領域造成轟動。如同廣播主持人史蒂芬．都伯納（Stephen Dubner）表示：「考科藍協作組織是第一個將既有醫學問題加以真正系統化、彙編和評估其最佳證據的組織。你會認為這應該得到普世的讚揚，但是就和任何行業中根深柢固的智慧（即使是很不智的智慧）一旦受到挑戰一樣，醫學界並沒有為此感到振奮。」4
+考科藍協作組織的共同創辦人伊恩．查爾默斯（Iain Chalmers）爵士描述，當一群局外人告訴醫生應該如何治療病人時得到了什麼反應：「我必須說，醫學界其實對此有很大的敵意。我記得有一次，我同事要出席英國醫學會在當地的一場會議，英國醫學會基本上是叫他去說明實證醫學（evidence-based medicine）是什麼，以及這群統計學家和其他又不是醫生的人，到底跑來這個他們不該亂搞的領域胡鬧什麼。他開車出發前問我：『我應該告訴他們什麼呢？』我說：『如果是病人抱怨實證醫學的目的，我們應該認真對待這些批評。在那之前，就當這主要是既得利益者在尋找出路。』」
+實證醫學成為規範作法的主要原因之一，是患者（客戶）提出了要求，最終會迫使醫學界默默地站在數據這一邊，而不是繼續服從該領域的大師。然而垃圾科學在美國刑事司法體系中的主要客戶是檢察官，他們大部分都對現狀感到滿意。
+——本文摘自《法庭上的偽科學》，2023 年 12 月，商周出版，未經同意請勿轉載。
+突然覺得，那其實一些用來排除的，如果比較的點太少，可能有的也不行? 就是類似那種採集現場指紋鞋印，要用來排除到場急救消防人員的?
+突然覺得，那其實一些用來排除的，如果比較的點太少，可能有的也不行? 就是類似那種採集現場指紋鞋印，要用來排除到場急救消防人員的?</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>scicomm</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Canva 不只可以做圖，還可以做影片啦！更強大的　Magic Studio 幫你從修圖到剪片全搞定！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375376</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>別再用非常好色跟 Word 的文字藝術師了！
+去年初 Canva 推出了 Magic Design 魔術設計師，可以讓你一鍵圖片上傳、自動完成行銷圖片與海報。現在魔術系列正式成為了一個完整的「魔術工作室 Magic Studio」。
+Magic Studio 已經成為我快速製作影片的首選，對，你沒有聽錯，用 Canva 做圖已經過時了，現在是 Canva 做影片的時代啦！
+今天就用這支影片，快速帶你學會 Canva 的新 AI 功能吧～
+Canva 除了以上的 AI 功能之外，其實還支援更多更多相關的應用。你可以在應用程式選單裡面看到採用 AI 技術的分類裡面有上百種整合第三方的 AI 工具套件，比如知名的人臉 AI 圖片生成說話影片平台 D-ID 或 HeyGen，或者各種圖片編輯套件如 Catoonify 把圖片變成插畫、Colorize 把老照片重新上色等等，應有盡有。如果你有測試到什麼喜歡的套件，歡迎在影片下方留言，或者加入泛科學院的官方 Discord 社群與大家交流分享，我們不見不散。
+更多、更完整的內容，歡迎上泛科學院的 youtube 頻道觀看完整影片，並開啟訂閱獲得更多有趣的資訊！</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>查資料變簡單了？超神免費 AI 搜尋引擎——Perplexity 讓你事半功倍！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375378</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>都 AI 時代了，為什麼 Google 或者是 Bing 搜尋出來的結果，還要我們用工人智慧一個個點開連結之後進行理解查閱跟歸納整理呢？
+別再浪費你的生命了，來體驗一下 Perplexity，這個針對搜尋優化過的 AI 工具，幫你把搜尋網路的結果直接整理彙整出來，快來試試看吧，用過之後，你一定會跟我一樣，轉頭跟 Google 還有微軟說：「加油好嗎！」
+是說，基於對話的各種 AI 工具，快速發展的當下，很多功能都被做了出來，但有事做不代表有把事做好，希望各家的 AI 在比拼模型正確性，縮短回應速度之餘，產品端也可以好好加油，讓我們一般用戶都可以舒服快速的完成想要的工作，優化使用者體驗才是最重要的事，不然哪天被其他公司彎道超車也說不定喔……欸那個聽說今年蘋果 WWDC 開發者大會好像要大舉導入生成式 AI 技術……我們終於可以跟笨笨的 Siri 還有 Google Assistant 說拜拜了嗎……？
+最後，真心建議那些不善長溝通的人，可以學學 perplexity copilot 的對話策略，聽完別人問題後，試著提出理解後的反問，就能讓人感覺到被受重視了！
+更多、更完整的內容，歡迎上泛科學院的 youtube 頻道觀看完整影片，並開啟訂閱獲得更多有趣的資訊！</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>筆耕卅五載，洞鑒電路板春秋——專訪PCB切片權威白蓉生 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375204</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>本文轉載自顯微觀點
+拆開任何現代電子產品，都可以發現印刷電路板（Printed Circuit Board, PCB）的踪影。從地球外的人造衛星、最新款 iPhone 到傳統桌上型電話，印刷電路板都在其中乘載元件、傳遞訊號，因此也被稱為「電子產品之母」。
+臺灣是舉世聞名的 PCB 出口大國，儘管出現廠商逐廉價勞動力外移的趨勢，臺灣企業的市占率依然超過三成，位居全球第一。
+在追求精密化、提高良率的產業進步過程中，分析 PCB 切片顯微影像是不可或缺的步驟。要看得細膩真確，則有賴 PCB 樣本製備及影像判讀，兩項需要精密操作、耐心和敏銳判斷力的技術。
+現年 85 歲的白蓉生，是兩岸 PCB 業界備受尊敬的分析技術權威，曾獨立經營《電路板資訊雜誌》8 年，並擔任臺灣電路板協會《電路板季刊》總編輯 25 年。他磨練 PCB 切片檢驗與判讀能力 40 餘年，持續對業界分享他的獨門 PCB 顯微分析心得。
+自 1980 年代以來，白蓉生公開發表超過 800 篇圖文並茂的 PCB 檢測技術文章，並擔任國內外重要廠商的技術顧問。他不藏私的經驗分享，促成 PCB 製造商的技術躍進與營業成長。
+PCB 檢測過程中，光學顯微檢驗是最為基礎，也提供最多資訊的步驟。進入顯微載物台之前，PCB 需要經過切片取樣、封膠、研磨、拋光、微蝕等步驟。其中切片與研磨、拋光需要格外細緻的操作能力，才能在顯微鏡下呈現清晰平整的切面。
+良好的 PCB 切片樣本，可以將整個切面維持在同一個焦平面，均勻呈現孔道的鍍銅品質、不同金屬間介面的良窳，整個水平面上的顯微景觀都維持清晰對焦。透過尋找細微瑕疵，來改進 PCB 的製造過程。
+「在放大 1000 倍、3000 倍後，都可以維持切面對焦的樣本，才是合格的切片樣本。」
+白蓉生以業界檢驗分級 QC（Quality Control, 品質管理）, QA（Quality Assurance, 品質保證）, FA（Failure Analysis，故障分析）為案例，「合格的 FA，追求整個切片視野的焦聚一致，一覽無遺。一般 QC 或 QA 人員，慣於接受觀察球面樣品，對於看不清楚的部分不了了之。」
+他指出，業界常見的球面切片無法得到清晰的全面影像，是研磨與拋光的技術與耐心不足。焦點起伏不定的切面無法展現細節中的魔鬼，工程師自然也無法精進製程、更換材料以祛除瑕疵，。
+現任職欣興電子技術顧問的白蓉生，在廠內建立 FA 切片師的培訓與考試機制，30 年來僅有 20 多人合格。製備合格切片之後，影像判讀是分析製程的必須能力，因此白蓉生設立與 FA 切片師並行的 FA 判讀師制度，迄今也只有 20 多人合格。
+白蓉生感嘆，「切片與判讀都需要下苦功練習，30 年來只有 3 個人獲得切片師與判讀師雙料合格。」
+白蓉生笑說，「來學切片判讀的，常常是經理或副理，對專業經驗自視甚高。但他們所學愈深，就愈是謙遜。登堂入室，才發現前方學海無涯。」
+隨著顯微技術演進，業界流行使用電子顯微鏡觀察切片，認為看愈小愈好。白蓉生卻堅持以光學顯微影像作為判讀依據。因為在電子顯微鏡下，只有黑白影像，無法利用顏色分辨不同材質。
+白蓉生說「用電顯判讀的結果，無法分析顏色。我認為都是胡說，像是文盲在看書。儘管能看到很小的顆粒，分析人員也只能看著黑白影像說：『那是雜質』。」
+切換明視野、暗視野、偏光干涉等光學技術，再搭配透視與立體顯微鏡的組合，PCB 切片中不同金屬在白蓉生鏡下呈現明顯對比，相同金屬也會因為歷經不同處理而呈現不同顏色。電鍍銅與化學銅的差異、電鍍與焊接的品質，都在白蓉生的顯微影像中一覽無遺。
+除了基本的明場自然光，白蓉生也分享他常用的顯微技巧：以明場光源搭配干涉，在最暗與最亮的偏光下可獲得透視效果。明場兼用偏光與干涉可以使銅面呈現立體效果，且電鍍銅會呈現藍色易於分辨。採用偏光與干涉的單純暗場則能呈現最佳的材質對比效果。
+白蓉生強調，「因為能看出金屬介面的細緻型態，我們才能知道技術要如何改進。」
+在白蓉生指引的工藝改革下，原本表現平庸的欣興電子成為精密載板的重要國際供應商。他得意地說，「我們製作的 Daisy Chain 載板佈線連貫強韌，承受 500 次熱漲冷縮測試之後，電阻增加不到 5%。技術紮實到連 Nvidia 這種頂級客戶都大吃一驚。」
+欣興電子雇用白蓉生為顧問後，他追求精進的態度製程水準帶來革命般的改變。白蓉生回憶，早先欣興電子的產品良率不到八成，「或許剛好可以維持公司運作，但也無利可圖。」
+現在欣興電子的高階 IC 載板良率已穩定超過 9 成 5，股價也成長超過十倍。白蓉生笑說，「我沒有因為公司股票賺錢！我原本就不想要賺大錢，因為錢多了沒用，只是徒增煩惱。」
+話雖如此，白蓉生也坦承，「當年創立《電路板資訊雜誌》是生活所需，因為從安培離職，沒工作就沒收入啦！」
+從資深工程師轉為科技月刊發行人兼總編輯，白蓉生的生活更加忙碌，全副精神都浸泡在 PCB 技術知識的研讀和傳遞中。
+他回憶，當時他自己擔任總編輯兼送報生，手稿交由妻子與另一位打字員處理，在沒有網路的時代，每一期要繳出 5 萬字圖文並茂的稿子。除了努力訪問國內廠商、專家，也要大量編譯國外刊物內容。當年雜誌收入以廣告費為主，每個月可以得到超過 20 份廣告委託，在沒有前例的科技月刊市場上，開拓出意外佳績。
+《電路板資訊雜誌》從 1988 年發行至 1996 年，白蓉生在 8 年間自力編譯、採訪、寫作，從早晨六點到午夜睡前，都在蒐集資料、勤奮筆耕。
+「我一周六天都在編雜誌，沒有應酬娛樂，也沒請過病假，因為連生病的時間都沒有！」
+雜誌停刊之後，白蓉生享受了兩年退休生活，發現自己閒得發慌。他受邀擔任臺灣電路板協會（Taiwan Printed Circuit Association, TPCA）的顧問及《電路板季刊》總編輯，繼續研究、傳授電路板顯微影像的判讀方法，以及細緻的製程改善技巧。
+《電路板季刊》迄今已發行 100 期，白蓉生也成為華語世界最重要的電路板知識傳遞者。
+懷有珍貴 PCB 分析知識與技術的白蓉生，在兩岸業界深受重視，是各大廠商極力邀請的講師。他的判斷力不是來自學校或公司的教育體系，而是靠著多年來的勤奮自學。
+白蓉生說，他少時家貧，因此就讀師範學校以省下學費，還能領錢和白米幫助家境。但師範學校學歷不如一般大學（當時師範學校專門培育小學校教師，僅需 3 年教育），心有不甘的白蓉生在小學任教三年後，考上中興大學化學系，同時擔任小學老師和大學生。
+白蓉生在大學畢業後進入中華航空擔任化學工程師，反覆的電鍍工作並未帶給他成就感，他於是轉職美商安培電子（Ampex）。1969 年起，白蓉生在安培電子大量接觸 PCB 製造與檢測的第一線作業，開啟了鑽研 PCB 分析判讀的專業道路。
+1969 年，安培電子於桃園設廠，是臺灣 PCB 生產王國的發軔時刻。白蓉生在此接觸到國內最先進的 PCB 工藝。他樂於在下班之後繼續研究檢測材料，探索各種慣例外的顯微方法，逐步建立自己的 PCB 切片檢查技巧。
+除了 PCB 製造工藝的獨到見解，對文學的喜愛也是白蓉生筆耕不輟的動力來源。他說，自己求學時力求節儉，一直步行上學，超過 40 分鐘的漫漫路途是他背誦古文的時間，對文學的興趣、寫作的欲望隨著路程逐漸滋長。
+對於中年轉行，成立沒有前例可循的專業技術雜誌，白蓉生笑稱，「當初發行頭幾期雜誌就燒完 6 萬塊積蓄，我還真不知道能不能回本。」
+從技術專家、顧問到專業刊物總編輯，白蓉生拓展並傳承 PCB 分析工藝將近半世紀。他至今保持30年前「永晝方塊每隨飯，長夜蟹文伴枕眠」的強韌動力，投入 PCB 檢測、寫作與講課，建構低調踏實的臺灣電路板工藝文化。
+他認為，電子產業是臺灣立國基礎，業界訓練可以彌補產學落差，但好學、勤奮與謙虛的心態是學校或企業不能代勞的，得要由年輕世代主動保持。端正的學習心態結合不藏私的深入技術指導，能養成更多專業人才，使電路板工藝精進，提升業界整體價值。</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>讓 AI 取代真人執法可行嗎？將判斷全交給 AI 可能隱藏什麼危險？——專訪中研院歐美研究所陳弘儒助研究員 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374932</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>本文轉載自中央研究院「研之有物」，為「中研院廣告」
+由人工智慧擔任警察，再也不是科幻電影的情節，交通管制常見的科技執法就是應用 AI 辨識闖紅燈、未依規定轉彎、車輛不停讓行人等違規行為。 AI 的客觀、高效率正在挑戰以人為審判主體的法治領域，這樣的轉變會對我們產生什麼影響呢？中央研究院「研之有物」專訪院內歐美研究所陳弘儒助研究員，他將帶我們思考：當 AI 取代人類執法時，將如何改變人們對守法的認知？
+想像有一天你正在尖峰時段開車，車子停在十字路口等紅燈時，後方出現一輛急駛而來的救護車，你為了讓道必須開過停止線。這時你是否願意冒著違規被開罰的風險？還是承擔風險以換取他人盡速就醫？
+在上述情境中，針對「要不要闖紅燈」我們經歷了一段價值判斷過程。如果剛好十字路口有真人警察，他的判斷可能是：這是情急之下不得不的行為，並非蓄意違規。
+然而，如果負責執法的是「法律人工智慧系統」（Artificially legal intelligent，簡稱 ALI）情況可能截然不同。
+ALI 這個詞源自 Mireille Hildebrandt 的研究，在概念上可區分為兩類：採取傳統程式碼的 IFTTT（if this then that）、運用機器學習的資料驅動。前者是注重法律推理或論證的計算機模型，將法律規範轉為程式碼，藉由程式編寫來執行法律任務。後者則透過大量資料的學習，來預測行為範式，用於再犯率、判決結果預測上有較好的成果。
+一般情況下，應用在交通管制的 ALI 會辨識車輛是否超速、闖紅燈等違規行為，不過交通情境千變萬化，ALI 能否做出包含「道德價值的判斷」將是一大挑戰！
+中研院歐美研究所陳弘儒助研究員察覺，人工智慧（AI）正在左右人們對守法的價值判斷及背後的因果結構，進而反思當我們將原本由人來判斷的事項，全權交由 AI 來執行時，可能產生哪些潛移默化的影響？
+讓我們與陳弘儒展開一場從法哲學出發的對話，探索 AI 與法治價值之間的緊張關係。
+會對 AI 感興趣是因為我很早就對電腦有興趣，我原本大學想唸資訊工程，因為高中有些科目沒辦法唸，於是去唸文組，大學進入法律系就讀，研究所考入「基礎法學組」研讀法哲學。
+後來我到美國讀書，當時 AlphaGo 的新聞造成很大的轟動，啟發我思考 AI 的應用應該有些法律課題值得探討，於是開始爬梳 AI 與法律的發展脈絡。
+AI 這個詞大概在 1950 年代被提出，而 AI 與法律相關的討論則在 1970、80 年代就有學者開始思考：我們能否將法律推理過程電腦程式化，讓電腦做出跟法律人一樣的判斷？
+事實上，AI 沒有在做推理，它做的是機率的演算，但法律是一種規範性的判斷，所有判斷必須奠基在法律條文的認識與解釋上，給予受審對象合理的判決理由。
+這讓我好奇：如果未來廣泛應用 AI 執法，法律或受法律規範的民眾會怎麼轉變？
+至於真正開始研究「法律人工智慧系統」（ALI）是受到我父親的啟發。有一陣子我經常開車南北往返，有一天我跟父親聊到用區間測速執法的議題。交通部曾在萬里隧道使用區間測速，計算你在隧道裡的平均速率，如果超速就開罰。
+父親就問我：「政府有什麼理由用區間測速罰我？如果要開罰就必須解釋是哪一個時間點超速。」依照一般的數學邏輯，你一定有在某個時間點超速，所以平均起來的速率才會超過速限，可是法律判斷涉及規範性，我們必須思考背後的正當性課題，不能只用邏輯解釋，這啟發我逐漸把問題勾勒出來，試圖分析執法背後的規範性意涵。
+我們先來談人類和 AI 在做判斷時的差別。人類無時無刻都在做判斷，判斷的過程通常會先做「區分」，例如在你面前有 A 和 B 兩個選項，在做判斷前必須先把 A 和 B 區分開來，讓選項有「可區別性」。
+在資料龐大的情況下，AI 的優勢在於能協助人類快速做好區分，可是做判斷還需經歷一段 AI 難以觸及的複雜過程。人類在成長過程中會發展出一套顧及社會與文化認知的世界觀，做判斷時通常會將要區分的選項放進這個世界觀中，最終做出符合社會或自身考量的抉擇。
+當我們將判斷程序交由 AI 執行，就會涉及「判斷權限移轉」的問題，這經常在日常生活中發生，你只要發現原本自己可以執行的事情，有另外一個對象做的比你好或差不多好，你就會漸漸把判斷的工作交給它，久而久之，你大概會覺得這是很好的做法，因為可以節省大量時間。
+我擔心這種判斷權限移轉會快速且廣泛的發生，因為 AI 的工作效率極高，可以大幅節省人力成本，但是哪一些權限可以放給 AI？哪一些權限人類一定要守住？我們經常沒有充足的討論，等到發生問題再亡羊補牢可能為時已晚。
+以讓道給救護車而闖紅燈的情境為例，如果讓 AI 來做交管，可以節省警察人力，又可以快速精準地開罰，卻迫使民眾需額外花時間，證明闖紅燈有正當理由。如果是真人警察來判斷，警察通常會認為你的行為有正當理由而不開罰。這對於受法律規範的民眾來說，會產生兩種全然不同的規範作用。
+AI 產生的規範作用會讓民眾擔心事後銷單的麻煩程序，如果無法順利解決，可能會訴諸民意代表或上爆料公社，並漸漸改變民眾對守法的態度。而真人警察產生的規範作用，將使民眾自主展現對法律的高度重視，雖然當下的行為牴觸法律，卻是行為人經過多方權衡後做的判斷，相信法律會支持自己出於同理心的行為。
+我認為法治的核心價值在臺灣並沒有很好的發展，我們常想的是怎麼用處罰促成民眾守法，長久下來可能會得到反效果。當人們養成凡事規避處罰的習慣，一旦哪天不再受法律約束，可能會失去守法的動機。
+事實上，法治最根深柢固的價值為：
+法律作為一種人類行為規範的展現，促使民眾守法的方式有很多種，關鍵在於尊重人的道德自主性，並向民眾陳述判決理由。
+給理由非常重要，可以讓民眾不斷透過理由來跟自己和法律體系溝通。如此也可以形成一種互惠關係，使民眾相信，國家公權力能用適當的理由來制定法律，而制定出的法律是以尊重公民自主性為主。當民眾理解法律對我所處的社會有利，會比較願意自動產生守法的動機。
+AI 執法看似比人類「公正無私」，但它的執法方式以處罰為主、缺乏理由陳述，也沒有對具體情境的「敏感性」。人跟人之間的互動經常需要敏感性，這樣才能理解他人到底在想什麼。這種敏感性是要鍛鍊的，真人警察可在執法過程中，透過拿捏不同情境的處理方式來累積經驗。
+例如在交通尖峰時段應該以維持交通順暢為原則，這時警察是否具備判斷的敏感性就很重要，例如看到輕微的違規不一定要大動作開罰，可以吹個警笛給駕駛警示一下就好。
+我越來越覺得人類這種互動上的敏感性很重要，我們會在跟他人相處的過程中思考：跟我溝通的對象是什麼樣的人？我在他心中是什麼模樣？然後慢慢微調表現方式，這是人類和 AI 最根本的不同。
+我認為會有更複雜的影響。ChatGPT 是基於大型語言模型的聊天機器人，使用大量自然語言文本進行深度學習，在文本生成、問答對話等任務上都有很好的表現。因此，在與 ChatGPT 互動的過程中，我們容易產生一種錯覺，覺得螢幕後好像有一名很有耐心的真人在跟你對話。
+事實上，對於生成式 AI 來說，人類只是刺激它運作的外在環境，人機之間的互動並沒有想像中的對等。
+仔細回想一下整個互動過程，每當外在環境（人類）給 ChatGPT 下指令，系統才會開始運作並生成內容，如果我們不滿意，可以再調整指令，系統又會生成更多成果，這跟平常的人際互動方式不太一樣。
+資工人員可能會用這個理由說明，生成式 AI 只是一種工具，透過學習大量資料的模式和結構，從而生成與原始資料有相似特徵的新資料。
+上述想法可能會降低人們對「資料」（Data）的敏感性。由於在做 AI 訓練、測試與調整的過程中，都必須餵給 AI 大量資料，如果不知道資料的生產過程和內部結構，後續可能會產生爭議。
+另一個關於資料的疑慮是，生成式 AI 的研發與使用涉及很多權力不對等問題。例如現在主流的人工智慧系統都是由私人公司推出，並往商業或使用者付費的方向發展，代表許多資料都掌握在這些私人公司手中。
+資料有一種特性，它可以萃取出「資訊」（Information），誰有管道可以從一大群資料中分析出有價值的資訊，誰就有權力影響資源分配。換句話說，多數人透過輸入資料換取生成式 AI 的服務，可是從資料萃取出的資訊可能在我們不知情的狀況下對我們造成影響。
+國外對於 AI 的運用開始提出很多法律規範，雖然國外關於價值課題的討論比臺灣多，但並不代表那些討論都很細緻深入，因為目前人類跟 AI 的相遇還沒有很久，大家還在探索哪些議題應該被提出，或賦予這些議題重新認識的架構。
+這當中有一個重要課題值得思考：
+我們需不需要訓練 AI 學會人類的價值判斷？
+我認為訓練 AI 理解人類的價值判斷很可能是未來趨勢，因為 AI 的發展會朝人機互動模式邁進，唯有讓 AI 逐漸理解人類的價值為何，以及人類價值在 AI 運作中的局限，我們才有辦法呈現 AI 所涉及的價值課題。
+當前的討論多數還停留在把 AI 當成一項技術，我認為這種觀點將來會出問題，強大的技術如果沒有明確的價值目標，是一件非常危險的事情。實際上，AI 的發展必定有很多價值課題涉入其中，或者在設計上有一些價值導向會隱而不顯，這將影響 AI 的運作與輸出成果。
+思考怎麼讓 AI 理解人類價值判斷的同時，也等於在問我們人類：對我們來說哪一些價值是重要的？而這些重要價值的基本內容與歧異為何？
+我目前的研究有幾個方向，一個是研究法律推理的計算機模型（Computational models of legal reasoning）；另一個是從規範性的層面去探討，怎麼把價值理論、政治道德（Political morality）、政治哲學等想法跟科技界交流。未來也會透過新的視野省視公民不服從議題。
+這將有助科技界得知，有很多價值課題需要事先想清楚，影響將擴及工程師怎麼設計人工智慧系統？設計過程面臨哪些局限？哪些局限不應該碰，或怎麼把某些局限展現出來？我覺得這些認識都非常重要！
+陳弘儒是臺灣少數以法哲學理論研究法律人工智慧系統（ALI）的學者，他結合各種現實情境，與我們談論 ALI、生成式 AI 與當代法治價值的緊張關係。
+由於 ALI 擅長的資料分類與演算，與人類判斷過程中涉及的世界觀與敏感性思辨，有著根本上的差異；以處罰為主、缺乏理由陳述的判斷方式，也容易影響民眾對公權力的信任。因此陳弘儒認為，目前 ALI 應該以「輔助人類執法」為發展目標，讓人類保有最終的判斷權限。
+至於現正快速發展的生成式 AI ，根據陳弘儒的觀察，目前仍有待各方專家探索其中的價值課題，包括資料提供與使用的權力不對等、哪些人類價值在訓練 AI 的過程中值得關注等。
+在過去多是由人文社會學者提出警告，現在連 AI 領域的權威專家也簽署公開信並呼籲：AI 具有與人類競爭的智慧，這可能給社會和人類帶來巨大風險，應該以相應的關注和資源進行規劃和管理。
+在訪談過程中，有一件令人印象深刻的小插曲，陳弘儒希望我們不要稱呼他「老師」，因為他從小就畏懼老師、警察等有權威身分的人，希望以更平等的方式進行對話。
+假如今天以 AI 進行採訪，整個談話過程或許能不受倫理輩分影響，但這也讓我們意識到，在 AI 的世界裡，許多人際互動特有的敏感性、同理反思都可能不復存在。
+陳弘儒的研究讓我們體會，AI 在法治領域的應用不僅是法律問題，背後更包含深刻的哲學、道德與權力課題，也讓我們更了解法治的核心價值：
+法律要做的不只是規範人們的行為，而是透過理由陳述與溝通展現對每個人道德自主性的尊重。
+我們稱許法官「鐵面無私」，卻要機器「網開一面」，這根本是人的問題。所以訓練AI熟悉在各種條件下執法，是必要的。假以時日，必定勝過人類。那時候，人類講理也講不過機器了。這得適應，因為環境的變化是逃不了的。
+我們稱許法官「鐵面無私」，卻要機器「網開一面」，這根本是人的問題。所以訓練AI熟悉在各種條件下執法，是必要的。假以時日，必定勝過人類。那時候，人類講理也講不過機器了。這得適應，因為環境的變化是逃不了的。</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>一鍵生成心智圖？統整文章、製作簡報、學習知識！三款 AI 保母級教學！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374763</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>真的假的，只要有它，再難的事都能秒懂？
+它就是 AI 心智圖工具，只要一句話，一個關鍵字，就能生成一張完整的知識架構圖。
+無論是聽不懂老師在講什麼的學生，還是被老闆交辦沒聽過的工作，只要把聽不懂的詞丟進去，噠啦～瞬間一目了然！
+而且這些 AI 心智圖工具，也能直接把生成的圖表或段落變成一頁簡報，真的非常方便！
+今天，我將介紹 Whimsical 、 Xmind 和 MyMap 這三個 AI 心智圖工具，其中 Whimsical 是免費的，Xmind 跟 MyMap 這個 AI 功能要額外付費，但我自己實測的感覺非常好，因此也推薦給大家。
+廢話不多說，讓我們開始吧！
+ Whimsical 對 APP 開發者可能並不陌生，是集結流程圖、心智圖、 APP 原型圖的線上工具，現在有加入 AI，不僅可以更快速地整理內容，甚至能無中生有。雖然一個帳號只能免費使用 AI 100 次，再多就要付費，但我用到現在也還沒用完。
+先從快速整理內容來吧，我這邊用泛科學這篇文章當範例，複製文章內容跟他說
+請幫我把下面的內容，整理成心智圖
+暗能量是什麼？看不到也摸不著，我們該如何找到它？
+這樣文章的大綱就在你面前了，如果對某些主題有興趣，就可以用心智圖上的關鍵字去 google 搜尋。
+接下來，就輪到無中生有啦！這次我什麼都沒有給他，直接輸入
+請給我核融合的基礎知識架構心智圖
+這樣 Whimsical 就會給你核融合的知識架構圖啦。
+你看，是不是很簡單呢？
+如果想要把這張心智圖做成簡報，你只要選擇 Section 把它框起來，
+就能在右邊的 Present 欄位上面，看到新的 Section，這時按下撥放，就會是一張剪報嘍。
+作為流程圖與心智圖工具的 Whimsical 本來就很容易上手，加上 AI 就變得更無腦了，你甚至可以讓 Whimsical + AI 做完所有內容，再自己再微調版面，框選 Section，就有一份出色的簡報啦！
+不過還是要說一下，Whimsical 的 AI 找得資料有點少，可能連學校作業的需求都無法應付，如果真的要瞬間秒懂所有事情，你可能要試試看 Xmind 或 MyMap 。
+先來說說 Xmind ，這款工具稱得上是臺灣最知名的心智圖工具了吧？像是創意思考或人生整理術之類的課程，都經常能見到 Xmind 的身影。現在加上 AI 之後，真的創造了天下沒有難學的知識，一個關鍵字，一張心智圖，順著心智圖學習，沒什麼事難得倒你。
+這邊我想要提醒大家， Xmind 跟 Xmind AI 是兩個獨立的產品線，傳統的紅色的圖示 Xmind 包含桌面版程式與手機 APP ， Pro 專業版的售價是每三個月 16 美金， Xmind AI 是新推出的產品，圖示改成紫色，專業版費用是每個月 8 美金，兩者並不互通，重要的事說三次，兩者不互通，兩者不互通，今天分享的是紫色的 Xmind AI 線上平台，不要跑錯家哟。
+回到正題， Xmind 的 AI 稱為 Copilot ，只要跟 Copilot 說出你聽不懂的關鍵字，它就會用心智圖幫你解答，為什麼只要關鍵字呢？這邊來做個示範，跟前面 Whimsical 一樣，輸入
+請給我核融合的基礎知識架構心智圖
+然後再輸入
+核融合的知識架構
+最後只給 Copilot 
+核融合
+這三個關鍵字。
+好像字越少，內容越豐富？推測是 Copilot 會直接把輸入內容當成搜尋詞彙，因此訊息越多，限制越大。在用 Copilot 時，我都盡量給簡單的關鍵字，等它完成比較豐富的心智圖後，再對心智圖中的單一項目進行 AI 生成。
+沒錯，這就是 Xmind 好用的地方了，無論是你自己畫心智圖遇到瓶頸，還是剛剛 AI 生成的心智圖有不完整的地方，只要點有問題的項目，再點選畫面下方的 Copilot ，就能再生成後續內容啦！
+ Xmind 也支援心智圖直接轉簡報的功能，每個項目就是一頁簡報，會依照簡報架構播放簡報。
+如果要放說明文字在簡報上，你可以點項目後按下面的 note 輸入文字，
+也可以在 local image 上傳你要的圖片，就會在該張簡報呈現這些內容。
+雖然 Xmind 不能把簡報弄得美美的，但 Xmind 支援將心智圖下載成 .md 或 .ppt 等檔案格式，之後就可以套入之前介紹過的 gamma 或其他人做好的 template ，一份有結構、漂亮的簡報就完成啦！
+最後介紹的 MyMap ，不是 google 那個 MyMap ，是 MyMap AI ，這個 A 編用完之後直接在工作群組裡面大喊：「這東西真是太好用了阿！」的一個工具。
+一進入 MyMap 介面，基本上看不到任何工具欄或 icon ，只有跟 AI 的對話框，沒錯，這才是我想要的 AI 工具！ 什麼複雜操作都不用，只要跟 AI 說話，工作就完成啦！
+能有這麼狂的介面，也就表示 MyMap 對自己的 AI 功能很有信心，實際用過真的，沒跟你五四三，用得過程中完全不需要找工具欄，資料與內容整理都非常到位！
+跟 Whimsical 類似，MyMap 支援多種資料呈現方式，你也不需要知道有什麼呈現方式，在問它問題的時候，它就會解析你想要的內容可能適合什麼形式的呈現，如果有多種呈現方式適合，它還會問你要用什麼形式呈現。
+如果你想要用已有的文件或內容做心智圖或其他圖表，你只要按下對話框旁邊的加號，就會跳出上傳檔案或輸入網址的對話框，上傳或輸入網址之後，他就會出現即時預覽的視窗，接著，就可以跟檔案對話了。
+像我給它前面泛科學黑洞文章的網址，這時候只要跟他說
+幫我整理這個網頁的內容重點
+MyMap 不囉嗦，直接給我一個完整的內容重點整理。
+用到現在，MyMap 的唯一缺點是拖曳畫面很不直覺，以及它非常非常小氣，只有七天試用期，訂閱 MyMap 的最低價格是 9 美元，但 A 編為了 GPT4 ，之接訂了 12 美元的 pro 版。看來無論是遊戲還是現實，課金變強都是不變的道理啊！
+好啦，其實也沒什麼特別要總結比較的，因為 MyMap 用起來真的太舒服了，但如果你只想當個免費仔，可以先用用看 Whimsical 。
+而 Xmind 呢，其實它的檔案格式的支援度是最高的，要用其他軟體加工做成簡報的話，Xmind 還是有它的優勢之處的！
+如果這支影片對你有幫助的話，請幫我在影片下方點個喜歡，並且把這支影片分享給需要的朋友，最後別忘了訂閱泛科學院的頻道，我們下支影片再見囉。
+更多、更完整的內容，歡迎上泛科學院的 youtube 頻道觀看完整影片，並開啟訂閱獲得更多有趣的資訊！</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>影片太長沒時間看？學習、追星必備神器！長影片總結、外語影片翻譯快速搞定！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374735</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>「抱歉，我無法幫助提供關於特定 YouTube 視頻的摘要或重要觀點。」—— MaxAI
+「 Sider 無法總結沒有字幕的影片。」—— Sider
+「很抱歉，無法獲取您提供的 YouTube 影片的字幕資料，因為該影片已禁用字幕功能。請確認影片設置並開啟字幕，或者提供另一個可以分析的影片連結。」—— Video Summarizer
+不是啦，怎麼全翻車了啦，這些 YouTube 的總結工具全都是垃圾⋯⋯嗎？
+先別急著罵，你有看到上面寫著「沒有提供字幕，無法分析」嗎？
+常見的 Youtube 總結 AI，都是靠影片的字幕做分析，但如果影片沒有 CC 字幕，那這些 AI 就毫無用武之地了⋯⋯嗎？
+欸不是喔，比如這支 16 年的 Bass 教學，聰明的 MaxAI ，就用下方網友留下的 5000 多則留言，總結出影片在說什麼。
+這不是總結影片好嗎！我需要的是影片總結，不是總結網友討論！
+而且，最需要影片總結的，不就是那些沒字幕，又看不完的超長直播影片嗎？
+像是泛科學院隔周四中午 12:30 的直播，含金量極高，講得都是最新 AI 新聞，但你可能非常忙，一秒鐘幾十萬上下，連一小時都抽不出來看重播，這時候，就非常需要影片總結服務。
+那這些沒字幕的影片該怎麼辦？現在 AI 辨識語音也很厲害啦，就先語音辨識，再把這些辨識結果交給 ChatGPT 之類的 AI 做逐字稿分析不就好了嗎？
+接下來，我想要分享兩個我覺得好用且免費的語音轉文字的 AI ， Whisper JAX 跟 Memo AI。
+先來說說 whisper JAX，你可以直接 google 搜尋就能找到，不用註冊也不用費用，點進去就可以直接使用。
+如果你懶到連搜尋都不想按，可以直接點擊 whisper JAX 的連結。
+語音轉文字的 AI 有很多，像之前介紹的 Vocol AI 就是，Whisper JAX 除了免費且逐字稿品質不差，更重要的是 Whisper JAX 只要輸入 Youtube 影片連結，就能完成逐字稿啦！
+首先，點選上面的【Youtube】。
+在這邊輸入 Youtube 影片的連結。
+下面選擇【transcribe】，按下送出鍵。
+全都擠在一起是要怎麼看啦！別急著罵啊，這是錯誤示範，提醒大家在送出前，要把下面這個【Return timestamps】勾起來，才會跑出有時間序的分段內容。
+Whisper JAX 雖然有翻譯【translate】功能，但只能翻譯成英文，不過問題不大，只要有了逐字稿一切都好辦。
+覺得 Whisper JAX 還要把逐字稿貼到其他地方分析很麻煩，或是看英文影片，需要品質好的翻譯字幕嗎？
+別擔心，我跟你有同樣的想法，接下來介紹的 Memo AI，不只有 Whisper JAX 的所有功能，還可以串其他語言模型，讓你三個願望，一次完成。
+首先，到官網下載 Memo AI 。
+安裝完後打開 Memo AI，會看到鍵入金鑰的畫面。
+這時候就要到官網註冊，註冊後在這邊填入 email 送出，然後到你註冊的信箱收信，就會看到 Memo AI 寄了金鑰給你，複製金鑰輸入 Memo AI，就可以使用啦。
+進入 Memo AI 能看到上面有輸入 Youtube 連結的地方，輸入後點轉譯，就會看到設定畫面。
+這邊可以選擇原本檔案的語言，可以直接用自動偵測就好。
+品質的部分，免費版只能用極速跟均衡，只有購買 pro 版的才能用高品質，不過對一般人來說，均衡就已經很夠用了，而且，Memo AI 的模型是在本機電腦上運作，如果你的電腦不夠好，也跑不出來。
+最後，選擇是否用 GPU 加速，有的話可以選一下。好啦，現在按下轉寫，就會開始製作影片逐字稿了。
+完成逐字稿後，你可以在右上方選擇翻譯，這樣就會把整份逐字稿翻譯成你想要的語言了，翻譯的方式有免費的 google 翻譯，也可以自己串 API 用 ChatGPT 翻譯。
+而在主畫面下方，你會看到總結的按鈕。
+點下去會要你設定 API。
+這時候你就要登入 OpenAI 的官網，取得 API KEY 後複製到【翻譯設置】中的 OpenAI。
+左邊是輸入 API KEY 的欄位，右邊是輸入代理伺服器的位置，一般來說留空白就可以了。
+現在按下總結鍵，影片總結就完成啦！
+MemoAI 結合了 ChatGPT 之後，除了可以將影片內容做總結，他還能生成 AI 心智圖，看起來非常厲害對吧，好啦其實就是有結構的列點整理，對我來說，這比摘要還要容易閱讀。
+另外，Memo AI 還可以將字幕匯出，直接把英文字幕跟翻譯好的中文字幕同步顯示，這下子看 Youtube 還可以學外語，把滑手機看影片，一秒就變成富有教育意義的活動。
+現在，我們可以抬頭挺胸的看 YT 影片了。
+既然 Memo AI 這麼好用，誰還需要 Whisper JAX ？
+誰想得到 A 編居然還在用十年前的筆電，根本跑不動 Memo AI，而 Whisper JAX 就成了他唯一的選擇。
+如果這支影片對你有幫助的話，請幫我在影片下方點個喜歡，並且把這支影片分享給需要的朋友，最後別忘了訂閱泛科學院的頻道，我們下支影片再見囉。
+更多、更完整的內容，歡迎上泛科學院的 youtube 頻道觀看完整影片，並開啟訂閱獲得更多有趣的資訊！
+我覺得這個方法好像有點麻煩，但我會盡量試試看的！
+我覺得這個方法好像有點麻煩，但我會盡量試試看的！
+推一個我約過到現在還在配合的茶莊 詩涵茶莊賴：msk553  TG：@tt896w   選妃看照區https://t.me/tgdhwd 他們家的妹妹素質服務真的很好 最重要的是在他們家的妹妹都是臺灣本土短期兼職的 類型很多 而且是北中南都有在送的 真的很值得推薦
+推一個我約過到現在還在配合的茶莊 詩涵茶莊賴：msk553  TG：@tt896w   選妃看照區https://t.me/tgdhwd 他們家的妹妹素質服務真的很好 最重要的是在他們家的妹妹都是臺灣本土短期兼職的 類型很多 而且是北中南都有在送的 真的很值得推薦
+推一個我約過到現在還在配合的茶莊 詩涵茶莊賴：msk553  TG：@tt896w   選妃看照區https://t.me/tgdhwd 他們家的妹妹素質服務真的很好 最重要的是在他們家的妹妹都是臺灣本土短期兼職的 類型很多 而且是北中南都有在送的 真的很值得推薦
+推一個我約過到現在還在配合的茶莊 詩涵茶莊賴：msk553  TG：@tt896w   選妃看照區https://t.me/tgdhwd 他們家的妹妹素質服務真的很好 最重要的是在他們家的妹妹都是臺灣本土短期兼職的 類型很多 而且是北中南都有在送的 真的很值得推薦</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>社群行銷、小編福音！Canva AI 免費設計工具登場 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374515</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>知名的線上設計平台 Canva 開放了基於人工智慧設計工具 Magic Design 免費給大家試用，號稱 AI 可以幫你製作簡報投影片、社群行銷圖片、限時動態短片、傳單海報，甚至是 T-shirt 設計等等，一切都只需要一句話或一張圖就會自動完成，真的有那麼方便嗎？
+我們今天的影片就帶著大家來測試整個設計流程吧：
+首先我們要先將 Canva 的介面改成英文介面，取得測試的資格。使用 Gmail 帳號登入 Canva 之後，點選右上角的名字圖示，找到帳號設定，然後將語言改成 English (US)，接著點一下左上角的 Canva 圖示回到首頁之後，我們直接搜尋 Magic Design 這個關鍵字，如果你有看到 Try Magic Design 就可以用囉！
+接著我們點選右邊的 Insert Media 按鈕，再來選擇 Choose file，可以上傳你要製作的原始素材圖片。
+上傳之後系統會分析素材內容，提供七個不同的樣板供你選擇，就我自己的測試，會出現包括 Instagram  貼文配圖、影片、Pinterest 配圖、Facebook 封面圖、 Youtube 影片縮圖、賀卡、傳單、Facebook 貼文配圖、等等等。 
+但若生成的樣板沒有你需要的形式，可以點選左上方的 Category 選單，尋找你需要的圖片用途，比如我這邊挑選 Social Media 的 Instagram Post，就會只推薦正方形的 IG 貼文配圖格式，另外也可以點選右上方的 Style 下拉選單，變更設計的氛圍 Vibe 或配色風格 Style，好了之後點選 See Result 就可以看到不同的氛圍配色以及不同型態的結果囉。
+如果你有看到喜歡的設計，點選圖片之後再點選 Customize this template 進入編輯頁面，點兩下文字元件修改成適合的內容之後，點選右上角的 Share 按鈕，找到裡面的 Download，File Type 檔案格式預設是 PNG，確認沒問題就可以點選 Download 下載圖片囉。
+我自己試用下來，因為每次生成的樣板都不相同，每次點 See Result 都有一種開獎的感覺，我覺得非常適合給需要很多靈感的創意工作者，比如社群小編，或者產品企劃等等。
+今天要分享的第二招是將 Canva 與 ChatGPT 結合，來玩一套組合拳。
+逢年過節大家總是會製作賀卡或賀圖送人，比如我想來製作一張端午節的賀卡，但我不想要一張圖傳給一百個人，我要讓每一張圖片都有不一樣的端午賀辭，還打上對方的名字，這樣不就留下好印象了。
+首先，我們開啟 ChatGPT，
+請幫我生成 10 句不同的端午節賀辭，另外生成 10 個不同的人名，呈現的方式為帶編號的表格。
+GPT 會除了生成端午賀辭之外，也可以找適合的插圖，
+請推薦我幾張端午節的應景圖片， 顯示圖片請透過 markdown 語法 (https://source.unsplash.com/960×640/?&lt;關鍵詞&gt;)
+挑一張喜歡的圖，右鍵點選下載下來。
+接著我們回到 Canva，啟動 Magic Design，Insert Media，點選上傳剛剛下載的圖片。在 Category 選擇 Social Media 的 Facebook Post，挑選一個喜歡的，點開之後跟上一個範例一樣點選 Customize this template，進入編輯畫面之後首先調整一下賀卡的用語，比如我改成親愛的 xx 吾友，中間保留賀辭的空位，後面加上「泛科學院敬上」。
+好了之後，我們在左邊的功能選到找到 Apps 裡面的 Bulk Create 功能。這邊顯示這是需要專業版，你可以啟用試用 30 天，如果是學生或老師的話可以申請教育帳號，非營利組織工作者可以申請公益帳號，獲得專業版的功能。
+我換一帳號來做，我們點選 Enter Data Manually，將 ChatGPT 的端午賀辭貼上，人名當然你也要稍微調整一下，為了辨識方便，我把上面的標題改成 Name 跟 Words，好了之後點選 Done 按鈕。
+接著到人名的元件上點選右鍵，選擇 Connect to Name，主要的賀辭點右鍵，選擇 Connect to words，點選 Continue，確認合成，Generate，客製化的端午節貼圖就做好囉！
+Magic Design 還可以做簡報，在首頁開一個新的 Presentation，進入簡報畫面之後，右下角的星星圖示點開，選擇 Magic Design，只需要給他幾個關鍵字，他就可以快速製作幾張簡單的範本，比如我這邊輸入，端午節，划龍舟，粽子，龍舟，好了之後點選 Enter，只需要幾秒鐘，Canva 就會生成八頁左右的簡報可供使用，內容圖片與文字也是有一些基礎的描述，不過目前看起來有點可惜還只能顯示英文，不過我很期待這個功能後續的發展，或許可以跟 Gamma 或者 Power point 一拼。
+今天分享了 Canva 的 Magic Design 的 AI 設計樣式生成、ChatGPT 與 Canva 的文字合併技巧另外還稍微帶到簡報生成的功能，你覺得哪一個技巧對你最實用呢？
+請你在下面留言與我分享你的看法！
+如果這支影片對你有幫助的話，請幫我在影片下方點個喜歡，並且把這支影片分享給需要的朋友，最後別忘了訂閱泛科學院的頻道，我們下支影片再見囉。
+更多、更完整的內容，歡迎上泛科學院的 youtube 頻道觀看完整影片，並開啟訂閱獲得更多有趣的資訊！</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>OpenAI 新突破！為什麼 Sora 可以產出這麼流暢的動畫？你不可錯過的技術文件大解密！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374801</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>什麼？不需要拍攝團隊與剪輯師，一句話就可以生成短片？！
+OpenAI 近來發布的短影片生成器——Sora，能依據各種「咒語」生成難分真偽的流暢影片。
+是什麼技術讓它如此強大？讓我們來一探究竟吧！
+你被 Sora 了嗎？這幾天 Sora 佔據了各大版面，大家都在說 OpenAI 放大絕，不止 YouTuber，連好萊塢都要崩潰啊啊啊！
+但真有這麼神嗎？我認真看了下 Sora 的官方說明以及參考資料，發現這東西，還真的挺神的！這東西根本不是 AI 取代人或單一產業，而是 AI 變成人，根本是通用型人工智慧 AGI 發展的里程碑啊！
+別怕，要讓 Sora 為你所用，就先來搞懂到底是什麼神奇的訓練方法讓 Sora 變得那麼神，這就要從官網說明中唯一的斜體字——diffusion transformer 說起了。
+這集我們要來回答三個問題，第一，Sora 跟過去我們產圖的 Midjourney、Dall-E，有什麼不同？第二，Diffusion transformer 是啥？第三，為什麼 Diffusion transformer 可以做出這麼絲滑的動畫？
+最後，我想說說我的感想，為什麼我會覺得 Sora 很神，不只是取代坐在我旁邊的剪接師，而是 AI 變人的里程碑。
+我們已經很習慣用 Midjourney、Dall-E 這些 Diffusion 模型產圖了，從 logo 到寫真集都能代勞，他的原理我們在泛科學的這裡，有深入的解說，簡單來說就像是逐格放大後，補上圖面細節的過程。不過如果你要讓 Diffusion 產影片，那後果往往是慘不忍睹，就像這個威爾史密斯吃麵的影片，每一格影格的連續性不見得相符，看起來就超級惡趣味。
+要影格連續性看來合理……咦？像是 GPT-4 這種 tranformer 模型，不是就很擅長文字接龍，找關聯性嗎？要是讓 transformer 模型來監督 Diffusion 做影片，撒尿蝦加上牛丸，一切不就迎刃而解了嗎？
+沒錯，OpenAI 也是這樣想的，因此才把 Sora 模型稱為「Diffusion transformer」，還在網站上用斜體字特別標示起來。
+但說是這樣說啦，但 transformer 就只會讀文本，做文字接龍，看不懂影片啊，看不懂是要怎麼給建議？於是，一個能讓 transformer 看懂圖片的方式——patch 就誕生啦！
+ChatGPT 理解內容的最小單位是 token，token 類似單詞的文字語意，ChatGPT 用 token 玩文字接龍，產生有連續性且有意義句子和文章。
+那 Patch 呢？其實就是圖片版的 token，讓 ChatGPT 可以用圖片玩接龍，玩出有連貫性的圖片。
+Sora 官方提供的訓練說明圖上，最後所形成的那些方塊就是 patch，這些 patch 是包含時間在內的 4D 立體拼圖，可以針對畫面與時間的連續性進行計算。
+那這個 patch 要怎麼做呢？以 Sora 提供的參考文獻 15 來說明會比較容易懂，patch 是將影像切成一樣等大的區塊後，進行編碼、壓縮，產生類似 ChatGPT 能分析的文字語意 token。
+有了這些 patch 後，Transformer 就可以計算 patch 之間的關聯性形成序列，例如論文中被分割在中上與右上的兩塊藍天，就會被分類在天空，之後算圖的時候，就會知道這兩塊 patch 是一組的，必須一起算才行。
+也就是說，畫面上的這塊天空已經被鎖定，必須一起動。
+雖然這篇論文只提圖片，但影片的處理只要再加上 patch 間的先後順序，這樣就能讓 transformer 理解隨時間改變的演化。
+同樣是上面被鎖定的天空，多了先後順序，就相當於是增加了前一個影格與後一個影格限制條件，讓這塊天空在畫面中移動時，被限縮在一定範圍內，運動軌跡看起來更加合理。
+而他的成果，就是在 Sora 官網上看到的驚人影片，那種絲滑的高畫質、毫無遲滯且高度合理、具有空間與時間一致性的動作與運鏡，甚至可以輕易合成跟分割影片。
+不過啊，能把 Sora 模型訓練到這個程度，依舊是符合 OpenAI 大力出奇跡的硬道理，肯定是用了非常驚人的訓練量，要是我是 Runway 或 Pika 這兩家小公司的人，現在應該還在咬著牙流著血淚吧。別哭，我相信很多人還是想要看威爾史密斯繼續吃義大利麵的。
+在訓練過程中，Sora 從提取影像特徵，到形成有意義的 patch，到最後串聯成序列，如果你接觸過認知心理學，你會發現這其過程就跟認知心理學描述人類處理訊息的過程如出一轍。都是擷取特徵、幫特徵編碼形成意義、最後組合長期記憶形成序列，可以說 Sora 已經接近複製人類認知過程的程度。
+這邊是我的推測，影片中那些逼真的物理效果，不是有特定的物理模型或遊戲引擎在輔助，而是在 patch 的訓練與序列推理中，就讓 Sora 理解到要讓物體這樣動，看起來才會是真實的，這跟 GPT-4 並不需要文法引擎是一樣的，只要玩文字接龍，就能生成流暢又有邏輯的文字跟代碼。但這也是為什麼，GPT 依舊很會胡說八道，產生幻覺。如果不是這樣，我很難想像 Sora 會算出這種影片。
+Sora 能理解並產生人類眼睛能接收的視覺影片，同樣的技術若能做出聽覺、觸覺等其他人類感官，這樣我們被 AI 豢養的時刻是不是就越來越近了呢？
+後 Sora 時代到底會發生什麼事，老實講我不知道，上面提到的 diffusion transformer 或 patch，都是近一年，甚至是幾個月前才有研究成果的東西。
+臉書母公司 Meta 的首席人工智慧科學家 Yann Lecun 也在他自己的臉書公開抨擊 Sora 這種基於像素預測的技術註定失敗，但這篇感覺比較像是對自己的老闆 Zuckerberg 喊話：「欸這沒戲，不要叫我學 Sora，拿寶貴的運算資源去搞你的元宇宙。」是說今年初就有新聞說祖老闆 2024 年預計買超過 35 萬顆 H100 處理器，這明顯就是要搞一波大的吧，這就是我想要的血流成河。
+而且，從去年 ChatGPT 出來開始，我感覺就已經不是討論 AI 會怎麼發展，而是要接受 AI 必定會發展得越來越快，我們要怎麼面對 AI 帶來的機會與衝擊。
+我們去年成立泛科學院，就是希望跟大家一起，透過簡單易懂的教學影片，把對 AI 的陌生跟恐慌，變成好奇與駕馭自如。Sora 或類似的模型應該可以協助我把這件事做得更好，可惜的的是目前 OpenAI 僅開放 Sora 給內部的 AI 安全團隊評估工具可能帶來的危害與風險，另外就是與少數外部特定的藝術家、設計師跟電影製片人確保模型用於創意專業領域的實際應用，若有新消息，我會再即時更新。
+最後也想問問你，若能用上 Sora，你最想拿來幹嘛呢？歡迎留言跟我們分享。喜歡這支影片的話，也別忘了按讚、訂閱，加入會員，下集再見～掰！
+更多、更完整的內容，歡迎上泛科學院的 youtube 頻道觀看完整影片，並開啟訂閱獲得更多有趣的資訊！</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>預算不足、沒有設計底子怎麼辦？手把手教你快速製作品牌 Logo！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374517</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>如果你跟我一樣是完全不懂設計的設計苦手，今天這支影片我要來與你分享怎麼用 AI 服務來製作專業感十足的 Logo 商標。
+在今天的影片，我將與你分享各種 Logo 製作的提示技巧，另外搭配 Canva 來修正文字顯示的問題。這樣你就可以獲得有正確文字的 Logo 囉。
+讓我們開始吧！
+前陣子的影片我們有分享 Deepfloyd IF 模型在處理文字顯示上面有出色的效果，但市場上成熟的商品可能還是 Midjourney 略勝一籌，如果你對於 Deepfloyd IF 的操作感興趣，歡迎在影片下方留言，如果想看的朋友很多，我們就來製作一集專門分享 DeepFloyd IF 模型的教學。
+如果你還沒有註冊 Midjourney 的帳號，可以先到官網進行註冊，接著透過 Discord 平台進行登入。進到 Midjourney 伺服器的時候，一開始大家都會在官方提供的頻道進行算圖，但問題是大家的訊息都會混在一起，很難找自己的圖片。
+為避免混淆、找不到，也可以將 Midjourney 的機器人加到一個自己開的頻道。比如我這邊有自己開一個 AJ 的 Discord 頻道，你可以點選新增一個伺服器，建立自己的，選取我和我的好友，輸入伺服器名稱後點選建立。
+接著來到 Midjourney 的伺服器，找到 Midjourney 機器人的帳號，左鍵點選新增至伺服器（新增應用程式），選擇剛剛新建的伺服器，點選繼續，然後點選授權。
+然後回到你自己的伺服器，你可以建立一個新的頻道，這樣就可以透過不同的頻道來去分類管理你的創作。
+一開始會建議輸入 /Setting 確認相關的設定是你想要的狀態，比如這邊我們選擇使用 Midjourney 5.1，然後要把 Remix 功能打開，接著輸入 /imagine 就可以開始算圖囉。
+我們在製作 Logo 的時候提示語要先告訴 Midjourney 要設計一個 Logo，主題是咖啡店叫做 Pansci Coffee，然後希望是白色的背景。 
+a logo design for a coffee company called “Pansci Coffee”, white background.
+我們可以看到他製作了四個 Logo 的參考，其中出現 PPANSST、PPACHICT 等等的文字，一如預期的出現文字顯示問題。  在接下來的影片我會分享一些小技巧來修正這個問題，不過你可以先製作多一點不同的設計來挑選。比如我們可以加入一些常見的 Logo 製作提示優化關鍵字，比如 Minimal、Vector、Sample 或者 Flat 等等。
+比如我們修正一下提示語來重新生成幾張參考圖：
+a minimal vector logo design for a coffee company called “Pansci Coffee”, white background.
+接下來我們選幾張喜歡的圖片，來請他製作高解析度的圖片以便之後的編輯。生成單獨圖片 Upscale 的順序 U1、U2、U3、U4 依序代表了左上，右上，左下，右下的圖片，點選喜歡的單圖。
+另外分享幾個有趣的風格提示，比如日式風格 Japanese Style、漸變特效 Gradients，或者你可以直接用 in style of 加上知名的標誌設計師，比如請他製作一個漸變特效的三角形 Logo：
+a triangle gradient logo for a coffee company called” Pansci Coffee”, green and blue, futuristic, vector, white background
+我們也可以請 Midjourney 針對這張圖進行延伸的設計變化 Variation，可以看到類似的設計，但其中的細節產生了一些小的變化。
+再來我們試試看請 Midjourney 參考知名的設計師風格，比如 Paul Rand 或者是 Saul Bass。
+Midjourney 雖然說不擅長處理單字，但請他製作一個字母的 Logo 是有機會成功的，比如
+The letter “P” logo, serif, vector art, white background.
+如果你的 Logo 只有一個字母，這是一個簡單的處理方案。 
+另外你也可以請 Midjourney 幫你製作公司的吉祥物，比如我們輸入
+a cute mascot for a coffee shop, simple, vector art, flat design
+接著我們來處理文字顯示的問題。
+操作秘訣就是，將喜歡的 Logo 匯入 Canva 之後，從 Canva 提供的大量英文字體中挑選一個類似的進行覆蓋取代。我們打開 Canva，點選建立設計，自訂尺寸，新建一個 1000*1000 像素的空白圖片，接著直接將我們的 Logo 拖曳進去編輯區把他拉伸到滿版。
+如果你是付費版或者教育版的 Canva 用戶，可以使用內建的背景移除工具來去背。
+接著我們要把原本的文字蓋起來，點選「元素」功能，新增一個空白的正方形，調整尺寸並且複製把原本的文字蓋起來。
+接著我們到左邊選單點選「文字」功能，新增一個標題元件，點選上方的文字顏色按鈕，在照片顏色的分類中 Canva 已經把 Logo 內有的顏色預先提取完成，我們把標題調整成跟文字相同的顏色，點選上方選單的「效果」按鈕，在效果選單中點選「彎曲」，將文字的形狀改成彎曲，調整一下尺寸，對齊置中。
+最後點選右上角的分享選擇下載，可以直接下載白色背景的 JPG 圖片，如果要透明背景，需要下載 PNG 圖片，但透明背景屬於 Canva 專業版的功能，你可以啟用免費的 14 天試用，或者使用學生信箱申請教育帳號，非營利組織的工作者可以申請 Canva For Nonprofit 獲得專業版功能。
+但是，你下載的圖片或許還會包含一些色塊，沒有成功去背，我這邊再分享最後一個技巧。
+我們可以直接把下載的 JPG 檔案上傳到 remove.bg 這個基於 AI 的去背網站。
+點選 UpLoad Image 上傳，去背後再點選 Download 下載最終檔案，完美的透明背景 Logo 就做好囉。
+今天簡單的分享了幾個我自己使用 Midjourney 生成 Logo 的心得，搭配 Canva 的圖片後製技巧，完成屬於你的 Logo 設計檔案。
+看完之後，你對於 Midjourney 有什麼使用的想法呢？對於圖片的生成製作流程有什麼想要學習的技巧呢？歡迎在影片下方留下你的看法～
+如果這支影片對你有幫助的話，請幫我在影片下方點個喜歡，並且把這支影片分享給需要的朋友，最後別忘了訂閱泛科學院的頻道，我們下支影片再見囉。
+更多、更完整的內容，歡迎上泛科學院的 youtube 頻道觀看完整影片，並開啟訂閱獲得更多有趣的資訊！</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>GPT4 真的有變笨嗎？怎麼讓它聽懂我的話？一起成為頂級 AI 咒語詠唱師！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374502</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>GPT store 已經開放使用，我們還在測試有什麼好用的 GPTs，等我們測試完畢再跟大家介紹。
+不過今天，我們想來測試另一個有點搞笑的新聞，就是：「GPT4 變笨了」。如果是真的，那 GPTs 的能力會需要重新評估，畢竟 GPTs 只是省去了你催眠 GPT4 的時間，並不會提升 GPT4 的能力阿。
+最後，到底該不該為了 GPT store 訂閱 GPT+ 或 GPT teams 呢？
+先說，我還是會訂閱，雖然 GPT4 變得懶惰，但 GPTs 能省去大量的對話時間，且目前是有方法把 GPTs 背後的 prompt 偷出來，如果用了好用，還可以改成更適合的版本，這波訂閱不虧。
+如果這支影片對你有幫助的話，請幫我在影片下方點個喜歡，並且把這支影片分享給需要的朋友，最後別忘了訂閱泛科學院的頻道，我們下支影片再見囉。
+更多、更完整的內容，歡迎上泛科學院的 youtube 頻道觀看完整影片，並開啟訂閱獲得更多有趣的資訊！</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>左看右看 貓頭鷹、寶石竟是斑馬魚 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375199</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>本文轉載自顯微觀點
+乍看以為是寶石結晶的斑馬魚肌纖維、如竹林屏風般的斑馬魚尾鰭，到似貓頭鷹的斑馬魚鏡像圖以及充滿生命力大樹般的斑馬魚神經樹突，每一幅影像都以斑馬魚為題，卻拍出不同的趣味。
+本次 Taiwan 顯微攝影競賽八名優選獎中，就有四位得獎者是中研院細胞與個體生物學研究所陳振輝老師的學生。這些拍出技術與美感兼具作品的研究者，分別為 Uday Kumar、Marco De Leon、陳樂融和劉昱秀。
+其中， 來自印度的 Uday Kumar 參加第一屆顯微攝影競賽至今，年年獲獎，更榮獲首屆金獎。而他的同儕，來自菲律賓的 Marco De Leon 也因受到他的啟發參賽，於今年獲得優選。
+陳振輝老師實驗室主要以斑馬魚為樣本進行再生研究。他的學生們各自探索斑馬魚的不同組織或器官；有人專精於研究心臟、有人專門研究神經，有人則專門研究肌肉纖維。
+Uday Kumar 表示，由於每個人研究的方向不同，因此必須從基因工程到成長過程，各自「顧好」自己的斑馬魚。
+這些攸關研究進度與實驗設計的斑馬魚，養殖在細生所地下室的魚房。數十個排列整齊畫一的魚缸，裡頭有著各式大小、不同生長階段和品系的斑馬魚。
+為了能夠取卵進行基因轉殖，從養殖器皿到時間都必須加以控制。Uday Kumar 表示，除了一般魚缸外，養殖斑馬魚會再裝置一個多孔的產卵盒。晚上將公魚和母魚用隔板隔開，並保持環境黑暗，避免交配產卵。
+等到隔天上午將隔板拿掉，讓公魚、母魚相會，並利用光周期誘發產卵、受精後，必須將特製的產卵盒斜置，好讓受精卵下沉到魚缸底部。如此一來，也可避免斑馬魚將受精卵吃掉。
+陳振輝老師實驗室專注於「多顏色細胞標誌技術」（Brainbow/Skinbow）。利用基因重組的方式，將紅、藍、綠三種不同色的螢光蛋白在個別細胞裡表現不同數量，依不同比例產生更多顏色來標誌不同細胞。
+Uday Kumar 表示，要將目標基因注入細胞內，需要使用顯微注射技術，在立體顯微鏡下將注射管準確地插入受精卵中。
+不過這對他來說，顯微注射已經是一件熟練到「像騎腳踏車」般簡單的事，一天注射超過 500 顆受精卵都沒問題。
+雖然基因轉殖對這些研究者來說已是熟能生巧的事，但要建立新的基因轉殖魚仍然要花上漫長的時間，通常需要 6 個月到一年，品系才會逐漸穩定。以 Uday Kumar 於 2021 年獲得金獎的作品來說，就是花了兩年才培育出能以正確比例呈現美麗色彩的斑馬魚。
+顯微攝影的每一幅作品除了呈現出精彩美麗的影像外，背後更蘊含著每一位研究者精湛的技術以及長久累積的研究心血。
+斑馬魚（Danio rerio）是常見的模式生物之一，原分布於孟加拉、印度、巴基斯坦、緬甸、尼泊爾等南亞淡水流域。其體長約 3 至 4 公分，雄魚體修長且背部呈淺橄欖黃色，雌魚體渾圓腹部較彭大；適合生長溫度為 23 至 28℃。
+斑馬魚胚胎透明、發育期間短，容易觀察；且屬於脊椎動物，與人類有相似器官如心血管、神經等，加上基因組序列已解開，基因轉殖容易，種種優點使得牠成為非常適合作為遺傳研究及藥物篩選的脊椎動物模式。</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>找回擁有食物的主導權？從零開始「菇類採集」！——《真菌大未來》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374570</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>在新冠肺炎（COVID-19）大流行後，馬斯洛「需求層次理論」裡的食品與安全在眾目睽睽下被抽離出來，變成後疫情時代最重要的兩個元素。對食物的焦慮點燃人們大腦中所有生存意志，於是大家開始恐慌性地購買，讓原本就已經脆弱、易受攻擊的現代糧食系統更岌岌可危。
+值得慶幸的是，我們的祖先以前就經歷過這一切，留下來的經驗值得借鏡。菇類採集的興趣在艱難時期達到顛峰，這反映了人類本能上對未來產生的恐懼。1 無論是否有意，我們意識到需要找回擁有食物的主導權，循著古老能力的引導來找尋、準備我們自己的食物，如此才能應付食物短缺所產生的焦慮。
+我們看見越來越多人以城市採集者的身分對野生菇類有了新的品味，進而找到安全感並與大自然建立起連結。這並不是說菇類採集將成為主要的生存方式，而是找回重新獲得自給自足能力的安全感。此外，菇類採集的快感就足以讓任何人不斷回歸嘗試。
+在這個數位時代，菇類採集是讓我們能與自然重新連結的獨特活動。我們早已遺忘，身體和本能，就是遺傳自世世代代與自然和諧相處的菇類採集者。走出現代牢籠、進入大自然從而獲得的心理和心靈滋養不容小不容小覷。森林和其他自然空間提醒著我們，這裡還存在另一個宇宙，且和那些由金錢、商業、政治與媒體統治的宇宙同樣重要（或更重要）。
+只有願意撥開遮蓋的落葉並專注尋找，才能體認到菇類的多樣性和廣泛分布。一趟森林之旅能讓人與廣大的生態系統重新建立連結，另一方面也提醒我們，自己永遠屬於生命之網的一部分，從未被排除在外。
+腐爛的樹幹不再讓人看了難受，而是一個充滿機遇的地方：多孔菌（Bracket Fungi）──這個外觀看起來像貨架的木材分解者，就在腐爛的樹幹上茁壯成長，規模雖小卻很常見。此外，枯葉中、倒下的樹上、草地裡或牛糞上，也都是菇類生長的地方。
+菇類採集是一種社會的「反學習」（遺忘先前所學）。你不是被動地吸收資訊，而是主動且專注地在森林的每個角落尋找真菌。不過度採集、只拿自身所需，把剩下的留給別人。你不再感覺遲鈍，而是磨練出注意的技巧，只注意菇類、泥土的香氣，以及醒目的形狀、質地和顏色。
+菇類採集喚醒身體的感官感受，讓心靈與身體重新建立連結。這是一種可以從中瞭解自然世界的感人冥想，每次的發現都振奮人心，運氣好的話還可以帶一些免費、美味又營養的食物回家。祝您採集愉快。
+菇類採集就像在生活中摸索一樣，很難照既定計畫執行，而且以前的經歷完全派不上用場。最好的方法就是放棄「非採集到什麼不可」的念頭，持開放心態走出戶外執行這項工作。菇類採集不僅是享受找到菇的滿足感，更重要的是體驗走過鬆脆的樹葉、聞著森林潮濕的有機氣味，並與手持手杖和柳條筐的友善採菇人相遇的過程。
+你很快就會明白為什麼真菌會有「神秘的生物界」的稱號。真菌無所不在但又難以捉摸，採集過程幾乎就像玩捉迷藏，只不過你根本不確定自己在找什麼，甚至根本不知道要找的東西是否存在。但還是要有信心，只要循著樹木走、翻動一下原木、看看有落葉的地方，這個過程就會為你指路。一點點的計畫，將大大增加你獲得健康收益的機會。所以，讓我們開始吧。
+林地和草原，是你將開始探索的兩個主要所在。林地底層提供真菌所需的有機物質，也為樹木提供菌根關係。橡樹、松樹、山毛櫸和白樺樹都是長期的菌根夥伴，所以循著樹種，就離找到目標菇類更近了。
+草原上也會有大量菇類，但由於這裡的樹木多樣性和環境條件不足，所以菇類種類會比林地少許多。如果這些地點選項對你來說都太遠了，那麼可以試著在自家花園或在地公園綠地當中尋找看看。這些也都是尋菇的好地方。
+澳洲可以說是真菌天堂。與其他大陸隔絕的歷史、不斷變化的氣候以及營養豐富的森林，讓澳洲真菌擁有廣大的多樣性。澳洲新南威爾斯州（New South Wales）的奧伯倫（Oberon）就有一座超過四萬公頃的松樹林，是採集菇類的最佳地點之一。
+在那裡，有廣受歡迎的可食用菌松乳菇（又稱紅松菌），據說這種真菌的菌絲體附著在一棵歐洲進口樹的根部，而意外被引進澳洲。 1821 年，英國真菌學家塞繆爾・弗里德里克・格雷（Samuel Frederick Gray）將這種胡蘿蔔色的菇命名為美味乳菇（Lactarius deliciosus），這的確名符其實，因為「Deliciosus」在拉丁語中意為「美味」。如果想要在奧伯倫找到這些菇類，秋天時就要開始計劃，在隔年二月下旬至五月的產季到訪。
+在英國，漢普郡的新森林國家公園（Hampshire’s New Forest）距離倫敦有九十分鐘的火車車程。它由林地和草原組成，當中有種類繁多的植物群、動物群和真菌可供遊客觀賞，甚至還有野生馬匹在園區裡四處遊蕩。
+這片森林擁有兩千五百多種真菌，其中包括會散發惡臭的臭角菌（Phallus impudicus），它的外觀和結構就如圖鑑中描述般，與男性生殖器相似且不常見。還有喜好生長於橡樹上，外觀像架子一樣層層堆疊的硫色絢孔菌（Laetiporus sulphureus ，又稱林中雞）。該國家公園不允許遊客採收這裡的菇，所以請把時間花在搜尋、鑑別與欣賞真菌上。如果幸運的話，該地區可能會有採集團體可以加入，但能做的也僅限於採集圖像鑑別菇類，而非採集食用。
+甚至紐約市的中央公園也有採集菇類的可能性。雖然在 1850 年代公園建造之時並未刻意引進菇類物種，但這個占地八百四十英畝的公園現已登錄了四百多種菇類，足以證明真菌孢子的影響之深遠。
+加里・林科夫（Gary Lincoff）是一位自學成才、被稱作「菇類吹笛人」2 的真菌學家，他住在中央公園附近，並以紐約真菌學會的名義會定期舉辦菇類採集活動。林科夫是該學會的早期成員之一，該學會於 1962 年由前衛作曲家約翰・凱吉（John Cage）重新恢復運作。凱吉也是一位自學成才的業餘真菌學家，並靠自己的能力成為專家。
+進行菇類採集時，找瞭解特定物種及其棲息地的在地專家結伴同行，總是有幫助的。如果你需要一個採集嚮導，求助於所在地的真菌學會會是一個正確方向。
+在適當的環境條件下（例如溫度、光照、濕度和二氧化碳濃度），菌絲體全年皆可生長。某些物種對環境條件較敏感，但平均理想溫度介於 15~24 ℃ 之間，通常是正要進入冬季或冬季剛過期間，因此秋季和春季會是為採集菇類作計畫的好季節。
+當菌絲體從周圍吸收水分時，會產生一股破裂性的力量，讓細胞充滿水分並開始出菇。這就是菇類通常會出現在雨後和一年中最潮濕月份的原因。牢記這些條件，就可以引導你找到寶藏。但也要記得，因為菇類受溫度變化模式和降雨量的影響很大，所以每年採菇的旺季時間會略有不同。
+——本文摘自《真菌大未來：不斷改變世界樣貌的全能生物，從食品、醫藥、建築、環保到迷幻》，2023 年 12 月，積木文化出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>素肉怎麼做？讓菌絲體開啟素食新境界！——《真菌大未來》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374549</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>人類應用發酵已有很長一段歷史，也產生許多令人驚訝的結果，其中一個令人愉快的意外之作就是天貝（tempeh）。天貝是 1800 年代初起源於印尼的一種素食主食 1。歷史學家經考究認為，天貝是無意間產生的食物，很可能是在試圖將大豆隔夜保存免受熱影響時被發現的。2
+在保存大豆的過程中，少孢根黴菌（Rhizopus oligosporus）的孢子落到大豆上，引起發酵過程並形成天貝的緻密餅狀物。少孢根黴菌將大豆或其豆類基質結合在一起，形成 100 % 可食用又富含蛋白質、礦物質和維他命的網狀棉質菌絲體。
+諾馬餐廳（Noma）前發酵負責人大衛・齊爾伯（David Zilber）將天貝帶往新的境界。素食運動的推動，讓世界各地的廚師都在嘗試使用肉類替代品來複製漢堡中的牛肉餅。齊爾伯開發出一種由藜麥製成的天貝，作法是將藜麥穀物接種菌絲體，並在露天下發酵以降低水分含量，只留下足以在烹飪時保持多汁的水分，最後在天貝上塗抹一層諾馬餐廳以真菌發酵自製的酵母魚醬和蠶豆醬油，就大功告成了。
+這款漢堡被品評專家譽為「最佳素食漢堡」。齊爾伯對此評論：「三種真菌和一種穀物，證明也許只要掌握一點技巧，好的烹飪就可以幫助拯救和養活一個需要療癒的世界」。3
+是什麼讓天貝富含營養？又為什麼，它會成為一種神奇的食物？天貝不僅含有飲食中的一些基本成分，也就是蛋白質、碳水化合物和來自大豆的脂肪，其中的菌絲體，更提供類似於菇類的益處：富含全部九種人體無法合成的必需氨基酸、纖維、維他命和礦物質，熱量低且不含膽固醇。天貝的例子讓我們瞭解到，不僅菇類可以吃，菌絲也是可以吃的。最棒的是，一些真菌菌絲體與肉的質地非常相似，成為素食饕客餐盤裡的熱門選擇。
+溫斯頓・丘吉爾（Winston Churchill） 1931 年發表的文章〈五十年後〉（Fifty Years Hence）裡，他預測「將發展出新的微生物菌株，並為我們量產化學物」，並總結道「當然，未來也將會使用合成食品」。4 現在看來，丘吉爾的說法完全正確。
+ 1985 年，馬洛食品（Marlow Foods）推出闊恩素肉（quorn），這是一種以真菌菌絲體製成的素食派餅產品系列，品牌名稱為「真菌蛋白」（Mycoprotein）。「真菌蛋白」的商業成功歸功於鑲片鐮孢菌（Fusarium venenatum），其能迅速將澱粉轉化為高含量的蛋白質。
+該公司對這種生產工藝的專利已在 2010 年過期，所以其他有興趣的廠商可以進入生產真菌蛋白的領域了。然而，如今闊恩素肉在超市中仍隨處可見，且提供越來越多的無動物肉類和大豆成分所製造的禽肉、牛肉和魚肉。
+艾本・拜耳（Eben Bayer）和蓋文・金泰爾（Gavin McIntyre）於 2007 年創立生態創新生物技術公司（Ecovative），正利用真菌製造用於包裝、紡織品和肉類替代品的菌絲體材料。他們最新的獨創觀念是「最終食品」（atlast food），也就是控制溫度、氣流、二氧化碳供應和濕度，藉以促使菌絲體的纖維組織長成各種形狀的合成肉。這個複雜過程也是一種發酵形式，使菌絲體在十天內就能形成具有不同質地、強度和纖維的成分，口感類似於動物肉。
+菌絲體肉的開發，是希望能減輕畜牧業對地球造成的負擔。「最終食品」的生產設施由垂直農業基礎設施組成，與傳統肉類生產相比，土地需求少了十倍、產生的二氧化碳也降低許多。「最終食品」的第一個產品「菌絲體培根」，其用水量就比傳統豬肉生產少了一百倍。
+生物技術的進步使該工業能找到可行的解決方案，為未來創造永續的食物來源。如果可以使用更少的資源，且對自然造成更少的傷害來人工種植食物，就不必再從大自然中做擷取。當時拜耳對所有等待菌絲體肉的人們說，希望三年內就能實現全球供應。5 菌絲體革命即將到來。
+維他命 D 對於保持骨骼、牙齒和肌肉健康來說相當重要。《澳洲醫學雜誌》（The Medical Journal of Australia）建議，如果無法曬太陽，那每天至少要補充 400 IU6 的維他命 D。對於照射陽光不足的人來說，菇類是唯一天然、非動物性的維他命 D 來源。只要將菇類暴露在陽光下就可以產生維他命 D 7，這是在家裡就可以辦到的工作。
+把菇類放在窗臺上讓菌褶朝向陽光，放置 15 分鐘後再烹調，這樣的簡單步驟即可將菇類變成維他命 D 的絕佳來源。僅 84 公克新鮮、暴露於紫外線的洋菇，就含有超過 600 IU 的維他命 D，且與維他命 D 營養補充品一樣容易被身體吸收。8
+——本文摘自《真菌大未來：不斷改變世界樣貌的全能生物，從食品、醫藥、建築、環保到迷幻》，2023 年 12 月，積木文化出版，未經同意請勿轉載。
+因為人類幾丁質酶雖然有在胃表達，但是並非集中在分泌消化液的相關? 那究竟，類似WHO把有完整細胞壁的蔬果中的糖列為非添加糖，果汁果泥果糊列為自由糖，通常分子量又比葡萄糖更大的維生素跟蛋白質，被幾丁質細胞壁影響釋出的狀況，應該會比被纖維素半纖維素木質素細胞壁封鎖住的，更嚴重? 因為可能本來內部成分就更難出去，外面的酵素也更難進來?
+因為人類幾丁質酶雖然有在胃表達，但是並非集中在分泌消化液的相關? 那究竟，類似WHO把有完整細胞壁的蔬果中的糖列為非添加糖，果汁果泥果糊列為自由糖，通常分子量又比葡萄糖更大的維生素跟蛋白質，被幾丁質細胞壁影響釋出的狀況，應該會比被纖維素半纖維素木質素細胞壁封鎖住的，更嚴重? 因為可能本來內部成分就更難出去，外面的酵素也更難進來?</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>每次呼吸都會吸入十個孢子？一朵菇如何形成？無所不在的真菌生命循環！——《真菌大未來》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374477</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>孢子是真菌生命週期的開始，也是結束。這些單細胞單元裡，包含著新真菌個體的繁衍密碼。面對無數微生物競爭者和惡劣的環境條件，孢子萌芽的機率極低，因此真菌釋放出數萬億個孢子來提高生存機會。孢子維持在一個暫停於生死之間的狀態，密切留意周遭世界並尋找適合落腳的地方。孢子很微小，無處不在，所以根本無法躲避它們，以我們自己而言，每次的呼吸都會吸入十個孢子。
+被稱為「胚種假說」（Panspermia）的生命起源論甚至認為：生命的藍圖被包裹在一顆孢子當中，並在太空中旅行，在宇宙中尋找適合落腳的家園。儘管對此假說爭論不休，但我們確實知道孢子可以耐受極端溫度、抗輻射，甚至可以在真空狀態的太空中存活。 1988 年，和平號空間站（mir）的俄羅斯太空人就注意到，他們的鈦石英窗外有「東西」在生長，而且正在漸漸「啃穿」鈦石英。後來證實，這個「東西」就是一種真菌。1
+就像植物一樣，大多數真菌也都採用「紮根在土壤當中」這種耗時的繁殖方式：它們利用菌絲體生長，或透過孢子飄散到新的棲息地。在渴望繁衍其 DNA 的動力下，有些真菌採取巧妙的策略，確保其孢子在新環境中得以繁殖。
+擁有誘人香氣的美食佳餚黑松露（Tuber melanosporum）就是一個很好的例子。這種跟黃金一樣珍貴的真菌生長在地底下，隨著孢子成熟，其所散發出的香氣會吸引動物、松露獵人和來自世界各地的美食家。松露的孢子不易被消化，所以最終會安全通過有幸一飽口福者的消化道；在理想狀況下，孢子應已遠離原來被採集到松露的位置。
+在地面上，圓形的巨型馬勃（Calvatia gigantea）子實體保護著數以百萬在內部熟成的孢子。有趣的是，只要戳一下成熟的馬勃，它就會噴出一股煙霧狀的孢子粉，讓風帶走飄散的孢子。
+生長在糞便之中的水玉黴菌屬（Pilobolus）真菌，藉由分泌水分充滿泡囊增加壓力，最後像水槍一樣排射出泡囊頂部的孢子囊。有研究經計算發現，孢子囊能以至少 20,000 g （重力）的速率被噴射出去。相較之下，訓練有素的美國國家航空暨太空總署（NASA）太空人在太空船中穿著抗重力服（G-Suit）所承受的重力是 3 g ，而子彈是以 9,000 g 的加速度行進的。
+還有能在黑暗中發光的真菌，光線會吸引昆蟲將它們的孢子散布到森林底層。例如，加德納臍菇（Neonothopanus gardneri，俗稱椰子花）就受到晝夜節律的調節，在夜間會發出明亮的光。 2所有這些演化而來的調整，都是為了確保繁殖能夠延續。
+當孢子落在一個溫度適中、靠近食物和水的地方時，它就會萌芽。孢子經由細胞壁吸收水分，並長出一種稱為菌絲的線狀管。當菌絲在營養基質上生長，就會分支出更多菌絲並形成一條細線。原本的菌絲繼續利用可能是木頭、昆蟲或土壤的基質，由尖端處長出更多菌絲。菌絲間開始融合相連，形成一個相互連接、被稱為菌絲體的物質。
+每條菌絲的生長都結合了物理力量和化學策略。菌絲會分泌出作用相當於強力消化酸的酵素來分解物質。這個分泌酵素的作用，讓真菌能穿透最堅硬的基質：先將營養物質萃取出來，再經由菌絲體吸收。就像我們唾液中的酵素一樣，很快就可以將口中的麵包變成濕糊狀。
+菌絲體如同漣漪一般，從孢子萌芽之處輻射向外生長。附近有營養物質出現時，菌絲體就會以圓形的方式使其表面積最大化，朝營養來源方向生長。當一個區域的食物來源耗盡，菌絲體中心處的舊菌絲就會被自己消化掉。殘存在被消化舊菌絲當中的可用資源，則會被重新傳送到菌絲體最外圈，供生長正旺盛的菌絲所用。
+最後，菌絲體會長成一個廣大的空心環，也就是有時我們在草地上看見的「仙女環」。隨著資源被重新傳送到菌絲體生長的外緣，中心會逐漸消失，環的周長則逐漸增加。只要有養分和水，菌絲體就可以持續以這種方式不斷地生長下去。
+在此階段，除了酵母菌以外的真菌就能由菌絲形成孢子，進行無性生殖。黴菌、銹病和粉狀黴菌等微型真菌總是以這種方式繁殖，例如麵包上所見的黴菌黑點就含有超過五萬個孢子。
+然而，屬於單細胞微型真菌的酵母菌，則採取不同於絲狀真菌的方式進行無性生殖。酵母菌利用分裂產生複製體進行無性生殖，雖然這種方法很有效率，但卻因此錯過了可以經由有性生殖確保遺傳多樣性的樂趣。3
+除了透過無性生殖的方式繁殖，若環境條件惡劣（通常情況就是這樣），大型真菌也可以進行有性生殖。當兩個有性生殖相容的菌絲體相遇，它們就會進行融合並形成更大的團塊。
+融合後已經具備遺傳多樣性的新菌絲體，等待著合適的環境條件到來，就會聚集它的菌絲、吸收水分膨脹，並形成被稱為原基（primordium）的菇蕾。幾天後，原基逐漸伸長菌柄，將菌傘推出基質表面。最後，菌傘打開就變成了一個完全成熟的菇。菇類的顏色、質地和形狀會因種類而異。
+根據菇類產生和釋放孢子的方式，可以將大型真菌分成兩群：一群是在封閉囊內產生孢子的子囊菌（asomycota），另一群是從菌褶中形成並釋放孢子的擔子菌（basidiomycota）。擔子菌的菌褶有一層菌膜保護，隨著菇的成熟，該菌膜就會剝落。
+菇的本身可以說就是一個慶典，慶祝擁有數萬億待釋放新世代真菌（孢子）的出現。孢子將再次進入那已經持續循環數十億年的過程之中。自然不會多愁善感，所以慶典終將結束；菇類在完成產生孢子的工作之後，就會開始腐爛消失。
+它們已經達成自然所交付的任務，而且也不吝讓我們一窺正大自然發自內在的美。菇類的出現是真菌生命循環的最美麗時刻，也許因為這樣，菇類才會如此受到歡迎。
+——本文摘自《真菌大未來：不斷改變世界樣貌的全能生物，從食品、醫藥、建築、環保到迷幻》，2023 年 12 月，積木文化出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>【貓奴指南】把「貓界大麻」貓薄荷抹在身上，除了方便吸貓／給貓吸還有什麼作用？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374686</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">為什麼貓這麼喜歡貓薄荷呢？
+原來是貓薄荷裡的荊芥內脂導致貓咪吸了貓心大悅，不住翻滾、流口水、打呼嚕。
+但是，貓薄荷不是對所有貓都有用。不到六個月的小貓似乎不會有反應，而且有的貓喜歡，有的貓不喜歡……咦，這還和遺傳有關係嗎？
+想要同時驅蚊，又讓貓貓情不自禁饞你身子嗎？那你一定要試試貓薄荷！
+荊芥內脂不只會讓貓咪快樂似神仙，也會活化蚊子體內的受體蛋白，接觸到的蚊子會產生搔癢和刺痛感。哈哈小蚊子，你也來嘗嘗癢癢痛痛的痛苦！
+給你的貓貓來點刺激的快樂草吧！
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>海洋綠洲——花紋海豚棲地利用分析 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374580</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>編按：海洋綠洲棲地利用調查截至 2023/10/19 共出航 56 趟調查、共計 435 小時，追蹤時間少於 30 分鐘的花紋海豚航跡將不會被納入此分析。
+國際自然保護聯盟在 2016 年開始推動「海洋哺乳動物重要棲息地」（ Important Marine Mammal Areas, 下文將簡稱為 IMMAs ），以跨國界的尺度整合瀕危海洋哺乳動物的棲地分佈、移動路線與生存威脅等資料。截至 2022 年，世界上一共劃設了 200 多個 IMMAs（圖二），並且每年持續增加中！隨著能源轉型、貴金屬日益匱乏，新能源、採礦也漸漸由陸地發展到海洋，加上目前海上充斥著各式各樣的船隻、漁具、海洋廢棄物與各式汙染等。秉持「預防勝於治療」的精神，海洋綠洲第二階段的目標即是將東部海域的鯨豚生態資料彙整申請 IMMAs ，透過國際的認證，我們期望能喚起臺灣民眾、政府對鯨豚保育的重視。
+要申請 IMMAs ，其中一項重要指標便是要瞭解鯨豚對於花蓮近海這片棲地是否具有休息、覓食與繁殖哺育的重要性，在這項指標下，我們鎖定了花蓮海域最常出現的老鄰居：花紋海豚（Grampus griseus）與飛旋海豚（Stenella longirostris），透過一年四季共 20 趟的調查，我們期望能瞭解長年在花蓮外海走跳的牠們，究竟在哪些區域哺育、繁殖、休息、覓食或社交，同時也希望藉由調查瞭解牠們的行為狀態是否會受到賞鯨、漁業活動的影響？在 2021 年 4 月的試航之後，我們正式展開了為期三年的調查，持續在海上蒐集資料；今年秋天的第一篇電子報，我們將要跟讀者分享這三年來在花紋海豚身上的新發現。
+棲地利用調查的範圍以鹽寮港為南界、和平溪口為北界，之間共劃設北、中、南三個重點調查區域（圖三），觀察花蓮近海最常見的飛旋海豚與花紋海豚的族群樣貌與行為狀態，為了要長時間追蹤鯨豚，一趟海上調查大約會落在 8 – 10 小時。
+棲地利用的調查方法為「焦點群體採樣 Focal animal sampling 」，跟以往賞鯨點狀的紀錄不同，在海上我們的工作就像是「狗仔」，當我們在預計的重點調查區域範圍遇見飛旋海豚或花紋海豚時，我們會鎖定狀態較穩定的主要群體，以不影響鯨豚行為狀態的前提下，能跟同一群鯨豚多久就跟多久，最久甚至高達 7 小時呢！在調查過程中，辛苦的調查員們會記錄下牠們每 5 分鐘做了些什麼，同時海豚當下的泳向、下潛時間跟角度、個體間距與泳速等都會被詳盡地記錄下來，並搭配錄影、拍照作為判斷狀態的依據（表一）。為了要盡可能記錄鯨豚未受人為干擾的狀態，我們會盡量與鯨豚保持 200 公尺以上距離，用望遠鏡遠遠地觀察，只有最後蒐集水下聲音、拍攝特寫時才會靠近牠們。
+在調查過程中我們有發現花紋海豚出現幾次嘗試覓食的行為——「魚雷式下潛」（圖五），這種下潛方式初次被描述於亞速爾群島（Azores）的研究，當地學者在花紋海豚身上裝置吸盤式資料蒐集器（Data TAG），發現花紋海豚魚雷式下潛時，能在短時間內更快地潛入深海，並且在下潛後，吸盤式資料蒐集器也有錄到花紋海豚搜尋獵物的喀答聲（Clicks）以及滋滋聲（Buzz），由於滋滋聲是齒鯨在最後嘗試覓食時會發出的，證明在魚雷式下潛過後，牠們有在水下嘗試覓食。而讓我們覺得振奮人心的是，我們居然也在花蓮近海紀錄到花紋海豚的魚雷式下潛，說明花紋海豚很有可能在這片海域覓食！
+本次分析採用了 38 群花紋海豚，總共約 84 小時的調查航跡，並使用 3×3 km² 的網格1 分析各個行為狀態的使用區域。透過過去三年的資料來看，我們發現花紋海豚最常在花蓮近海游走，範圍主要在立霧溪以南至芭崎離岸約 15 公里的範圍內，並且在北邊也有少量高比例區域；至於第二常見的社交行為狀態，大略可以分為三個核心區域，由北至南分別是大濁水溪、崇德以及芭崎的外海離岸約 5 公里的範圍內；花紋海豚休息的位置主要位於立霧溪出海口約 7 公里以內的範圍；繞圈徘徊主要在七星潭外海、鹽寮外海約 7 公里以內的範圍；覓食則位在花蓮溪出海口至鹽寮外海約 10 公里以內的範圍。同時我們也發現目擊的花紋海豚群次，有 45.8 % 有出現母子對，而這也代表我們調查的範圍內是花紋海豚育幼的重要區域。
+由於調查船追蹤鯨豚時，是平行地跟隨在鯨豚側邊，透過分析船隻追蹤期間的速度，我們也可以概略得知鯨豚的平均泳速。在分析追蹤群體的泳速後，我們發現花紋海豚整體泳速介於 0.5 – 4 節2 ，繞圈徘徊的速度較快，介於 2 – 4 節；而在五種狀態中最慢的為休息，介於 1.2 – 3 節間；覓食跟游走的速度範圍廣，介於 0.5 – 4 節。我們也希望可以了解花蓮近海頻繁的賞鯨活動是否對花紋海豚會造成影響？透過獨立出賞鯨船靠近的航跡，我們發現泳速並無太多變化，但在少數賞鯨船靠近的經驗中，我們發現群體的行為狀態會有些變化，例如群體泳向變得不一致、或賞鯨船離開後群體變得更加分散，甚至也有最後下潛離開的案例。
+透過棲地利用分析，我們初步瞭解了花蓮近海花紋海豚的關鍵生命週期活動，同時也發現到部分花紋海豚群體有受到賞鯨船的影響，未來我們將會彙整這些分析的數據，並對於保育策略提供更實際的經營管理建議，同時根據本次分析成果，我們也呼籲讀者支持提倡友善賞鯨的商家，讓花蓮近海的老鄰居們持續優游於此。海洋綠洲棲地利用調查需要長時間且耐心的觀察，能累積到今日的成果，我們要向所有參與調查的調查員、合作的船家以及船長表示最誠摯的感謝，同時我們也感謝捐款支持黑潮的企業、民眾、和政府單位，讓海洋綠洲計畫能夠順利執行。</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>露兜樹象鼻蟲的身世之考察——分類學家偵探事件簿（四） - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373718</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>一般大眾或甚至其他領域生物學家們，對於基礎生物分類學家的刻板印象，無非是常常在顯微鏡下進行形態解剖比較來鑑定物種、描述並發表新物種，或者常常東跑西跑去採集標本，頂多是抽取遺傳物質進行 DNA 分析。然而一位稱職的分類學家，為了搞清楚物種學名的分類地位，將整個命名系統修訂成一個穩定並適合大家使用的狀態，往往需要做大量的歷史文獻，造訪各大博物館並進行模式標本考察，其中的繁瑣和複雜程度，往往令人出乎意料。
+如果有閱覽過這系列的文章便會很清楚的知道，模式標本是物種發表時的實體存證，是學者對分類地位有疑慮時，用以判別的客觀證據。每個物種都有其模式標本，而每個屬也有其模式物種，是判定該屬別的決定性物種，模式種和模式標本是進行物種與屬別層級的基礎分類研究時，不可或缺的重要資訊。
+這個故事的主角是一類來自南亞和東南亞的露兜樹象鼻蟲，本文將講述其模式標本和背後歷史脈絡的考察，以及我們對於分類處理過程的案例分享。
+露兜樹科（Pandanus）為分布於東半球的亞熱帶及熱帶地區的灌木或喬木植物，其中林投（Pandanus tectorius）具有抗風、耐鹽的特性，是常見的海岸防風定砂植物，而俗稱斑蘭葉（pandan）的七葉蘭（Pandanus amaryllifolius），則是東南亞常見的料理與糕點製作材料，而南亞和東南亞的露兜樹上棲息著一群黑色扁平的小型象鼻蟲——露兜樹象鼻蟲（Lyterius）。
+而故事的緣起可追溯到 2022 年，當時筆者正在澳洲進行博士論文題目「澳洲蘇鐵授粉象鼻蟲的多樣性與演化」的研究，我們意外地發現澳洲的蘇鐵授粉象鼻蟲與東南亞產的露兜樹象鼻蟲親緣關係接近，因此我們便想進一步探究本類群的分類。在我們初步搜索模式標本時，我們驚奇地發現德國象鼻蟲學者延斯・普雷納博士 Dr. Jens Prena 似乎曾經有研究過這類象鼻蟲，出於好奇，我們聯繫了普雷納博士，進而開啟了本類群錯綜複雜的分類歷史考察之旅。
+首先露兜樹象鼻蟲的分類問題分成兩個面向，一個是屬別層級的，而另一個是物種層級的。屬別層級的問題比較簡單，我們發現露兜樹象鼻蟲屬有三個相關的屬別，分別為 Lyterius Schönherr, 1844、Barisoma Motschulsky, 1863 和 Plaxes Pascoe, 1885，根據牠們形態的相似性和地理分布的重疊，我們認為牠們應該被合併成單一屬別，也就是說只要我們確認三個屬別的模式種都是屬於同一個屬別後，那自然我們就能依照優先權原則，把 1863 年發表的 Barisoma 和 1885 年發表的 Plaxes 處理為最早發表的 Lyterius 的同物異名。
+我們雖然追蹤到 Barisoma 和 Plaxes 的模式種和其模式標本，但是 Lyterius 的模式種問題，卻將這個研究的難度拉向了另一個層面——也就是物種層級的問題。
+Lyterius 這個屬別是由瑞典昆蟲學家卡爾・約翰・舍恩赫爾（Carl Johan Schönherr）於 1844 年所提出，並以 Rhynchaenus musculus Fabricius, 1802，這個 1802 年由丹麥昆蟲學家約翰・克里斯蒂安・法布里丘斯（Johan Christian Fabricius ）所發表的種類作為模式物種。他的合作對象瑞典昆蟲學家卡爾・亨利克・博赫曼（Carl Henrik Boheman）也在同一本書中使用了 Lyterius musculus (Fabricius, 1802) 這個學名組合，同時他將德國昆蟲學家弗里德里希・韋伯（Friedrich Weber）在 1802 年所描述的 Curculio abdominalis Weber, 1801 也拉進這個屬別，學名組合變成 Lyterius abdominalis (Weber, 1801) ，並且描述一個菲律賓的新物種 Lyterius instabilis Boheman in Schönherr, 1844 。這其中最為複雜難解的，便是 Lyterius musculus (Fabricius, 1802) 和 Lyterius abdominalis (Weber, 1801) 之間的關係了，因為這兩個物種的模式標本來源，都源自於達戈貝爾特・達爾多夫 Dagobert Karl von Daldorff 這位在俄羅斯出生，擁有德裔血統的丹麥博物學家，在 18 世紀末葉任職丹麥東印度公司時，於 1795 年在蘇門答臘的一次採集。
+根據我們對於 19 世紀初期的歐洲甲蟲分類歷史文獻的爬梳，達爾多夫在蘇門答臘的標本被帶回歐洲後，應該至少被他贈與或交換給五位學者或機構，而這五位學者就包含剛剛提到的德國昆蟲學家弗里德里希・韋伯（Friedrich Weber），以及丹麥昆蟲學家約翰・克里斯蒂安・法布里丘斯（Johan Christian Fabricius），這兩位顯然同時對這批標本進行分類學研究。
+因此第一個疑點就是，韋伯和法布里丘斯分別在 1801 年和 1802 年用達爾多夫所採集的同一批蘇門答臘象鼻蟲標本，發表了後來在 1844 年被博赫曼放在同一個屬別的物種 Lyterius abdominalis 和 Lyterius musculus，這讓人很難不懷疑，這兩個名字會不會根本就是同一個物種，這在當年資訊不流通、分類研究還很粗淺的年代，是非常容易發生的事情。
+而支持這樣想法的關鍵則有二，首先德國昆蟲學家約翰・卡爾・威廉・伊利格（Johann Karl Wilhelm Illiger）其實在 1805 年的著作中，就已經提出這兩個物種是同一個物種的論點了，然而這項分類處理卻被博赫曼在 1844 年的著作中，不明地忽略了。雖然博赫曼不小心遺漏了伊利格的分類處理，他卻也在看過兩種的模式標本後，在他那 1844 年的著作中，提出了兩個物種只不過是同一個物種的雄蟲和雌蟲的猜想，然而因為他手邊就只有兩隻標本，一隻是雄的 Lyterius abdominalis ，一隻是雌的 Lyterius musculus ，因此他無法下這個決定情有可原，而我們如今已經知道露兜樹象鼻蟲有很明顯的雌雄二形性，雄蟲的口喙比較短，且足部的前腳腿節有明顯的突起，博赫曼的猜想不證自明。
+總而言之，從上述的歷史文獻爬梳，我們可以從
+來推斷，這兩個種類很有可能是同一個種類！
+在爬梳大量文獻後，我們同時也造訪歐陸各大標本蒐藏去尋找這些物種的模式標本下落。我們很幸運的在德國基爾的動物學博物館找到兩隻 Lyterius musculus 的總／群模式標本。然而，在尋找 Lyterius abdominalis 模式標本的過程中卻碰了壁，不管是文獻還是實際探訪，幾乎都找不到韋伯收藏的下落，韋伯所發表的模式標本有極大的可能已經遺失了，那要怎麼辦呢？
+雖然沒辦法找到 Lyterius abdominalis 的模式標本，然而我們從以上的間接證據，可以合理相信 Lyterius abdominalis 和 Lyterius musculus 就是同一個物種。為了最適當的處理分類議題，穩定整個分類命名系統。我們使用了一個技術性的分類學處理，首先我們指定了 Lyterius musculus 的選模式標本，並且我們將「這一個」標本，再次的指定為 Lyterius abdominalis 的新模式標本，這個時候，這兩個學名便產生了動物命名法規上所謂的「客觀同物異名（objective synonym）」關係，相較於分類學家自行主觀認定的同物異名（主觀同物異名 subjective synonym ），客觀同物異名指的是用同一個標本發表不同學名的狀況，這樣這兩個名字無庸置疑的是同物異名關係，只有最早被發表的名字有優先權，因此我們的 Lyterius abdominalis (Weber, 1801) 獲得了優先被使用的地位，也成為露兜樹象鼻蟲屬的模式種。經由這一波操作，我們確立了 Lyterius 的模式和包含的物種，也因此我們終於能進一步處理剛剛提到的 Barisoma 和 Plaxes 的同物異名，最後我們可以大聲的說：露兜樹象鼻蟲屬的學名是 Lyterius Schönherr, 1844 ！
+另外一方面，我們在調查 Plaxes 的模式標本時，也發現到其模式種 Plaxes impar Pascoe, 1885 的總／群模式標本散落在英國倫敦自然史博物館、德國柏林自然史博物館、德國德勒斯登森肯堡博物館、義大利熱拿亞自然史博物館、澳洲國立昆蟲館，幾乎涵蓋了半個地球。這些標本可以分為來自婆羅洲砂拉越和蘇門答臘的標本，採自砂拉越的標本無疑是一個獨立的物種，我們也指定砂拉越的總／群模式標本為本種選模式標本。而來自蘇門答臘的標本，無獨有偶地都和 Lyterius abdominalis 是同一個物種，顯然這個物種在蘇門答臘當地是個常見的物種，這又再次加強我們上面提到的，達爾多夫所採集的同一批蘇門答臘象鼻蟲標本應該就只有一種露兜樹象鼻蟲的推測。
+這個研究重新梳理了露兜樹象鼻蟲的分類歷史並考察了歷史文獻和模式標本，最終作出了適宜的分類學處理，為亞洲地區的象鼻蟲研究推進了一步。</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>伺機性病原菌在你我左右 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/372022</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>真菌是自然環境中不可或缺的一環，然而，某些真菌對人體卻構成潛在風險。特別是伺機性病原菌，如足分枝菌屬群，對免疫弱勢者具有致命危險。雖然臨床對其有一定了解，但我們對這些真菌在環境中的分佈卻知之甚少。本篇聚焦於臺灣各類環境，旨在深入了解足分枝菌屬群真菌的分佈特性，以提供更全面的防控策略。
+自然環境乃至周遭充斥著各種各樣對人類有害或有益的真菌。其中對人類生活有益處的有：釀酒酵母、黑殭菌、腐生及藥用真菌；對人類有害的除了黴菌、植物病原菌外，還有一群在人體免疫低下時感染人類的真菌—伺機性病原菌。伺機性病原菌可造成表皮、皮下、深部或系統性真菌病。常見的伺機性病原菌為麴菌屬（Aspergillus spp.）、白色念珠菌（Candida albicans）、新型隱球菌（Cryptococcus neoformans）等。此外，2010 年以前至今，歐美各國以及臺灣也開始出現由足分枝菌屬群 〔如：足分枝菌屬（Scedosporium）和節莢孢菌屬（Lomentospora）] 真菌所導致的感染 (1)。這兩屬真菌皆涵蓋對免疫功能低下和偶爾免疫功能完全的人類有感染性，導致呼吸道感染、皮膚感染、過敏反應、局部或全身性真菌病等疾病。
+足分枝菌屬群真菌為溫帶地區廣泛分佈的土壤微生物，但被認為在熱帶地區很罕見。它們偏好存在於高營養成分的介質，如：園藝土壤，受原油污染之土壤，家畜、鳥禽、牛隻的糞便等。此外，也可從低通風且高滲透壓的介質分離出來，像是下水道污泥、受污染的池塘底部、半鹹水、海埔地和廢水處理廠。足分枝菌屬群在環境的高盛行率，為重要的新興病原菌，尤其在醫院和室內，對患有慢性呼吸道疾病或免疫功能低下的人構成危害。
+根據 264 起病例分析，感染此屬群真菌之免疫功能低下患者的死亡率為 22.2%，免疫功能完全患者則為    14%，全身性感染的死亡率甚至可達 80% (2)。而且，對很多現有的抗真菌藥物，像是弗路欣（5-flucytosine），兩性黴素 B（amphotericin B），三唑類（triazole）等低感受性導致其治療十分困難，需要更多的資源投入研究其診斷方式，有效的治療方式以及系統性的調查。然而，這些伺機性病原菌的研究絕大部分著重在臨床研究上，我們對這些病原菌的在環境中的分佈認識少之又少。臺灣的相關研究僅是零星臨床案例報告以及一個醫院系統的環境調查，缺乏系統性的環境樣本調查。
+以黃尹則博士等人於 2023 年發表於醫學真菌學期刊的研究 (3)，調查足分枝菌屬群物種於全臺灣環境中的土壤樣本之分佈現況。為了評估這些物種於各個環境設施所存在風險，比較自然環境以及都市環境樣本的物種分佈現況，並將醫院獨立出來一同分析。想知道（1）人類干擾度高的環境是否比自然環境有較多足分枝菌屬群的物種？（2）衛生敏感區域相較都市區域是否有較多的真菌物種？
+他們的研究結果顯示足分枝菌屬群的物種常見於臺灣的土壤樣本中（圖三），尤其在人類干擾環境如都市和醫院。此外，衛生敏感區域的真菌生物量沒有比都市區域多且與先前的研究一致。此外，研究發現自然環境有較低的真菌生物量。意味著都市生活的人們暴露在伺機性病原菌的環境當中，時時刻刻都有機會被感染。研究調查到的物種可分成三大類：臨床主要物種一共佔了 84.3%，尖端足分枝菌為最優勢，佔了 42.5%；鮑氏足分枝菌（S. boydii），橘色足分枝菌（S. aurantiacum）和多生節莢孢菌分別佔了 27.5%，8.7% 和 5.6%、臨床次要物種為荷赫氏足分枝菌（S. dehoogii），佔 15.0% 以及腐生物種為海口足分枝菌（S. haikouense），佔 0.6%。結果還發現尖端足分枝菌和多生節莢孢菌在公園鳥類餵食區域有較高的物種豐度，作者推測可能是因為鳥類糞便堆積使土壤含氮量提高所造成的現象。不論地理區域還是氣候區域，尖端足分枝菌都是優勢物種，顯示其有潛力成為人類活動的指標生物。
+然而，該篇研究缺少了養分濃度、酸鹼值、導電度、土壤質地、生物因子（共存微生物相）等資訊，暫時無法釐清真菌物種分佈的歧異度與環境生物因子的相關性。不過該篇研究提供這些足分枝菌屬群物種於東亞至關重要的基礎資訊，有待未來的研究進行土壤樣本的物理和化學性質分析以及分子族群遺傳研究以探討土壤菌株伺機性致病力的關鍵。</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>大棕蝠大陰莖，插不進去仍射精？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373073</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">瑞士洛桑大學（Université de Lausanne）生態暨演化學系的生物學家 Nicolas J. Fasel 博士，收到一封以荷蘭文書寫的電子郵件。[1]裏頭附帶的網址，據說能連結到，在某教堂閣樓裡偷拍的性交影片。[1, 2] Fasel 博士起先懷疑遇到詐騙，然而主旨寫著「大棕蝠陰莖」。他想若是投其所好，未免也太過精準。於是，Fasel 博士冒著風險點開。[1]
+大棕蝠（Eptesicus serotinus）分佈於歐洲和亞洲，偏好棲息在農田、林地附近的建物，或者直接住在樹上，方便捕捉昆蟲。牠們深褐色的毛髮覆蓋大部份的軀體，口鼻、翅膀與兩隻後腿間的尾膜（uropatagium；見上圖），則光禿無毛。身長 62 到 80 mm左右，翅膀攤開的寬度，大約 320 至 380 mm。成年的雌性就算沒懷孕，體型一般仍比雄性大些。[3]
+性器，是雄性大棕蝠威猛之所在。綴飾著幾根短毛的陰莖，勃起時末端的兩團組織，會撐成愛心的形狀，背面中央陷落一個凹窩（上圖C）。此時，全長為 16.4 mm，寬度是 7.5 mm。相較之下，雌性的陰道，只有 2.3 mm 長，1.1 mm 寬，顯得不成比例。換句話說，雄性充血膨大的陰莖，長度約莫是自己身長的 22%；而且長寬均是雌性陰道的7倍。[4]「這個物種勃起的陰莖真是太驚人了」，Fasel 博士客觀評論：「超級長。」[5] 讚嘆之餘，他也承認：「我們覺得它實在很難插進任何東西。」[2]
+在實驗室裡，研究團隊能用麻醉劑，刺激雄性大棕蝠的陰莖勃起。[5, 6] 然而牠們晝伏夜出，生性隱蔽，拍攝困難。要弄清實際上如何運用陰莖，並不容易。[4]
+直到那天，一封神秘的電子郵件降臨。[1, 2]
+2023 年 11 月《當代生物學》（Current Biology）期刊上，名列大棕蝠論文第二作者的 Jan Jeucken，[4] 是一名荷蘭的蝙蝠愛好者。[1, 2] 他在住家不遠的聖馬提亞教堂（St Matthias Church），架設了 18 台攝影機。[2, 6] 2016 年 10 月 25 日至 2022 年 3 月 22 日期間，近距離拍攝一個大棕蝠聚落的作息。[6] 取景的角度直接，包括由正下方捕捉進行中的性交畫面。[2]
+Fasel 博士的團隊，從他那裏取得 93 段大棕蝠的交配影片，再加上 4 段來自烏克蘭蝙蝠復育中心（Ukrainian Bat Rehabilitation Center）。[2, 6] 分析了數小時的錄像之後，大棕蝠陰莖的功能，總算真相大白。[1]
+蝙蝠後腿間的尾膜，平常用來飛翔。[7]親密互動的時候，雌性大棕蝠也會拿它來「擋煞」。因此，雄性想要與牠共赴巫山雲雨，就必須揚起巨砲，撥雲見日。活動正式開始前，雌性會叫個幾聲。雄性一柱擎天，用陰莖上的短毛，感覺雌性外陰的位置。一旦陰莖抵住外陰，前者兩團肉球間的凹窩，便發揮吸盤般的作用，協助鞏固與雌性的肉體連結。同時嘴也沒閒著，緊緊咬住對方的後頸不放。正當雙方難分難捨，陰莖卻點到為止，從頭到尾都沒插入。短則不到 53 分鐘，長至 12.7 小時，努力確保精子泳渡 8.6 mm，深長的子宮頸，安然達陣。[4, 6] 完事之後，雌性腹部可見被精液弄濕的毛髮。[4]
+大棕蝠這種如同鳥類「泄殖腔之吻」（cloacal kiss），僅止於表面接觸的交配方式，在哺乳類動物身上前所未見。[4] Fasel 博士希望未來能建立一個「蝙蝠情色影片箱」（bat porn box），從各個角度裝設直播鏡頭，讓研究人員觀賞交配實況，發掘更多性癖。[5]
+　　</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>跟蟲搶吃生魚片？脈衝殺蟲保鮮甜 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/372127</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">在東京連吃了兩、三個月的紅肉生魚片，雪子懷念起關西的明石鯛。作家谷崎潤一郎筆下，刀口彈跳的海鮮、切面誘人的色澤，是長篇小說《細雪》角色的鄉愁，也是地區的飲食差異。[1]描寫產地、品種、質地、肉色和新鮮度，不僅止於文學，日本人對刺身的執著，還漫溢到 2022 年 3 月的《水產科學》（Fisheries Science）期刊。[2]
+海獸胃線蟲（Anisakis）與生魚片的緊密關聯，不亞於日本人。牠們寄生鯨魚、海獅等哺乳類動物，把卵排進海洋。甲殼動物先吞了卵，再被魚或烏賊吃下肚。隨著漁獲捕撈，食材未經烹煮，或者沒熟透的話，生猛的幼蟲便躍上餐桌。附著人類的食道、胃部和腸道，遊走於嘴跟喉嚨。有些人藉由咳嗽、嘔吐清理，甚至徒手拉出幾條。[3]海獸胃線蟲症（anisakiasis）雖然不至於將谷崎潤一郎《細雪》的典雅，[1]發展成伊藤潤二《魚》的驚駭，[4]但是喉嚨刺痛、消化道發炎，而找醫師開刀除蟲大概在所難逃。[3]
+熊本大學的學者，跟福岡的水產、電子公司以及工業技術單位合作，想殲滅生魚片裡的海獸胃線蟲。他們回顧既有的殺法，大致歸納出兩類：鹽漬、浸滷等化學處理；與冷凍、加溫、乾燥、煙燻、輻射、電擊、提高水壓等物理手段。其中最常見的是冷凍，若以歐洲食品安全局（European Food Safety Authority）的標準，放在 –20 °C 的溫度下，長達 24 小時，不只海獸胃線蟲死了，冰晶也同時形成。解凍後，滴水、軟化，變性肌紅蛋白（metmyoglobin）還會使魚肉變為褐色。[2]
+另外，過去已知瞬間釋放高電能的脈衝電力（pulsed power）技術，[5]能取秀麗隱桿線蟲（Caenorhabditis elegans）和宿貝海蜘蛛（Nymphonella tapetis）的性命。研究團隊想知道，這招是否能避免冷凍的缺點，又可以謀害海獸胃線蟲。[2]
+既然要研究傳統美食的安全，必定得用道地食材。實驗不僅採用在日本海域捕獲的竹筴魚（Trachurus japonicus），平均 103 x 45 x 9.6 mm 的生魚片，連寄生蟲也講究出身。從長崎海岸白腹鯖（Scomber japonicus）的內臟，挑取海獸胃線蟲屬的新鮮 Anisakis pegreffii，保存於 4 °C，含 0.9% 氯化鈉的生理食鹽水中備用。[2]
+缺乏捕魚送蟲的天然套裝組合，在魚肉裏頭埋入特定數量的海獸胃線蟲，就成了考驗耐性的手工藝：橫剖半開，塞進幼蟲活體，[2]外圍沾一圈俗稱肉膠（meat glue）的轉麩醯胺酸酶（transglutaminase），[2, 6]再闔起來（圖a &amp; b）。黏合好的竹筴魚片，被擺進塑膠網籃，方便浸泡在水或鹽水裡通電（圖c &amp; d）。[2]
+實驗調整水中的鹽份，來改變導電程度，並控制脈衝次數、水溫等變因。以海獸胃線蟲的死活，還有竹筴魚刺身的外觀、氣味、質地，及魚腥或鮮味等，為最後的評鑑標準。由於剛被電過的海獸胃線蟲，可能有點呆滯，所以生命跡象的判定，得在電完 24 與 48 小時進行。被鑷子騷擾，卻動也不動的，就算死了。[2]
+實驗中，最高電流發生時，鹽水導電率 5 mS/cm；而生魚片的是 8 mS/cm。連續打個 500 發（80 μF–15 kV–1 Hz），處決海獸胃線蟲的奪命率，可達到全盤通殺，片甲不留。儘管研究團隊承認，對致死的詳細機制不甚瞭解，結果無疑是稱心如意：生魚片的彈性、硬度跟顏色，都較冷凍再退冰好，而且質地、氣息和口味，接近未經任何殺蟲處理的食材。他們相當看好此技術的商業價值，在論文結尾表示，要繼續提升殺蟲的效率，並嘗試運用在白腹鯖等其他魚類身上。[2]
+　　</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>和外星人的第五類接觸！《三體》中的微中子通訊是真的？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375407</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>不要回答！不要回答！不要回答！
+Netflix 版「三體」終於上線了，你覺得與外星人接觸是安全的，還是冒險的？
+其實啊，人類早就多次嘗試與外星文明接觸，三體中的「那個」技術，甚至也已經驗證成功了？到底誰能先與外星人取得聯繫？是中國還是美國？
+接下來的討論可能會暴雷原版小說的設定，但應該不會暴雷 Netflix 版的劇情。
+如果你也有一點想跟外星人接觸，那就來看看人類到底已經跟外星人搭訕到什麼程度了吧！
+對於是否要與外星文明接觸，每個人都有不同想法。三體小說作者劉慈欣在小說中提出一種觀點，那就是人類太弱小，最好避免與外星文明接觸，以免招致不必要的風險。
+但是回到現實世界，如果我們真的身處在三體的世界的話，那人類可真的是不停作死啊。早在 1974 年，科學家就利用阿雷西博天文台，向武仙座的 M13 球狀星團發射了一條著名的訊息，也就是「阿雷西博訊息」。這個目標距離地球不算遠，星星又多，被認為是潛在的外星文明所在。阿雷西博訊息中，則包含人類的 DNA 結構、太陽與九大行星、人類的姿態等資訊。每次想到總覺得是新開的炸雞排在發傳單攬客。
+除了無實體的電波訊息，人類還向太空中發送了實體的「信件」。1977 年，航海家探測器載著「航海家金唱片」進入太空。唱片中收錄了包含台語在內，55 種語言的問候語、大自然與鳥獸的聲音、115 張圖像、還用 14 顆銀河系內已知的脈衝星來標示出太陽系的位置。是一封向宇宙表達人類文明與友好意圖的信件。恩，如果接收到這個訊息的外星人不是很友善的話，那麼……。
+好吧，就算現在說應該要謹慎考慮接觸外星文明的風險，或許已經來不及了。對方是善還是惡，怎麼定義善或惡，會不會突然對我們發動攻擊，我們也只能聽天由命了。
+要確定有沒有外星文明，接收訊號當然跟發送訊號同等重要甚至更重要。1960 年，天文學家法蘭克．德雷克，就曾通過奧茲瑪計畫，使用直徑 26 公尺的電波望遠鏡，觀察可能有外星文明的天苑四和天倉五兩個恆星系統，標誌著「尋找外星智慧計畫」（the Search for Extraterrestrial Intelligence, SETI）的誕生。可惜，累積了超過 150 小時的訊息，都沒有搜尋到可辨識的訊號。
+比較近的則是 1995 年的鳳凰計畫，要研究來自太陽附近一千個恆星所發出的一千兩百到三千百萬赫的無線電波。由於有經費支持，SETI 每年可以花五百萬美元，掃描一千多個恆星，但是目前還沒有任何發現。
+中間有一個小插曲是，1967 年 10 月，英國劍橋大學的研究生喬絲琳．貝爾發現無線電望遠鏡收到了一個非常規律的脈衝訊號，訊號周期約為 1.34 秒，每次脈衝持續時間 0.04 秒。因為有可能是來自外星文明的訊號，因此訊號被開玩笑地取為 Little Green Man 1（LGM-1 號）。但後來他們又發現了多個類似的脈衝信號，最後證實這些脈衝是來自高速自轉的中子星，而非某個文明正在傳遞訊息。
+在中國也有探索外星生命的計畫，大家最關注的貴州天眼望遠鏡，直徑達五百公尺，是地球上最大的單一口徑電波望遠鏡。天眼望遠鏡在探索外星生命這件事，並不只是傳聞而已。2016 年 9 月天眼正式啟用後，也宣布加入 SETI 計畫。現在貴州天眼的六大任務之一，就包含探測星際通訊，希望能捕捉到來自其他星際文明的訊號。
+而背負著地球最大單一口徑望遠鏡的名號，自然也引起不少關注。從 2016 年啟用到現在，就陸續出現不少檢測到可疑訊號的新聞。然而，這些訊號還需要經過檢驗，確定不是其他來自地面或地球附近的干擾源，或是我們過去難以發現的輻射源。可以確定的是，目前官方還未正式聲明找到外星文明訊號。
+即使電磁波用光速傳遞訊息，太陽系的直徑約 2 光年、銀河系直徑約 10 萬光年。或許我們的訊息還需要花很多時間才回得來，更別提那些被拋入太空的實體信件。航海家 1 號曾是世界上移動速度最快的人造物，現在仍以大約時速 6 萬公里的速度遠離地球，大約只有光速的一萬八千分之一倍。就算朝著最近的恆星——比鄰星飛去，最少也需要大約 7 萬 6 千年的時間才會到。
+如果用電磁波傳遞訊息，又容易因為穿越星塵、行星、恆星等天體而被阻擋或吸收。不論是人類還是外星文明，都必須找到一個既快速，又不容易衰退的訊號，最好就是能以光速穿越任何障礙物的方式。
+在三體小說中，就給出了一個關鍵方法：微中子通訊。
+微中子（Neutrino），中國通常翻譯為中微子，是一種基本粒子。也就是說它是物質的最基本組成單位，無法被進一步分割。這種粒子引起了廣泛關注，因為它與其他物質的交互作用極弱，並且以極高的速度運動。微中子能夠輕易穿過大部分物質，通過時幾乎不受阻礙，因此難以檢測。
+在宇宙中，微中子的數量僅次於光子，是宇宙中第二多的粒子。有多多呢？地球上面向太陽的方向，每平方公分的面積，大約是你的手指指尖，每秒鐘都會被大約 650 億個來自太陽的微中子穿過，就是這麼多。但是因為微中子與物質的反應真的是太弱了，例如在純水中，它們平均需要向前走 250 光年，才會與水產生一次交互作用，以至於我們幾乎不會發現它們的存在。
+但是對物理學家來說，更特別的是微中子展示出三種不同的「味」（flavor），也就是三種樣貌，電子微中子，渺子微中子和濤微中子，分別對應到不同的物理特性。 在粒子物理學裏，有個「標準模型」來描述強力、弱力及電磁力這三種基本力，以及所有基本粒子。在這個標準模型中，微中子是不具備質量的。 然而，當科學家發現微中子竟然有三種味，而且能透過微中子振盪，在三種「味」之間相互轉換，證明了微中子必須具有質量，推翻了標準模型中預測微中子是無質量的假設，表示標準模型還不完備。
+微中子在物理界是個非常有研究價值的對象，值得我們花上一整集來好好介紹，這邊就先點到為止。如果你對微中子或其他基本粒子很感興趣，歡迎在留言催促我們。
+我們現在只要知道，微中子不僅推翻了標準模型。宇宙中含量第二多的粒子竟然有質量這件事情，更可能更新我們對宇宙的理解，以及增加對暗物質的了解。
+但回到我們的問題，如果微中子幾乎不與其他粒子交互作用，我們要怎麼接收來自外星文明的微中子通訊呢？ 
+Netflix 版《三體》預告片中，這個一閃而過，充滿金色圓球，帶有點宗教與科幻風格的大水缸，就是其中的關鍵。
+這個小說中沒有特別提到，但相信觀眾中也有人一眼就看出來。這就是位在日本岐阜縣飛驒市，地表 1,000 公尺之下，由廢棄礦坑改建而成的大型微中子探測器「神岡探測器」。
+探測器的主要結構是一個高 41.4 米、直徑 39.3 米的巨大圓柱形的容器。容器的內壁上安裝有 11200 個光電倍增管，用於捕捉微小的訊號。水缸中則需灌滿 5 萬噸的超純水。捕捉微中子的方式是等待微中子穿過整座探測器時，微中子和水中的氫原子和氧原子發生交互作用，產生淡藍色的光芒。這與我們在核電系列中提到，核燃料池中會發出淡藍色光芒的原理一樣，是當粒子在水中超越介質光速時，產生類似音爆的「契忍可夫輻射」。
+也就是說，科學家準備一個超大的水缸來與微中子產生反應，並且用超過一萬個光電倍增管，來捕捉微小的契忍可夫輻射訊號。
+但這樣的設計十分值得，前面提到的微中子可以在三種「味」中互相轉換，就是在這個水槽中被證實的。
+這座「神岡探測器」在建成後 40 幾年來，讓日本孕育出了 5 位的諾貝爾物理獎得主。
+三體影集選在這邊拍攝，真的要說，選得好啊。
+話說回來，有了微中子的捕捉方法之後，現實中還真的有人研究起了微中子通訊！
+來自羅徹斯特大學與北卡羅來納州立大學的團隊，在 2012 年發表了一篇文章，說明它們已成功使用微中子，以接近光速的速度將訊息穿過 1 公里的距離，其中有 240 公尺是堅硬的岩石。訊息的內容是「Neutrino」，也就是微中子。
+這套設備準備起來也不簡單，用來發射微中子的，是一部強大的粒子加速器 NuMI。質子在加速繞行一個周長 3.3 公里的軌道之後，與一個碳標靶相撞，發出高強度的微中子射束。
+用來接收微中子的則是邊長約 1.7 公尺，長 5 公尺的六角柱探測器 MINERvA，一樣身處於地底 100 公尺的洞穴中。
+當然，這兩套設備的重點都是拿來研究微中子特性，而不是為了通訊設計的。團隊只是趁著主要任務之間的空檔，花了兩小時驗證通訊的可能性。
+但微中子那麼難測量，要怎麼拿來通訊呢？團隊換了一個思維，目標只要能傳出０跟１就好，而這裡的０就是沒有發射微中子，而１則是發出微中子，而且是一大堆微中子。多到即使每百億個微中子只有一個會被 MINERvA 偵測到，只要靠著數量暴力，探測器就一定能接收到微中子。最後的實驗結果，平均一秒可以傳 0.1 個位元的訊息，錯誤率 1%。
+因為微中子「幾乎能穿透所有物體」的特性，即便我們還沒有其他外星文明可以通訊，或許還是有其他作用。例如潛水艇的通訊、或是與礦坑深處的通訊。進一步說，他幾乎可以在地球上的任一兩點建立點對點的直線通訊，完全不用擔心中間的阻礙。而對於現在最夯的太空競賽來說，月球背面的通訊問題，微中子也可以完美解決。
+那麼，在微中子的研究上，各國的進度如何了呢？
+除了前面提到的超級神岡，世界上還有幾個有趣的微中子探測器，例如位於加拿大的薩德伯里微中子觀測站（SNO），它有特殊的球體設計並且改為填充重水，專門用來觀測來自太陽的微中子。
+而位於南極的冰立方微中子觀測站，則是將探測器直接埋在南極 1450 到 2450 公尺的冰層底下，將上方的冰層直接作為捕捉微中子的水。非常聰明的設計，這也讓冰立方成為地球上最大的微中子探測器。
+除了已經在使用的這幾個探測器之外，美、中、日也即將打造更先進、更強大的探測器。
+預計在美國打造的國際計畫——地下深處微中子實驗（Deep Underground Neutrino Experiment），預計成為世界上最大的低溫粒子偵測器。接收器位於南達科他州的地底一公里深處，用作研究的微中子訊號源則來自 1300 公里外的費米實驗室，百萬瓦等級的質子加速器，將產生有史以來最強的微中子束。這台地下深處微中子實驗（Deep Underground Neutrino Experiment）的縮寫非常有趣，就是 DUNE，沙丘。
+中國呢，則預計在廣東的江門市，用 2 萬支 51 公分光電倍增管和 2 萬 5000 支 7.6 公分光電倍增管，在地底 700 公尺深處，打造巨大球形的微中子探測器－江門中微子實驗室，內部可以填充兩萬噸的純水。最新的消息是預計 2024 年就能啟用。
+最後，經典的超級神岡探測器也不會就此原地踏步，日本預計打造更大的超巨型神岡探測器。容積將提升 5.2 倍、光電管從 11200 個變成 4 萬個，進一步研究微中子與反微中子之間的震盪。
+這些微中子探測器的研究目標必然是微中子本身的特性。但既然微中子通訊是有可能的，在任務之餘研究一下這個可能性，也不是說不行吧。
+雖然我們現在還沒連繫上我們的好鄰居，但很難說明天就有哪個外星文明終於接收到我們對外宣傳的訊息，發出微中子通訊問候，甚至按圖索驥跑來地球。
+至於那時我們應該怎麼辦呢？我們的網站上有幾篇文章，包括介紹黑暗森林法則，以及從《異星入境》看我們要如何與語言不通的外星文明溝通。有興趣的朋友，可以點擊資訊欄的連結觀看。在外星人降臨之前，也不妨參考我們的科學小物哦。
+最後問問大家，你覺得我們應該主動聯繫外星文明嗎？
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>物理-化學</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>量子力學可以幫你判斷物體溫度？從古典物理過渡到近代的一大推手——黑體輻射 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374900</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1894 年，美國物理學家邁克生（Albert Abraham Michelson）作為芝加哥大學物理系的創立者，在為學校的瑞爾森物理實驗室（Ryerson Physical Laboratory）落成典禮致詞時，表示：「雖然無法斷言說，未來的物理學不會比過去那些驚奇更令人驚嘆，但似乎大部分的重要基本原則都已經被穩固地建立了。」
+以我們現在的後見之明，這段話聽起來固然錯得離譜，但在當時，從 17、18 到 19 世紀，在伽利略、牛頓、馬克士威等前輩的的貢獻之下，物理學已經達成了非凡的成就。
+我們現在稱為古典的物理學，對於整個世界的描述幾乎是面面俱到了，事實上沒有人預料到 20 世紀將出現徹底顛覆世界物理學認知的重要理論，量子力學。
+而這最一開始竟只是出自於一件不起眼的研究，關於物體發出的光。
+在此我們要先理解一個觀念：所有物體無時無刻不在發出電磁波輻射，包括了你、我、你正使用的螢幕，以及我們生活中的所有物品。
+至於為什麼會這樣子呢？其中一個主要原因是，物體都是由原子、分子組成，所以內部充滿了帶電粒子，例如電子。這些帶電粒子隨著溫度，時時刻刻不停地擾動著，在過程中，就會以電磁波的形式放出能量。
+除了上述原因之外，物體發出的電磁波輻射，還可能有其他來源，我們就暫時省略不提。無論如何，從小到大我們都學過的，熱的傳遞方式分成傳導、對流、輻射三種，其中的輻射，就是我們現在在談的，物體以電磁波形式發出的能量。
+那麼，這些輻射能量有什麼樣的特徵呢？為了搞清楚這件事，我們必須先找個適當的範本來研究。
+理想上最好的選擇是，這個範本必須能夠吸收所有外在環境照射在上面的光線，只會發出因自身溫度而產生的電磁輻射。這樣子的話，我們去測量它發出的電磁波，就不會受到反射的電磁波干擾，而能確保電磁波是來自它自己本身。
+這樣子的理想物體，稱為黑體；畢竟，黑色物體之所以是黑的，就是因為它能夠吸收外在環境光線，且不太會反射。而在我們日常生活中，最接近理想的黑體，就是一點也不黑、還超亮的太陽！這是因為我們很大程度可以肯定，太陽發出來的光，幾乎都是源於它自身，而非反射自外在環境的光線。
+或者我們把一個空腔打洞後，從洞口發出的電磁波，也會近似於黑體輻射，因為所有入射洞口的光都會進入空腔，而不被反射。煉鐵用的鼓風爐，就類似這樣子的結構。
+到目前為止，一切聽起來都只是物理學上一個平凡的研究題目。奇怪的是，在對電磁學已經擁有完整瞭解的 19 世紀後半到 20 世紀初，科學家儘管已經藉由實驗得到了觀測數據，但要用以往的物理理論正確推導出黑體的電磁波輻射，卻遇到困難。正是由此開始，古典物理學出現了破口。
+由黑體發出的輻射，以現在理論所知，長得像這個樣子。縱軸代表黑體輻射出來的能量功率，橫軸代表黑體輻射出來的電磁波波長。
+在理想狀況下，黑體輻射只跟黑體的溫度有關，而跟黑體的形狀和材質無關。
+以溫度分別處在絕對溫標 3000K、4000K 和 5000K 的黑體輻射為例，我們可以看到，隨著黑體的溫度越高，輻射出來的能量功率也越大；同時，輻射功率最高的波段，也朝短波長、高頻率的方向靠近。
+為了解釋這個曲線，物理學家們開始運用「當時」畢生所學來找出函數方程式，分成了兩派：
+一派是 1896 年，由德國物理學家維因（Wilhelm Carl Werner Otto Fritz Franz Wien），由熱力學出發推導出的黑體輻射公式，另一派，在 1900 與 1905 年，英國物理學家瑞立（John William Strutt, 3rd Baron Rayleigh）和金斯（James Jeans），則是藉由電磁學概念，也推導出了他們的黑體輻射公式，稱為瑞立－金斯定律。
+你看，若是同時擺上這兩個推導公式，會發現他們都各自對了一半？
+維因近似 Wien approximation 只在高頻率的波段才精確。而瑞立－金斯定律只對低頻率波段比較精確，更預測輻射的強度會隨著電磁波頻率的提升而趨近無限大，等等，無限大？――這顯然不合理，因為現實中的黑體並不會放出無限大的能量。
+顯然這兩個解釋都不夠精確。
+就這樣，在 1894 年邁克生才說，物理學可能沒有更令人驚嘆的東西了，結果沒幾年，古典物理學築起的輝煌成就，被黑體輻射遮掩了部分光芒，而且沒人知道，這是怎麼一回事。
+就在古典物理學面臨進退維谷局面的時候，那個男人出現了——德國物理學家普朗克（Max Planck）。
+普朗克於 1900 年就推導出了他的黑體輻射公式，比上述瑞立和金斯最終在 1905 年提出的結果要更早，史稱普朗克定律（Planck’s law）。普朗克假想，在黑體中，存在許多帶電且不斷振盪、稱為「振子」的虛擬單元，並假設它們的能量只能是某個基本單位能量的整數倍。
+這個基本單位能量寫成 E=hν，和電磁輻射的頻率 ν 成正比，比例常數 h 則稱為普朗克常數。換言之，黑體輻射出來的能量，以hν為基本單位、是一個個可數的「量」加起來的，也就是能量被「量子化」了。
+根據以上假設，再加上不同能量的「振子」像是遵循熱力學中的粒子分佈，普朗克成功推導出吻合黑體輻射實驗觀測的公式。
+普朗克的方程式，同時包含了維因近似和瑞立－金斯定律的優點，不管在低頻率還是高頻率的波段，都非常精確。如果我們比較在地球大氣層頂端觀測到的太陽輻射光譜，可以發現觀測數據和普朗克的公式吻合得非常好。
+其實有趣的是普朗克根本不認為這是物理現象，他認為，他假設的能量量子化，只是數學上用來推導的手段，而沒有察覺他在物理上的深遠涵意。但無論如何，普朗克成功解決了黑體輻射的難題，並得到符合觀測的方程式。直到現在，我們依然使用著普朗克的方程式來描述黑體輻射。不只如此，在現實生活中，有許多的應用，都由此而來。
+正因為不同溫度的物體，會發出不同特徵的電磁波，反過來想，藉由測量物體發出的電磁波，我們就能得知該物體的溫度。在疫情期間，我們可以看到某些場合會放置螢幕，上面呈現類似這樣子的畫面。
+事實上，這些儀器測量的，是特定波長的紅外線。紅外線屬於不可見光，也是室溫物體所發出的電磁輻射中，功率最大的波段。只要分析我們身體發出的紅外線，就能在一定程度上判斷我們的體溫。當然，一來我們都不是完美的黑體，二來環境因素也可能產生干擾，所以還是會有些許誤差。
+藉由黑體輻射的研究，我們還可以將黑體的溫度與發出的可見光顏色標準化。
+在畫面中，有彩虹背景的部分，代表可見光的範圍，當黑體的溫度越高，發出的電磁輻射，在可見光部分越偏冷色系。當我們在購買燈泡的時候，會在包裝上看到色溫標示，就是由此而來。所以，如果你想要溫暖一點的光線，就要購買色溫較低，約兩、三千 K 左右的燈泡。
+事實上，在黑體輻射研究最蓬勃發展的 19 世紀後半，正值第二次工業革命，當時鋼鐵的鍛冶技術出現許多重大進步。
+德國鐵血宰相俾斯麥曾經說，當代的重大問題要用鐵和血來解決。
+就傳統而言，煉鋼要靠工匠用肉眼，從鋼鐵的顏色來判斷溫度，但若能更精確地判斷溫度，無疑會有很大幫助。
+德國作為鋼鐵業發達國家，在黑體輻射的研究上，曾做出許多貢獻，這一方面固然可能是學術的求知慾使然，但另一方面，也可以說跟社會的需求與脈動是完全吻合的。總而言之，普朗克藉由引進能量量子化的概念，成功用數學式描述了黑體輻射；這件事成為後來量子力學發展的起點。儘管普朗克本人沒有察覺能量量子化背後的深意，但有另一位勇者在數年後繼承了普朗克的想法，並做出意味深長的詮釋，那就是下一個故事的主角――愛因斯坦的事了。
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>物理-化學</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>超壓縮的水會變成冰？！二維奈米薄冰能在室溫下穩定存在嗎？有什麼用途？——專訪中研院原分所謝雅萍副研究員 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374949</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>本文轉載自中央研究院「研之有物」，為「中研院廣告」
+水在攝氏零度以下會結冰。然而，當水被擠壓到極限時，會形成二維的奈米薄冰，不僅室溫下穩定存在，還有從未見過的鐵電特性（Ferroelectricity），而石墨烯則是實現這種擠壓條件的關鍵。中央研究院「研之有物」專訪院內原子與分子科學研究所的謝雅萍副研究員，她與我們分享了實驗室如何意外發現這層特殊的二維薄冰，以及團隊如何利用二維薄冰的鐵電特性製作有記憶電阻功能的奈米元件，研究成果發表在科學期刊《自然通訊》（Nature Communications）。
+謝雅萍的主要研究題目之一就是合成新穎的二維材料，這是奈米科技的領域。奈米是什麼？奈米（nanometer）是長度單位，即 10-9 公尺，一根頭髮的直徑長度約為 1 奈米的十萬倍。奈米尺度之下，很多物質的特性會隨之改變，最常見的例子是「蓮花效應」，因為蓮花葉上具有奈米等級的表面結構，為蓮葉賦予了疏水與自我清潔的特性，髒污與水珠都不易附著在蓮葉上。
+奈米材料（nanomaterial）是指三維尺寸的材料，至少有一個維度的尺寸小於 100 奈米。只縮小一維，就是平面的二維材料（2D），例如石墨烯；縮小兩個維度，就是奈米線（1D）；三維都縮小，就是零維的奈米顆粒（0D）。
+奈米科技（nanotechnology）的概念最早可追溯到 1959 年美國物理學家理查費曼（Richard Feynman）在演講中提出的願景「為什麼我們不能把大英百科全書全部寫在一根針頭上呢？」。1974 年日本科學家谷口紀男則是首度創造「奈米科技」這個詞的人，他認為奈米科技包括原子與分子層次的分離、固定與變形。
+過去有不少科學家嘗試奈米材料的研發，但受限於製造技術不成熟，而無法順利製作出精細製程的奈米材料。1981 年，在掃描隧道顯微鏡（Scanning Tunneling Microscope, STM）發明之後，不僅有助於材料的微觀分析，操縱單個原子和分子也成為可能，奈米科技也逐漸實現。
+我們生活周遭的奈米科技俯拾即是，從大賣場商品到半導體產業的電子元件都有。謝雅萍舉例：防曬霜之所以是白色，是因為裡面有二氧化鈦的奈米顆粒；許多塗料與噴漆亦會以奈米添加物，來增進耐蝕、耐磨、抗菌與除汙的特性，例如汽車鍍膜或奈米光觸媒；羽球拍或牙醫補牙會使用奈米樹脂，讓球拍和補牙結構更堅固。
+至於半導體產業，奈米科技更是關鍵。透過縮小元件尺寸以及調整奈米元件的幾何形狀，以便於在單一晶片上乘載更多電晶體。「當今的電晶體大小皆是奈米等級，製作電子元件就等同在處理奈米科技的問題」，謝雅萍說道。
+對謝雅萍來說，發現二維的奈米薄冰是個意外的驚喜。最初謝雅萍團隊其實是要製作以石墨烯為電極的開關，畢竟石墨烯是實驗室的主要研究項目，理論上當兩層石墨烯很靠近時，分別給予兩端電壓會是導通的「ON」狀態，沒電時就是斷開的「OFF」狀態。
+然而，實驗過程中團隊卻發現當電壓為零時，石墨烯開關仍會導通，甚至要給予負電壓時才會成為 OFF 狀態。這個奇特的現象讓研究團隊苦惱許久，嘗試思考了各種可能性，但都無法完善的說明此現象。
+「原本以為實現石墨烯開關應該是一件能夠很快完成的題目，沒想到過程中卻出現了這個意料之外的難題，因此這個研究比預期多花了一兩年」，謝雅萍無奈地笑道。
+靈感總是突如其來，某次謝雅萍在與朋友討論研究時，突然想到一個可能的方向：「一直以來都有人猜測水是否為鐵電材料，但都沒有真正證實。臺灣氣候潮濕，開關關不緊會不會就是水的影響？」
+設計實驗跑下去之後，謝雅萍團隊終於擺脫了一直以來的疑雲。原來，兩層石墨烯結構中，真的有水分子的存在！「一般水分子用手去捏，還是會維持液體的狀態。但是我們發現，當水被兩層石墨烯擠壓到剩下原子厚度時，水分子就會變成具有鐵電特性的二維薄冰！」，謝雅萍開心地說道。
+換句話說，當極限擠壓之下，水會結成冰，而這層超薄的平面奈米薄冰會轉變成鐵電材料，而且可以在室溫下穩定存在！
+鐵電材料乍聽之下很抽象，謝雅萍表示：「相較於會吸磁鐵的鐵磁材料，大多數人對鐵電材料比較不熟悉，其實概念十分相似」。她說，鐵磁材料經過外加磁場的「磁化」之後，即使不加磁場仍可維持原本的磁性。相對地，鐵電材料經過外加電場的「極化」之後，即使不加電場仍可維持原本的電荷極化方向。
+謝雅萍團隊發現的二維冰具有鐵電性，這意味著水分子的正負極在外加電場之下會整齊排列，形成一個永久的電偶極，並且在電場消失後保持不變。
+接著，謝雅萍發現，二維冰的鐵電性只存在於單層原子，增加多層原子之後，鐵電性會消失，變成普通的冰，這是因為多層原子的交互作用會打亂原本的極化排列。因此研究團隊發現的二維冰，是非常特殊的固態水，不是手搖飲加的冰塊那麼簡單。
+因為石墨烯的擠壓和固定，二維冰可以在室溫下穩定存在，不會蒸發。謝雅萍團隊實驗發現，要升溫到攝氏 80 度，被夾住的二維冰才會變成水。如此大範圍的操作溫度，這讓謝雅萍開始思考將二維冰作為鐵電材料使用的可能性。
+於是，謝雅萍團隊嘗試開發新型的電子元件，他們將二維冰與石墨烯整合成機械式的奈米開關。由於二維冰具有鐵電特性，在施加不同外加電壓之後，元件可以維持上次操作的電阻值，並保留至下次操作，有這種特性的元件稱為「憶阻器」（memristor）。
+憶阻器這個詞是由記憶體（memory）與電阻（resistor）組合而成，字面上的解釋便是：具備記憶先前電阻值的能力。
+謝雅萍表示：「我們可以藉由不同的外加大電壓寫入電阻值，再以微小電壓讀取之前的電阻值，允許快速存取」。而單獨一個二維冰奈米開關可以記住 4 個位元的資料，具備未來記憶體的發展潛能。
+此外，二維冰奈米開關也是很好的開關裝置，團隊驗證導通電流和截止電流的比值可以達到 100 萬，開路和斷路的功能極佳，並且允許雙向操作。而開關的功能經過 1 萬次循環還不會衰減，相當穩定。
+謝雅萍團隊是全世界第一個證實二維薄冰鐵電性的團隊，並實現第一個以石墨烯為架構的二維冰機械式憶阻器。她的團隊將往新穎二維材料的方向繼續邁進，目前實驗室有和台積電（TSMC）合作，希望透過產學合作，將更多奈米技術的應用落地實現。
+謝雅萍目前除了是中研院原分所的副研究員，同時也是國立臺灣大學 MY Lab 實驗室的共同主持人，她和人生伴侶 Mario Hofmann 教授共同指導的 MY Lab 發揮了 1+1&gt;2 的效果，創意與想法的激盪和交流，是產生傑出研究的關鍵。
+回到碩博士時期，謝雅萍都在臺大物理所，鑽研材料的光電性質與新穎光電元件的機制。她回憶：「當時我們都要向化學系要材料，他們給什麼我們就得用什麼，但難以了解整個材料製造的細節。」後來她體認到，擁有製造材料的調控能力才能真正突破元件設計上的侷限。
+謝雅萍在博士班時申請到了千里馬計畫，讓臺灣博士生獲得國科會補助前往國外頂尖研究機構，進行為期約半年至一年的研究。「我認為這個計畫非常好，也可以幫助學生建立重要人脈！」在指導教授引薦下，謝雅萍因緣際會進入美國麻省理工學院（MIT）的二維材料實驗室，自此與二維材料結下不解之緣，她認為：「好材料與好元件是相輔相成的，前瞻材料更是如此。」
+「我到了 MIT 之後，深刻體悟到他們做研究的態度與臺灣學生的不同。臺灣學生像是把研究當作一份工作，然而我在 MIT 時就感受到他們學生對於自身研究的熱忱。討論風氣也非常盛行，學生之間會互相分享自己的研究內容，互相幫忙思考、激盪出新想法」，謝雅萍分享自己在 MIT 時期的觀察。
+當年二維材料還在萌芽階段，她所在的 MIT 實驗室已是此領域的佼佼者，她也因此立下了目標：「希望未來我有能力時，能夠自己掌控自己的材料做出好元件！」如今，謝雅萍正走在自己目標的道路上，過去認識的朋友也都是各頂尖大學的二維材料實驗室主持人，直到現在都還會互相幫忙。
+從物理到二維材料，身處這些男性為主的學術環境，謝雅萍顯得自在，而且積極參與討論和交流。「我發現女科學人會把自己變得較中性，讓自己融入整個以男性居多的環境中，才不會在團體中有突兀的感覺」，她分享道。
+謝雅萍的實驗室 MY Lab，是與臺大物理系 Mario Hofmann 教授共同主持的奈米科技實驗室，他們除了是工作上的夥伴，更是人生中的最佳拍檔！當初兩人就是在美國麻省理工大學 MIT 相識，再一起回到臺灣。
+讓「研之有物」團隊好奇的是：這種共同主持的模式與一般實驗室相比，是否有特別之處？
+「從多個面向而論，我認為都是 1+1&gt;2 的」，謝雅萍說道，「實驗室會有兩倍的資源、儀器、計畫與兩倍的人脈。遇到一個題目，兩個人思考時會從不同的觀點切入。即便是夫妻，我們在研究上看的面向也都不一樣，因此可以激盪出許多有趣的想法」。
+她補充，不僅對實驗室本身而言，對學生也有很大的好處，「因為學生的研究必須同時說服我們兩個人，代表學生的研究成果會非常扎實，也可以為學生帶來信心。」重要的是，「學生也會得到兩倍的照顧與關愛，我覺得我們的學生是蠻幸福的」，謝雅萍笑笑地說。
+以電阻改變與否來當記憶體，是個省能源的好做法。但要有電路設計的人一起進來。不然只是米粒，做不出大餐的。
+以電阻改變與否來當記憶體，是個省能源的好做法。但要有電路設計的人一起進來。不然只是米粒，做不出大餐的。</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>物理-化學</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>你聽過「量子意識」嗎？電子雙狹縫實驗讓人猜測意識會影響物質世界，真的假的？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374868</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>在市面上，我們常會看到號稱運用量子力學原理的商品或課程，像是量子內褲、量子能量貼片、量子首飾、量子寵物溝通、量子速讀、量子算命、量子身心靈成長課程等等。有人說，量子力學代表了意識具有能量，藉由調整心靈的共振頻率，就能保持身心健康，只要你利用量子力學原理進行療癒或冥想，就能提昇自己的能量，人能長高、身體變壯、每次考試都考一百分；又像是，量子力學就代表一種信息場，讓你跟別人有心電感應，只要轉念，讓宇宙能量幫助你，你就能發大財還能避免塞車。也有人說，別人吃一個下午茶，你也馬上吃一個下午茶，別人喝一杯咖啡，你也馬上喝一杯咖啡，別人跟家人吵架，你也馬上找一件事跟家人吵架，這就是量子糾纏。
+然而，量子到底是什麼？跟身心靈、宗教和玄學真的扯得上關係嗎？是否真能幫助你維持健康又賺大錢呢？
+在這一系列影片裡，我們就要來討論，量子力學的原理為何？背後又是基於哪些科學的研究成果。等你看完之後，相信對於量子力學跟上述五花八門商品究竟有沒有關係，心裡自然會有所答案。
+坊間常會聽到量子力學跟意識有關的說法；或許也是因為這樣，量子力學被許多身心靈成長課程甚至玄學拿來作為背書。但，量子力學真的是這樣子嗎？
+說到量子力學跟意識的關係，我們就必須來看看，量子力學最著名的實驗之一，20 世紀的物理學大師費曼（Feynman）甚至曾經說過，這個實驗「包含了量子力學的核心思想。事實上，它包含了量子力學唯一的奧秘。」它，就是雙狹縫干涉實驗。
+現在我拿的器材，上面有兩道狹縫，中間間隔了非常短的距離。等一下，我們會讓雷射光通過這兩道狹縫，看看會發生什麼事。
+我們看到，雷射光在打向雙狹縫之後，於後面的牆上呈現有亮有暗的條紋分布，這跟我們在國、高中學過的波的性質有關。
+在兩道光波的波峰相會之處，會產生建設性干涉，即亮紋的位置；而暗紋的部分，則是來自破壞性干涉，是兩道光的波峰和波谷交會之處，亦即，光的效應被抵銷了。
+在歷史上，雙狹縫干涉實驗占有非常重要的地位。19 世紀初，英國科學家、也是被譽為「世界上最後一個什麼都知道的人」的湯瑪士．楊（Thomas Young），利用雙狹縫實驗，證明了光是一種波。
+那麼，如果我們拿不是波的東西，來進行雙狹縫實驗，會看到什麼結果呢？讓我們試驗一下。
+現在我手邊有一堆的彈珠，前面是用紙板做成的兩道狹縫，後面則是統計彈珠落點的紙板。我們讓這些彈珠朝狹縫的地方滾過去，並在彈珠最後的落點劃下記號；若在同樣位置的記號越多，就代表有越多彈珠打中該位置。
+在丟了一百顆彈珠之後，我們可以看到，扣除掉一部份因為路徑被擋住、通不過狹縫的彈珠之外，彈珠最終抵達的位置，大致分別以兩道狹縫的正後方為最多，呈現兩個區塊的分布，不像先前光的雙狹縫干涉實驗中，出現明暗相間的變化。
+所以，我們得到結論：若是拿具有物理實體的東西進行雙狹縫實驗，因為其一次只能選一邊通過，所以落點最終只會聚集在兩個狹縫後方的位置；而且要是行進的路徑不對，還可能會被擋住。
+至於波的情形，那就不同了，只要狹縫的大小適當，波可以同時通過兩個狹縫，並互相干涉，產生明暗相間的條紋。
+換言之，是波，還是物質，兩者在雙狹縫實驗的表現是截然不同的。
+只不過，以上的實驗似乎並沒有什麼太令人感到意外的地方，我們也看不出來，它跟量子，還有意識，到底有什麼關係？事實上，若要真正顯示出它的獨特之處，就要來看電子的雙狹縫干涉實驗。
+我們知道，電子是組成原子的基本粒子之一，而原子又組成了世間萬物。可以說，電子是屬於物質的一種極微小粒子。
+在電子的雙狹縫干涉實驗，科學家朝雙狹縫每次發射一顆電子，並在發射了很多顆電子之後，觀察電子的最終落點分布會怎麼呈現。
+既然電子是物質的微小粒子，那麼在想像中，應該會跟我們前面使用彈珠得到的結果差不多，電子會分別聚集在兩道狹縫後方的區域。
+從實驗的記錄影片中可以看到，在一開始、電子數量還很少的時候，其落點比較難看得出有明顯規律，但隨著電子的數目越來越多，我們慢慢能夠看出畫面上具有明暗分布，跟使用光進行雙狹縫實驗時得到的干涉條紋，有著類似的結構。
+這樣的結果，著實令人困惑。直覺來想，既然電子是一顆一顆發射的，它勢必不可能像光波一樣，同時通過兩個狹縫，並且兩邊互相干涉，產生明暗相間的條紋。
+但無可否認，當我們用電子進行雙狹縫實驗時，最後得到的結果，看起來就跟干涉條紋沒什麼兩樣。
+對這出人意表的觀測結果，為了搞清楚發生什麼事，科學家又做了更進一步的實驗：
+在狹縫旁放置偵測器，以一一確認這些電子到底是通過哪一個狹縫、又如何可能在通過狹縫後發生干涉。
+這下子，謎底就能被解開了――正當大家這麼想的時候，大自然彷彿就像在嘲笑人類的智慧一樣，反將一軍。
+科學家發現，如果我們去觀測電子的移動路徑，只會看到電子一顆一顆地通過兩個狹縫其中之一，並最終分別聚集在兩個狹縫的後面――換言之，干涉條紋消失了！
+在那之後，科學家做過無數類似的實驗，都得到一樣的結果：只要你測量了電子的路徑或確切位置，那麼干涉條紋就會消失；反過來說，只要你不去測量電子的路徑或位置，那麼電子的雙狹縫實驗就會產生干涉條紋。
+在整個過程中，簡直就像是電子知道有人在看一樣，並因此調整了行為表現。
+在日常生活中，若有人要做壞事，往往會挑沒人看得到的地方；反過來說，當有其他人在看，我們就會讓自己的言行舉止符合公共空間的規範。
+量子系統也有點像這樣，觀測者的存在與否，會直接影響到量子系統呈現的狀態。
+只不過，這就帶出了一個問題：到底怎麼樣才算是觀測？如果我們在雙狹縫旁邊只放偵測器不去看結果算嗎？我們不放偵測器只用肉眼在旁邊看算嗎？或是，整個偵測過程沒有人在場算嗎？
+這就是量子力學裡著名的觀測問題（measurement problem）。
+在量子力學剛開始發展的數十年，有許多地方都還不是那麼清楚，觀測問題就是其一。在歷史上，不乏一些物理學家，曾經認真思考，是否要有「人的意識」參與其中，才能代表「觀測」。
+如果真是這樣的話，那麼「意識」就存在非常特別的意義，而且似乎暗示人的意識能夠改變物質世界的運作。
+可以想見地，上述出自量子力學觀測問題的猜測，後來受到部分所謂靈性導師跟身心靈作家的注意，於是，形形色色宣揚心靈力量或利用量子力學原理進行療癒、冥想或身心靈成長的偽科學紛紛出籠，直到近年都還非常流行。
+另一方面，可能因為量子兩個字帶給人一種尖端科學的想像，坊間琳瑯滿目的商品即使跟量子力學一點關係都沒有，也都被冠上量子兩字；除此之外，商品宣傳裡也常出現一堆量子能量、量子共振等不知所謂的概念，不然就是濫用量子力學的專有名詞如量子糾纏、量子穿隧等，來幫自己的商品背書。只要有量子兩字，彷彿就是品質保證，讓你靈性提升、身體健康、心想事成。
+對此，我就給三個字：敢按呢（Kám án-ne）？
+事實上，量子力學至今仍是持續演進的學問，我們對量子力學的理解也隨時間變得越來越豐富。現代的物理學家，基本上不認為我們可以用意識改變物質世界，也不認為「意識」在「觀測」上佔據一席之地，甚至可以說正好相反，人的意識在觀測上根本無關緊要。
+不過，我們不會那麼快就直接進入觀測問題的現代觀點。在之後接下來的幾集，我們會先從基本知識開始說起，循序漸進，讓你掌握量子力學的部分概念。而在本系列影片的最後一集，我們才會重新回到觀測問題，並介紹量子力學領域近幾十年來在此問題上獲得的進展。
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>物理-化學</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>「倘若那天……」平行時空的你過得怎麼樣？——《超次元．聖戰．多重宇宙》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374154</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>但人總喜愛想像，現實世界中無法「重頭來過」，但小說和電影的虛擬世界當然可以。在好萊塢電影《今天暫時停止》（Groundhog Day, 1993；港譯：《偷天情緣》）之中，男主角最先猶如惡夢般不斷在同一天的清晨醒來，後來卻利用這個機會不斷改善他的追求技倆（不但 take two，更take three、take four……），最後贏得美人歸。
+電影為觀眾帶來了美滿的結局。但筆者最早領略「如果」作為小說創作中的奇思妙想，卻令我傷感不已。話說筆者自初中已經愛上科幻小說。大概是中三、四那年，我在公共圖書館借了一本英文的短篇科幻小說集，其中一個以「如果」為題的故事（名稱早已忘記）令我畢生難忘。
+故事中，一對恩愛的小夫妻駕車外出，丈夫有點兒不適所以改由太太開車。不幸途中遇上車禍，坐在司機位的太太重傷身亡。丈夫悲痛不已終日借酒澆愁，揮之不去的自責是「如果我那天沒有跟她對調位置……」。
+一天，他在拾理太太的遺物時，竟然發現她的日記簿中有新的記事！讀將下來，原來在另一時空裡，兩人當天的確沒有對調位置，所以因車禍去世的是他而不是愛妻！
+這兩個「平行時空」原本不會重疊，卻不知怎的透過這本日記簿接通了。結果，「陰陽相隔」的倆人藉著日記互訴衷情。
+這本已是十分淒美的情節，但後來日記中的字樣變得愈來愈模糊，最後完全消失，表示兩個「平行宇宙」最終分離而回到互不相通的狀態。筆者當年雖然只有十五、六歲，被觸動的哀愁卻是久久不能平復……。
+年少的我已經深深感受到，人生中充滿了無數偶然的變數，而一個簡單的決定，足以改變一生。
+多年後，我看到另一部電影《雙面情人》（Sliding Doors, 1998；港譯：《緣分兩面睇》），發覺也是用上了同一意念：女主角每天搭地鐵上班，但某天因事遲了一點而趕不上平日搭的那班車。電影基於「趕得及」和「趕不及」兩種情況，描述了女主角往後出現的兩種截然不同的人生。（我後來才知道，這乃改編自一部一九八一年的波蘭電影。）
+歷年來，運用這類意念創作的小說和電影可謂不少，近年流行的好萊塢「超級英雄」電影中，《奇異博士》（Doctor Strange, 2016）和它的續集《奇異博士 2：失控多重宇宙 》（Doctor Strange in the Multiverse of Madness, 2022；港譯：《奇異博士 2：失控多元宇宙》）更將「平行時空」的意念延伸為「多重宇宙」（Multiverse）。陣容更為龐大的《復仇者聯盟 3：無限之戰》（Avengers 3: theInfinity War, 2018）和《復仇者聯盟 4：終局之戰》（Avengers 4: Endgame, 2019）皆以同樣的意念作為故事主軸。當然，這些電影都由漫畫改編，亦即這些意念的出現時間比電影還要早得多。
+但將這個意念發揮至極的，毫無疑問是二○二三年橫掃奧斯卡最佳電影、最佳導演、最佳編劇多項大獎的「怪雞」1 電影《媽的多重宇宙》（Everything, Everywhere All At Once，縮寫是 EEAAO；港譯：《神奇女俠玩救宇宙》）。華裔演員楊紫瓊（1962-）更因此而封后（最佳女演員）；同樣是華裔的關繼威（1971-）以及潔美．李．寇蒂斯（Jamie Lee Curtis, 1958-）則分別獲得最佳男、女配角的殊榮。電影由兩位導演掌舵，雖然兩個都叫 Daniel，但一個是香港人關家永（Daniel M. Kwan, 1988-），一個是美國人丹尼爾．舒奈特（Daniel Scheinert, 1987-）。2 囊括了這麼多大獎，電影的風頭可謂一時無兩。由於有這麼多華人參與其間，全球絕大部分華人皆感到與有榮焉。
+外國的評論幾乎一面倒地對這部電影讚譽有加，包括其中所包含的深刻人生哲理、愛情與理想之間的抉擇、亞裔移民在美國所遇到的生活困難、世代之間的價值矛盾、同性戀（非主流性取向）的社會認同問題，以及貫穿電影的、最重要的母、女之情。不少網友更留言說看至結局時感動流涕。反倒在華人世界，包括不少筆者所認識的朋友，皆對電影甚有保留，認為它寫情的部分毫無新意，而「科幻」的主題和情節則過於胡鬧不知云。（一些更認為電影被大肆吹捧，是近年席捲西方的「政治正確主義」的結果。他們更為另一位最佳女主角競逐者凱特．布蘭琪（Cate Blanchett, 1969-）不值。但那是另一篇文章的主題，暫且按下不表。）
+——本文摘自《超次元．聖戰．多重宇宙》，2023 年 11 月，二○四六出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>物理-化學</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>快速通道與無盡地界：科幻作品裡的黑洞——《超次元．聖戰．多重宇宙》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374128</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>一個無底深淵怎能成為星際飛行的捷徑呢？原來按照愛因斯坦的理論，黑洞是一個時空曲率趨於無限大——也就是說，時空本身已「閉合」起來的區域。但往後的計算顯示，若收縮的星體質量足夠大的話，時空在閉合到某一程度之後，會有重新開敞的可能，而被吸入的物體，將可以重現於宇宙之中。只是，這個「宇宙」已不再是我們原先出發的宇宙，而是另一個宇宙、另一個時空（姑毋論這是甚麼意思）。按照這一推論，黑洞的存在，可能形成一條時空的甬道（稱為「愛因斯坦－羅森橋接」），將兩個本來互不相干的宇宙連接起來。
+這種匪夷所思的推論固然可以成為極佳的科幻素材，但對於克服在我們這個宇宙中的星際距離，則似乎幫助不大。然而，一些科學家指出，愛因斯坦所謂的另一個宇宙，很可能只是這一宇宙之內的別的區域。如果是的話，太空船便可由太空的某處飛進一個黑洞之內，然後在遠處的一個「白洞」（white hole）那兒走出來，其間無須經歷遙遠的星際距離。把黑洞和白洞連結起來的時空甬道，人們形象地稱之為「蛆洞」、「蛀洞」或「蟲洞」（wormhole）。
+「蛆洞」是否標誌著未來星際旅行的「捷徑」呢？不少科幻創作正以此為題材。其中最著名的，是《星艦奇航記》第三輯《太空站深空 9 號》（Deep Space Nine, 1993-1999），在劇集裡，人類發現了一個遠古外星文明遺留下來的「蛆洞」，於是在旁邊建起了一個龐大的星際補給站，成為了星際航運的聚散地，而眾多精彩的故事便在這個太空站內展開。
+我方才說「最著名」，其實只限於《星艦》迷而言。對於普羅大眾，對於「蛆洞」作為星際航行手段的認識，大多數來自二○一四年的電影《星際效應》（Interstellar，港譯：《星際啟示錄》），其間人類不但透過蛆洞去到宇宙深處尋找「地球 2.0」（因為地球環境已大幅崩壞），男主角更穿越時空回到過去，目睹多年前與年幼女兒生離死別的一幕。電影中既有大膽的科學想像，也有感人的父女之情，打動了不少觀眾。大家可能有所不知的是，導演基斯杜化．諾蘭（Christopher Nolan, 1970-）邀請了知名的黑洞物理學基普．索恩（Kip Thorne, 1940-）作顧問，所以其中所展示的壯觀黑洞景象，可不是憑空杜撰而是有科學根據的呢！
+然而事情並非這麼簡單。我們不要忘記，黑洞的周圍是一個十分強大的引力場，而且越接近黑洞，引力的強度越大，以至任何物體在靠近它時，較為接近黑洞的一端所感受到的引力，與較為遠離黑洞的一端所感受到的，將有很大的差別。這種引力的差別形成了一股強大之極的「潮汐張力」（tidal strain），足以把最堅固的太空船（不要說在內的船員）也撕得粉碎。
+潮汐張力的危險不獨限於黑洞，方才提及的中子星，其附近亦有很強的潮汐力。 拉瑞．尼文（Larry Niven, 1938-，港譯：拉利．尼雲）於一九六六年所寫的短篇〈中子星〉（Neutron Star），正以這一危險作為故事的題材。
+尤有甚者，即使太空船能抵受極大的潮汐力，在黑洞的中央是一個時空曲率趨於無限，因此引力也趨於無限的時空「奇點」（singularity）。太空船未從白洞重現於正常的時空，必已在「奇點」之上撞得粉碎，星際旅程於是變了死亡旅程。
+然而，往後的研究顯示，以上的描述只適用於一個靜止的、沒有旋轉的黑洞，亦即「史瓦西解」所描述的黑洞。可是在宇宙的眾多天體中，絕大部分都具有自轉。按此推論，一般黑洞也應具有旋轉運動才是。要照顧到黑洞自旋的「場方程解」，可比單是描述靜止黑洞的史瓦西解複雜得多。直至一九六三年，透過了紐西蘭數學家羅伊・卡爾（Roy Kerr, 1934-）的突破性工作，人類才首次得以窺探一個旋轉黑洞周圍的時空幾何特性。
+科學家對「卡爾解」（The Kerr solution）的研究越深入，發現令人驚異的時空特性也越多。其中一點最重要的是：黑洞中的奇點不是一個點，而是一個環狀的區域。即只要我們避免從赤道的平面進入黑洞，理論上我們可以毋須遇上無限大的時空曲率，便可穿越黑洞而從它的「另一端」走出來。
+不用說，旋轉黑洞（也就是說，自然界中大部分的黑洞）立即成為科幻小說作家的最新寵兒。
+一九七五年，喬．哈德曼（Joe Haldeman,1943-）在他的得獎作品《永無休止的戰爭》（The Forever War, 1974）之中，正利用了快速旋轉的黑洞（在書中稱為「塌陷體」——collapsar）作用星際飛行——以及星際戰爭得以體現的途徑。
+由於黑洞在宇宙中的分佈未必最方便於人類的星際探險計劃，一位科學作家阿德里安．倍里（Adrian　Berry,1937-2016）更突發奇想，在他那充滿想像的科普著作《鐵的太陽》（The Iron Sun, 1977）之中，提出了由人工製造黑洞以作為星際轉運站的大膽構思。
+要特別提出的一點是，飛越旋轉黑洞雖可避免在奇點上撞得粉碎，卻並不表示太空船及船上的人無須抵受極強大的潮汐力。如何能確保船及船員在黑洞之旅中安然無恙，是大部分作家都只有輕輕略過的一項難題。
+此外，按照理論顯示，即使太空船能安然穿越黑洞，出來後所處的宇宙，將不是我們原先出發的那個宇宙；而就算是同一個宇宙，也很可能處於遙遠的過去或未來的某一刻。要使這種旅程成為可靠的星際飛行手段，科幻作家唯有假設人類未來對黑洞的認識甚至駕馭，必已達到一個我們今天無法想像的水平。
+然而，除了作為星際飛行途徑，黑洞本身也是一個怪異得可以的地方，因此也是一個很好的科幻素材。黑洞周圍最奇妙的一個時空特徵，就是任何事物——包括光線——都會「一進不返」的一道分界線，科學家稱之為「事件穹界」（event horizon）。這個穹界（實則是一個立體的界面），正是由當年史瓦西計算出來的「史瓦西半徑」（Schwarzschild radius）所決定。例如太陽的穹界半徑是三公里，也就是說，假若一天太陽能收縮成一個半徑小於三公里的天體，它將成為一個黑洞而在宇宙中消失。「穹界」的意思就是時空到了這一界面便有如到了盡頭，凝頓不變了。
+簡單地說，穹界半徑就是物體在落入黑洞時的速度已達於光速，而相對論性的「時間延長效應」（time dilation effect）則達到無限大。對太空船上的人來說，穿越界面的時間只是極短的頃刻，但對於一個遠離黑洞的觀測者，他所看到的卻是：太空船越接近界面，船上的時間變得越慢。
+而在太空船抵達界面時，時間已完全停頓下來。換句話說，相對於外界的人而言，太空船穿越界面將需要無限長的時間！
+了解到這一點，我們便可領略波爾．安德遜（Poul Anderson, 1926-2001）的短篇〈凱利〉（Kyrie, 1968）背後的意念。故事描述一艘太空船不慎掉進一個黑洞，船上的人自是全部罹難。但對於另一艘船上擁有心靈感應能力的一個外星人來說，情況卻有所不同。理由是她有一個同樣擁有心靈感應能力的妹妹在船上，而遇難前兩人一直保持心靈溝通。由於黑洞的特性令遇難的一剎（太空船穿越穹界的一剎）等於外間的永恆，所以這個生還的外星人，畢生仍可在腦海中聽到她妹妹遇難時的慘叫聲。
+安德遜這個故事寫於一九六八年，可說是以黑洞為創作題材的一個最早嘗試。
+太空船在穹界因時間停頓而變得靜止不動這一情況在阿爾迪斯一九七六年寫的《夜裡的黑暗靈魂》（The Dark Soul of the Night）中，亦有頗為形象的描寫。恆星的引力崩塌，在羅伯特．史弗堡（Robert Silverberg）的《前往黑暗之星》（To the Dark Star, 1968）之中卻帶來另一種（雖然是假想的）危險。故事中的主人翁透過遙感裝置「親身」體驗一顆恆星引力塌陷的過程，卻發覺時空的扭曲原來可以使人的精神陷於瘋狂甚至崩潰的境地。
+以穹界的時間延長效應為題材的長篇小說，首推弗雷德里克．波爾（Frederik Pohl, 1919-2013）的得獎作品《通道》（Gateway, 1977），故事描述人類在小行星帶發現了由一族科技極高超的外星人遺留下來的探星基地。基地內有很多完全自動導航的太空船，人類可以乘坐這些太空船穿越「時空甬道」抵達其他的基地，並在這些基地帶回很多珍貴的，因此也可以令發現者致富的超級科技發明。
+故事的男主角正是追尋這些寶藏的冒險者之一。他和愛人和好友共乘一艘外星人的太空船出發尋寶，卻不慎誤闖一顆黑洞的範圍。後來他雖逃脫，愛人和好友卻掉進黑洞之中。但由於黑洞穹界的時間延長效應，對於男主角來說，他的愛人和好友永遠也在受著死亡那一刻的痛苦，而他也不歇地受著內疚與自責的煎熬。
+故事的內容由男主角接受心理治療時逐步帶出。而特別之處，在於進行心理治療的醫生不是一個人，而是一副擁有接近人類智慧的電腦。全書雖是一幕幕的人機對話，描寫卻是細膩真摯、深刻感人，實在是一部令人難以忘懷的佳作。
+由於這篇小說的成功，波氏繼後還寫了兩本續集：《藍色事件穹界以外》（Beyond the Blue Event Horizon, 1980）及《希徹會晤》（Heechee Rendezvous, 1984）。而且兩本都能保持很高的水準。
+時間延長效應並非一定帶來悲劇。在先前提及的《永無休止的戰爭》的結尾，女主角正是以近光速飛行（而不是飛近黑洞）的時間延長效應，等候她的愛侶遠征歸來，為全書帶來了令人驚喜而又感人的大團圓結局。
+七○年代末的黑洞熱潮，令迪士尼（Walt Disney）的第一部科幻電影製作亦以此為題材。在一九七九年攝製的電影《黑洞》（The Black Hole）之中，太空船「帕魯明諾號」在一次意外中迷航，卻無意中發現了失蹤已久的「天鵝號」太空船。由於「天鵝號」環繞著一個黑洞運行，船上的人因時間延長效應而衰老得很慢。這艘船的船長是一個憤世疾俗的怪人，他的失蹤其實是故意遠離塵世。最後，他情願把船撞向黑洞也不願重返文明。
+比起史提芬．史匹堡（Steven Spielberg, 1946-）的科幻電影，這部《黑洞》雖然投資浩大，拍來卻是平淡乏味，成績頗為令人失望。除了電影外，科幻作家艾倫．迪安．霍斯特（Alan Dean Foster, 1946-）亦根據劇本寫成的一本同名的小說。
+——本文摘自《超次元．聖戰．多重宇宙》，2023 年 11 月，二○四六出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>物理-化學</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>民眾黨是未來台灣政治的樞紐？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374532</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>選後的立法院三黨不過半，但民眾黨有八席不分區立委，足以與民進黨或國民黨結成多數聯盟，勢將在國會居於樞紐地位。無獨有偶的是：民眾黨主席柯文哲在總統大選得到 26.5% 的選票，屈居第三，但因其獲得部分藍、綠選民的支持，在選民偏好順序組態的基礎上，它卻也同樣地居於樞紐地位。這個地位，將足以讓柯文哲及民眾黨在選後的台灣政壇持續激盪。
+這次總統大選，誰能脫穎而出並不是一個特別令人殷盼的問題，更值得關心的問題是藍白綠「三跤㧣」在選民偏好順序組態中的消長。台灣總統大選採多數決選制，多數決選制英文叫 first-past-the-post（FPTP），簡單來講就是票多的贏，票少的輸。在 10 月中藍白合破局之後，賴蕭配會贏已經沒有懸念，但這只是選制定規之下的結果，換了另一個選制，同樣的選情可能就會險象環生。
+從另一個角度想：選制是人為的，而選情反映的是社會現實。政治學者都知道天下沒有十全十美的選制；既定的選制推出了一位總統，並不代表選情的張力就會成為過眼雲煙。當三股社會勢力在制度的帷幕後繼續激盪，台灣政治將無法因新總統的誕生而趨於穩定。
+如果在「三跤㧣」選舉之下，選情的激盪從候選人的得票多少看不出來，那要從哪裡看？政治學提供的一個方法是把候選人配對 PK，看是否有一位候選人能在所有的 PK 中取勝。這樣的候選人並不一定存在，如果不存在，那代表有 A 與 B 配對 A 勝，B 與 C 配對 B 勝，C 與 A 配對 C 勝的 A＞B＞C＞A 的情形。這種情形，一般叫做「循環多數」（cyclical majorities），是 18 世紀法國學者孔多塞（Nicolas de Condorcet）首先提出。循環多數的存在意涵選舉結果隱藏了政治動盪。
+另一方面，如果有一位候選人能在配對 PK 時擊敗所有的其他候選人，這樣的候選人稱作「孔多塞贏家」（Condorcet winner），而在配對 PK 時均被擊敗的候選人則稱作「孔多塞輸家」（Condorcet loser）。三角嘟的選舉若無循環多數，則一定會有孔多塞贏家和孔多塞輸家，然而孔多塞贏家不一定即是多數決選制中贏得選舉的候選人，而多數決選制中贏得選舉的候選人卻可能是孔多塞輸家。
+如果多數決選制中贏得選舉的候選人不是孔多塞贏家，那與循環多數一樣，意涵選後政治將不會穩定。
+那麼，台灣這次總統大選，有沒有孔多塞贏家？如果有，是多數決選制之下當選的賴清德嗎？我根據戴立安先生調查規劃的《美麗島電子報》追蹤民調第 109 波（1 月 11 日至 12 日），也是選前最後民調的估計，得到的結果令人驚訝：得票墊後的柯文哲很可能是孔多塞贏家，而得票最多的賴清德很可能是孔多塞輸家。果然如此，那白色力量將會持續地激盪台灣政治！
+我之前根據美麗島封關前第 101 波估計，侯友宜可能是孔多塞贏家，而賴清德是孔多塞輸家。現在得到不同的結果，顯示了封關期間的三股政治力量的消長。本來藍營期望的棄保不但沒有發生，而且柯文哲選前之夜在凱道浩大的造勢活動，還震驚了藍綠陣營。民調樣本估計出的孔多塞贏家本來就不準確，但短期內的改變，很可能反映了選情的激盪，甚至可能反映了循環多數的存在。
+根據這波民調，總樣本 N=1001 位受訪者中，如果當時投票，會支持賴清德的受訪者共 355 人，佔 35.4%；支持侯友宜的受訪者共 247 人，佔 24.7%。支持柯文哲的受訪者共 200 人，佔 19.9%。
+美麗島民調續問「最不希望誰當總統，也絕對不會投給他的候選人」，在會投票給三組候選人的 802 位支持者中，一共有 572 位對這個問題給予了明確的回答。《美麗島電子報》在其網站提供了交叉表如圖：
+根據這個交叉表，我們可以估計每一位明確回答了續問的受訪者對三組候選人的偏好順序，然後再依這 572 人的偏好順序組態來判定在兩兩 PK 的情形下，候選人之間的輸贏如何。我得到的結果是：
+所以柯文哲是孔多塞贏家，賴清德是孔多塞輸家。當然我們如果考慮抽樣誤差（4.1%），除了柯文哲勝出賴清德具有統計顯著性之外，其他兩組配對可說難分難解。但在這 N=572 的小樣本中，三位候選人的得票率分別是：賴清德 40%，侯友宜 33%，柯文哲 27%，與選舉實際結果幾乎一模一樣。至少在這個反映了選舉結果的樣本中，柯文哲是孔多塞贏家。依多數決選制，孔多塞輸家賴清德當選。
+不過以上的分析有一個問題：各陣營的支持者中，有不少人無法明確回答「最不希望看到誰當總統，也絕對不會投給他做總統」的候選人。最嚴重的是賴清德的支持者，其「無反應率」（nonresponse rate）高達 34.5%。相對而言，侯友宜、柯文哲的支持者則分別只有 24.1%、23.8% 無法明確回答。為什麼賴的支持者有較多人無法指認最討厭的候選人？一個假設是因為藍、白性質相近，對許多綠營選民而言，其候選人的討厭程度可能難分軒輊。反過來說，藍、白陣營的選民大多數會最討厭綠營候選人，因此指認較無困難。無論如何，把無法明確回答偏好順序的受訪者歸為「遺失值」（missing value）而棄置不用總不是很恰當的做法，在這裡尤其可能會造成賴清德支持者數目的低估。
+補救的辦法之一是在「無法明確回答等於無法區別」的假設下，把「遺失值」平分給投票對象之外的其他兩位候選人，也就是假設他們各有 1/2 的機會是無反應受訪者最討厭的候選人。這樣處理的結果，得到
+此時賴清德是孔多塞贏家，而柯文哲是孔多塞輸家。在這 N=802 的樣本中，三位候選人的得票率分別是：賴清德 44%，侯友宜 31%，柯文哲 25%。雖然依多數決選制，孔多塞贏家賴清德當選，但賴的得票率超過實際選舉結果（40%）。用無實證的假設來填補遺失值，反而造成賴清德支持者數目的高估。
+如果擔心「無法明確回答等於無法區別」的假設太勉強，補救的辦法之二是把「遺失值」依有反應受訪者選擇最討厭對象的同樣比例，分給投票對象之外的其他兩位候選人。這樣處理的結果，得到
+此時柯文哲又是孔多塞贏家，而賴清德又是孔多塞輸家了。這個樣本也是 N=802，三位候選人的得票率分別是：賴清德 44%，侯友宜 31%，柯文哲 25%，與上面的結果一樣。
+以上三種無反應處理方法都不盡完美。第一種把無反應直接當遺失值丟棄，看似最不可取。然而縮小的樣本裡，三位候選人的支持度與實際選舉結果幾乎完全一致。後兩種以不同的假設補足了遺失值，但卻過度膨脹了賴清德的支持度。如果以樣本中候選人支持度與實際結果的比較來判斷遺失值處理方法的效度，我們不能排斥第一種方法及其結果。
+無論如何，在缺乏完全資訊的情況下，我們發現的確有可能多數決輸家柯文哲是孔多塞贏家，而多數決贏家賴清德是孔多塞輸家。因為配對 PK 結果缺乏統計顯著性，我們甚至不能排除循環多數的存在。此後四年，多數決選制產生的總統能否在三角嘟力量的激盪下有效維持政治穩定，值得我們持續觀察。
+柯文哲之所以可以是孔多塞贏家，是因為藍綠選民傾向於最不希望對方的候選人當總統。而白營的中間偏藍位置，讓柯文哲與賴清德 PK 時，能夠得到大多數藍營選民的奧援而勝出。同樣的，當他與侯友宜 PK 時，他也能夠得到一部份綠營選民的奧援。只要他的支持者足夠，他也能夠勝出。反過來看，當賴清德與侯友宜 PK 時，除非他的基本盤夠大，否則從白營得到的奧援不一定足夠讓他勝出。民調 N=572 的樣本中，賴清德得 40%，侯友宜得 33%，柯文哲得 27%。由於柯的支持者討厭賴清德（52.5%）遠遠超過討厭侯友宜（23.7%），賴雖然基本盤較大，能夠從白營得到的奧援卻不多。而侯雖基本盤較小，卻有足夠的奧援。柯文哲之所以成為孔多塞贏家，賴清德之所以成為孔多塞輸家，都是這些因素的數學結果。</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>物理-化學</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>歐幾里得望遠鏡開工——目標是尋找暗物質證據！一起從科學家的角度欣賞這片夢幻光景！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/373886</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>14 億歐元天文望遠鏡拍出的照片，你看過了嗎？你看到現在這些照片，揭開了宇宙過去與現在、空間與時間所交織的祕密嗎？
+今年 11 月 7 日，位在 L2 拉格朗日點的歐幾里得望遠鏡，終於傳回來它升空後的第一批照片。這 5 張照片不只展示了望遠鏡的強大性能，更讓我們窺見過去無法看到的，宇宙深處的幽美與奧秘。就讓我們一起透過這些獨特的照片，來一場探索宇宙的奇異之旅吧！
+今年 ７ 月 １ 號升空的歐幾里得望遠鏡，任務是觀察宇宙大尺度結構，來研究暗物質與暗能量在宇宙中的分布與性質，讓我們進一步了解自己身處的這個宇宙。
+去年七月，接棒哈伯望遠鏡任務的詹姆斯．韋伯太空望遠鏡，傳回來了升空後的第一批相片，每張照片都美的震撼人心，也帶著我們從全新的視角，眺望遙遠的系外行星、恆星、星雲與早期宇宙。當時，我們製作了一集節目，和大家分享這批照片背後的重要意義。我們也提到，每個望遠鏡在完成校準以後，都會發布一批「開光照」，向外界傳達望遠鏡已經可以順利運作的好消息，同時也讓大家了解這台新望遠鏡身上，背負了哪些重要的使命與任務。
+而這次，新升空的歐幾里得望遠鏡也終於完成校正，傳回來不同於韋伯望遠鏡，從另一個視角看宇宙的開光照。先讓我們來了解一下歐幾里得望遠鏡。它的觀測波段是可見光到近紅外線波段，目標是觀測大範圍、不同遠近的宇宙天體。預計在 6 年的服役期間，建立完整清晰的宇宙 3D 立體圖像。只是，剛退役的哈伯太空望遠鏡，主要任務就是可見光波段的研究，去年剛任務正式開始的韋伯太空望遠鏡，則是紅外線波段的佼佼者。那歐幾里得望遠鏡有什麼突破之處嗎？這座花費 14 億歐元的望遠鏡當然有它獨到之處，它強大的地方在於，可以在更短時間內獲得更高解析度的照片，同時拍攝更大範圍的宇宙。比如哈伯太空望遠鏡需要好幾天觀測的天體，歐幾里得望遠鏡一個小時就可以搞定，而且解析度更高。
+其實看它們的任務目標就能很快理解，現在在天空上的韋伯和歐幾里得，雖然有部分任務重疊。但韋伯更著重在尋找系外行星與觀察星系、恆星系統的演化。歐幾里得呢，則是將視野放大到整個宇宙，希望了解暗物質、暗能量在整個宇宙間扮演的角色。所以比起韋伯太空望遠鏡著重在拍攝小範圍、高解析度的天體照片，歐幾里得望遠鏡一開始的設計，就是要在短時間內掃描更大片的宇宙。因此，歐幾里得望遠鏡也確實成為建立宇宙 3D 立體圖像的最佳望遠鏡，定期的大範圍掃描天空，讓我們能一窺宇宙隨時間的演化動態。
+那麼，就讓我們來欣賞歐幾里得望遠鏡的第一批照片吧！
+第一張照片，像是在宇宙這張巨大的黑布上，撒下大小珍珠。它是一張距離地球 2.4 億光年，英仙座星系團的影像照。
+宇宙中有許多星系團，英仙座星系團就是其中之一，裡面包含超過 1000 個星系，是宇宙中最大的結構之一。除此之外，這張照片不僅清楚拍下了星系團，如果將照片放大來看，還會發現背景中有許多過去難以看到的星系，數量超過 10 萬個，最遠的甚至達 100 億光年。為什麼第一批照片要選擇拍攝星系團呢？因為研究星系團能幫助我們了解宇宙大尺度結構，進一步推算暗物質與暗能量的比例。
+宇宙中的星系分佈其實是不均勻的，有些地方有許多星系，有些區域則幾乎沒有。整個宇宙中天體的分布看起來就像是一張巨網。可是，為什麼宇宙的大尺度結構是網狀的呢？天文學家認為宇宙大爆炸之後，物質在宇宙中的分佈會有些微的不均勻。當宇宙逐漸冷卻，氣體物質密度較高的地方會因為重力吸引而塌縮。但因為溫度很高，高溫產生的巨大壓力又讓氣體團反彈回來，就像擠壓一個壓力球一樣。來回震盪的過程中氣體會像聲波朝四面八方傳遞出去，稱為重子聲學振盪（BAO，baryon acoustic oscillations）。最後整個宇宙就像下毛毛雨時的池塘，形成由許多漣漪交織的網狀結構，波腹的地方氣體密度較高，變成星系高度聚集的區域，我們稱為星系團。其他地方氣體密度低，形成的星系數量較少，就像是宇宙間的孔洞。
+而根據宇宙學家計算，要形成星系團、宇宙網（cosmic web）這類的宇宙大尺度結構，只靠已知物質提供的重力是不夠的，很可能還有許多我們還不了解的物質參與其中，也就是暗物質。這張照片不僅能幫助科學家研究宇宙大尺度結構，更彰顯歐幾里得望遠鏡的重要任務之一，就是幫助科學家深入了解暗物質的分佈與本質。
+第二張照片是螺旋星系 IC342，離地球只有 1100 萬光年，算是離地球很近的星系，但由於它被明亮的銀河系盤面擋住了，觀測的難度非常高。歐幾里得望遠鏡利用近紅外線儀器穿透塵埃進行觀察，並移除許多銀河系中的恆星光芒，最後才形成這張極高解析度的照片，展現了它觀測隱藏星系的實力。
+這個螺旋星系在天空中的大小相當於一個滿月那麼大，要一次觀測這樣大範圍的天空，同時保有超高解析度，目前只有歐幾里得望遠鏡才辦得到。由於螺旋星系 IC342 和銀河系很像，觀察它的演化有助於科學家理解銀河系的形成過程。未來歐幾里得望遠鏡也會觀測更多隱藏星系和遙遠的天體，繪製出它們的 3D 分佈圖。
+第三張照片是不規則星系 NGC 6822。雖然跟 IC342、銀河系一樣也是星系，但形狀不是螺旋而是不規則的。
+透過光譜分析，我們知道這個星系中的重元素含量很低。重元素是透過大質量恆星核融合所產生的，重元素含量少表示星系裡的恆星才剛形成，也就是一個很早期、相對年輕的星系。科學家認為，在宇宙早期星系剛開始演化時，大部分的星系就長得像這樣，質量小、形狀也不太規則。之後這些小星系會因為重力吸引其他星系，彼此相撞、融合成更大的星系，逐漸產生旋轉的結構，形成像銀河系這樣的大質量螺旋星系。所以藉由觀測這些早期星系，可以幫助科學家了解星系的形成過程。
+另外，照片中一顆顆藍色的圓形區域，是球狀星團。球狀星團中的星星都是由同一團氣體產生，是宇宙最早形成的天體之一，有些甚至比星系本身還早。透過觀測這些球狀星團的運動，能協助我們更了解這個星系的形成史。
+球狀星團大部分分佈在星系的外圍，以很慢的速度繞行星系，可能要好幾年才能觀察到要它們的運動。那科學家要怎麼知道這些星團是如何移動的呢？凡走過必留下痕跡，其中一種方式就是觀察到它們與星系本身互動所留下的痕跡。在歐幾里得望遠鏡傳回來的第四張照片中，就呈現了這些細節。第四張照片是球狀星團 NGC 6397，一個繞行銀河系的球狀星團。
+當星團經過星系中的高密度區域，比如暗物質集中區、旋臂或星系盤面，星團中的星星會受到不同強度的重力吸引，使得星星彼此遠離，這個力量稱為潮汐力。顧名思義與潮汐的產生是相同的原理，由於地球各處受到太陽與月亮的重力總和不相同，在重力較強的地方海水受拉伸而漲潮，重力較弱的地方就會退潮。同樣道理，球狀星團在靠近星系中心的一側受重力較強，遠離星系的一側則較弱，球狀星團因而被拉伸，形成一條由星星組成的尾巴，稱為潮汐尾。
+透過觀測潮汐尾，就可以了解球狀星團，乃至星系的演化過程。如果沒有潮汐尾，也可能代表有暗物質暈阻止外層恆星逃脫，能幫助我們進一步了解暗物質在星系當中的分佈。但要瞭解潮汐尾的形成過程，必須有星團中每顆星星的移動資料，也就是需要同時進行大範圍、短時間、高精度的觀測。而歐幾里得望遠鏡的優勢此時就能充分發揮，它可以一次拍攝整個球狀星團，而且只須一小時就可以得到這張高解析度的照片，連裡面的很暗的星星也看的一清二楚。只要每隔一段時間拍攝一張照片，就可以製作成動畫，了解星團中星體的運動軌跡。
+最後，我們來介紹最後一張照片。它看起來最為夢幻，猶如一張宇宙中以繁星點綴的絲綢。它是距離地球約 1375 光年的馬頭星雲，也是離我們最近，正在形成新生恆星的區域。在星雲的上方（照片之外），有一顆明亮的恆星：獵戶座 sigma 星，這顆星輻射出的紫外光激發了位在馬頭後方的星雲，形成明亮、宛若薄紗的區域。組成馬頭的暗星雲氣體則因為溫度較低，只有些微的熱輻射，形成較為黯淡的前景，並稍微遮掩背後的明亮星雲。前後星雲層層堆疊，就像一幅宇宙給我們的水彩畫。更進一步，藉由歐幾里得望遠鏡高解析度的照片，科學家得以從中看到更多類木星、棕矮星、嬰兒恆星等，協助科學家了解星雲中的恆星形成過程。
+對了，在我們介紹韋伯望遠鏡時有提到過，這些宇宙照通常不是它可見光波段下，真正我們肉眼所見的樣貌。而是選定特定波長後透過顏色校正，甚至將不同波段的照片疊合，才得到的結果。也就是說，選則不同的電磁波波段，或是採取不同的調色方式，得到的照片都會有不同風味。
+所以如果你覺得這張淡麗的馬頭星雲不滿意，也有這張，特別強化氫元素的紅色光譜與氧元素藍色光譜後，成為一張猶如滅世風格，帶有點詭譎濾鏡的另一種美照，是不是跟剛才的氛圍完全不一樣呢？
+順帶一提，對我來說，一樣是星雲照片，韋伯望遠鏡校色出來的照片還是覺得比較好看。例如之前介紹過的，韋伯望遠鏡開光照之一的船底座星雲。還有原本是望遠鏡大前輩哈伯代表作，後來韋伯又重新翻拍的創世之柱，都更令人讚嘆不已，對比與彩度都高上許多，給人一種正在仰望廣闊宇宙的壯烈感。
+我們對於宇宙的瞭解還太少，目前宇宙中的已知物質，包括元素週期表上的所有原子，根據計算只佔宇宙質能的 5%，剩下的估計都是暗物質與和能量。
+但宇宙的奧秘就像一張複雜的拼圖，每拼上一小塊，都會給我們一些線索，猜測周圍的拼圖可能會是什麼。當拼的夠多，我們終有一天能得知宇宙整體的圖畫長什麼樣貌。恆星形成、星系演化方式、暗物質、暗能量等等，都各自是一塊塊重要的拼圖，唯有了解它們才能逐步得知暗物質與暗能量的奧秘。
+舉例來說，暗物質所提供的重力在星系形成中扮演重要角色，目前最被科學界接受的冷暗物質（cold dark matter）模型，假設暗物質是由質量很大的粒子所組成，透過重力吸引聚集成許多小塊，小塊暗物質再彼此融合成更大的暗物質團塊，質量足夠大的團塊就可以吸引夠多的氣體，形成早期星系，之後再彼此融合成為更大的螺旋或橢圓星系。但透過數值模擬，科學家發現這個模型有些問題。理論上來說應該要有數百到數千個小衛星星系，繞行像銀河系這麼大的螺旋星系旋轉。但是天文學家實際上只觀測到約十個小星系繞行銀河系，這是著名的衛星遺失問題（Missing satellite problem）。
+因此科學家又提出更多暗物質模型，比如與冷暗物質相對的熱暗物質（warm dark matter）模型，可以透過熱運動所產生的壓力抵銷重力，使得小暗物質團塊變得不穩定，從而解釋為何小星系的數量這麼少。除了熱暗物質以外，還有眾多的暗物質模型。但要證明哪個模型是正確的，就需要更多觀測數據與星系演化的模擬結果進行比較，才能得到答案。
+不過看過歐幾里得望遠鏡傳回來的第一批照片，並了解其中代表的重要意義，就能充分感受到我們離解開這個謎團又更近了一步。還沒完，預計於 2027 年升空的羅曼太空望遠鏡（Nancy Grace Roman Space Telescope），與歐幾里得望遠鏡相同，都肩負研究暗能量與暗物質的重要任務。兩座望遠鏡將一同一個從可見光，一個從紅外線波段觀察大範圍宇宙，期待能為科學家帶來寶貴的數據，解開這盤旋好幾十年的謎團。
+最後問問大家，在這批照片中，你最喜歡的是哪一張呢？
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>物理-化學</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>秋季星空中一抹光亮：北落師門殘屑盤的觀測史——《科學月刊》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374220</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>北落師門（Fomalhaut）又稱南魚座 α 星，是秋季星空中著名的亮星之一。去年 5 月，以美國亞利桑那大學（University of Arizona）天文學家加斯帕（András Gáspár）為首的研究團隊在《自然天文學》（Nature Astronomy）期刊上發表，他們藉由詹姆士．韋伯太空望遠鏡（James Webb Space Telescope, JWST，簡稱韋伯望遠鏡），在北落師門周圍殘屑盤（debris disk）中首次發現了「系外小行星帶」的存在。韋伯望遠鏡拍下美麗的照片，也瞬間席捲各大科學與科普媒體的版面（圖一）。
+天文學家選擇北落師門作為目標並非偶然。半個世紀以來，北落師門一直是天文學家研究殘屑盤時的首選目標之一。韋伯望遠鏡的新影像為我們帶來什麼新發現？過去與現在的觀測方式又有什麼差異？本文將帶著大家一起回顧北落師門殘屑盤的觀測史。
+殘屑盤是環繞在恆星周遭，由顆粒大小不一的塵埃所組成的盤狀結構。如果讀者們聽過行星形成的故事，也知道行星是從恆星四周、由氣體與塵埃組成的「原行星盤」（protoplanetary disk）中誕生，那你或許會認為殘屑盤可能就是行星形成後剩下的塵埃。但實際上並非如此，在恆星形成初期的數百萬年間，原行星盤中的氣體和塵埃會被恆星吸積或是吸收恆星輻射的能量後蒸發，同時也會聚集成小型天體或行星，這些原因都會使原行星盤消散。而殘屑盤則是由盤面上的小行星等天體們互相碰撞後，產生的第二代塵埃組成（圖二）。
+這些塵埃發光的機制主要有兩種。第一，塵埃本身可以散射來自母恆星的星光，從而讓天文學家能在可見光與近紅外波段看到它們。第二，塵埃在吸收來自恆星的星光之後，以熱輻射的形式將這些能量重新釋放。由於恆星的光強度與距離成平方反比，愈靠近恆星，塵埃的溫度就愈高，因此發出的輻射以近紅外線為主；反之，愈是遠離恆星，塵埃的溫度就愈低，發出的光就以中遠紅外線為主。
+北落師門殘屑盤的觀測始於 1983 年。當時，美國國家航空暨太空總署（National Aeronautics and Space Administration, NASA）的紅外線天文衛星（Infrared Astronomical Satellite, IRAS）發現北落師門在紅外線波段的亮度異常高，代表周圍很可能有殘屑盤圍繞。由於北落師門離地球僅約 25 光年，這項發現引起眾多天文學家的關注，並在未來數十年前仆後繼地拿出各波段最好的望遠鏡，希望藉此深入了解殘屑盤的特性。其中，哈伯太空望遠鏡（Hubble Space Telescope, HST，簡稱哈伯望遠鏡）、阿塔卡瑪大型毫米及次毫米波陣列（Atacama Large Millimeter/submillimeter Array, ALMA）與韋伯望遠鏡擁有非常好的空間解析度，因此能夠清楚地觀測殘屑盤的結構。
+ 2008 年， NASA 公布哈伯望遠鏡在 2004 與 2006 年對北落師門的觀測結果（圖三），讓天文學家首次清晰地看到北落師門殘屑盤的影像。這張照片是哈伯望遠鏡以日冕儀（coronagraph）在 600 奈米（nm）的可見光波段下拍攝，中間的白點代表北落師門的位置，而周圍的環狀亮帶正是因散射的北落師門星光而發亮的殘屑盤，放射狀的條紋則是日冕儀沒能完全消除的恆星散射光。除此之外，天文學家還發現有一個亮點正圍繞著北落師門運行，並認為此亮點可能是一顆圍繞北落師門的行星，於是將它命名為「北落師門 b 」。很可惜在往後的觀測中，天文學家發現北落師門 b 漸漸膨脹消散，到 2014 年時就已經完全看不見了。因此它很可能只是一團塵埃，而非真正的行星。
+ ALMA 對北落師門的完整觀測於 2017 年亮相，他們展示出更加清晰漂亮的環狀結構，且位置與哈伯望遠鏡的觀測吻合。正如前面提到，殘屑盤中的塵埃溫度愈低，放出的輻射波長就愈長。因此 ALMA 在 1.3 毫米（mm）波段觀測到的影像，主要來自離殘屑盤中恆星最遠、最冷的部分。
+最後則要來看去年韋伯望遠鏡所使用中紅外線儀（mid-infrared instrument, MIRI）拍攝的影像（圖五）。與之前的觀測不同，這次的影像顯示北落師門的殘屑盤其實分成幾個部分：
+首先，哈伯望遠鏡與 ALMA 之前就已觀測到的塵埃環，它的半徑約 136～150 天文單位（AU）、寬約 20～25 AU，而溫度則落在約 50～60 K，與太陽系的古柏帶（Kuiper belt）十分相似，因此被稱為「類古柏帶環」（KBA ring）。雖然在觀測上的溫度相似，但其實此塵埃環與北落師門的距離是古柏帶到太陽的四倍；不過北落師門光度約為太陽的 16 倍，根據前述提及的平方反比關係，才導致兩者的溫度相近。此外，在更外層名為「暈」（halo）的黯淡結構則對應古柏帶外圍天體密度較低的區域。
+再來，韋伯望遠鏡還發現了更多未解的謎團：內側殘屑盤（inner disk）與中間環（intermediate ring）。其實早在本次韋伯望遠鏡的觀測之前，天文學家就已經從北落師門的光譜推測，北落師門的殘屑盤中除了存在前面提過的類古柏帶環之外，應該還有另一批更靠近恆星、溫度更高的塵埃，溫度與大小對應太陽系中的環狀小行星帶。但當韋伯望遠鏡實際觀測後，卻發現與太陽系的環狀小行星帶相比，北落師門有著相當瀰散的內側殘屑盤。為什麼會有這樣的不同呢？目前天文學家也不清楚，仍待進一步研究。
+最後，在類古柏帶環與內側殘屑盤之間，還存在著一個半長軸約 104 AU 的「中間環」，在太陽系中則沒有對應的結構，這項新發現也需要進一步的研究來了解它的來源。
+此外，雖然北落師門 b 最終被證實並不是一顆行星，但這並不代表北落師門旁沒有行星環繞。最初，殘屑盤的形成原因是由小行星等天體不斷碰撞所產生，經過不斷地碰撞合併，其實就有可能已經產生直徑數百到數千公里的行星。從北落師門的殘屑盤還可以推論，在內側殘屑盤與中間環之間可能有一顆海王星質量以上的行星，它就像鏟雪車般清除軌道上的塵埃，從而產生「內側裂縫」（inner gap）的結構。
+另一方面，天文學家也藉由數值模擬發現，如果僅考慮來自北落師門的重力影響，類古柏帶環應該要比觀測到的更寬才對。因此他們推測，很可能在類古柏帶環內外兩側有兩顆行星，像控制羊群的牧羊犬一樣以自身的重力限制塵埃移動，才產生了這麼細的塵埃環。
+北落師門雖然是一顆年齡僅4.4億年的年輕恆星，卻已經是一個擁有殘屑盤、形成行星的成熟恆星系統。而來自韋伯望遠鏡的最新觀測結果，無疑讓天文學家更深入地認識殘屑盤中複雜的結構，也更令他們相信北落師門系統中有多個行星環繞。
+不過，北落師門系統仍舊有許多未解之謎。例如為什麼太陽系有著環狀的小行星帶，北落師門卻是瀰散的內側殘屑盤？在無數的恆星中，究竟是太陽系還是北落師門的殘屑盤構造比較常見？殘屑盤中是否有行星存在？如果有，在北落師門的演化歷史中又扮演著怎樣的角色呢？這些問題都有待更多的觀測與理論模擬來解答。
+在北落師門之後，觀測團隊預計將韋伯望遠鏡指向天琴座的織女星（α Lyr, Vega），以及位於波江座的天苑四（ε Eri），兩者都是離地球非常近且擁有殘屑盤的恆星。其中織女星的溫度與質量比北落師門更大，而天苑四的質量與溫度雖然比太陽小，卻有強烈的磁場活動。藉由觀測不同系統中殘屑盤的性質差異，並與太陽系進行對比，不僅能更加認識殘屑盤的起源、與行星的交互作用，更能理解我們自己的恆星系中，數百萬顆的太陽系小天體從何而來。
+JWST 原始資料的處理過程影片介紹，非常值得一看！</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>物理-化學</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>數學無聊是誰的錯？數學家其實很幽默？——《數盲、詐騙與偽科學》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374046</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>雖然很少有學生小學畢業後還不懂乘法表，但有很多人確實不會算，如果一個人開車的速度是每小時 56 公里，開了 4 小時之後，他就開了 224 公里。要是每公克花生賣 40 美分，而 1 袋花生賣 2.2 美元，那麼，這袋花生裡就有 5.5 公克花生。假如全世界人口中有 1/4 是中國人，其餘的 1/5 是印度人，那麼，印度人在全世界的人口中就占了 3/20，或說是 15％。當然，要理解這些問題，並不像學會算 35×4＝140、（2.2）/（0.4）＝5.5、1/5×（1–1/4）＝3/20＝0.15＝15％ 這麼簡單。對很多小學生來說，這不是自然而然就會的東西，要靠做很多很實用、或是純屬想像的問題，才能進一步學會。
+至於估計，學校裡除了教一些四捨五入之外，通常也沒有別的了。四捨五入和合理的估計與真實人生大有關係，但課堂上很少串起這樣的連結。學校不會帶著小學生估計學校砌一面牆要用掉多少塊磚、班上跑最快的人速度多快、班上同學爸爸是禿頭的比例多高、一個人的頭圍與身高之比是多少、要堆出一座高度和帝國大廈等高的塔需要幾枚 5 美分硬幣，還有他們的教室能否容納這些 5 美分硬幣。
+幾乎也沒人教歸納推理，也不會用猜測相關性質和規則的角度，來研究數學現象。在小學數學課裡談到非形式邏輯（informal logic）的機率，就跟講到冰島傳說一樣高。當然，也不會有人提到難題、遊戲和謎語。我相信，這是因為很多時候，聰明的 10 歲小孩輕輕鬆鬆就能打敗老師。
+數學科普作家葛登能最不遺餘力探索數學和這些遊戲之間的密切關係。他寫了很多極有吸引力的書，也在《科學美國人》撰寫專欄，而這些都是會讓高中生或大學生感到很刺激的課外讀物（前提是有人指定他們去讀的話）。此外，數學家喬治．波利亞（George Polya）的《怎樣解題》（How to Solve It）和《數學與合情判讀》（Mathematics and Plausible Reasoning），或許也屬於這一類。有一本帶有這些人的文風、但屬於較初階的有趣好書，是瑪瑞琳．伯恩斯（Marilyn Burns）所寫的《我恨數學》（The I Hate Mathematics! Book），書裡有很多啟發性的提示，帶領讀者解題與發想各種奇思異想，是小學數學課本裡罕見的內容。
+有太多教科書仍列出太多人名和術語，就算有說明解析，也很少。比方說，教科書上會說加法是一種結合律運算（associative operation），因為（a + b）+ c＝a +（b + c）。但很少人會提到非結合律運算，因此，充其量來說，結合律運算的定義是畫蛇添足。不管是結合律或非結合律，你知道了這些資訊之後要怎麼應用？書上還會介紹到其他術語，但除了用粗體字印在書頁中間的小框框裡，看起來很了不起之外，也沒什麼值得提的理由。這些術語滿足了很多人認為，知識就好比一門普通植物學，每種學問都可以在體系中，找到自己的類別和位置。相比之下，把數學當成有用的工具、思維方式或是獲得樂趣的途徑，在多數小學教育課綱中都是很陌生的概念（即使教科書內容不錯也一樣）。
+或許有人會認為，在小學階段，可以用電腦軟體，來幫助學生掌握基本的算數原理及相關應用（應用題、估計等等）。可惜的是，目前可用的程式通常是從教科書上擷取無趣的例行練習，轉化成電腦螢幕版本而已。我不知道有任何軟體可用整合、一致且有效的方法，來教算術與解題應用。
+小學階段的數學教學品質普遍不佳，最終必會有人怪罪於老師能力不足，而且對數學沒什麼興趣、或不懂欣賞數學。我認為，這當中有一部分又要歸咎於大專院校的師資培養課程中，很少或根本不強調數學。以我自己的教學經驗來說，我教過的學生中，表現最差的是中學生，而不是大學主修數學的學生。準小學老師的數學背景也很糟，很多時候甚至根本沒有相關的數學教學經歷。
+而每所小學聘用一、兩位數學專才，在學校裡每天分別到不同班級輔導（或教授）數學，或許可以解決部分問題。有時我認為，如果大學數學教授和小學老師每年可以交換個幾星期，會是個好方法。同樣的，把主修數學的大學生和研究生交到小學老師手裡，不會造成傷害（事實上，後者或許能從前者身上學到一些東西）。而三、四、五年級的小學生則可以在完全適任的老師教導下，接觸到數學謎題與遊戲，將可大大獲益。
+稍微打個岔，謎題與數學之間很有關係，而且相關性會一直延續到大學與研究階段的數學。當然，把謎題換成幽默也通。我在《數學與幽默》（Mathematics and Humor）書中試著說明，數學和幽默都是某種益智遊戲，與猜謎、解題、遊戲和悖論多有共通之處。
+數學和幽默都是把概念組合、拆開再拼回來，然後從中得到樂趣。慣用的手法包括並列、歸納、迭代和倒向（比方說「aixelsyd」就是把「dyslexia」﹝閱讀障礙﹞的字序倒過來）。那麼，如果我放寬這個條件，但緊縮另一個條件會怎樣？某一個領域的概念（像是綁辮子），和另一個看來完全不同領域的概念（如某些幾何圖形的對稱性）有什麼共通點？當然，即便不是數盲，可能也不熟悉數學這個面向，因為你必須要先具備一定程度的數學概念，才可以拿來耍弄。其他像獨創性、不協調感以及精簡的表達，對於數學和幽默來說也都同樣重要。
+可能有人說過，因為所受訓練之故，數學家有一種特殊的幽默感。他們往往會接受字面意義，但字面上的解讀又常和標準用法的意義不同，因此很好笑。比方說，哪種運動比賽時要蓋臉？答案是，冰上曲棍球以及痲瘋病人拳擊（按：原文「Which two sports have face-offs」，「face-off」其中一個字面意義為「蓋臉」，而這也是冰上曲棍球常用的術語，意指「爭奪球權」）。他們也很沉溺於歸謬法（reductio ad absurdum），或設定極端前提條件然後做邏輯演練，以及各式各樣的字組遊戲。
+如果可以透過小學、中學或大學階段的正式數學教育，或是非正式的數學科普書籍，傳達數學有趣的面向。我認為，數盲就不會像現在這麼普遍。
+——本書摘自《數盲、詐騙與偽科學》，2023 年 11 月，大牌出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>物理-化學</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>肺癌治療不悲觀，精準抗癌交給基因檢測！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375296</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>給 每一位剛踏上抗癌路上的鬥士與戰友精準醫療的發展，在肺癌治療發揮良好的成效，一旦診斷了晚期肺腺癌後，只要可以選用到對的藥物，病情就能得到很好的控制，在標靶藥物的治療過程中，病友也大多可以維持原有的生活品質，建議病友在治療的旅途中，積極面對，勇敢的對抗它，是最好的方式。若能持續穩定控制下去，後續就有更多的新藥，更多的機會。
+近年來標靶藥物已突破晚期肺癌的治療瓶頸，具有 EGFR 突變的晚期肺腺癌病友，一般來說使用標靶藥物就能夠發揮良好治療成效，可是仍是會有一小部分病友，對於標靶藥物有效的時間特別短，若是在出現抗藥後，建議病友可以接受次世代基因定序（NGS），就有機會找到可能的原因。陳焜結醫師分享一名病友，一開始吃標靶藥物沒有效，在根據次世代基因定序檢測結果調整藥物後，病情便穩定下來，治療至今已一年半，成效維持得很好。肺癌治療已進入精準醫療的時代，基因檢測扮演非常重要的角色。陳焜結醫師說，如果基因檢測顯示病友具有 EGFR、ALK 等驅動基因，便可選擇相對應的標靶藥物，我們能夠讓對的病友，使用對的藥，就可以得到很好的治療成效，也是提升治療成效的重要關鍵。在進行基因檢測時，現階段較常使用的方法是每次檢驗一個基因。陳焜結醫師表示，臨床上會從常見的 EGFR 開始檢驗，如果沒有 EGFR，再依序檢驗 ALK、ROS1 等基因。這樣的做法對健保而言，較有經濟效益，但可能較為耗時，因為每驗一個基因，病友就需要等待 1 週至 2 週的時間，且每次檢驗都必須使用一部分從腫瘤取下來的檢體，在經過多次檢驗後，就有可能出現沒有足夠的檢體可以使用的情況。
+而次世代基因定序（NGS）是透過大量篩檢基因的方式，雖然需要使用較多的檢體，但是一次可以檢驗多個基因，從送出檢體到收到報告，大概需要 2 週至 3 週，卻可以提供比較多的資訊，幫助調整治療策略。陳焜結醫師說，針對驅動基因使用標靶藥物後，大部分病友都很有效，但是約有兩成的病友在使用標靶藥物後，沒有發揮預期效果，這時候我們就可以從次世代基因定序中找到一些線索。過去即遇過一些病友，明明有驗到 EGFR 基因，但是卻對標靶藥物沒有反應，且惡化很快。我們從次世代基因定序（NGS）裡發現，病友其實還有其他基因的突變，像是 MET 基因，於是加上 MET 抑制劑後，就得到很好的控制。此外，次世代基因定序（NGS）還有另一個用處，就是在癌細胞出現抗藥性、病情變化之後，醫師會需要知道是否出現新的基因突變，便需要用到次世代基因定序（NGS）。初確診晚期肺癌的病友通常都會很徬徨，陳焜結醫師說，假如一位沒有抽菸的肺腺癌病友，利用健保給付進行幾項基因檢測後，都沒有發現驅動基因，則建議可以考慮做次世代基因定序（NGS），在找到所屬的基因突變後，接下來的重點則是了解病友的體能狀態，心臟、肺臟、肝臟、腎臟等器官功能，以及是否有糖尿病、高血壓等慢性病，再把整個治療計畫與病友討論清楚，協助病友開始進入治療，建立信心。
+什麼是圓滿的人生？當生命走到盡頭，在天堂門口回憶一生時，幸福過，也為別人帶來過幸福，就沒有遺憾。電影「一路玩到掛」兩個男主角完成一件又一件的人生清單，最後都回歸家庭。因著罹癌，我發現過去沒有善待身體，沒有好好陪伴家人，罹癌讓我更看重家庭，增加與爸媽相處的時間。2021 年 1 月，因為腰痠、腸胃不適和體重減輕，確診肺癌四期加上腦轉移，才 51 歲的我，簡直五雷轟頂難以置信。剛罹癌時，太太瞞著我逼問醫師還有多久的時間，醫師給了標準答案「3 到 6 個月」。從醫師口中被宣判掛點的我，卻在後來發生了兩件讓我感動到飆淚的事，一是透過基因檢測我們找到了對應的標靶藥物，二是未來有機會可以動手術。了解疾病的走向與治療策略對病友有益，也會使人生出信心。一位心理科醫師把癌症比喻為身上的壞小孩，我們要想方設法把壞小孩變好，而不是想要把它趕出去，然後就是面對它、接受它、處理它、放下它。我以前喜歡在外亂跑，熬夜晚睡經常外食，現在改吃原型食物，登山步道練體能提升肺活量，降低工作量，調整身體狀況。標靶藥物的副作用讓我的皮膚變得脆弱，洗澡時容易在鼻頭附近滲點血，甲溝炎大約一個月要找皮膚科醫師剪指甲，腹瀉時而出現，調養後次數減少，體重也慢慢回穩。老天爺把門給關了，但留了一條縫給我，在病友社團裡學習到人生的意義，是愛和給予。提醒正在讀這封信的你，剛確診時情緒不免慌亂，為了調養身體就想把工作辭掉，我的勸告是「不要」，沒工作容易胡思亂想，少了經濟收入會成為日後治療的隱憂，最好先請假，治療穩定後回到職場，經濟穩定能建立自信心，對治療也很有幫助。快樂掌握在自己手上，簡簡單單過生活，也能把生活過得有滋有味，生命中的受苦事件，會引導我們踏上有意義的旅程。治療肺癌的藥物很多，所以真的沒有悲觀的需要！</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>medicine-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>白斑症造成的膚色不均讓你困擾嗎？微創表皮移植手術可以解決！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375289</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>「曾經遇過一位老師，因為下巴有塊白斑，而相當困擾。」中國醫藥大學附設醫院美容醫學中心雷射美容科主任張長正醫師指出，「經過檢查後確認是黑色素細胞不足，雖然接受過治療，但沒有明顯改善，所以決定接受表皮移植手術。」
+當時利用微創表皮移植系統吸取微泡，精準取下淺層表皮，然後移植到下巴白斑處。張長正醫師說，待受皮區癒合之後，再經過一系列的照光治療，讓移植皮膚的顏色符合周圍皮膚的顏色。表皮移植的成果看起來相當自然，從此不用再擔心下巴的白斑會引人側目，讓患者相當開心。
+白斑症（Vitiligo）的成因大多與自體免疫有關，由於患者自身的免疫系統會攻擊自己的黑色素細胞，導致皮膚缺乏黑色素。張長正醫師說，有些外在因素可能對黑色素細胞造成影響，例如外傷、長期受到化學刺激等；另外也有部分患者的白斑與胚胎發育的過程有關。
+白斑症患者的皮膚會失去黑色素細胞，而出現形狀不規則的白色斑塊。張長正醫師說，白斑症在身體任何位置都可能發生，讓患者相當困擾。
+白斑症的治療包括藥膏、口服藥、紫外線照光治療等，張長正醫師說，如果確定缺乏黑色素細胞，在狀況穩定後可以考慮接受表皮移植手術。表皮移植的主要目的是獲得黑色素細胞，像播種一般，讓病灶部位長出具有黑色素細胞的表皮。
+在進行表皮移植手術時，必須從取皮區取下表皮。張長正醫師說，一般常用的方法是以一個試管大的口徑覆蓋在取皮區，然後利用負壓抽吸，待皮膚形成水泡後，再用剪刀把水泡剪下來，移植到受皮區。但是這種做法會讓取皮區在癒合後的外觀較不理想，受皮區的結果也不甚美觀。因為一次取下一大塊水泡，沒有辦法符合周圍皮膚的顏色與質地，常常會有一塊一塊的凸起，類似鵝卵石步道。
+另一個方法是使用皮膚切片筆，每彈一下可削下一片表皮，再分別移植到受皮區。張長正醫師說，這種做法也會讓受皮區在癒合後凹凸不平，不甚美觀。 
+近年來發展出的微創表皮移植手術是運用水泡取皮的原理，但有大幅度的進化。張長正醫師說，微創表皮移植系統會稍微加溫，幫助皮膚形成水泡，然後使用負壓抽吸，讓皮膚形成許多個直徑約 1.8 mm 的微泡，微泡間的間隔約 2 mm。
+微創表皮移植手術的優點在於水泡很小，所以取皮區的復原速度相當快。一般在兩個禮拜後就能完全癒合，幾乎看不到疤痕。張長正醫師說，微創表皮移植手術能夠精準取得淺層表皮，且排列非常整齊，因此在受皮區中，每個微泡都能以相同的速度生長，在癒合之後皮膚會比較平整，且顏色相近。白斑症患者想要接受治療的目的就是讓膚色均勻，所以在接受表皮移植後，醫師會測量黑色素指數，而微創表皮移植手術可以有高達八成、甚至九成的顏色相似度。 
+除了用於治療白斑症，微創表皮移植手術還可運用於小範圍燒燙傷或困難癒合的傷口。張長正醫師說，傷口在癒合時都是由邊緣開始生長，範圍較大的傷口會需要較長的時間，而且癒合之後的疤痕會比較明顯。利用微創表皮移植手術能夠加速傷口的癒合，也可達到較佳的外觀。
+微創表皮移植手術不需要麻醉，沒有明顯疼痛，在門診就可以進行，便利性高。張長正醫師說，接受微創表皮移植手術後，請依照醫師指示照顧傷口，並避免過度活動或摩擦受皮區。</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>medicine-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>糖尿病足有傷口怎麼處理？慎防糖尿病足潰瘍，及早治療降低截肢風險！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375195</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>「天氣寒冷時，很多人會覺得手腳冰冷而想要泡泡熱水，但是如果不小心可能會泡出大問題。」國泰綜合醫院整形外科主任蒲啟明醫師指出，「糖尿病患可能發生感覺比較遲鈍的狀況。」以下四個是診間患者常遇到的狀況，也是最容易造成糖尿病足傷口潰瘍的因素：
+因為糖尿病患者常常沒有感知到傷口疼痛，眼睛可能又併發視網膜病變而看不清楚，所以便輕忽糖尿病足潰瘍的嚴重性。蒲啟明醫師補充，曾經有患者用吹風機一直吹，吹到足部起水泡都不曉得。在發現足部傷口後，患者又自行灑藥粉、塗草藥，使用錯誤的方法照顧傷口，結果造成嚴重感染。」該名患者後來是家人聞到異味，找遍了家裡，才終於發現患者的足部已經潰爛、發臭、流膿才緊急就醫。糖尿病足患者若形成困難癒合傷口為了控制感染，可能需要截掉潰爛的組織，截到腳趾、截到小腿、甚至截到大腿都有可能，將對患者與家屬造成巨大衝擊。
+糖尿病足潰瘍的成因主要包括血糖過高導致周邊神經損傷而感覺麻木、動脈粥狀硬化造成血管狹窄導致周邊組織缺血壞死，以及血糖過高導致白血球功能下降，無法有效對抗細菌，而容易遭到感染。
+由於感覺麻木，患者可能在無意間受傷。蒲啟明醫師說，如果沒有及時就醫接受治療，傷口感染會進展為蜂窩性組織炎，甚至演變為壞死性筋膜炎、敗血症，而危及性命。
+由於糖尿病足治療非常複雜，通常需要經驗豐富的醫療團隊採取完善的治療計畫。蒲啟明醫師補充，如果發現有壞死的組織，一定要找專科醫師清創！千萬不可以自己在家裡用剪刀或刀子處理，因為使用沒有消毒的器械，非常容易造成感染，反而弄巧成拙。尤其糖尿病足潰瘍傷口治療最重要的是加速傷口癒合，盡快達到完全癒合，能夠大幅降低感染風險，避免截肢的命運。目前外用藥選擇有糖尿病足傷口新式乳膏，能夠促進傷口癒合，增加完全癒合的機會。
+糖尿病足傷口新式乳膏的治療機轉是調控影響傷口癒合的微環境，抑制傷口中會增加發炎的細胞，增加促進癒合的巨噬細胞，進而促使血管新生、傷口修復及癒合。正常傷口復原會經歷發炎期、增生期、成熟期，但糖尿病足患大多因血糖控制不佳，導致傷口長期處於發炎期，無法進入增生期，導致傷口遲遲不好。蒲啟明醫師補充，糖尿病足傷口新式乳膏能讓原本處於發炎的傷口微環境，轉換成促進修復的狀況，藉此縮短傷口發炎期，促使潰瘍快速癒合。
+在傷口完全癒合後，患者一定要好好照護自己的雙腳，預防勝於治療！蒲啟明醫師建議，糖尿病足患者要穿著合腳且包覆良好的鞋襪，即使在室內也不可赤腳走路。修剪趾甲時請以直線方式修剪，若視力不佳，便要請他人幫忙修剪趾甲。洗澡前一定要測量水溫，避免意外燙傷而沒發現。此外，糖尿病足患者千萬不可吸菸或處在長期接觸二手菸的環境，以免足部血液循環惡化，造成不可逆的截肢後果。
+蒲啟明醫師強調，「糖尿病患每天都要檢查足部，如果發現破皮、龜裂、滲液、發紅、浮腫等狀況，一定要立刻就醫！」
+一、糖尿病潰瘍的成因主要包括血糖過高導致周邊神經損傷而感覺麻木、動脈粥狀硬化造成血管狹窄導致周邊組織缺血壞死，以及血糖過高導致白血球功能下降，無法有效對抗細菌，而容易遭到感染。
+二、只要發現糖尿病足潰瘍傷口，一定要及早就醫。除了把血糖控制達標之外，透過跨科別醫療團隊提供傷口照護，幫助傷口癒合。
+三、糖尿病足傷口新式乳膏的治療機轉是調控傷口的微環境，能夠抑制傷口中會增加發炎的M1型巨噬細胞，增加促進癒合的 M2 型巨噬細胞，進而促使血管新生、纖維母細胞增生、並產生胞外基質沉積。讓原本處於發炎的微環境，轉換成偏向修復的微環境，縮短發炎期，促進傷口癒合。
+四、在傷口完全癒合後，患者一定要好好照顧自己的腳，預防勝於治療！</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>medicine-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>月經週期變短？慎防卵巢早衰！及早檢測減少不孕風險 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375184</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>「醫師，我有卵巢早衰的現象，所以打算凍卵，但是聽說每天都要打排卵針，讓我好猶豫……」李小姐說。
+「打排卵針是為了促使卵泡發育，才有辦法取得較多的卵子。」醫師說，「現在也有一針抵多針的友善排卵針，施打一次效果可以持續一週，便利性較高，也可大幅減少打針的次數。」
+在台灣，每十對夫妻中大約有兩對會遭遇不孕的困擾。大新婦產科診所生殖中心陳志宏院長指出，「如果沒有避孕超過一年都沒有懷孕，就算是不孕症。至於 35 歲以上的婦女，如果超過半年還沒有受孕，便要盡快尋求專業的協助。」
+有許多因素會導致不孕症，卵巢早衰是個常見的原因。陳志宏院長說，卵巢早衰通常沒有明顯症狀，患者往往是在接受檢驗後，才驚覺有卵巢早衰的狀況。
+卵巢早衰的原因可分成先天因素和後天因素，大部分是先天因素，例如在出生之後，卵巢的細胞存量就比較少。陳志宏院長說，後天因素包括卵巢發炎、卵巢手術、壓力過大、作息不正常、吸菸等。
+年輕女性發生卵巢早衰時，大多沒有明顯症狀，還是有規則的月經。陳志宏院長說，部分女性可能會發現月經週期縮短，本來是 28 天來月經，當卵巢功能衰退時，可能變成 26 天、24 天、甚至 21 天就來月經。月經週期縮短可能是卵巢早衰的徵兆，但是有些人的月經本來就不規則，所以也不會發現月經週期縮短的狀況。
+卵巢早衰對生殖能力有顯著的影響，陳志宏院長說，除了卵巢存量過少，卵子品質也會下降，導致患者懷孕機率降低，而受精後的胚胎也可能無法順利發育。
+有生育規劃的女性一定要留意卵巢早衰的問題，陳志宏院長說，抽血檢測抗穆勒氏管荷爾蒙（AMH）可以評估卵巢功能，抗穆勒氏管荷爾蒙（AMH）由卵巢中的小卵泡分泌。抗穆勒氏管荷爾蒙（AMH）的正常範圍在 2 ng/ml 至 5 ng/ml，當抗穆勒氏管荷爾蒙（AMH）小於 2 ng/ml 就代表卵巢功能衰退。
+另一個評估方式是由陰道超音波檢查大於 2mm 的小卵泡數量，陳志宏院長說，若小卵泡數量減少，代表卵巢庫存下降。
+「隨著年紀增長，卵巢功能將持續衰退。」陳志宏院長說，「女性可以透過抗穆勒氏管荷爾蒙（AMH）或超音波評估卵巢功能，預作生育規劃。如果打算晚一點生育，或已經發現有卵巢早衰的現象，可以考慮凍卵，保存卵實力。」
+在較年輕的時候取卵，能夠一次取到較多卵子，而且卵子的品質比較好。陳志宏院長解釋，舉例來說，在 30 歲時，也許凍 8 至 12 顆卵，未來就有機會成功生下一個活產寶寶；到了 40 歲，可能要凍 20 至 40 顆卵，才有機會成功生下一個活產寶寶。而在 30 歲時，可能只要取一、兩次卵就足夠，但在 40 歲時，便需要多次取卵。
+陳志宏院長提醒，「建議育齡年齡的女性要了解自己的卵巢功能，及早做好生育規劃。」
+無論是要凍卵或是做人工生殖都需要從卵巢中取出卵子，而得先施打排卵針。陳志宏院長說，傳統的作法是使用短效型排卵針，每天一劑，連續施打 7 至 10 次。患者可以在家自行施打，或者回醫療院所施打。
+如果很怕打針、不敢自己打針、或時間無法配合的患者可以考慮使用可以一針抵多針的友善排卵針。陳志宏院長說，施打後，醫師可依患者個情況追加短效型排卵針，對患者而言方便性較高，也比較友善。
+根據臨床試驗，可以一針抵多針的友善排卵針的懷孕率、活產率皆與短效型排卵針無顯著差異。患者可以和醫師討論，選擇合適的方式。
+從月經來潮到取卵大約是兩個禮拜，陳志宏院長說，如果要凍卵，就是直接把卵子凍起來，等到適當的時間再解凍、受精；如果要作人工生殖，大概會在取卵後 3 至 5 天植入。
+針對不孕，目前的生殖科技有幾種方式可以輔助，例如吃排卵藥、人工受孕、試管嬰兒，各種方式的適用族群與成功率各不相同，需要經過專業的評估。陳志宏院長說，以大新婦產科診所生殖中心為例，每位患者都有個案管理師，醫師也會根據每個人的狀況提供個人化的療程，增加懷孕成功的機率！</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>medicine-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>「痛、很痛、超級痛！」你有多痛？疼痛有客觀標準嗎？哪些因素會影響疼痛感受？——《痛：牛津非常短講》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375148</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>在二十世紀的前半，設計來檢測人類痛覺的機制主要是呼應從純粹身體觀點量測痛覺組成的需求。痛的主觀特質（或更直接地稱為由受測者本人提供的證據）若是遭到忽視還算最好的情況，在最糟的情況下甚至會遭到貶抑。疼痛程度應該要可以客觀量測出來，或說這就是大家進行相關研究的基本依據；一個人感受自己疼痛的方式與個性、道德觀，或甚至性別及種族有關。
+再加上醫學的主要功能就是要檢測出傷病並尋求醫治的這種想法持久不衰，疼痛便成為次要的關注重點，只被視為反映出「眞正」問題的指標。疼痛的測量及客觀性因此被刻意保持著疏離、冷淡的狀態，與其說是缺乏同情的立論基礎，還不如說是完全置身於同情的範疇之外。
+研究者主要想建立的是痛覺敏感度指數。他們希望知道人體的疼痛要到什麼程度才可以被偵測出來。一般而言，在受控的條件下，不同的疼痛程度顯然可以反映出受試者的文明程度、犯罪傾向，又或者相對「野蠻」的狀態。大家一直都知道，每個人的疼痛閾値——痛無法再被忍受下去的臨界點——差異甚大，不過痛在每個人身上可以被感受出來的最低程度是否具有根本性差異仍是重要議題。
+痛的現代史是建立在主張特定「種類」的人不是對痛的刺激更為敏感、就是更難以忍受疼痛的研究之上。這對尋求專業醫療協助的疼痛患者造成了實質上嚴重的後果。他們獲得治療的程度——包括施加的麻醉劑劑量和醫護人員提供的同情心——可能都會跟種族、年紀和性別直接相關。
+相當令人感到奇怪的是，生產可以測量疼痛敏感度的設備——痛覺計（algometer）或測痛儀（dolorimeter）——是心理學家和生理學家範疇內的工作。龍勃羅梭（一八三五─一九○九）因為在著作《犯罪人》（一八七六）中提出了犯罪類型分類而聞名，他採用了德國生理學家杜布瓦－雷蒙（一八一八－一八九六）開發的設備，透過電流刺激測量個體的疼痛敏感度及疼痛閾値。根據他的結論，成為罪犯的人對痛覺的「感受度較不敏銳，有時甚至完全感受不到」。而疼痛測量儀的數據就可以提供證據。
+龍勃羅梭的研究是基於犯罪特質可以透過遺傳而來的理論，而且強調相關跡象都可以在人體上發現。他決心要透過比較（無論死活的）罪犯以及非罪犯之間的特質來證明這項理論，而獲得的結果非常驚人、具有高度影響力，但卻又毫無根據可言。不過他的例子可以反映出當時更為廣泛的趨勢。痛覺測量在機械領域的推進讓心理學家不再推敲心靈方面的非物質性運作，而改為追求物質性且具體可測的皮膚敏感度，並藉此探討大腦處理痛覺的各種相關能力（跟心靈完全不同的領域）。
+另外在一九四○年的紐約醫院進行了一個計畫，他們將一盞燈的熱度聚焦在患者皮膚的一塊區域，然後記錄患者會開始感到疼痛的溫度，以及此疼痛到什麼程度會變得無法忍受。這是想將痛覺變成客觀可測量性質的一項新嘗試，其中帶有兩層意涵。
+首先，痛覺若是可以被精準地測量出來，或許就能更有效地治療疼痛。其次，如果痛覺可以被測量，醫療體系就能更精準地評估患者對痛覺的反應（或可以無視哪些反應）。擁有機械測量的痛覺數據可以幫助臨床醫生超越（或甚至消滅）痛覺帶有各種隱喻且不甚精確的主觀性質。有些人就是會喜歡高報或低報自己受苦的程度，而這類傾向可以不再對醫療體系處理疼痛的藥物造成影響。
+可是問題在於這個痛覺量測系統不管用，至少任何一個實驗室的結果都無法在其他實驗室複製出來，因為受測對象可以在受過訓練後忍受不同程度的疼痛。外界刺激在受控條件下首先被人感知到的數値至少算是有找到共同的範圍，但疼痛閾値卻因為各種理由而出現各式各樣的差異，更何況個體實在很少（甚至不知道是否可能有）處於不受任何外在條件影響的「中性」狀態。
+如果說與疼痛相關的機械性研究大多得算是笛卡兒的功勞，那是因為他被認定說過一些話，而那些話又顯然能讓後人從中發現一種透過「疼痛路徑」運作的特定機制。若是遵循這樣的笛卡兒觀點，人類這架機器被認定內建一個特定的痛覺系統，此系統將皮膚的神經末梢連結到脊椎，再連結到大腦中的「痛覺中心」。十九世紀以降的生理學家在勤奮不懈的努力下開始尋找特定的痛覺接收神經，或說所謂的「傷害感受器」（nociceptor）。
+他們認定所有形式的人類特質及體驗都可以被測量及量化，於是透過大腦秤重的數據建立起以種族、性別為指標的智商系統、透過頭骨的測量顯示文明化的程度，甚至利用各種精良的技巧拍攝臉部後描繪出「犯罪可能性等級」。另外還有一些「疼痛纖維」（pain fibres）被描述成跟特定種類的疼痛有關、又或者跟不同規模的疼痛有關。根據這種方式，大腦只是用來接受特定疼痛輸入訊號的接收器。於是自一九六○年代以來，疼痛量表等級可能跟傷勢程度呈正相關的基本前提已被確信是明顯錯誤的想法。
+沒有被這種機械性簡化手段抹消並在當代神經科學中獲得進一步探究的部分，是科學家依據刺激的種類及程度，將受激發的不同神經末梢做出分類。我們現在知道，人的體驗和神經刺激之間沒有絕對的相關性。雖然我們還是會用「傷害感受器」這個詞，但它們發出的訊號在成為痛覺前必須先通過大腦的解讀。機械性簡化看法的另一個問題在於，儘管這種說法用來描述一個人將腳放進火堆的情況看似合適，卻無法解釋那些無視特定神經損傷或直接刺激程度而出現的疼痛。於是又有更進一步的機械性解釋來試圖解決這個謎團。
+為了解釋跟初始神經刺激不成比例的巨大疼痛反應，一八八○到一九五○年代出現了各種「（痛覺刺激及反應）模式」理論。有人假設一定是在脊髓中發生了某種反應，而且這個由原本末梢神經接收刺激所啟動的反應可以自我維持或甚至自我加強。隨著神經系統機制愈來愈常使用電機工程學的語言來比喻（而且使用的程度驚人），人們開始可以想像神經元在脊髓的「線路」中產生「反饋迴路」，因而「引起共振」並激發鄰近的其他神經元。正如原本那幅插圖所暗示，這種神經啟動的模式可以永無休止地延續下去，就算接受過治療或甚至原初起因已消失也沒關係（例如幻肢痛）。
+這個觀點的問題在於，這種帶有反饋迴路的電路板比喻想像起來容易，眞正要在實驗中發現卻有其難度。同樣地，疼痛方面的病變一直以來都被想像成一個「正常」的疼痛「電路系統」出現問題的結果，若要類比，就像是有訊號在特定種類的疼痛纖維中受到增強。在當代神經科學及疼痛管理領域中，這些理論的許多元素後來都證明在建構更全面性的疼痛體驗理論時很有幫助，但同時也必須超越「刺激帶來體驗」這種純然的機械性關係。
+直到一九六○年代，科學機構內外才開始出現批評的聲音——最有名的批評者是孔恩（一九二二－一九九六）和之後的拉圖（一九四七－）——這些人指出社會脈絡在科學工作中所扮演的重要角色，以及埋藏在社會脈絡中的各種想法及預設。到了更近期，達斯頓和蓋里森在他們的著作《客觀性》（二○○七）中重建了「客觀性」的概念。現在，所謂的「事實」已會被許多人視為透過特定框架後建構而來的偏頗資訊。這種不確定性為相關研究開展了全新的寬敞大道，但眞正的改變卻很慢才出現。
+早在一八九四年，美國心理學家馬歇爾（一八五二－一九二七）曾有力地指出，快樂和痛苦都是心理狀態的不同特質；兩者是與情緒、感官、心靈和身體相連的「意識元素」，不過就在目睹摩根生產出行為主義式「定律」的這一年，這種全面性的思考觀點卻幾乎沒產生什麼漣漪。當痛的研究在一九七○年代確實開啟了痛覺的情緒及社會組成的相關探討之際，在醫療實務上對於能夠確切測量、判斷並診斷的既存需求，卻讓痛覺和傷害之間的機械關係得以續命。
+臨床醫生數十年來都帶著對痛的多面向理解在實務現場工作。梅爾扎克（一九二九－）和托格森（一九二四－一九九九）在一九七一年開發出了麥吉爾疼痛問卷。那是為了讓患者足以掌握自身疼痛體驗內涵的第一個精密醫療評估工具。疼痛問卷將痛的形容詞及比喻根據痛的強度進行分組，然後依照「感覺」、「情感」、「評價」和「其他相關」四種項目進行分類，再搭配圖表指出身體上的疼痛位置，另外還會針對其他症狀及一般生活方式進行整體評估。
+此問卷的前提在許多案例中獲得證實，也就是受疼痛所苦之人會用類似的詞彙來描述特定的疼痛症候群。因此，疼痛問卷帶來的質化觀點對臨床醫療人員很有幫助，能讓他們在一開始更有機會根據患者對自身疼痛狀況的評估做出正確診斷。
+乍看之下，這是將疼痛體驗的情感特質重新導入醫療體系的成功應對方式，並因此讓臨床評估朝新的方向前進，但這種做法還是有其限制。疼痛問卷被翻譯成許多其他語言時使用了同樣的武器修辭，或說同樣有關受傷、割傷、刺傷、射傷、揍傷或壓傷的各種比喻。許多學者都指出，這些用來描述人類疼痛體驗的比喻被使用的時間久得驚人，彷彿我們沒有足以訴說疼痛的直接用詞，所以非得求助於這些傷害意象。
+不過，這種顯而易見的限制掩蓋了存在於人們陳述中的驚人豐富性及深度。隨著時間過去，武器的種類當然改變了，描述武器對人類造成的傷害種類也出現了更多具有想像力的比喻性說法。此外，隨著語言的改變，人們會發現無論是問卷中的表達方式、代表意義及所處脈絡，都具有難以將其中分類普遍化的細微差異。翻譯的政治（更別說是做法）總是會引發誰的用語足以建立起基本分類架構的疑慮：我們應該要採用患者、醫生，還是譯者的用語？
+一旦語言被認定為一個人描述主觀體驗的重要資訊載體，我們就很難將其限制在事先規範好的定義及分類中。疼痛問卷成功地將許多當時在英文中常用的疼痛描述整理在一起，不過也可能限縮了人們在未來描述疼痛的用詞。當醫療人員把一連串描述性用詞交給患者並要求他們找出「符合」自身痛感的詞彙時，這種做法很可能會被視為一種具有高度暗示性及影響力的策略，因為這份用詞淸單暗示了這些詞彙已捕捉到了疼痛的本質。
+這種做法對某些人來說可能有用，但有些人即便感覺不太對勁，仍得努力將這些用詞硬套到自身的感受上。另外還有些人在覺得這些用詞完全無法用來描述自己的狀況時，甚至會開始質疑自己的疼痛是否眞實存在。為了聽見疼痛的主觀陳述而定下語言框架的嘗試，反而造成了將痛客觀化的效應。
+說到底，一九七○和八○年代在尋求痛的情感特質時，是放入由固定價値觀所掌控的基模（schema）中，就像身體的疼痛値也是由機械主導的客觀數値來決定。患者的聲音並不是沒被聽見，但也受到既有的量測方式取代。
+根據一份由哈里森所進行的研究指出，當麥吉爾疼痛問卷在科威特被翻譯成阿拉伯文時，編纂者非常淸楚意識到，即便是在當地社群內部也出現了溝通上的語言偏差。受過教育的科威特人因為懂英文而擁有較多字彙量，因此可用「對一般患者而言過於深奧」的詞彙來描述他們的痛覺。難道這代表他們的疼痛體驗也就因此有所不同嗎？我們很可能永遠不會知道，因為這類描述被有意識地迴避掉了。
+有意思的是，阿拉伯文譯者也迴避了對慢性疼痛患者伸出援手，因為「他們的痛覺評分標準跟那些……經歷急性疼痛的人相比有系統性的不同」。如果有人記得的話，麥吉爾疼痛問卷一開始的設計是要嘗試深入理解疼痛症候群的疼痛體驗——也就是完全以受到慢性疼痛所苦的人為目標——因此我們可以認定這個翻譯策略反而阻礙了這項量測工具原本的概念性目標。
+二十世紀醫學對於調查對象必須在各項數値方面完全中立的需求，阻礙了我們去探索疼痛體驗中的一項核心元素，因為那個核心元素本身就是作為一種情感的主觀値。疼痛情感的語言表述——人們針對自身感受說出的話——本身抗拒任何精確的製表及分類作為。科威特的那些譯者對此擁有第一手體驗，他們發現原本在英文中被歸類為「感覺」的詞彙，在翻譯後更接近「情感」或「評價」的類別。
+這些作者後來做出結論，「我們有很充足的理由認定，疼痛分類會因為不同文化而有所差異。」比如他們就找不出翻譯「射傷」（shooting）這種痛覺的詞彙。在此同時，義大利文把「射傷」這種痛覺翻譯成「像是床墊彈簧反彈」的痛。
+整體而言，根據二○○九年由雪梨的喬治國際健康研究所做的研究，麥吉爾疼痛問卷被翻譯成了二十六種語言，研究發現這些翻譯後的問卷效力普遍不佳，並建議必須謹愼使用這些「非英語版本」的問卷。這些不同版本的問卷中描述疼痛的詞彙從四十二到一百七十六個不等，反映出了人類口中疼痛體驗的豐富程度。這些疼痛反抗或拒絕被分類列表的特質只顯示了人們不是（或說至少不完全是）機器。
+——本文摘自《痛：牛津非常短講 012》，2024 年 02 月，左岸文化出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>medicine-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>肥胖加上糖尿病？飲食管理、規律運動克服糖胖症 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375048</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>「糖胖症」就是「肥胖」加上「糖尿病」！
+根據統計，約 8 成的糖尿病患者有體重過重或肥胖的問題〔1〕，而肥胖者也較容易罹患糖尿病。台灣基層糖尿病協會理事長李洮俊醫師指出，合併糖尿病及肥胖，也就是「糖胖症」的患者，在血糖控制上更為不易〔2〕，未來出現各種併發症，例如眼睛病變、神經病變、腎臟病變等器官病變〔3〕，或合併心血管疾病、腦血管疾病等的風險也比較高〔1〕,〔4〕。
+那該如何判斷肥胖的標準呢？世界衛生組織建議以身體質量指數（BMI，Body Mass Index）來衡量肥胖程度，身體質量指數（BMI）= 體重（公斤）/ 身高 2（公尺）。根據台灣國民健康署公布，BMI＜18.5 為「體重過輕」，18.5 ≦ BMI＜24 為「健康體位」，24 ≦ BMI＜27 為「體重過重」，27 ≦ BMI＜30 為「輕度肥胖」，30 ≦ BMI＜35 為「中度肥胖」，BMI ≧ 35 為「重度肥胖」。
+以身高 160 公分的人為例，如果體重是 61.4 公斤，BMI 約 24，也就是健康體位的上限；若體重是 62 公斤便屬於過重、達 70 公斤就是輕度肥胖。
+「如果糖尿病患者合併體重過重，未來發生心血管疾病（如冠心病）的風險會增加 27%；若為肥胖，風險更會增加 49%！〔5〕」因此李洮俊醫師強調，糖尿病患者須注意體重控制，糖胖症患者更要積極減重降低心血管疾病風險。
+糖胖症的治療包括飲食管理、規律運動、藥物治療、充足睡眠。李洮俊醫師說，飲食管理是糖胖症控制的基礎，務必少油、少糖、少鹽，攝取食物的份量也要注意，逐步達到疾病和體重控制的目標。
+而糖胖症的最新治療藥物，包含能同達到血糖控制及降低體重的腸泌素 GLP-1 以及排糖藥 SGLT-2。腸泌素 GLP-1 具有多重機轉，能夠刺激胰島素分泌與抑制升糖素分泌，也能延緩胃排空，並於中樞神經產生飽足感、抑制食慾。排糖藥 SGLT-2 抑制劑的作用機轉是抑制腎臟回收葡萄糖，讓葡萄糖經由尿液排出體外。李洮俊醫師說，兩者都被證實有助於降低心血管疾病或心血管事件（如中風、心肌梗塞）的發生率及死亡率〔6〕；在藥物副作用上〔6〕，使用腸泌素 GLP-1 可能會有腸胃道不適的狀況，而排糖藥 SGLT-2 抑制劑則可能有高酮酸血症、生殖泌尿道感染的風險。
+此外，GLP-1 腸泌素是近年來常被討論的藥物，在網路上有很多人以瘦瘦筆或減肥針稱之，李洮俊醫師澄清說明，腸泌素不只在控制體重，更是能在穩定患者血糖的同時，也有助於降低心血管、腦血管疾病的風險。近年來 GLP-1 腸泌素已有口服的劑型，並獲得第一線適應症，是患者另一個選擇。
+「糖胖症病友，在控糖的道路上會比較辛苦，但是現在已經有一些先進的藥物，能夠提供很大的幫助。近年研究也指出，糖胖症患者在減重達 15% 或以上，更有機會達到糖尿病緩解〔7〕！」李洮俊醫師鼓勵患者積極配合治療、控糖減重。「請務必與糖尿病照護團隊密切合作，選用合適的藥物，搭配飲食管理、規律運動並保持充足睡眠，相信一定可以克服糖胖症，達到控糖的目標。大家一起努力，加油！」</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>medicine-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>呼吸道病毒肆虐怎麼辦？肺炎鏈球菌公費疫苗增強！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375057</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>呼吸道病毒正在社區蔓延中！疾管署統計顯示，隨著過年、連假民眾南來北往移動，今年 2 月全國類流感就診率達近兩年新高〔1〕，可見社區中潛藏各類呼吸道病毒。而肺炎鏈球菌也是社區常見致病菌之一，全年都有肺炎鏈球菌感染的病例發生，而冬季至春季為高峰期〔2〕。成大醫院內科部內分泌新陳代謝科教授歐弘毅醫師表示，肺炎鏈球菌常潛伏在鼻腔內，可透過飛沫傳播，易受感染的族群主要是未滿 5 歲的嬰幼兒和 65 歲以上的老年人〔3〕。
+「糖尿病患的抵抗力較差，感染肺炎鏈球菌後，出現侵襲性肺炎鏈球菌疾病感染症的機會較高。」歐弘毅醫師說，「這些患者發病後常常是兵敗如山倒，相當危險，可能住院超過一個月。事先做好預防措施，才是最佳的策略！」
+歐弘毅醫師說明，感染肺炎鏈球菌時，患者可能會出現發燒、畏寒、咳嗽、氣喘、呼吸急促、胸痛、頭痛、嘔吐等症狀。肺炎鏈球菌會導致中耳炎、鼻竇炎、肺炎等，在免疫力下降時，還可能侵入血液中造成「侵襲性肺炎鏈球菌疾病感染症」。侵襲性肺炎鏈球菌疾病感染症的臨床表現相當多樣，包括敗血症、腦膜炎、關節炎、骨髓炎、心包膜炎、溶血性尿毒症、腹膜炎等〔4〕，嚴重可能進展為敗血症，危及性命。
+侵襲性肺炎鏈球菌疾病感染症進展快速，年紀較大的民眾，以及罹患糖尿病、慢性腎病變、慢性心臟病、慢性肺臟病、慢性肝病、惡性腫瘤、免疫功能缺失及使用類固醇或免疫抑制劑等患者，建議做好預防措施，若出現相關症狀，一定要提高警覺，及早就醫接受合適的治療〔5〕。
+由於肺炎鏈球菌可潛伏鼻腔中，呈無症狀的帶菌狀態，健康成人中約有 5% 至 10% 的帶菌率，孩童則有 20% 至 40% 的帶菌率〔6〕，可能在不知不覺中經由飛沫散播，因此大家團聚、出遊的時候，要提防肺炎鏈球菌。歐弘毅醫師說，想預防肺炎鏈球菌要勤洗手、戴口罩、盡量避開人潮，接種肺炎鏈球菌疫苗也是非常有效的預防方式。
+「符合資格的民眾要趕快接種公費肺炎鏈球菌疫苗，公費肺炎鏈球菌疫苗的條件已放寬至 65 歲，而且還增加一劑 PCV13 疫苗。接種一劑 PCV13 疫苗和一劑 PPV23 疫苗能讓保護範圍更廣，保護力持續更久！」
+接種肺炎鏈球菌疫苗能夠發揮顯著的保護效果，降低幼童、老年人、慢性病患等高危險群遭到感染的機會，也有助於降低鼻腔帶菌率，進而減少經由飛沫傳染肺炎鏈球菌的機會，保護身邊的高危險群。
+目前的肺炎鏈球菌疫苗主要有 13 價結合型疫苗 PCV13 與 23 價多醣體疫苗 PPV23，可以預防一些常造成感染的血清型。歐弘毅醫師說，23 價多醣體疫苗 PPV23 能夠誘導身體產生抗體，但是免疫反應持續時間較短。13 價結合型疫苗 PCV13 可以活化 T 細胞，產生長期的免疫記憶，保護效果可維持 10 年以上〔7〕。
+公費肺炎鏈球菌疫苗已放寬條件至 65 歲〔8〕，而且納入 PCV13 疫苗。疾病管制署建議，從未接種肺炎鏈球菌疫苗的民眾，可先接種 1 劑 13 價結合型疫苗 PCV13，間隔至少 1 年後再接種 1 劑 23 價多醣體疫苗 PPV23。若是高風險對象，可於接種 13 價結合型疫苗 PCV13 後，間隔至少 8 週後再接種 23 價多醣體疫苗 PPV23〔9〕。
+曾接種過 13 價結合型疫苗 PCV13（或 PCV15）的民眾，可於間隔至少 1 年後再接種 1 劑 23 價多醣體疫苗 PPV23。若是高風險對象，可於接種 13 價結合型疫苗 PCV13 後，間隔至少 8 週後再接種 23 價多醣體疫苗 PPV23。曾接種過 23 價多醣體疫苗 PPV23 的民眾，可於間隔至少 1 年後再接種 1 劑 13 價結合型疫苗 PCV13〔10〕。
+13 價結合型疫苗 PCV13 與 23 價多醣體疫苗 PPV23 皆屬不活化疫苗，可以和流感疫苗或新冠肺炎疫苗同時接種。歐弘毅醫師說，建議採「左流右肺」，在左手接種流感疫苗，右手接種肺炎鏈球菌疫苗，幫助提升保護力。
+肺炎鏈球菌疫苗的安全性高，極少出現嚴重副作用。少部分民眾可能出現注射部位紅腫、疼痛的反應，通常會在幾天內恢復〔11〕。除了公費接種外，歐弘毅醫師說，隨著預防接種觀念的進步，也有許多人會選擇自費接種疫苗，保護自己，也保護身旁的家人免於肺炎鏈球菌的威脅。</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>medicine-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>益生菌不只顧腸道還可抗 PM2.5？益生菌功效怎麼吃？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375063</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">本文由 江欣樺營養師 委託，泛科學企劃執行。
+健康是無價之寶，想要有好的健康，有很多種方法，像是規律作息、持續運動或是飲食管控，但在忙碌的生活之中，要做到以上這些，並不容易。益生菌或許是另一個解方，輕巧的小包裝，便於攜帶，沒有重量，沒有負擔。別小看這些益生菌，雖然外表不起眼，卻暗藏許多健康密碼。
+2012 年，國衛院實驗團隊發現腸道菌和大腦發炎、神經退化、 阿茲海默症有關，腸道菌的健康可能影響大腦和各器官健康狀況，經更多實驗後，發現腸道菌健康與益生菌的使用，跟身體器官的運作有密切關聯。
+腸道是人體最大的免疫器官，存在許多共生細菌，以及僅次於大腦的神經細胞數量，全身近一半的淋巴球也分佈在此。
+淋巴球和神經元又與各器官產生相關的免疫及神經反應，像是常聽到腦－腸軸線、肺－腸軸線，都是指腸道與其他器官的連結。換句話說，腸道內的菌相，牽動的不只有腸道系統，而會透過腸道上的免疫及神經反應去影響其他器官。
+腸道菌受飲食左右，像是亞洲人偏好澱粉，腸道用來分解醣類的普氏菌也較多；西方人喜好油炸物，腸道幫忙分解油脂的擬桿菌也較多。同理，補充益生菌也能改善菌相，進而影響身體健康。
+益生菌可分為兩種：活菌、死菌，活菌能定殖在腸道，並不斷產生短鏈脂肪酸（如：乳酸、醋酸、丙酸、酪酸），能使腸道偏酸性，讓壞菌不易生存，有助於腸胃蠕動，降低腸道毒素。死菌雖然不能像活菌一樣定殖在腸道，但有部分益生菌死掉之後所產生的代謝物，被研究證實是有幫助的，那麼這類型的死菌也可以被稱為後生元。。腸道內存有好壞菌及伺機菌，益生菌的工作在於製造好菌、帶領伺機菌和抗衡壞菌，事實上益生菌並不會完全消滅壞菌，而是平衡好壞菌，讓菌相穩定，且適當的壞菌也有助於腸道健康。
+在選購益生菌時，會發現市面上流通著許多種類，像是常見的 A 菌（嗜酸乳酸桿菌）、B 菌（比菲德氏菌）等，益生菌是以不同菌屬的開頭字母命名，不同的益生菌，就有不同的後生元，保健效果也不同。但這些菌都是指菌種，而菌種會因各廠商培育出的菌株產生差異，通常會以不同的專利名字區分（例如：TW01），效果當然也有差別。
+另外還會注意到，有些產品標示「益生質／益生元」，指的是益生菌的食物，益生元常見的成分為果寡醣、半乳寡醣等，由 2～10 個單醣所構成，不易被人體分解，能提供碳源成為益生菌的養分。益生菌與益生元結合的產品稱為合生素，兩者等同於補好菌加上養好菌，可大大提升保健效果。
+補充益生菌能夠維持腸胃道健康、幫助排便和調節過敏體質，但也須注意食用方法，否則就功虧一簣。為了確保益生菌能發揮作用，食用時不可搭配過熱的開水，避免失去效用。
+在選購益生菌時要注意！市面上常能看到各種口味的益生菌，希望透過豐富口味變化與繽紛的色彩來吸引消費者購買，但這類型的商品往往會添加大量的香料、甜味劑或者是果汁粉，但每條益生菌僅有兩公克的空間，你想吃的，是廉價添加物還是真正有幫助的好菌呢？
+這類型的產品除了添加物的問題，還會養成小朋友嗜糖的習慣，糖類更是過敏的元凶之一，因此建議可以選擇有 100% 無添加認證的益生菌，來避免攝取不必要的人工添加物。基於健康考量，民眾可考慮選購含有益生元的產品。若是有服用抗生素的人，記得一定要使用益生菌恢復腸道菌相，但須與抗生素間隔 1－2 小時。
+常見的益生菌功效為保持腸道健康、調整過敏體質，但益生菌功效遠不僅如此。目前台灣有一株三效合一益生菌 Lactobacillus acidophilus TW01 證實可降低大腸癌風險、抗 PM2.5、活化免疫平衡。
+TW01 是由創辦人——江欣樺營養師領軍耗時三年開發，研發經費高達已高達 2 千萬台幣。於 2023 年獲得國家新創獎，獲得國家肯定，也是該年度益生菌品類中唯一獲獎者。
+TW01 是從國人日常飲食所延伸的靈感，根據統計，台灣人平均每年喝掉 122 杯咖啡，TW01 則是從古坑咖啡豆發酵液裡的上千株菌中，發現的唯一有效菌株，符合台灣人的飲食習慣。
+TW01 進行 TH1 和 TH2 的免疫調節，降低過敏反應，還能促使免疫球蛋白 IgA 分泌，阻擋細菌對上皮細胞破壞，減少腸漏現象，跑到呼吸道的 IgA 可以對抗細菌、病毒和 PM2.5。從科學實驗來看，TW01 還能抑制大腸癌並幫助傷口修復，效果十分廣泛。
+益生菌的好處非常多，小至腸道順暢，大至身體機能，江欣樺營養師表示：「吃益生菌有一個很重要的目標就是占地盤，好菌越多，就可以壓制壞菌地盤，又影響伺機菌，往好的方向走，穩固整個腸道菌相。」
+益生菌的重要性在於增加好菌，持續服用。在忙碌的生活中，找到適合自己的方式，養成健康的習慣是對身體最好的保障。找到將益生菌納入日常生活的方式，並保持適當的飲食、規律的作息和適量的運動，健康相伴左右。
+重新定義益生菌功效！新創益生菌 TW01 可降低大腸癌、抗 PM2.5 </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>medicine-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ADHD 學童在教育現場面臨哪些挑戰？老師、家長又面臨哪些抉擇？——專訪中研院社會學研究中心曾凡慈副研究員 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374894</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>本文轉載自中央研究院「研之有物」，為「中研院廣告」
+回想求學過程中，你是否曾煩惱特立獨行的行為會成為老師和同學眼中的「異類」？當社會慣用同一套標準檢視每個人，你我都可能被貼上「污名標籤」。中央研究院「研之有物」專訪院內社會學研究所曾凡慈副研究員，她長期投入「醫療社會學」研究，探討社會如何建構正常性與異常性，特別在臺灣的教育現場，有一群「注意力不足／過動症」（ADHD）學童，經常被貼上社會加諸的「疾病污名標籤」。一起來認識 ADHD ，聽聽成人患者、家長與老師們的親身經歷，了解他們如何面對污名？怎麼看待正常與異常的界線？
+就讀小學五年級的小曉，外表與一般小女孩無異，卻經常坐立不安、注意力難集中，甚至瞬間情緒崩潰。在班上不只被同學霸凌孤立，還被其他家長視為問題兒童，責備小曉的父母沒有善盡教養義務。
+小曉的父親長年在國外工作，導致養育責任、就醫治療的重擔全落在母親薇芳身上。面對女兒一天到晚闖禍，在家又不按時吃藥，母女兩人經常爆發衝突。龐大的身心壓力讓薇芳不禁心想：「如果沒有妳，我是不是能做自己？」
+從香港來的新老師保羅試圖幫助小曉融入學校生活、緩解薇芳的壓力，成為母女兩人的避風港，也背負是否因特殊原因而關照小曉的質疑。
+電影《小曉》道盡「注意力不足／過動症」（Attention Deficit/ Hyperactivity Disorder，簡稱 ADHD ）學童在臺灣教育環境經常發生的狀況，以及家長與老師面臨的教養與照護困境。
+究竟 ADHD 在兒童間的盛行率有多少？根據美國精神醫學會 2022 年發行的《精神疾病診斷與統計手冊》顯示， ADHD 在全球兒童中的盛行率推估為 7.2 % 。臺灣 2019 年對全國中小學生進行的抽樣調查研究則發現，符合美國精神醫學會 ADHD 診斷準則（DSM-5）的學生比例高達 10 % 。
+換言之，每 100 名學生中約有 10 名有明顯的 ADHD 症狀。面對這麼高的比例，社會大眾對 ADHD 的認識卻不夠普及。究竟 ADHD 有什麼樣的表現？如何協助孩子調整身心狀況、應對治療伴隨的疾病污名標籤？家長、老師等照護者需要什麼樣的支持？
+中研院社會學研究所曾凡慈副研究員長期投入「醫療社會學」研究，試圖理解社會如何建構正常性與異常性。近年來持續探討 ADHD 等「隱性障礙」在教育場域如何被醫療化、標籤化，以及親職角色面臨的各種教養難題。
+所謂「隱性障礙」是指：病況模糊、有爭議或不可見，需要精神藥物、心理與特殊教育介入，從而為家長帶來尋求診斷與治療的複雜挑戰。
+ADHD 即是一種隱性障礙，對生活的影響通常反映在人際互動與學習表現上，詳細診斷標準可參考臺大神經部衛教說明，主要症狀整理如下：
+由於 ADHD 的行為樣態多元、表現程度不一，而且可能隨著成長過程而改善或惡化，讓位在教學第一線的老師經常面對的難題是：究竟孩子只是不夠努力，還是真的無法控制自己？
+這種判斷困難常出現在孩子重新分班、需適應新環境時。大部分老師會先觀察半學期至一學期，如果孩子的行為一直沒有改善，就會試著與家長溝通，評估是否帶孩子就醫檢查。因此，求學階段通常是孩子被診斷出 ADHD 的高峰期。
+由於臺灣社會長期缺乏隱性障礙的觀念，孩子在學校表現不好會認為是小孩天性調皮，只要嚴加管教就會慢慢改善，並不會直接想到看醫生，而且民眾普遍對看精神科有不好的觀感。
+因此，當老師提議帶孩子就醫，多數家長一時之間可能難以接受，再加上每個家庭具備的文化與經濟資本不同，對親職角色的焦慮程度不一，也進而影響家長選擇的回應方式。
+為了深入了解隱性障礙對親職造成的挑戰，曾凡慈訪談了 50 位家中有隱性障礙學童的家長，分別具備不同教育程度、家庭型態、社經地位等條件，並藉由發展「道德工作」概念來考察這種獨特的親職任務。什麼是「道德工作」呢？
+道德工作指的是：人們在日常生活中如何判斷哪些目標值得追求？怎樣的做法比較適當？又應該相信什麼、感受什麼與做什麼，才算善盡職責？
+這對一般父母來說絕非易事，應該讓孩子養成乖巧懂事還是自由自在？要努力培養未來競爭力還是享受快樂童年？一道道選擇題已夠令人煩惱，如果孩子的氣質特殊，情緒行為不符合大部分孩子的常態時，將更難仰賴一套明確的價值指引行事，因此需要透過更加複雜的道德工作來幫自己和孩子應付日常難題。
+對孩子有隱性障礙的家長來說，道德工作要處理的問題通常包括：該不該用「病」的框架來解釋孩子的違常行為？如果能治療，什麼才是「應該的」目的？要讓孩子擁有公開的障礙身分，還是盡量隱瞞以避免污名？面對孩子持續表現出失序的狀態，該體諒包容還是嚴格要求？
+一起來看看與 ADHD 孩童朝夕相處的家長與老師們做出什麼樣的抉擇。
+曾凡慈發現，從親職的角度考量，家長首先須設法釐清問題屬性：究竟孩子的行為是個性、環境或病理所致？才能決定該往什麼方向努力。
+承認孩子可能患有 ADHD 是家長要克服的首要難題，尤其在臺灣想獲得特殊教育資源，或讓學校接受孩子的差異、提供相應的對待，通常得先取得醫療診斷，使得就醫並接受藥物治療成為某些家長維護孩子受教權的策略。
+緊接著家長要摸索的是，怎麼教導孩子看待吃藥行為可能帶來的「污名標籤」。例如有孩子因為吃藥而被同學取笑，與同學發生紛爭時也常被問「今天是不是沒吃藥」。如果沒有妥善處理，診斷用藥將增加孩子被歧視的風險，也會降低孩子配合治療的意願。
+某些家長則教孩子以「尋常化」的態度看待用藥。例如告訴孩子「每個人身上都有一點病，像是阿公也每天在吃糖尿病的藥」。或者說吃的是「聰明藥」、「專心藥」，吃藥不代表「有病」，而是能在學校表現的更好。
+也有部分家長採取「以醫療模式轉移污名」的策略，讓孩子相信只要「治好」就不會發生污名問題。
+例如有的孩子主要是注意力不足（ ADHD 的一種次類型），家長引用醫生的說法向孩子強調「你是注意力不足不是過動」。每當孩子接受積極治療、在學校的表現明顯進步時，家長也會藉此培養孩子有自信的應對方式，下次再被同學取笑時可以勇敢回覆：「我只是注意力不足」、「我現在都好了」。
+當然也有比較特殊的案例，曾凡慈訪談的家長中，有位媽媽教孩子不要主動挑釁他人，可是一旦別人欺負到你頭上，就一定要捍衛自己。
+例如有人罵孩子吃藥就是神經病，她要孩子大力反擊：「你才有病！又不是你要吃藥，關你什麼事？」雖然這麼做無法改善孩子的人際關係，但曾凡慈指出，我們的社會存在一種奇怪的權力，自以為「正常」的人能隨便對被視為「異常」的人指指點點，這種權力應該被揭露和挑戰：
+教養方式沒有絕對好壞，教孩子言語反擊，看似在破壞社會互動秩序，實際上是讓孩子正面回擊污名化背後的權力關係。
+從事隱性障礙的道德工作時，另一值得注意的是，家長的教養方式可能因不同的文化和經濟資本而產生差異，這將影響家長與老師的溝通，以及孩子可得到的教育與醫療資源。
+例如某些家長比較有能力與老師對等討論，一起摸索出適合孩子的學習方式，也比較有能力爭取醫療資源、進行污名管理。課餘時間還會陪孩子完成課業、調整情緒行為，甚至自費取得其他輔助資源。
+其中一位有教育學博士學位的家長令曾凡慈印象深刻。這位母親為了讓患有 ADHD 的孩子得到最佳照護，自行創辦了幼兒園，過程中投入的金錢與時間精力，超乎一般家長所能想像！
+然而，並非每位家長都有能力為孩子做那麼多，許多家長可能因工作繁忙、手頭不寬裕，或對 ADHD 等隱性障礙缺乏認知，因而無法長期陪伴孩子、或與老師密切溝通，也沒有餘裕定期請假帶孩子回診。
+如果老師跟家長的溝通卡關，又正好遇到老師的教學標準較高，可能會認為只要家長不願帶孩子就醫，就沒有立場對疑似有 ADHD 症狀的學生進行個別調整或導入特教資源，這將導致各方關係陷入惡性循環。
+近期曾凡慈也開始訪問教過 ADHD 學生的老師，希望了解他們遇到的教學難題與處理經驗。
+老師的壓力之大在於，既要在教學上符合全班學生對「公平性」的期待，又要對有特殊需求的學生進行「彈性調整」。如果家長不願讓學生接受診斷，面對看似 ADHD 的學生，究竟要用平常標準要求還是寬容對待？如何避免其他人抱怨老師沒有一視同仁？都將陷老師於左右為難的境地。
+面對教育現場因不同理念而產生的紛爭，老師非常需要家長與專家的支持，也需要額外人力幫忙分擔並改善孩子在學校的狀況，否則老師疲於應付、教學品質也難以維持。
+曾凡慈訪談的老師們也分享了有助增進教學知能的資源，例如現在的教師研習會將 ADHD 等隱性障礙的基本知識與教學策略納入課程，參加教學互助社群也有助交流在教學現場可應用的實務技巧。
+此外，老師們也希望有彈性的人力調度，能適時支援臨時狀況。例如孩子坐不住、或行為失控需要拉開距離時，可以有行政體系的老師陪孩子出去走走、緩和情緒。如何讓專業資源與輔助人力能及時支援教育現場，是日後值得關注的課題。
+未來曾凡慈也將持續訪談成人 ADHD 患者，了解他們怎麼走過求學與治療階段，怎麼看待自己的身心狀態。訪談過程中發現，雖然成長過程有其艱辛之處，但也出現正向看待 ADHD 的社群。
+許多在童年時期被診斷出 ADHD 的孩子已長大成人，並開始透過聚會重新思考 ADHD 對自己的意義，致力推動社會大眾以正向心態看待 ADHD，甚至語帶自信地以「A 咖」自稱！
+曾凡慈非常樂見創造正向標籤的行動能延續下去。例如「 A 咖」社群中有人認為 ADHD 就是一種個人特質，有天馬行空的創意、勇於跳脫常軌，擅長抓住大方向且不拘小節。此外，「怕無聊」的個性讓他們幾乎終其一生都在尋求新鮮挑戰，過著樂在學習的精彩人生。
+然而，曾凡慈也注意到，部分 A 咖仍需要藥物及諮商資源，協助他們應付大學生活，以及工作職場上更加嚴峻的挑戰。有些人很需要心理師擔任一對一的「 ADHD 教練」，訓練人際相處應對、生活安排與工作規畫，或調適因外在刺激而累積的壓力。
+然而，目前心理諮商或治療都所費不貲，如果不住在大都市，相關資源將更難取得，導致他們只能靠自助或社群互助，慢慢摸索自我調適策略，比一般同齡人更加辛苦。
+因此，有些成年患者會為了使用校內免費的心理諮商服務，選擇延畢或繼續念研究所，導致出社會的時間往後拖延、影響職涯發展。
+我們不能否認病症會為患者帶來應付生活的困難，但隨著隱性障礙逐漸被視為人類行為多元光譜的一環，我們也看到了改變的契機。
+曾凡慈期許：「我們不該只想著指認孩子的內在缺失，甚至期待醫師將他們治癒，使他們能適應主流環境。」更該轉向思考的是：
+如何支持個別差異，發展有利於所有人的教育文化與社會體系。
+為什麼吃藥可以，體罰就不行？一樣都會有不良後遺症啊。
+為什麼吃藥可以，體罰就不行？一樣都會有不良後遺症啊。</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>medicine-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>家長留意！「胎兒小於妊娠年齡」影響生長發展，從出生到成年都會面臨健康問題 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374656</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>兒童內分泌生長門診中很常出現的一個族群是「胎兒小於妊娠年齡」的孩子。
+這些小朋友在長大的過程中，相較於正常出生體重的孩子，容易出現身材矮小、性早熟、過重、肥胖，甚至到成人時期罹患代謝症候群與心血管疾病的風險也明顯較高，兒童健康守護者應特別留意。
+胎兒小於妊娠年齡（small for gestational age, SGA）是指「出生體重低於同樣妊娠週數新生兒第十百分位或低於負二個標準差者」。
+大家可以參考以下圖片對照寶寶出生週數與體重，即可得知寶寶出生體重是否符合該週齡。
+舉例來說：一個懷孕 39 週出生的足月寶寶，出生體重只有 1800 公克，屬於「胎兒小於妊娠年齡」。
+造成「胎兒小於妊娠年齡」的原因包含：母體因素、胎盤因素與胎兒因素。
+約有 1／3「胎兒小於妊娠年齡」寶寶，在新生兒時期因為肝醣儲積不足，脂肪量不足，造成「低血糖」的發生。也容易因為體表面積相對較大，皮下脂肪相對不足，而增加「低體溫」的風險。若早產合併胎兒小於妊娠年齡，也明顯「增加新生兒死亡率」。
+「胎兒小於妊娠年齡」的寶寶往往在出生後 3～6 個月開始出現「追趕生長」，且常常體重追趕得比身長來的快。研究發現，此階段的體重快速增加將大幅提升未來長期肥胖、代謝性症候群與心血管疾病的風險。
+生長
+大多數「胎兒小於妊娠年齡」的兒童，可在成長過程發生「追趕生長」。即生長速率可高於同齡同性別之平均值，使生長曲線逐漸邁入正常範圍。將近 90%「胎兒小於妊娠年齡」的兒童可在兩歲前完成「自發性追趕生長」；若「早產」合併「胎兒小於妊娠年齡」，則需要更長時間完成追趕生長，大部分可在四歲前追趕達標。
+然而，仍然有 10% 左右的「胎兒小於妊娠年齡」兒童無法完成自發性追趕生長，造成終生持續身材矮小。此族群目前在美國、歐盟與日本皆已列為「生長激素治療」之適應症族群。此族群透過適當的生長激素治療，除了可改善身高預後，還可改善身體組成（減少脂肪量、增加肌肉量）、改善高膽固醇血症，並提升骨質密度。
+青春期發育
+大多數「胎兒小於妊娠年齡」的青春期發育時間會落在正常時間：女孩 8～13 歲，男孩 9～14 歲。但平均而言，「胎兒小於妊娠年齡」兒童的青春期還是會早於正常出生體重的兒童（初經比正常出生體重兒童提前 5～6 個月），女孩容易發生「早發性陰毛發育」，青春期的進展速度也較快，但青春期階段的生長速率卻較為緩慢，而這樣「偏早又偏快的青春期，以及偏慢的長高速率」，往往不利於理想成人身高的達成。
+神經發展與認知
+大部分「胎兒小於妊娠年齡」兒童的腦部發育是正常的。但在極度早產兒，會增加發展遲緩、認知功能障礙、注意力不足過動症與學習障礙的風險。
+相較於正常出生體重的兒童，「胎兒小於妊娠年齡」兒童在成人階段有較高的機率罹患中樞型肥胖、脂質異常、胰島素阻抗、葡萄糖代謝異常、高血壓等代謝症候群與心血管疾病，特別是兒童時期高熱量飲食、體重快速增加的肥胖兒童。由此可見「小時候胖」幾乎註定成人以後肥胖的趨勢，甚至助長成人肥胖併發症的發生。
+「胎兒小於妊娠年齡」的寶寶，從出生一直到長大成人，都有許多健康議題需要特別關注。建議此族群家長，應格外留意以下幾點：</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>medicine-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>和外星人的第五類接觸！《三體》中的微中子通訊是真的？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/375407</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>不要回答！不要回答！不要回答！
+Netflix 版「三體」終於上線了，你覺得與外星人接觸是安全的，還是冒險的？
+其實啊，人類早就多次嘗試與外星文明接觸，三體中的「那個」技術，甚至也已經驗證成功了？到底誰能先與外星人取得聯繫？是中國還是美國？
+接下來的討論可能會暴雷原版小說的設定，但應該不會暴雷 Netflix 版的劇情。
+如果你也有一點想跟外星人接觸，那就來看看人類到底已經跟外星人搭訕到什麼程度了吧！
+對於是否要與外星文明接觸，每個人都有不同想法。三體小說作者劉慈欣在小說中提出一種觀點，那就是人類太弱小，最好避免與外星文明接觸，以免招致不必要的風險。
+但是回到現實世界，如果我們真的身處在三體的世界的話，那人類可真的是不停作死啊。早在 1974 年，科學家就利用阿雷西博天文台，向武仙座的 M13 球狀星團發射了一條著名的訊息，也就是「阿雷西博訊息」。這個目標距離地球不算遠，星星又多，被認為是潛在的外星文明所在。阿雷西博訊息中，則包含人類的 DNA 結構、太陽與九大行星、人類的姿態等資訊。每次想到總覺得是新開的炸雞排在發傳單攬客。
+除了無實體的電波訊息，人類還向太空中發送了實體的「信件」。1977 年，航海家探測器載著「航海家金唱片」進入太空。唱片中收錄了包含台語在內，55 種語言的問候語、大自然與鳥獸的聲音、115 張圖像、還用 14 顆銀河系內已知的脈衝星來標示出太陽系的位置。是一封向宇宙表達人類文明與友好意圖的信件。恩，如果接收到這個訊息的外星人不是很友善的話，那麼……。
+好吧，就算現在說應該要謹慎考慮接觸外星文明的風險，或許已經來不及了。對方是善還是惡，怎麼定義善或惡，會不會突然對我們發動攻擊，我們也只能聽天由命了。
+要確定有沒有外星文明，接收訊號當然跟發送訊號同等重要甚至更重要。1960 年，天文學家法蘭克．德雷克，就曾通過奧茲瑪計畫，使用直徑 26 公尺的電波望遠鏡，觀察可能有外星文明的天苑四和天倉五兩個恆星系統，標誌著「尋找外星智慧計畫」（the Search for Extraterrestrial Intelligence, SETI）的誕生。可惜，累積了超過 150 小時的訊息，都沒有搜尋到可辨識的訊號。
+比較近的則是 1995 年的鳳凰計畫，要研究來自太陽附近一千個恆星所發出的一千兩百到三千百萬赫的無線電波。由於有經費支持，SETI 每年可以花五百萬美元，掃描一千多個恆星，但是目前還沒有任何發現。
+中間有一個小插曲是，1967 年 10 月，英國劍橋大學的研究生喬絲琳．貝爾發現無線電望遠鏡收到了一個非常規律的脈衝訊號，訊號周期約為 1.34 秒，每次脈衝持續時間 0.04 秒。因為有可能是來自外星文明的訊號，因此訊號被開玩笑地取為 Little Green Man 1（LGM-1 號）。但後來他們又發現了多個類似的脈衝信號，最後證實這些脈衝是來自高速自轉的中子星，而非某個文明正在傳遞訊息。
+在中國也有探索外星生命的計畫，大家最關注的貴州天眼望遠鏡，直徑達五百公尺，是地球上最大的單一口徑電波望遠鏡。天眼望遠鏡在探索外星生命這件事，並不只是傳聞而已。2016 年 9 月天眼正式啟用後，也宣布加入 SETI 計畫。現在貴州天眼的六大任務之一，就包含探測星際通訊，希望能捕捉到來自其他星際文明的訊號。
+而背負著地球最大單一口徑望遠鏡的名號，自然也引起不少關注。從 2016 年啟用到現在，就陸續出現不少檢測到可疑訊號的新聞。然而，這些訊號還需要經過檢驗，確定不是其他來自地面或地球附近的干擾源，或是我們過去難以發現的輻射源。可以確定的是，目前官方還未正式聲明找到外星文明訊號。
+即使電磁波用光速傳遞訊息，太陽系的直徑約 2 光年、銀河系直徑約 10 萬光年。或許我們的訊息還需要花很多時間才回得來，更別提那些被拋入太空的實體信件。航海家 1 號曾是世界上移動速度最快的人造物，現在仍以大約時速 6 萬公里的速度遠離地球，大約只有光速的一萬八千分之一倍。就算朝著最近的恆星——比鄰星飛去，最少也需要大約 7 萬 6 千年的時間才會到。
+如果用電磁波傳遞訊息，又容易因為穿越星塵、行星、恆星等天體而被阻擋或吸收。不論是人類還是外星文明，都必須找到一個既快速，又不容易衰退的訊號，最好就是能以光速穿越任何障礙物的方式。
+在三體小說中，就給出了一個關鍵方法：微中子通訊。
+微中子（Neutrino），中國通常翻譯為中微子，是一種基本粒子。也就是說它是物質的最基本組成單位，無法被進一步分割。這種粒子引起了廣泛關注，因為它與其他物質的交互作用極弱，並且以極高的速度運動。微中子能夠輕易穿過大部分物質，通過時幾乎不受阻礙，因此難以檢測。
+在宇宙中，微中子的數量僅次於光子，是宇宙中第二多的粒子。有多多呢？地球上面向太陽的方向，每平方公分的面積，大約是你的手指指尖，每秒鐘都會被大約 650 億個來自太陽的微中子穿過，就是這麼多。但是因為微中子與物質的反應真的是太弱了，例如在純水中，它們平均需要向前走 250 光年，才會與水產生一次交互作用，以至於我們幾乎不會發現它們的存在。
+但是對物理學家來說，更特別的是微中子展示出三種不同的「味」（flavor），也就是三種樣貌，電子微中子，渺子微中子和濤微中子，分別對應到不同的物理特性。 在粒子物理學裏，有個「標準模型」來描述強力、弱力及電磁力這三種基本力，以及所有基本粒子。在這個標準模型中，微中子是不具備質量的。 然而，當科學家發現微中子竟然有三種味，而且能透過微中子振盪，在三種「味」之間相互轉換，證明了微中子必須具有質量，推翻了標準模型中預測微中子是無質量的假設，表示標準模型還不完備。
+微中子在物理界是個非常有研究價值的對象，值得我們花上一整集來好好介紹，這邊就先點到為止。如果你對微中子或其他基本粒子很感興趣，歡迎在留言催促我們。
+我們現在只要知道，微中子不僅推翻了標準模型。宇宙中含量第二多的粒子竟然有質量這件事情，更可能更新我們對宇宙的理解，以及增加對暗物質的了解。
+但回到我們的問題，如果微中子幾乎不與其他粒子交互作用，我們要怎麼接收來自外星文明的微中子通訊呢？ 
+Netflix 版《三體》預告片中，這個一閃而過，充滿金色圓球，帶有點宗教與科幻風格的大水缸，就是其中的關鍵。
+這個小說中沒有特別提到，但相信觀眾中也有人一眼就看出來。這就是位在日本岐阜縣飛驒市，地表 1,000 公尺之下，由廢棄礦坑改建而成的大型微中子探測器「神岡探測器」。
+探測器的主要結構是一個高 41.4 米、直徑 39.3 米的巨大圓柱形的容器。容器的內壁上安裝有 11200 個光電倍增管，用於捕捉微小的訊號。水缸中則需灌滿 5 萬噸的超純水。捕捉微中子的方式是等待微中子穿過整座探測器時，微中子和水中的氫原子和氧原子發生交互作用，產生淡藍色的光芒。這與我們在核電系列中提到，核燃料池中會發出淡藍色光芒的原理一樣，是當粒子在水中超越介質光速時，產生類似音爆的「契忍可夫輻射」。
+也就是說，科學家準備一個超大的水缸來與微中子產生反應，並且用超過一萬個光電倍增管，來捕捉微小的契忍可夫輻射訊號。
+但這樣的設計十分值得，前面提到的微中子可以在三種「味」中互相轉換，就是在這個水槽中被證實的。
+這座「神岡探測器」在建成後 40 幾年來，讓日本孕育出了 5 位的諾貝爾物理獎得主。
+三體影集選在這邊拍攝，真的要說，選得好啊。
+話說回來，有了微中子的捕捉方法之後，現實中還真的有人研究起了微中子通訊！
+來自羅徹斯特大學與北卡羅來納州立大學的團隊，在 2012 年發表了一篇文章，說明它們已成功使用微中子，以接近光速的速度將訊息穿過 1 公里的距離，其中有 240 公尺是堅硬的岩石。訊息的內容是「Neutrino」，也就是微中子。
+這套設備準備起來也不簡單，用來發射微中子的，是一部強大的粒子加速器 NuMI。質子在加速繞行一個周長 3.3 公里的軌道之後，與一個碳標靶相撞，發出高強度的微中子射束。
+用來接收微中子的則是邊長約 1.7 公尺，長 5 公尺的六角柱探測器 MINERvA，一樣身處於地底 100 公尺的洞穴中。
+當然，這兩套設備的重點都是拿來研究微中子特性，而不是為了通訊設計的。團隊只是趁著主要任務之間的空檔，花了兩小時驗證通訊的可能性。
+但微中子那麼難測量，要怎麼拿來通訊呢？團隊換了一個思維，目標只要能傳出０跟１就好，而這裡的０就是沒有發射微中子，而１則是發出微中子，而且是一大堆微中子。多到即使每百億個微中子只有一個會被 MINERvA 偵測到，只要靠著數量暴力，探測器就一定能接收到微中子。最後的實驗結果，平均一秒可以傳 0.1 個位元的訊息，錯誤率 1%。
+因為微中子「幾乎能穿透所有物體」的特性，即便我們還沒有其他外星文明可以通訊，或許還是有其他作用。例如潛水艇的通訊、或是與礦坑深處的通訊。進一步說，他幾乎可以在地球上的任一兩點建立點對點的直線通訊，完全不用擔心中間的阻礙。而對於現在最夯的太空競賽來說，月球背面的通訊問題，微中子也可以完美解決。
+那麼，在微中子的研究上，各國的進度如何了呢？
+除了前面提到的超級神岡，世界上還有幾個有趣的微中子探測器，例如位於加拿大的薩德伯里微中子觀測站（SNO），它有特殊的球體設計並且改為填充重水，專門用來觀測來自太陽的微中子。
+而位於南極的冰立方微中子觀測站，則是將探測器直接埋在南極 1450 到 2450 公尺的冰層底下，將上方的冰層直接作為捕捉微中子的水。非常聰明的設計，這也讓冰立方成為地球上最大的微中子探測器。
+除了已經在使用的這幾個探測器之外，美、中、日也即將打造更先進、更強大的探測器。
+預計在美國打造的國際計畫——地下深處微中子實驗（Deep Underground Neutrino Experiment），預計成為世界上最大的低溫粒子偵測器。接收器位於南達科他州的地底一公里深處，用作研究的微中子訊號源則來自 1300 公里外的費米實驗室，百萬瓦等級的質子加速器，將產生有史以來最強的微中子束。這台地下深處微中子實驗（Deep Underground Neutrino Experiment）的縮寫非常有趣，就是 DUNE，沙丘。
+中國呢，則預計在廣東的江門市，用 2 萬支 51 公分光電倍增管和 2 萬 5000 支 7.6 公分光電倍增管，在地底 700 公尺深處，打造巨大球形的微中子探測器－江門中微子實驗室，內部可以填充兩萬噸的純水。最新的消息是預計 2024 年就能啟用。
+最後，經典的超級神岡探測器也不會就此原地踏步，日本預計打造更大的超巨型神岡探測器。容積將提升 5.2 倍、光電管從 11200 個變成 4 萬個，進一步研究微中子與反微中子之間的震盪。
+這些微中子探測器的研究目標必然是微中子本身的特性。但既然微中子通訊是有可能的，在任務之餘研究一下這個可能性，也不是說不行吧。
+雖然我們現在還沒連繫上我們的好鄰居，但很難說明天就有哪個外星文明終於接收到我們對外宣傳的訊息，發出微中子通訊問候，甚至按圖索驥跑來地球。
+至於那時我們應該怎麼辦呢？我們的網站上有幾篇文章，包括介紹黑暗森林法則，以及從《異星入境》看我們要如何與語言不通的外星文明溝通。有興趣的朋友，可以點擊資訊欄的連結觀看。在外星人降臨之前，也不妨參考我們的科學小物哦。
+最後問問大家，你覺得我們應該主動聯繫外星文明嗎？
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>scienceinmovies</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>「倘若那天……」平行時空的你過得怎麼樣？——《超次元．聖戰．多重宇宙》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374154</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>但人總喜愛想像，現實世界中無法「重頭來過」，但小說和電影的虛擬世界當然可以。在好萊塢電影《今天暫時停止》（Groundhog Day, 1993；港譯：《偷天情緣》）之中，男主角最先猶如惡夢般不斷在同一天的清晨醒來，後來卻利用這個機會不斷改善他的追求技倆（不但 take two，更take three、take four……），最後贏得美人歸。
+電影為觀眾帶來了美滿的結局。但筆者最早領略「如果」作為小說創作中的奇思妙想，卻令我傷感不已。話說筆者自初中已經愛上科幻小說。大概是中三、四那年，我在公共圖書館借了一本英文的短篇科幻小說集，其中一個以「如果」為題的故事（名稱早已忘記）令我畢生難忘。
+故事中，一對恩愛的小夫妻駕車外出，丈夫有點兒不適所以改由太太開車。不幸途中遇上車禍，坐在司機位的太太重傷身亡。丈夫悲痛不已終日借酒澆愁，揮之不去的自責是「如果我那天沒有跟她對調位置……」。
+一天，他在拾理太太的遺物時，竟然發現她的日記簿中有新的記事！讀將下來，原來在另一時空裡，兩人當天的確沒有對調位置，所以因車禍去世的是他而不是愛妻！
+這兩個「平行時空」原本不會重疊，卻不知怎的透過這本日記簿接通了。結果，「陰陽相隔」的倆人藉著日記互訴衷情。
+這本已是十分淒美的情節，但後來日記中的字樣變得愈來愈模糊，最後完全消失，表示兩個「平行宇宙」最終分離而回到互不相通的狀態。筆者當年雖然只有十五、六歲，被觸動的哀愁卻是久久不能平復……。
+年少的我已經深深感受到，人生中充滿了無數偶然的變數，而一個簡單的決定，足以改變一生。
+多年後，我看到另一部電影《雙面情人》（Sliding Doors, 1998；港譯：《緣分兩面睇》），發覺也是用上了同一意念：女主角每天搭地鐵上班，但某天因事遲了一點而趕不上平日搭的那班車。電影基於「趕得及」和「趕不及」兩種情況，描述了女主角往後出現的兩種截然不同的人生。（我後來才知道，這乃改編自一部一九八一年的波蘭電影。）
+歷年來，運用這類意念創作的小說和電影可謂不少，近年流行的好萊塢「超級英雄」電影中，《奇異博士》（Doctor Strange, 2016）和它的續集《奇異博士 2：失控多重宇宙 》（Doctor Strange in the Multiverse of Madness, 2022；港譯：《奇異博士 2：失控多元宇宙》）更將「平行時空」的意念延伸為「多重宇宙」（Multiverse）。陣容更為龐大的《復仇者聯盟 3：無限之戰》（Avengers 3: theInfinity War, 2018）和《復仇者聯盟 4：終局之戰》（Avengers 4: Endgame, 2019）皆以同樣的意念作為故事主軸。當然，這些電影都由漫畫改編，亦即這些意念的出現時間比電影還要早得多。
+但將這個意念發揮至極的，毫無疑問是二○二三年橫掃奧斯卡最佳電影、最佳導演、最佳編劇多項大獎的「怪雞」1 電影《媽的多重宇宙》（Everything, Everywhere All At Once，縮寫是 EEAAO；港譯：《神奇女俠玩救宇宙》）。華裔演員楊紫瓊（1962-）更因此而封后（最佳女演員）；同樣是華裔的關繼威（1971-）以及潔美．李．寇蒂斯（Jamie Lee Curtis, 1958-）則分別獲得最佳男、女配角的殊榮。電影由兩位導演掌舵，雖然兩個都叫 Daniel，但一個是香港人關家永（Daniel M. Kwan, 1988-），一個是美國人丹尼爾．舒奈特（Daniel Scheinert, 1987-）。2 囊括了這麼多大獎，電影的風頭可謂一時無兩。由於有這麼多華人參與其間，全球絕大部分華人皆感到與有榮焉。
+外國的評論幾乎一面倒地對這部電影讚譽有加，包括其中所包含的深刻人生哲理、愛情與理想之間的抉擇、亞裔移民在美國所遇到的生活困難、世代之間的價值矛盾、同性戀（非主流性取向）的社會認同問題，以及貫穿電影的、最重要的母、女之情。不少網友更留言說看至結局時感動流涕。反倒在華人世界，包括不少筆者所認識的朋友，皆對電影甚有保留，認為它寫情的部分毫無新意，而「科幻」的主題和情節則過於胡鬧不知云。（一些更認為電影被大肆吹捧，是近年席捲西方的「政治正確主義」的結果。他們更為另一位最佳女主角競逐者凱特．布蘭琪（Cate Blanchett, 1969-）不值。但那是另一篇文章的主題，暫且按下不表。）
+——本文摘自《超次元．聖戰．多重宇宙》，2023 年 11 月，二○四六出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>scienceinmovies</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>快速通道與無盡地界：科幻作品裡的黑洞——《超次元．聖戰．多重宇宙》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/374128</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>一個無底深淵怎能成為星際飛行的捷徑呢？原來按照愛因斯坦的理論，黑洞是一個時空曲率趨於無限大——也就是說，時空本身已「閉合」起來的區域。但往後的計算顯示，若收縮的星體質量足夠大的話，時空在閉合到某一程度之後，會有重新開敞的可能，而被吸入的物體，將可以重現於宇宙之中。只是，這個「宇宙」已不再是我們原先出發的宇宙，而是另一個宇宙、另一個時空（姑毋論這是甚麼意思）。按照這一推論，黑洞的存在，可能形成一條時空的甬道（稱為「愛因斯坦－羅森橋接」），將兩個本來互不相干的宇宙連接起來。
+這種匪夷所思的推論固然可以成為極佳的科幻素材，但對於克服在我們這個宇宙中的星際距離，則似乎幫助不大。然而，一些科學家指出，愛因斯坦所謂的另一個宇宙，很可能只是這一宇宙之內的別的區域。如果是的話，太空船便可由太空的某處飛進一個黑洞之內，然後在遠處的一個「白洞」（white hole）那兒走出來，其間無須經歷遙遠的星際距離。把黑洞和白洞連結起來的時空甬道，人們形象地稱之為「蛆洞」、「蛀洞」或「蟲洞」（wormhole）。
+「蛆洞」是否標誌著未來星際旅行的「捷徑」呢？不少科幻創作正以此為題材。其中最著名的，是《星艦奇航記》第三輯《太空站深空 9 號》（Deep Space Nine, 1993-1999），在劇集裡，人類發現了一個遠古外星文明遺留下來的「蛆洞」，於是在旁邊建起了一個龐大的星際補給站，成為了星際航運的聚散地，而眾多精彩的故事便在這個太空站內展開。
+我方才說「最著名」，其實只限於《星艦》迷而言。對於普羅大眾，對於「蛆洞」作為星際航行手段的認識，大多數來自二○一四年的電影《星際效應》（Interstellar，港譯：《星際啟示錄》），其間人類不但透過蛆洞去到宇宙深處尋找「地球 2.0」（因為地球環境已大幅崩壞），男主角更穿越時空回到過去，目睹多年前與年幼女兒生離死別的一幕。電影中既有大膽的科學想像，也有感人的父女之情，打動了不少觀眾。大家可能有所不知的是，導演基斯杜化．諾蘭（Christopher Nolan, 1970-）邀請了知名的黑洞物理學基普．索恩（Kip Thorne, 1940-）作顧問，所以其中所展示的壯觀黑洞景象，可不是憑空杜撰而是有科學根據的呢！
+然而事情並非這麼簡單。我們不要忘記，黑洞的周圍是一個十分強大的引力場，而且越接近黑洞，引力的強度越大，以至任何物體在靠近它時，較為接近黑洞的一端所感受到的引力，與較為遠離黑洞的一端所感受到的，將有很大的差別。這種引力的差別形成了一股強大之極的「潮汐張力」（tidal strain），足以把最堅固的太空船（不要說在內的船員）也撕得粉碎。
+潮汐張力的危險不獨限於黑洞，方才提及的中子星，其附近亦有很強的潮汐力。 拉瑞．尼文（Larry Niven, 1938-，港譯：拉利．尼雲）於一九六六年所寫的短篇〈中子星〉（Neutron Star），正以這一危險作為故事的題材。
+尤有甚者，即使太空船能抵受極大的潮汐力，在黑洞的中央是一個時空曲率趨於無限，因此引力也趨於無限的時空「奇點」（singularity）。太空船未從白洞重現於正常的時空，必已在「奇點」之上撞得粉碎，星際旅程於是變了死亡旅程。
+然而，往後的研究顯示，以上的描述只適用於一個靜止的、沒有旋轉的黑洞，亦即「史瓦西解」所描述的黑洞。可是在宇宙的眾多天體中，絕大部分都具有自轉。按此推論，一般黑洞也應具有旋轉運動才是。要照顧到黑洞自旋的「場方程解」，可比單是描述靜止黑洞的史瓦西解複雜得多。直至一九六三年，透過了紐西蘭數學家羅伊・卡爾（Roy Kerr, 1934-）的突破性工作，人類才首次得以窺探一個旋轉黑洞周圍的時空幾何特性。
+科學家對「卡爾解」（The Kerr solution）的研究越深入，發現令人驚異的時空特性也越多。其中一點最重要的是：黑洞中的奇點不是一個點，而是一個環狀的區域。即只要我們避免從赤道的平面進入黑洞，理論上我們可以毋須遇上無限大的時空曲率，便可穿越黑洞而從它的「另一端」走出來。
+不用說，旋轉黑洞（也就是說，自然界中大部分的黑洞）立即成為科幻小說作家的最新寵兒。
+一九七五年，喬．哈德曼（Joe Haldeman,1943-）在他的得獎作品《永無休止的戰爭》（The Forever War, 1974）之中，正利用了快速旋轉的黑洞（在書中稱為「塌陷體」——collapsar）作用星際飛行——以及星際戰爭得以體現的途徑。
+由於黑洞在宇宙中的分佈未必最方便於人類的星際探險計劃，一位科學作家阿德里安．倍里（Adrian　Berry,1937-2016）更突發奇想，在他那充滿想像的科普著作《鐵的太陽》（The Iron Sun, 1977）之中，提出了由人工製造黑洞以作為星際轉運站的大膽構思。
+要特別提出的一點是，飛越旋轉黑洞雖可避免在奇點上撞得粉碎，卻並不表示太空船及船上的人無須抵受極強大的潮汐力。如何能確保船及船員在黑洞之旅中安然無恙，是大部分作家都只有輕輕略過的一項難題。
+此外，按照理論顯示，即使太空船能安然穿越黑洞，出來後所處的宇宙，將不是我們原先出發的那個宇宙；而就算是同一個宇宙，也很可能處於遙遠的過去或未來的某一刻。要使這種旅程成為可靠的星際飛行手段，科幻作家唯有假設人類未來對黑洞的認識甚至駕馭，必已達到一個我們今天無法想像的水平。
+然而，除了作為星際飛行途徑，黑洞本身也是一個怪異得可以的地方，因此也是一個很好的科幻素材。黑洞周圍最奇妙的一個時空特徵，就是任何事物——包括光線——都會「一進不返」的一道分界線，科學家稱之為「事件穹界」（event horizon）。這個穹界（實則是一個立體的界面），正是由當年史瓦西計算出來的「史瓦西半徑」（Schwarzschild radius）所決定。例如太陽的穹界半徑是三公里，也就是說，假若一天太陽能收縮成一個半徑小於三公里的天體，它將成為一個黑洞而在宇宙中消失。「穹界」的意思就是時空到了這一界面便有如到了盡頭，凝頓不變了。
+簡單地說，穹界半徑就是物體在落入黑洞時的速度已達於光速，而相對論性的「時間延長效應」（time dilation effect）則達到無限大。對太空船上的人來說，穿越界面的時間只是極短的頃刻，但對於一個遠離黑洞的觀測者，他所看到的卻是：太空船越接近界面，船上的時間變得越慢。
+而在太空船抵達界面時，時間已完全停頓下來。換句話說，相對於外界的人而言，太空船穿越界面將需要無限長的時間！
+了解到這一點，我們便可領略波爾．安德遜（Poul Anderson, 1926-2001）的短篇〈凱利〉（Kyrie, 1968）背後的意念。故事描述一艘太空船不慎掉進一個黑洞，船上的人自是全部罹難。但對於另一艘船上擁有心靈感應能力的一個外星人來說，情況卻有所不同。理由是她有一個同樣擁有心靈感應能力的妹妹在船上，而遇難前兩人一直保持心靈溝通。由於黑洞的特性令遇難的一剎（太空船穿越穹界的一剎）等於外間的永恆，所以這個生還的外星人，畢生仍可在腦海中聽到她妹妹遇難時的慘叫聲。
+安德遜這個故事寫於一九六八年，可說是以黑洞為創作題材的一個最早嘗試。
+太空船在穹界因時間停頓而變得靜止不動這一情況在阿爾迪斯一九七六年寫的《夜裡的黑暗靈魂》（The Dark Soul of the Night）中，亦有頗為形象的描寫。恆星的引力崩塌，在羅伯特．史弗堡（Robert Silverberg）的《前往黑暗之星》（To the Dark Star, 1968）之中卻帶來另一種（雖然是假想的）危險。故事中的主人翁透過遙感裝置「親身」體驗一顆恆星引力塌陷的過程，卻發覺時空的扭曲原來可以使人的精神陷於瘋狂甚至崩潰的境地。
+以穹界的時間延長效應為題材的長篇小說，首推弗雷德里克．波爾（Frederik Pohl, 1919-2013）的得獎作品《通道》（Gateway, 1977），故事描述人類在小行星帶發現了由一族科技極高超的外星人遺留下來的探星基地。基地內有很多完全自動導航的太空船，人類可以乘坐這些太空船穿越「時空甬道」抵達其他的基地，並在這些基地帶回很多珍貴的，因此也可以令發現者致富的超級科技發明。
+故事的男主角正是追尋這些寶藏的冒險者之一。他和愛人和好友共乘一艘外星人的太空船出發尋寶，卻不慎誤闖一顆黑洞的範圍。後來他雖逃脫，愛人和好友卻掉進黑洞之中。但由於黑洞穹界的時間延長效應，對於男主角來說，他的愛人和好友永遠也在受著死亡那一刻的痛苦，而他也不歇地受著內疚與自責的煎熬。
+故事的內容由男主角接受心理治療時逐步帶出。而特別之處，在於進行心理治療的醫生不是一個人，而是一副擁有接近人類智慧的電腦。全書雖是一幕幕的人機對話，描寫卻是細膩真摯、深刻感人，實在是一部令人難以忘懷的佳作。
+由於這篇小說的成功，波氏繼後還寫了兩本續集：《藍色事件穹界以外》（Beyond the Blue Event Horizon, 1980）及《希徹會晤》（Heechee Rendezvous, 1984）。而且兩本都能保持很高的水準。
+時間延長效應並非一定帶來悲劇。在先前提及的《永無休止的戰爭》的結尾，女主角正是以近光速飛行（而不是飛近黑洞）的時間延長效應，等候她的愛侶遠征歸來，為全書帶來了令人驚喜而又感人的大團圓結局。
+七○年代末的黑洞熱潮，令迪士尼（Walt Disney）的第一部科幻電影製作亦以此為題材。在一九七九年攝製的電影《黑洞》（The Black Hole）之中，太空船「帕魯明諾號」在一次意外中迷航，卻無意中發現了失蹤已久的「天鵝號」太空船。由於「天鵝號」環繞著一個黑洞運行，船上的人因時間延長效應而衰老得很慢。這艘船的船長是一個憤世疾俗的怪人，他的失蹤其實是故意遠離塵世。最後，他情願把船撞向黑洞也不願重返文明。
+比起史提芬．史匹堡（Steven Spielberg, 1946-）的科幻電影，這部《黑洞》雖然投資浩大，拍來卻是平淡乏味，成績頗為令人失望。除了電影外，科幻作家艾倫．迪安．霍斯特（Alan Dean Foster, 1946-）亦根據劇本寫成的一本同名的小說。
+——本文摘自《超次元．聖戰．多重宇宙》，2023 年 11 月，二○四六出版，未經同意請勿轉載。</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>scienceinmovies</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>派大星有頭無身，不該穿褲子？！ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/371355</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">經典兒童動畫系列《海綿寶寶》（SpongeBob SquarePants）裡，主要角色海綿寶寶、派大星、蟹老闆、章魚哥等，還有其他海洋生物，各個人模人樣。就算沒穿上衣，也至少套了件褲子。[1]這裡其實有個值得深思的前提：任何動物倘若想學人類穿褲子，得先搞清楚下半身在哪裡。[2]而根據 2023 年 11 月登載於《自然》（Nature）期刊的海星論文，[3]我們能大膽宣告：派大星不應該穿褲子。不是會被海水沖走的那種乾脆別穿，而是根本就不曉得該怎麼辦的只好不要穿。
+海綿寶寶有次請派大星，把新鞋穿在腳上給牠看。「你會想看我穿在…手上嗎？」派大星問。睿智又隨和的海綿寶寶覺得都可以，畢竟手套也能戴在腳上。[4]此處劇情的安排，很巧妙地迴避了一個相當關鍵的問題，那就是如何區分海星的身體部位。
+如果今天討論的是狗、蝙蝠、蜘蛛、鯊魚，甚至蛞蝓，這些動物的身體，皆有明確的頭尾以及對稱的兩邊。因此，就算找不到手、腳，也能硬把褲子套在下半身。[2]海星、海膽等棘皮動物（echinoderms），跟昆蟲、軟體動物、脊椎動物一樣，都是從左右對稱的祖先演化而來。[3, 5]現代海星幼年時期的外型，也還是兩側對稱動物（bilateria）的模樣；不過長著、長著就長歪了，變成由數瓣完全相同的單位，所組成的放射狀造型。[2, 3, 5]嘴長在底部中央，肛門則於背面朝上，[2]與擬人化還迸出眼睛、眉毛的派大星，大相逕庭。
+生物學家早已知道，海星內部有內骨骼、肌肉，以及消化、水管和中樞神經系統等。然而，過往對其頭尾的方向順序，卻有多種不同的假設，例如：某隻觸角為首，對面那邊就是尾；每隻觸角各司其職，依序繞一圈，分別擔任從頭到尾的身體部位；由正中央的頭朝末梢，箭靶般向外劃分；或是蛋糕般由下而上層疊，整隻倒栽蔥等。[3]
+《自然》期刊這篇論文的美、英研究團隊，抓成年的 Patiria miniata 海星，來跟兩側對稱動物，比較基因分佈，以驗證上述的假說何者正確。比方說，一個活化的基因，若通常位在其他動物的頭部；我們就可以將它出現於海星身上的區塊，也視為頭部。[3]
+研究團隊在Patiria miniata海星身上，比對到一些活化的前腦（forebrain）、中腦（midbrain），以及中腦與後腦（hindbrain）交界的基因，確定海星有頭部。然後，就沒有然後了。[2, 3]尋遍不著軀幹在哪的研究團隊表示，所謂的「觸角」或「腕」，其實是頭的延伸。[5]總之，以前的那一堆假說全錯，而且海膽等其他棘皮動物，很可能也是這種只有頭的情形。[2]換句話說，符合最新科學描述的派大星，應該是顆嘴巴貼著海床，沒穿褲子的頭，靠著周圍密佈的管足移動、覓食。[5]
+多數動物發展出兩側對稱的身體後，不會再走回頭路。[2]海星倒著幹就算了，還在途中搞丟了軀幹，而且不曉得是什麼時候遺失的。研究團隊等於才剛解開一個謎團，馬上又發現了新的問題。接下來可得埋首化石堆，弄清楚海星在演化的過程中，發生了什麼事。[5]
+　　</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>scienceinmovies</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>《奧本海默》中被遺忘的火星人數學家馮紐曼和波利亞——《科學月刊》 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/371149</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>遊艇緩緩流動在分隔布達區（Buda）與佩斯區（Pest）的多瑙河上，絲絨般的水波、柔棉沁涼的河風，兼容哥德式與文藝復興建築風格的匈牙利國會大廈（Hungarian Parliament Building）圓頂，在夕陽的烘托之下宛如紅寶石般璀璨，流瀉出昔日奧匈帝國的風華。
+筆者來到此地，終於可以想像為何 100 年前這條河的兩岸能夠孕育出一批改變科學面貌，甚至改變人類歷史的數學家與科學家。趁著今（2023）年暑假到布達佩斯開會之便，筆者也試著踏尋這些科學家的足跡。
+回臺灣之後恰逢電影《奧本海默》（Oppenheimer）上映，儘管許多人聚焦在主角奧本海默（Julius Oppenheimer）的內心世界，不過筆者更關心的是幾位被火星人遺留在地球上的匈牙利數學家。
+20 世紀初歐美科學圈流傳著一個神祕的傳說，記錄下這傳說的是匈牙利物理學家馬克思（György Marx），但傳說起源卻得從義大利物理學家費米（Enrico Fermi）說起。
+1950 年某個夏日午後，費米在美國原子彈曼哈頓計畫（Manhattan Project）的基地——洛斯阿拉莫斯國家實驗室（Los Alamos National Laboratory），和幾位科學家聊到當時有關幽浮的報導時，提出了一個問題：
+「宇宙如此浩瀚，包含無數恆星，許多恆星和太陽沒什麼差別，也有行星圍繞著它們旋轉。一部分的行星地表也會有水和空氣，而來自恆星的能量將促使有機化合物合成。
+這些化學物質將相互結合產生一個自我複製系統。最簡單的生物會通過自然選擇繁殖、進化並變得更加複雜，直到最終出現活躍的、會思考的生物，文明、科學和科技隨之而來。
+由於對美麗新世界的渴求，他們會旅行到附近行星，然後到另一個恆星的行星。他們最終應該遍布整個銀河系。這些非凡和傑出的人很難忽視像地球這樣美麗的地方。
+所以，如果真是如此，他們必定來過這裡。那麼，他們到底在哪裡？」
+關於這個「費米問題」，匈牙利物理學家西拉德（Leo Szilard）的回應是：「他們就在我們身邊啊！只是他們自稱匈牙利人！」（They are among us, but they call themselves Hungarians.）。
+西拉德的高級幽默，點燃匈牙利人是火星遺民的想像，各種附和的說法紛紛出籠。有一種說法是 19 世紀末至 20 世紀初，一艘來自火星的太空船降落在地球，由於發現匈牙利的女子美麗又性感因而定居下來，繼而繁衍後代。
+後來太空船要返回火星時超重，不得不將一些人留下，這些人包括建議當時美國總統羅斯福（Franklin Roosevelt）發展原子彈的信函主要起草人西拉德、協助潤稿的泰勒（Edward Teller）和諾貝爾物理學獎得主維格納（Eugene Wigner），還有化學獎得主歐拉（George Olah）與波拉尼（John Polanyi）、經濟獎得主哈薩尼（John Harsanyi）；以及數學家艾迪胥（Paul Erds）、波利亞（George Pólya）、馮紐曼（John von Neumann）、哈爾默斯（Paul Halmos）、拉克斯（Peter Lax）等人。
+這幾位科學界的火星遺民有許多共同點：他們都出生於匈牙利。
+除了喜歡雲遊四海的艾迪胥外，他們後來都移居並任教於美國的大學；他們思考問題時都喜歡來回踱步；另有一個最不可思議的共同點——他們都是猶太人。
+至於為何火星人特別鍾情猶太人？這可能又是另一個「費米問題」。
+筆者本次開會的地點在羅蘭大學（Eötvös Loránd University），該校在過去不同時期曾名為布達佩斯大學（University of Budapest）、帕茲馬尼－彼得大學（Pázmány Péter Catholic University）。
+該校培育出不少數學家與科學家，而馮紐曼是箇中翹楚。
+馮紐曼出身於布達佩斯的富裕猶太家庭，父親是位對他有很深期待的銀行家，希望兒子能往化學工程發展，但馮紐曼卻對數學情有獨鍾。有許多關於他的數學傳奇事蹟，例如 6 歲能心算八位數除法，8 歲熟悉微積分，15 歲開始學高等微積分，19 歲已經發表兩篇數學論文。
+最後馮紐曼不違父願也無逆己志，不僅在蘇黎世理工學院（Eidgenössische Technische Hochschule Zürich, ETH）讀化工，同時也在帕茲馬尼－彼得大學研修數學博士。
+有鑑於在 19 世紀末和 20 世紀初，德國數學家康托爾（Georg Cantor）的集合論導致某些推論會產生矛盾難題，即使在當時產生的矛盾並非集合論的核心，但在嚴格檢驗非核心的部分時，邏輯上還是會發現一些瑕疵，因此馮紐曼選定了與集合論基礎有關的內容深入研究。
+他的博士論題目為〈一般集合論的公理化構造〉（Az általános halmazelmélet axiomatikus felépítése），並於 1926 年同時取得兩所大學的博士學位。
+而後在洛克菲勒基金會（Rockefeller Foundation）的資助下，他前往德國哥廷根大學（University of Göttingen），師從德國數學家希爾伯特（David Hilbert）。
+1933 年為逃避納粹對猶太人的迫害，馮紐曼應聘前往美國普林斯頓高等研究院（Institute for Advanced Study），在那裡開始專研計算機科學，同時也結識了奧本海默。
+由於馮紐曼的博學與優異數學計算能力，奧本海默聘請他作為曼哈頓計畫的顧問，主要負責兩項任務：一是研究內爆透鏡的概念和設計，二是負責預估炸彈爆炸的規模、死亡人數，以及炸彈爆炸的離地距離以達到最大效果。
+什麼是內爆透鏡？當時曼哈頓計畫考慮的核分裂方式有兩種，一種是「槍式核分裂」（gun-type fission）設計，另一種則是「內爆透鏡」（implosion lens）的設計。
+槍式核分裂設計是仿造子彈的射擊方式，利用常規炸藥將一塊次臨界物質射向另一塊可裂變物質，使可裂變物質達到臨界質量（圖一）。
+槍式核分裂使用鈾（uranium, U）作為裂變材料，二戰時投擲於日本廣島的「小男孩」（Little Boy）就是採用槍式設計。但由於當時鈾的存量並不足夠，因此必須發展另一種形式的原子彈，也就是內爆透鏡設計。
+內爆透鏡設計以鈽（plutonium, Pu）作為裂變材料，在空心的球狀空間內放置鈽，並在球形鈽彈周圍放置炸藥。這些炸藥爆炸同時產生的強大內推壓力將會擠壓球形鈽彈，引發連鎖反應造成核爆（圖二）。
+馮紐曼評估之後，認為「內爆式」設計優於「槍式」設計，且內爆型原子彈所需的裂變材料較少，又可以防止過早引爆以達成更為對稱與高效的爆炸，因此建議奧本海默改發展內爆式核彈，這就是二戰時被投放到日本長崎的原子彈——「胖子」（Fat Man）。馮紐曼在曼哈頓計畫中的角色如此關鍵卻被電影所忽略，確實令許多人不平。
+馮紐曼從小嶄露他的優異天賦且記憶力驚人，除數學領域之外在諸多科學分支也有所涉獵且精通。他的聰慧早已獲得同儕的認同與讚譽，常被稱為數學界最後一位通才。有一個流傳甚廣的傳說是某次宴會中女主人問馮紐曼一個問題：
+「兩列相距 200 英里的火車正在相向行駛，每輛火車的行駛速度均為每小時 50 英里。一隻蒼蠅從其中一列火車的前面出發，以每小時 75 英里的速度在火車之間來回飛行，直到火車相撞並將蒼蠅壓死為止。蒼蠅在這段期間總共飛行了多少距離？」
+一般人解這一題可能是先算第一段時間蒼蠅飛行的距離，再算第二段時間蒼蠅飛行的距離，由於蒼蠅來回飛行無限多次，距離愈來愈短，可以用無窮等比級數求和的方法得出解，但這樣的計算相當繁複。有一個更快捷的技巧是直接算出兩輛火車將於兩小時後相撞，因此得知蒼蠅總共飛行 150 英里。
+馮紐曼聽完問題不一會兒就答出 150 英里，女主人對於馮紐曼沒有陷入計算無窮等比級數的陷阱感到失望，但馮紐曼竟回答：「我是用求和的啊！」若此傳說當真，顯見他驚人的計算能力。
+1963 年諾貝爾物理學獎得主維格納表示，他認識當代許多頂尖科學家，包含德國理論物理學家普朗克（Max Planck）、英國理論物理學家狄拉克（Paul Dirac）、西拉德、泰勒、愛因斯坦，但沒有一個人像馮紐曼般才思敏捷。曾有人問維格納為什麼匈牙利出現這麼多天才，維格納的回答是：「真正的天才只有馮紐曼一人。」
+本文要介紹的第二位匈牙利數學家是波利亞。1912 年，他於布達佩斯大學取得數學博士學位後，便前往德國哥廷根大學從事博士後研究。他在哥廷根大學結識許多當代最傑出的數學家，例如希爾伯特和克萊因（Felix Klein），之後便到蘇黎世理工學院任教。相較於一般嚴謹木訥的數學家，波利亞相當擅長說故事，包含數學家的軼事和「說數學」的功力。
+馮紐曼在蘇黎世理工學院修讀博士時，也曾上過波利亞的書報討論課。有次波利亞提到一個尚未解決的數學問題，他認為要證明這問題很困難，沒想到五分鐘之後馮紐曼舉手，然後在黑板上寫下證明，從此之後馮紐曼變成他最敬畏的學生。
+另外，波利亞也曾談論有關希爾伯特的故事。在德國盛傳一個傳說，深受德國人敬愛的皇帝腓特烈一世（Friedrich I）沒有死亡、只是沉睡，等到德國需要他時他就會挺身而出。因此便有人問希爾伯特：「你若在死後 500 年復活，你會做什麼事？」希爾伯特說：「我會問是否有人證明了黎曼猜想（Riemann hypothesis）？」
+黎曼猜想與質數分布具有密切的關係，是希爾伯特於 1900 年提出的 23 個最重要數學問題之一。有些數學家將證明黎曼猜想形容為「數學界的聖杯」，因此它的重要性可見一斑。2018 年 9 月 24 日，英國數學家阿蒂亞（Michael Francis Atiyah）宣稱他證明了黎曼猜想，此事件也曾轟動一時。
+但阿蒂亞的證明還來不及得到同儕認證，便不幸於 2019 年 1 月 11 離世，截至目前為止數學界仍對阿蒂亞的證明有所質疑。所以如果希爾伯特現在真的死而復活，那他恐怕要失望了。
+波利亞於 1945 年出版《怎樣解題》（How To Solve It）一書，展現他「說數學」的功力。他常強調數學有兩面，數學結果的呈現方式有如歐幾里得（Euclid）幾何學般的演繹論證形式，但數學知識發展過程卻更像是一門實驗歸納的科學。書中提倡以捷思法（heuristic）思考數學問題，例如高中時老師通常教學生如何證明 13＋23＋33＋43＋⋯＋n3＝，但卻很少說明究竟如何得到此公式。
+波利亞則要學生先做探索觀察。例如從圖三可以發現前五個自然數的立方恰好都等於另一個自然數的平方，這樣的特殊性可以推廣為「前 n 個自然數的立方和等於某個自然數的平方嗎？」若可以推廣，某個自然數到底是哪個數？我們進一步觀察可以得到：1＝1, 3＝1＋2, 6＝1＋2＋3, 10＝1＋2＋3＋4, 15＝1＋2＋3＋4＋5，將這觀察和圖三結合就得到圖四中令人驚訝的結果。
+這麼美麗的結果應該不會只是巧合，所以一個合理的臆測也因此誕生：「前n個自然數的立方和等於前n個自然數和的平方」，也就是 13＋23＋33＋43＋⋯＋n3＝（1＋2＋3＋4＋⋯＋n）2。由於 1＋2＋3＋4＋⋯＋n＝，所以得到 13＋23＋33＋43＋⋯＋n3＝這個「合理的」公式，接著就可以證明此結果的正確性。
+由此我們看到捷思法可以展現一個數學公式形成的過程，如同在《奧本海默》電影中丹麥物理學家波耳（Niels Bohr）建議奧本海默改到哥廷根大學跟從玻恩（Max Born）學習理論物理。
+波耳問奧本海默數學程度如何，並提醒他：「代數就像一本樂譜，重點不是你能否讀懂音樂，而是能否聽懂音樂。」（Algebra is like a sheet music. The important thing isn’t if you can read music; it’s if you can hear it.），波利亞的捷思法就是教我們如何聽懂音樂而不光是讀懂音樂。
+在 1960 年代，美國由於憂慮太空競賽落後蘇聯，因而發起所謂「新數學」的中學數學課程改革，強調數學的抽象性，試圖讓學生早一點熟悉數學邏輯的演繹過程，但這種罔顧知識發展脈絡的改革註定以失敗告終。
+1980 年代，波利亞強調歸納實驗思考過程的捷思法逐漸受到重視，掀起一波「數學問題解決」（mathematical problem-solving）的浪潮，而這股浪潮的影響也猶如核分裂的連鎖反應，持續至今。
+LINE：tpkkt99
+甜甜圈外送茶，在線給你安排的甜甜蜜蜜的
+北中南新妹強勢登場！！！
+雙北~新竹~台中~彰化南投~台南~高雄皆可約
+妹妹類型： 火辣身材 網拍 美妝博主 人氣小模 氣質車模
+CEO秘書 調情師 雙胞胎姐妹花 熟女 人妻 母女 學生妹 護理師 性慾老師 高檔御姐等選擇性 
+如何在甜甜圈這邊約到妹妹：
+1.加入我的賴，或者是TG聯絡到我
+告訴我你的地區，然後你喜歡的類型，喜歡的身材，外貌，預算多少等
+我會按照你喜歡的去給你挑選到合適你的茶 
+支付方式:只收現金 不轉賬 不匯款 最簡單安全的交易方式 給您帶來足夠的安全感
+紙飛機頻道每天報班女生選擇性：https://t.me/hyp54232
+進入我的官網挑選女生：http://www.tpkkt99.com/
+LINE：tpkkt99
+甜甜圈外送茶，在線給你安排的甜甜蜜蜜的
+北中南新妹強勢登場！！！
+雙北~新竹~台中~彰化南投~台南~高雄皆可約
+妹妹類型： 火辣身材 網拍 美妝博主 人氣小模 氣質車模
+CEO秘書 調情師 雙胞胎姐妹花 熟女 人妻 母女 學生妹 護理師 性慾老師 高檔御姐等選擇性 
+如何在甜甜圈這邊約到妹妹：
+1.加入我的賴，或者是TG聯絡到我
+告訴我你的地區，然後你喜歡的類型，喜歡的身材，外貌，預算多少等
+我會按照你喜歡的去給你挑選到合適你的茶 
+支付方式:只收現金 不轉賬 不匯款 最簡單安全的交易方式 給您帶來足夠的安全感
+紙飛機頻道每天報班女生選擇性：https://t.me/hyp54232
+進入我的官網挑選女生：http://www.tpkkt99.com/</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>scienceinmovies</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>做一顆原子彈有多困難？《奧本海默》背後的細節！原子彈究竟是文明之火，還是毀滅之火？ - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/368657</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1945 年 7 月 16 日美國時間早上五點三十分，在新墨西哥州的托立尼提沙漠內，人類史上第一顆核武器 The Gadget 引爆，爆炸溫度 7 千萬 K，三位一體核試驗宣告成功。這次爆炸不僅留下 80 公尺寬的核彈坑，徹底打開了潘朵拉之盒。
+知名導演克里斯多福．諾蘭的電影「奧本海默」，用鏡頭為我們帶來奧本海默這位偉大科學家波瀾壯闊的一生，從他為人類取來核武器火種以威懾納粹，但意識到自己帶來的不是文明之光，而是毀滅之火。最後拒絕繼續參與氫彈的開發，卻捲入共產思想疑雲的政治風暴之中。
+奧本海默的精彩故事，歡迎大家進電影院好好體會，但在進戲院之前，我們先來了解，這位原子彈之父，是怎麼做出原子彈的。為何曼哈頓計畫需要召集如此多的科學家，甚至招募多達 13 萬名員工來完成這項壯舉？預告片中出現的這個球體，是如何改變人類的歷史？
+1945 年 8 月 6 日與 8 月 9 日，兩枚原子彈小男孩與胖子分別在廣島與長崎的 550 公尺上空引爆，雖然終結了第二次世界大戰，但造成的直接與間接死傷，更震撼了全世界。
+雖然兩顆笨重的原子彈重量超過 4 公噸，但真正的核燃料核心在原子彈小男孩中只占了 50 公斤，而且經過計算，實際參與反應的可能只有其中 1 公斤。另一個原子彈胖子的核心更小，只有 6.2 公斤，是個直徑約 10 公分的球體，實際參與反應的部分大約是 1.2 公斤。
+根據愛因斯坦著名的質能等價公式 E=mc^2，我們可以計算出在反應中損失 1g 質量，會產生大約 90 兆焦耳的能量，相當於 2 萬噸 TNT 的能量。1g 質量換 2 萬噸 TNT，難怪不論哪個陣營都想盡快開發出這恐怖的炸彈。預告片裡面也提到，許多科學家都擔心「如果我們不現在加緊研發，被納粹先做出來了怎麼辦」，而推動了這足以毀滅人類的軍武競賽。
+但是，就算有了質能等價公式，卻還是無法憑空造出原子彈。我們過去在討論核能的影片中提過，核反應要持續，需要靠連鎖反應。一個反應堆中，每吸收一個中子就會釋放一個中子，讓反應穩定進行下去，稱為臨界狀態，也是一般核能發電廠希望達到的狀態。如果吸收一個中子，卻釋放不到一個中子呢？，那就稱為次臨界。所有沒在反應的燃料棒都應該處於這個狀態。原子彈呢，當然是希望吸收一個中子，釋放出超過一個中子，讓反應快速連鎖下去，在極短時間釋放巨大能量。這個狀態稱為超臨界或是過臨界狀態。
+這邊提個物理學家間的有趣討論，預告片中，由麥特戴蒙飾演的格羅夫斯少將問奧本海默，在 The Gadget 試爆的瞬間，世界有沒有可能就此毀滅，奧本海默回答「機率幾乎是零」。這件事其實是出自奧本海默與另一位物理學家康普頓的討論，他們想到，大氣中有許多氫氣、氦氣、氮氣等輕元素，核爆瞬間可能會因為高溫在大氣中引發核融合，甚至產生連鎖反應，連海水中的氫都發生爆炸，讓地球化為太陽，世界終結。奧本海默和其他科學家還實際嚴密計算，確認機率幾乎是零。
+雖然核融合與核分裂的條件不相同，這個假設放在現在可能覺得太過誇張，但這也說明要讓核反應連續下去並不簡單。
+在核分裂中，要達成超臨界狀態並不容易。在理想條件下，鈾 235 每吸收一顆熱中子，會產出 2.06 個中子，吸收快中子則會產出 2.5 個中子。另一個原子彈核燃料鈽 239，則在吸收熱中子和快中子兩種不同能量的中子後，分別產出 2.1 和 3 個中子。然而實際上，中子往四面八方移動，並不是所有的中子都會被原子核捕獲。加上未濃縮的燃料中含有大量其他元素，例如鈾 238，導致燃料堆很難進入超臨界狀態，大幅降低炸彈的效果。等等，既然如此，曼哈頓計畫是怎麼克服這件事的呢？
+1942 年 12 月 2 日，人類史上第一個核反應堆－芝加哥 1 號堆 CP-1，在物理學家費米的主持下，初次達到臨界狀態，曼哈頓計畫成功踏出第一步，人類正式進入原子能時代。預告中一閃而過的這個結構，就是 CP-1，由 4 萬多個作為中子減速劑的石墨塊組成，裡面塞著一顆顆的鈾塊。
+很難想像的是，在當時，控制臨界狀態的控制棒竟然是讓人用手抓著的，反應堆的位置還在芝加哥大學的足球場底下 (Stagg Field)。
+在這之後，曼哈頓計畫進入下一個階段，洛斯阿拉莫斯國家實驗室 LANL（也就是電影預告中的小鎮）成立，奧本海默擔任首任主任，並聚集了當時幾乎所有能找到的物理、化學、工程學專家。
+為了讓原子彈能順利進入超臨界狀態，科學家的第一步，就是要濃縮鈾。將天然鈾礦中佔 0.7% 的鈾 235，濃縮到將近 100%。這不簡單，首先，鈾的沸點是攝氏 4000 度，因此要先與氟反應成沸點只有攝氏 57 度的六氟化鈾，接著利用兩者質量的些微差異，使用氣體擴散法或是離心法分離。
+以氣體擴散法為例，氣體通過過濾材料的能力，正比於分子量的平方根，然而六氟化鈾 235 和六氟化鈾 238 的分子量分別是 349 和 352，只差了 0.85%。實際上兩者穿越過濾膜的能力大約是 1 比上 1.003，也就是經過一次濃縮，濃度會從 0.7%，變成 0.7021%，經過 100 次濃縮，濃度才會從 0.7% 變成 0.945%，要濃縮到接近 100%，非常耗時又耗力！雖然後來還有發展熱擴散法、透過雷射游離後分離的方法，或是結合質譜儀與迴旋加速器磁鐵的電磁分離法，但不論哪個，不是技術要求極高，就是需要重複多次，有些方法還會有臨界事故的風險，選項其實也不多。
+但積沙成塔，聚少成多，只要肯花時間與人力，遲早都能得到濃縮鈾。有了寶貴的濃縮鈾，和來自中子照射鈾 238 產生的鈽 239，終於，原子彈可以登場了。
+原子彈是如何運作的呢？我們先從「小男孩」開始說起。
+原子彈小男孩採用的是槍式結構，裡面有四個重要構造：核心、起爆劑、反射體、和起動物。在炸彈尚未引爆時，含有高濃度鈾的核心會先被分為左右兩塊。爆炸時再透過起爆劑讓兩塊核心撞在一起，進入超臨界狀態。
+為什麼兩塊併為一塊就會進入超臨界？這是因為在連鎖反應時，中子會不斷從核心的表面逃脫，變成無效的中子，減緩連鎖反應。對於核心這種球體來說，表面積與體積的比值，會與直徑成反比。也就是當球體越大，表面逃逸的中子對於整體的影響就越小，內部就能有更強的連鎖反應，直到臨界狀態。此時核心的質量，就稱為臨界質量。
+在小男孩中，被拆成兩半的核心各自都未達到臨界質量，直到兩塊撞在一起，才進入臨界甚至超臨界狀態。這時，旁邊以鈾為材料的反射體，則負責將溢出的中子反射回核心，進一步觸發更強烈的連鎖反應。
+最後，為了讓反應在核心撞在一起的瞬間，就以最激烈的方式進行，核心通常會設有「起動物」，由鈹－9 和釙－210 組成。釙 210 會因為自然衰變，不斷產生 α 射線，鈹則會在吸收 α 射線後產生中子，作為整個連鎖反應的開頭。在原子彈爆炸前，鈹和釙會跟著分成兩半的核心分別放在兩側，隨著核心碰撞的瞬間產生反應，釋出大量中子。
+但槍式構造的反應方式效率十分低下，原子彈小男孩中實際參與反應的燃料，根據事後計算，大約只有五十分之一。而且，槍式結構也無法使用連鎖反應更強的鈽作為燃料。
+因此，電影中球型的內爆式原子彈就登場了。
+胖子原子彈的燃料使用率大約是 1/5，是小男孩的十倍，這是因為它採用了內爆式結構。
+回頭說一下，小男孩的槍式結構雖然效率不高，但結構簡單不易出錯，因此甚至沒有測試過就被投入實戰。
+而內爆式的胖子因為容錯率低，因此前面才有三位一體試驗中原子彈 The Gadget 的試爆。
+內爆式結構複雜在哪呢？在內爆式結構中，最內層一樣是用金屬層隔開的起動物鈹－9 和釙－210，外面是由鈾和鈽組成的混合氧化物核燃料 MOX，更外圈是用來反射中子的反射體。在反射體外面，占整顆炸彈體積最大的，是一般的炸藥。作用是在起爆時，將核心用力往內擠壓，將核心推向超臨界狀態，讓起動物的金屬隔層破裂，誘發中子釋放。在原子彈誘爆初期，因為外頭炸藥的擠壓，中子會在反射層內快速反彈，大大增加燃料的使用率。
+在預告畫面中的球體，就是標準的內爆式原子彈。在結構正中央的圓形物體，其實是反射層，核心和起爆物都被包裹起來，在看不見的更裡頭。而外面一塊塊的多邊形結構，其實都是炸藥，負責擠壓核心，但如何在內爆時讓核心維持完美球形，不會因為壓力不均而從某側破裂，卻是一項巨大挑戰。
+為了確保達到預期效果，原子彈中含有爆炸速度快與慢的兩種炸藥，透過時間差，讓反射層在壓縮核心時能維持對稱的圓形。為了解決這個艱鉅的挑戰，數學家約翰．馮紐曼發展了 ZND 模型，用來計算火藥與震波的模型，成功計算出快、慢火藥的比例與配置。沒錯，就是那位提出電腦馮紐曼架構的那位馮紐曼。
+更進一步，為了達到計算的效果，32 塊炸藥需要在千萬分之一秒內同時引爆，然而當時的雷管引爆誤差可能有 1/10 秒以上。這時，另一位物理學家阿爾瓦雷茨出馬了，他開發出 EBW 式雷管，解決了問題。這種雷管允許大電流通過，但同時也需要總重量一公噸的電池和電容器才能運作。預告片這句「起爆器已充電」指的應該就是這些電池與電容。
+至此，濃縮燃料、內爆式結構和啟爆裝置都就緒了，接下來的故事大家都知道了。1945 年 7 月 16 日早上五點三十分，刺眼的火球照亮整個沙漠（聽說只有費曼裸眼看了這場人類核彈首爆秀），人類在核武器的發展上已經無法停下腳步。
+導演克里斯多福．諾蘭的最新大作《奧本海默》，改編自這本獲得普林斯頓獎的傳記「American prometheus The Triumph and Tragedy of J. Robert Oppenheimer 」，《奧本海默的真相與悲劇》，並冠上副標 American prometheus 美國普羅米修斯，象徵為人類取來原子之火。
+三位一體核試驗成功的 20 年後，奧本海默回憶到：「我們知道世界自此就不再一樣了。有的人笑，有的人哭，但大部分人沉默無言。我想起了印度教古典《薄伽梵譚》中，毗濕奴對阿周那王子所說：『我現在成了死神，世界的毀滅者。』我想，我們大家都多多少少是這樣想的。」
+兩顆原子彈在日本被投下的隔年，奧本海默拒絕參與第四次核試驗，也拒絕杜魯門總統邀請的氫彈計畫。從此，這位原子彈之父人生出現重大轉變。小勞勃道尼飾演的原子能委員會主席，路易斯．史特勞斯，也將為奧本海默的人生帶來許多風雨。
+電影原作書籍的兩位作者 Kai Bird 和 Martin J. Sherwin，雖然不是奧本海默的好友，但兩位都是歷史學家，也是政治、核武和冷戰的研究專家。書中從奧本海默小時候的成長與求學開始、講到他參與曼哈頓計畫與擔任洛斯阿拉莫斯國家實驗室主任、成為原子彈之父、受到政治迫害，最後獲得平反，鉅細靡遺地介紹了他的一生與心境變化。整本書花了 25 年完成，蒐集了成千上萬份收藏於美國國會圖書館，來自奧本海默的文件、以及 FBI 超過 25 年累積了數千頁的監控紀錄、還採訪了將近一百位熟悉奧本海默的密友、親戚與同事。光是聽以上的說明，就已經能想像其豐富又崎嶇的生活歷程了。
+關於這些科學家之間的互動與理念的碰撞，我們就等著進電影院，看諾蘭大師如何透過鏡頭，介紹這段人類的重要歷史吧！
+歡迎訂閱 Pansci Youtube 頻道 獲取更多深入淺出的科學知識！
+政客會犯同樣的錯誤。 因為他們不敢想起歷史。
+政客會犯同樣的錯誤。 因為他們不敢想起歷史。
+設計原子彈？大學生都會的啊。 https://en.wikipedia.org/wiki/John_Aristotle_Phillips
+設計原子彈？大學生都會的啊。 https://en.wikipedia.org/wiki/John_Aristotle_Phillips
+#2 還不必是優等生。
+#2 還不必是優等生。</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>scienceinmovies</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>變身沙贊靠閃電夠力嗎？會是能源解方還是一場災難？《沙贊！ 》中的神力閃電之謎 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/363761</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>「沙贊！」然後一道閃電就會打下來，擊中一位青少年，瞬間變成一位穿著紅衣+披風、渾身肌肉的（中二）成年人，這就是 DC 宇宙中，超級英雄沙贊的變身過程。
+很有趣的是，大家可以回想一下，最近這 10 幾年來席捲世界的漫威和 DC 英雄，絕大部分執行英雄行動前都是進行「著裝」，例如鋼鐵人、蝙蝠俠、美國隊長……等，但是沙贊不一樣，儘管不複雜，但他需要一套特別的手續來改變他自己的身體，已獲得他身為超級英雄的力量，這點跟日本的超人力霸王比較類似。
+根據 DC 宇宙的設定，賦予沙贊力量、讓他變身的閃電都來自神界的奧林帕斯山，只要他大喊一聲，閃電就會隨傳隨到，而因為一切是神力的關係，理論上他接收力量的位置無關緊要，也非常的安全。
+真不愧是奧林帕斯山啊！如果我們能夠在比利（電影中變身成沙贊的少年）的頭上裝一個收集閃電能量的器材，那費城一定變成全美國能源最豐沛的城市。
+但是要進行超級英雄活動，普通的閃電能量夠嗎？這道奧林帕斯山的閃電會不會是一道超越人類認知的超級閃電呢？
+還有儘管沙贊不會受影響，但如果有人不小心在變身時不小心碰觸他或在他附近，會發生什麼事呢？
+這真的值得一起來探討～
+閃電是大自然中最純粹的能量展現之一，經過大氣學家的觀測和預估，一道閃電電壓大概是 3 億伏特，帶有 10 億焦耳的能量，這差不多是燃燒 30 公升左右的汽油。
+聽起來非常的厲害，那我們利用閃電來獲得能源會不會是個好方法？
+其實從 1980 年代開始科學家就有這種想法，但是他們發現這其實很不切實際，主要原因有幾個：閃電很難預測、傳導到地面上能量又會大減、效率很不穩定……但那是大自然的閃電，讓沙贊變身的可是充滿神力的閃電耶！不只能夠提供沙贊穩定且高能的能量來源，還可以藉由跟蹤比利知道閃電的位置和時間。
+我們只要把比利抓起來請出來，跟他預約時間大喊沙贊，就可以發電了～
+要知道一道神奇閃電帶有多少能量其實有點困難，因為一旦比利變身之後，他似乎沒有時間限制，不像超人力霸人那樣有 3 分鐘的活動上限，後者會比較好估算是因為你可以設想這 3 分鐘內超人力霸王做了哪些事情，在逐一拆解。
+所以筆者覺得最能夠執行的方式，是羅列出電影中沙贊一次變身基本上會做到的事情，這樣結果應該就足夠是神力閃電的基本盤。
+從電影《沙贊！眾神之怒》中，筆者列出幾個沙贊在超級英雄狀態時做的事，包括:
+這樣感覺差不多了吧……等等～還有一件很重要的事，就是這道閃電同時還把一名 17 歲的青年變成一名看起來 30 歲的成年人，這瞬間成長所需的誇張能量應該也要算進閃電的功勞裡，所以這個列表還要加進另一項:
+那我們接下來可以逐一估算了。
+要讓人成長的能量，其實也是熱量，也就是大家耳熟能詳的卡洛里，1 千大卡的熱量差不多是 4184 焦耳的能量。
+根據衛服部提供的資料，一名成年人每日所需的熱量依他的活動量和體重來決定，那沙贊毫無疑問絕對是重度活動量那一類的，體重的話少年比利看起來介於 60~70 公斤之間，而飾演沙贊的演員柴克萊威曾說為了演戲需要增重到超過 90 公斤，雖然隨著體重增加每日所需熱量也會不同，但為了簡單估算，我們姑且用 80 公斤算到底吧～
+比利瞬間成長為超人般壯碩所需能量= 40 大卡 x 80 公斤 x 365 天 x (30-17) 年 x 4184 J= 6.35x 1010 焦耳 = 635 億焦耳
+這數字怎麼已經有點大了……但在吐槽之前，我們先把其他的所需能量都估算完吧～
+這裡我們借用四分之一英里估算法，這是個可以從物體重量（通常是車子）和行駛四分之一英里所需的時間來求得功率的簡單方式。
+沙贊體重 90 公斤，而他在音速下完成 1/4 英里所需的時間為 1.2 秒，根據線上工具估算，這名英雄相當於擁有 22,876 馬力，轉化為瓦特差不多是 1700 萬瓦特，如果沙贊要飛行 10 分鐘，他就會需要大約 100 億焦耳的能量 。
+這個計算方式並不困難，就是簡單的做功運算，但是筆者遇到了很嚴重的問題：電影中的飛龍-拉頓到底多重呢？
+經過一番搜尋，網路上對於一條中世紀奇幻飛龍到底有多重幾乎是沒有定論，看起來好像沒有人有認真算過，所以筆者打算自己來操刀，解決這個世紀大謎題 (?)。
+有看過《空想科學讀本》的人對筆者使用的方法一定不陌生，就是把模型浸到水裡面，估算體積之後放大，再考慮密度來求得飛龍的體重。
+所以筆者到了地下街的玩具店，買了一條看起來最像電影中奇幻飛龍體型的模型玩具（其實是動漫《轉生成為史萊姆》的公仔，似乎是主角後期的樣子吧？筆者沒有看不清楚~），將它放進水盆裡面裝水，做好水位標記之後取出模型，水位下降之後從水盆的面積和下降高度求得玩具龍的體積大概是 0.000283 立方公尺，這時我們需要玩具龍的身長和電影中的拉頓身長來做等比放大，玩具龍身體差不多是 25 公分，而從電影中拉頓站在棒球場內野的畫面來做估算，它的身長大約是 25 公尺，身長差 100 倍，所以體積會變 100 的 3 次方也就是 100 萬倍，所以說拉頓的體積大概是 283 立方公尺。
+這時我們需要拉頓身體的密度來求得體重，如果拉頓是生物的話，它的身體密度應該也要接近水（每立方公尺 1000 公斤），例如人體的密度就差不多是每立方公尺 1062 公斤，但是電影中拉頓身體看起來有點像是由木頭構成的，而世界上最堅硬的木頭是澳洲鐵木樹（Australian buloke）密度是 1085 kg/m3，再加上龍的奇幻性質，我想把拉頓的身體密度定為 1100 kg/m3 應該是還可以接受的吧？
+如果用這個方式估算，電影中看守花園的飛龍拉頓，體重大概會是 311 公噸，我們套入物理課本中看過的做功計算公式，可以知道沙贊把一條龍打飛 50 公尺所需要的能量，大概會是 7775 萬焦耳。
+相較前面兩個，這計算相對簡單一點，我們一樣用上面的作功公式來求需要能量，而我們需要的就是車子的重量。根據統計，美國一般路上的車子平均重量為 1800 公斤，如果要在 3 秒鐘內移動 200 公尺，就相當於需要 4 百萬焦耳。
+沙贊從手上放出閃電，看起來就像是電弧的一種，而電弧是因為有強大的電場或高壓電存在，使的原本不導電的物質電漿化得以使電流通過的現象，而說到能夠最穩定產生電弧的狀況，筆者第一個想到的是在現實中會看到的特斯拉線圈。
+特斯拉線圈是一種由知名物理學家特斯拉發明的強大變壓器，這種變壓器使用共振原理運作，主要用來生產超高電壓但低電流、高頻率的交流電力，因為特斯拉線圈可產生絢麗的電弧效果，所以很常在一些科學博物館或展示中看到，而世界上最強大的特斯拉線圈： Electrum 的能量使用率為 130,000 瓦特，假設沙贊能夠用同等功率放出電弧長達 10 秒鐘，就會需要 130 萬焦耳的能量。
+這道神奇閃電所附帶的能量大約是：
+635 億（變成大人）+100 億（音速飛行 10 分鐘）+7775 萬（打飛一條龍）+400 萬（移動一台車）+130 萬（放出閃電）= 735 億 8305 萬焦耳
+ 而正常世界一道閃電的能量大約是 10 億焦耳，也就是說～這道神奇閃電差不多是等於 74 道現實中閃電的能量。
+好厲害啊！真不愧是奧林帕斯的眾神，能夠這麼精準的傳遞如此巨大的電能量根本就是神蹟…..也確實是神蹟沒錯～
+但是如果一個不小心承接這道能量的人不是沙贊的話，會發生什麼事呢？
+直接被閃電擊中的人會成為電流的一部分，一部分電流會沿著皮膚表面移動，另一部分會穿過身體的心血管或神經系統，前者會對皮膚造成灼傷，後者則有可能造成呼吸停止或心臟驟停，但我們還是能找到一些歷史上從雷擊中生還的故事，因為有沒有辦法在雷擊中活下來是跟就醫和電流通過體內的時間而定……運氣好的話，你不會死的。
+但是在沙贊的神奇閃電面前，這一切都成為笑話。
+這道 735 億焦耳的閃電能量相當於 2 顆歷史上最強大非核子炸彈：炸彈之母（GBU-43/B 大型空爆炸彈）爆炸所釋放出的能量，所以如果今天好死不死沒有打在比利身上，而是擊中地面的話，後果一定不堪設想，周遭的親友絕對是灰飛煙滅，費城可能會變成廢墟，之前說的收集能量可能完全行不通，因為應該沒多少設備儀器能夠承受如此巨大的威力。
+反倒是比利啊~你是不是在承接沙贊能力時同時被改造了，被2顆炸彈之母轟炸都沒事，真是太神啦！還有就是一定要站好喔～</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>scienceinmovies</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>【我推的孩子】粉絲恐怖瘋狂的行為和「妄想」有關？漫談「擬社會互動」的本質與其引發的社會問題 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/364634</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+難得有空抽手出來寫長文，再加上最近《我推的孩子》正紅，來聊聊最近這段時間一直很想講的擬社會互動（parasocial interaction）好了。（不過雖然講了這麼多，還是不足以涵蓋擬社會互動的所有面向跟相關議題，如果對此議題感興趣歡迎去找其他論文來看，或是在下面提問，我會盡可能回應）（倒地
+擬社會互動，是指某人透過某種媒介，在對方不知情的前提下建立的單向人際關係。
+正常的人際關係，歸功於人際互動中的各種你來我往，讓參與者可以在有覺察（或未覺察）的情況下逐漸修正自己的行為，最終找到適合的平衡點。然而擬社會互動的本質是虛構的「擬態」、欠缺實際互動打底，其內涵完全取決於建立者的想像，很容易發生極端的偏差甚至是扭曲。
+現在在討論擬社會互動時，最常舉的例子是網路紅人，包括 YouTuber、VTuber，以及其他在社群媒體上活躍的公眾人物。確實，網路世界的可觸及性大幅度擴張了擬社會互動發生的規模，個人資訊在無意間被洩漏、濫用的風險也在過去十年呈現指數級的飆升。
+當受眾不再受制於實體線路與媒介，「紅人」們要面對的粉絲組成自然更複雜，導致雙方對這段關係的認知落差越來越嚴重。特別是當網紅的工作便是討好受眾時，單方面的不對等訊息，能潛移默化粉絲認知中的人際界線，讓他們覺得自己在某種程度上與這位網紅建立起情感連結——即便對那位網紅來說，他很可能只是在扮演「角色（persona）」，對一顆鏡頭、一行網路 ID 說話。
+這也是擬社會互動的癥結點之一。當事人並沒有意識到自己投射情感的對象，很可能只是組精心捏塑、下班後就會跟灰姑娘禮服一樣消失不見的「人物設定」。
+想當然，會有部分網紅（或其經紀公司）瞄準這個心理現象，利用擬社會互動，吸引死忠且願意付出實質資源的追隨者。例如幫後援會取親暱的綽號、透過（類）會員制的小圈圈分享私生活等。這些看似沒有特定指涉對象的粉絲回饋（當然還有更親近的互動，但那已非擬社會的範疇），其實都會助長擬社會互動，在粉絲心中種下虛妄的關係種子。
+除了網紅產業，政治領袖也是受益於擬社會互動的群體（之一）。尤其是主打親民、大家長形象的政治人物，刻意塑造擬社會互動有助於昇華支持者的動機，從單純的理念或利益相符上升到更加私人的情感連結。一但支持者對政治人物產生家人般的親暱感，他們對於瑕疵的包容度也會提高，甚至陷入盲目的認知失調。
+即便對方是真誠展現自我，不是在刻意討好受眾，不對等的問題依然存在。
+如同演唱會時歌手對著舞台某處揮手，至少會有數十甚至數百人產生「我跟他對到眼了！他在跟我揮手」的錯覺。但歌手眼中，很可能只看見一片密密麻麻的黑點，連你頭髮的顏色都分辨不出來。
+在聚光燈的照射下，每位觀眾都只是歌手眼中的「之一」，但歌手卻是每位觀眾眼中的「唯一」。
+從這個比喻出發，不難看出擬社會互動確實有助於強化粉絲黏著度。但長遠來看，這個心理現象並不全然是優點，反而有不少潛在風險需要注意。
+像《我推的孩子》裡面的危險瘋狂粉絲並不是想像出來的產物，而是當前人類社會真實存在的問題。因為當事人無法覺察到擬社會互動的存在，很難及時做出正確的應對，往往都得等到對方開始越界、侵犯到自己的私領域，才驚覺事態嚴重，卻已來不及阻止。
+拆解擬社會互動，這份單向的人際關係認知，有很大一部分是建立在不對等的自我揭露（self-disclosure）上。
+這並不奇怪，自我揭露本就是人際關係的基礎，是互信關係的體現。我們願意對自己信任的人敞開心胸，同樣也會在被人傾訴時感受到自己「被需要」、「被信賴」的溫暖，進而建立起正向的迴圈，加深彼此的情感連結。
+但這理所當然的心理現象，有個尷尬的例外。出於奇妙的心理機制，比起半生不熟的點頭之交，人類更容易對僅是萍水相逢的人放下戒備。
+大家可能都看過社群媒體或網路論壇莫名其妙變成告解室或團體治療空間，又或者你曾經對計程車司機或首次見面的酒保傾訴積壓在心裡、不敢讓身邊人發現的苦水。這既是一種健康的宣洩，也可能成為建立新關係的基石。
+但這與其說是信任眼前的陌生人，倒不如說我們信任的是這份陌生感，以及它代表的「距離」。
+因為相信彼此只會有這一次的相遇機會，分別之後繼續兩不相干，所以反而能把對方當成秘密樹洞，什麼東西都往裡面倒。這份「陌生」帶來的安全感是如此真實，讓它成為心理師能締結治療關係、引導個案打開心防的重要工具之一。
+但問題在於，對沒有對等認知的接收端（受眾）來說，這些自我揭露帶來的熟悉感很容易混淆他們的判斷。明明沒有真的見過面，卻知道對方的好惡、星座血型、休閒嗜好、時尚品味，甚至連深入許多的童年創傷跟過往戀情都能如數家珍，這些照理說只有熟識朋友才會了解的個人訊息，都是擬社會互動的基礎。
+有趣的是，在相關心理學研究中，發現具有焦慮與矛盾型依附的人，特別容易對物理上未曾接觸過的人產生擬社會互動的依賴。
+或許是擬社會互動欠缺實體交流、單向的本質，讓這些依附型有了可以放心透放不安全感的對象——畢竟，想像總是最美。就像蒙娜麗莎的微笑，明明他只是盯著前方的某塊虛空，卻讓每個觀畫者都覺得自己與之有了眼神交流，甚至迷戀起這份完美。
+事情從此開始，會變得有些麻煩。
+程度嚴重的擬社會互動，有可能發展成臨床診斷上的情愛妄想（erotomanic delusions），開始相信自己與擬社會互動的對象發展出不存在的親密關係。
+值得注意的是，在精神疾病的臨床診斷上幻想（fantasy）、幻覺（hallucination）與妄想（delusion）是不同的症狀。前兩者涉及經驗事實上不存在的刺激或想像，後者則是過度解讀或扭曲既存的瑣碎，最終得出與客觀現實有所出入的結論。
+妄想必須有所依據（例如把超商店員的營業用笑容當成調情，又或者覺得鴿子都是政府派出來監視你的生化兵器），這也代表妄想者的「失現實感」，往往只會體現在與妄想對象有關的事物上，比明顯與現實脫節的幻覺或幻想症狀更難在第一時間被他人覺察，遑論獲得需要的幫助（甚至是外力介入）。
+畢竟在認為對方有精神疾病之前，一般大眾更傾向把妄想內容視為刻意為之的謊話，又或者是虛榮心作祟的自欺欺人。這些針對妄想的否定，可能刺激妄想者去證明妄想為真，進而做出對他人有危害的過激行為。
+不只是情愛妄想，諸如被害妄想、嫉妒妄想，或是身體臆形妄想，都有惡化出自傷傷人的案例。
+需要理解的是，妄想者不一定是帶著惡意去傷害他人，很多時候在他們的世界觀裡自己才是受害者，被客觀不存在的加害者逼著進行困獸之鬥。
+以情愛妄想為例，當妄想者的「愛意」滿溢而出、不再受控，等待他們的往往是拒絕、排斥，還有赤裸裸的嫌惡與恐懼。這些與妄想不符的負面回應有可能一記暮鼓，把妄想者帶回現實；但若情況惡化，無法被捨棄的妄想，會迫使當事人合理化明顯與想像相悖的現實。至於如何合理化一個你深信與自己相愛的人，突然明確表達出對你的排斥，甚至宣稱根本不認識你？嗯，看一些社會新聞，應該能理解這樣的思考歷程有多危險。
+講了這麼多關於擬社會互動的壞話（？），那要該怎麼避免擬社會互動呢？
+真的，很難。
+人類本就內建對自我揭露有情感反應的迴路，而自我揭露又是人類社會中不可避免的一環，這個微妙的因果關係又在資訊科技的一日千里下被無限制地放大，在我們還沒學會如何自處前，便先製造出各種各樣的麻煩。
+老實說，擬社會互動根本不是現代的特產或文明病，只是建立起這類情感連結的人，有了更多手段去「實踐」他心中認定的關係，大幅度提升了潛在風險。
+但就前面所提到的依附相關研究結果可以看出，大多情況下擬社會互動都不是一個「選擇」，而是自然發生的「現象」。當事人能力所及的，很可能只有事後覺察，然而這又回到老問題：當你意識到它的存在，它已經對你產生足夠顯著的影響或傷害了。
+早期論述會把擬社會互動歸咎於現實生活中匱乏人際互動，但這點已被近代心理學研究駁斥。
+個人認知的孤獨感與社會支持可能扮演催化劑的角色，但卻不是最根本的原因，強加因果關係反而會讓我們忽略其他重要變項。包括前面提到的依附型，還有成長過程中在社交場合經驗到的正向與負向刺激，都可能潛移默化人們對社交行為的期許與需求，進而驅使他們投向擬社會互動營造出來的舒適圈。
+近年來有些研究指出適量的擬社會互動，能為現實生活的離群分子提供一定程度的社會支持、社群凝聚力，甚至藉由效仿情感連結的對象而成長（當然也有負面的案例）。有些學者則認為擬社會互動是現代人適應網路生活的重要策略，與其排斥不如接受它、完善它。
+然而不管是哪種論述，大多都有一個共識：適可而止。越界的擬社交互動，就跟任何其他社會互動一樣，只會造成別人的困擾喔。
+本文亦刊載於作者 facebook 同名專頁。</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>scienceinmovies</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>《模仿犯》殺人魔心理剖析：自戀狂妄的面具背後，藏著自卑的張牙舞爪 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/364398</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>本篇剖析兇手心理，但不會暴雷。觀影前閱讀可作為劇中線索來源，觀影後閱讀能更進一步了解兇手心理狀態。
+台劇《模仿犯》上架 Neflix 不到一週，創下華語影集最新紀錄，橫跨全球各州 20 個地區前十榜單，更連續多日蟬聯台劇收視 No.1。影集中狂妄自大的連續殺人犯，用一個裝著斷手的紅禮盒開始，為世人帶來一個又一個「殺人創作」。
+他不要贖金、每一次作案都有為被害人設計特別形式，甚至主動寄送錄影帶到各家電視台，戴著面具「自爆」現身，狂笑自大、向檢警叫囂，甚至鼓動民眾情緒。
+在《模仿犯》中，兇手把殺人視為一種創作，把電視台、媒體和民眾目光拉進自己「作案舞台」的一部分。究竟，他為什麼要殺人？他到底怎麼了？
+「這個兇手，根本就是把殺人這件事當成是他的創作啊！」——《模仿犯》臨床心理師胡允慧。
+台灣犯罪學及心理學研究，剖析無差別殺人事件，發現兇手不斷在網誌、寫小說等過程中，表示要殺人才能證明自己活著。進一步剖析其成長過程，他歷經多次心理受傷，舉凡小時候被老師誤解、被迫道歉等多次人我關係的失落，當時都只能「硬吞下來」，沒有機會被好好接住與梳理。在他長大的過程中，失落太多，而光亮太少，釀成了一連串的悲劇。
+精神分析學家佛洛依德觀點認為，當人在關係中不斷受傷，被忽視與誤解，情緒壓抑無處宣洩，逐漸變得「無法去愛真實的自己」，而演變成透過「殺人誓言」不斷訴說、強化，來形成武裝，建構一個不會受傷的自己。自戀型兇手面對被害人時，看似認為「你不好，我好」，但其實是「你好，我不好」。
+張狂的自戀背後是受傷的靈魂，極致自我中心背後有很深的憂鬱和空虛，需要仰賴主宰他人，讓自己感受到活著。而當一個人無法真正愛自己，自然也就無法真正同理別人、愛別人，無法感同身受在殺人創作時被害者的感受，這或許是許多殺人犯「冷血無情」的緣故。
+上述分析，並不是要你我以後看到自戀的人就避之唯恐不及。佛洛依德觀點提到，在關係中「練習愛自己」，其實是一種健康的自戀。遇到適當的挫折，與適當的成長後，能進化成為「有自尊」的成熟自戀，也就是所謂懂得愛自己、有自信的展現。
+不過，若在過程中挫折過大，受到親密家人、重要他人接二連三地忽視，則可能演變成為只專注於自我防衛，性格變得封閉、武裝自己好似不需要親密依附，貶低他人或破壞關係。
+「你相不相信，所有人都有可能成為殺人兇手？」——《模仿犯》
+如同劇中兇手所言，其實每個人心中都有「惡」，陰暗面隨著我們遇到的事件被堆疊與激發，形成每個人的黑暗指數。但別忘了，適當的自戀，能夠成為自愛而後愛人的養分，空虛渴愛而後失控，才會變成破壞性的自戀。
+｜自戀指數簡易測驗｜口  我是天生的領導者。 口  我有說服他人的獨特天分。 口  一個團體中，如果沒有我就會顯得無趣。口  我知道自己很特別。口  我擁有一些出類拔萃的特質。口  我很有能是某個領域的明日之星。口  我經常喜歡炫耀。簡易測驗改編自：張益慈、詹雨臻、陳學志（2021）。繁體中文版「簡式暗黑四特質量表」之發展與信效度考驗。測驗學刊，68(4)，287-316。
+或許，這世界上沒有絕對的好人，也沒有絕對的壞人；而是被接住的靈魂，以及傷得太深的靈魂。
+我們心中都有惡，但也都能成為接住他人的那個關鍵夥伴！
+此文中劇照素材由瀚草文創提供，如欲使用須經詢問。</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>scienceinmovies</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>傳說中的黑盒子：我們與飛航安全的距離 - PanSci 泛科學</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://pansci.asia/archives/364367</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>本文由 我的青航時代－2023航發會×暑期航空營 委託，泛科學企劃執行。
+「緊急緊急，這裡是全美航空 1549 航班，遭到鳥擊，雙引擎失去推力，正要返回拉瓜地亞機場（LaGuardia Airport）……」這是美國空難電影〈薩利機長：哈德遜奇蹟〉中，機師緊急向塔台呼救的台詞。
+〈薩利機長：哈德遜奇蹟〉改編自 2009 年 真實發生的「全美航空 1549 號班機事故」。事件當下 1549 號班機遭受鳥擊，在來不及抵達最近機場的情況下，最後緊急迫降在哈德遜河面，幸好全機無人傷亡。直至今日，你都能在網路上找到當時飛機迫降前與塔臺最後的對話。
+等等……這些對話是怎麼被保留下來的呢？
+這個秘密就藏在飛機尾段的「黑盒子」裡。
+你常聽到在空難事件後，眾人的焦點都在搜尋「黑盒子」。「空難」成為一般人對「黑盒子」的第一印象，它的出現可以說是 20 世紀改善飛行安全的重要發明。
+最初為了要記錄飛機的飛行變化，例如1939 年的法國馬里尼亞納試飛中心，以及1942 年的芬蘭航空的工程師 Veijo Hietala ，他們都曾運用照相機原理，以滾動式照相機的感光底片，記錄飛機的高度與速度的變化。
+但他們都無法解決如何在當飛機失事後，保存資料的問題。這個大問題，挑戰著全歐洲工程師們的腦神經。
+直到 1953 年，由澳洲科學家大衛·沃倫（David Warren, 1925－2010），做出劃時代的突破！
+原本在航空研究實驗室（ARL）擔任火箭研究員的他，受到上級指派，負責了解為何英國哈維蘭航空公司所推出哈維蘭彗星型噴氣式客機（British de Havilland Comet jet）會接連失事。這場調查對大衛也別具意義，因為他的父親也是在 19 年前的空難中離世。
+但如何破解，卻是一個大問題。正當大衛傷透腦筋時，沒想到小組同事隨口說最新墜機事件的原因可能是因為劫機，他靈機一動想到「要是能將飛機上的對話錄下來就好了」。因此他藉著父親留給他的收音機組裝件，利用類似於錄影帶的運作原理，發明了黑盒子的雛形「ARL Flight Memory Unit」，可以記錄約 4 小時的聲音，以及 8 項飛航資料。
+然而，這項發明在澳洲一開始並沒有受到重視，甚至引來飛行員的抗議，認為這有監聽機上人員的疑慮，但也有人從中看出了這項發明的重要性。1958 年，英國航空管理局的秘書長直接到實驗室找大衛，並邀請他帶著發明一起來英國發展，之後也正式應用在英國的民航機上。
+為了能在飛機失事後迅速被找到，生產公司其實將裝置盒子塗成亮橘色。但在一場 BBC 與大衛的訪談時，記者誤用電子裝備的統稱「黑盒子」介紹這具裝置。
+「黑盒子」也就成為最廣為人知的暱稱。
+黑盒子的真式名稱為「飛行紀錄器」，全名就寫在它亮橘色的外殼上，「FLIGHT RECORDER DO NOT OPEN」（飛行紀錄器，不要打開）。只有當飛機失事時，調查人員會將它打開。
+它的內部主要分為兩個部分：飛行資料紀錄器（FDR）以及座艙通話紀錄器（CVR）。飛行數據紀錄器記錄飛行數據，例如飛行高度、速度和位置等。座艙通話紀錄器則會記錄駕駛員和機組人員的對話，以及飛機內部的所有聲音。各國規定，飛行期間不能關閉飛航資料紀錄器。唯有在航空器失事、重大意外發生後，必須立即關閉飛航紀錄器。而在取出紀錄前，不得再開啟黑盒子，以免對話遭到洗掉。
+當飛機發生事故後，調查與維修人員等相關人員能透過黑盒子的數據，幫助找出事故原因，針對問題持續加強飛機設計或人員訓練等，降低飛機飛行的各項風險。黑盒子本身也歷經四代的改良後，更利於它在各種極端的情況下還能夠運作。現在它不僅更耐高溫與抗壓，還可以承受 3400 公斤的重力加速度，相當於一臺小型貨車的重量。除此之外，它更發展出水下定位的發報器與影像紀錄器，可以記錄艙內的影像。
+黑盒子既然與飛行安全緊密相關，那麼又是多久需檢測與維護呢？
+根據我國「航空器飛航作業管理規則」中，提到黑盒子每五年需至少重新校準一次。另外，當高度及空速之參數是飛航資料紀錄系統所專屬的感應器所提供時，應依據其製造廠家的建議重新校準，或每二年執行一次校準。
+座艙通話紀錄器則與飛航資料紀錄器其他裝置，如有裝設內建測試功能時，應列為每天第一次飛行前的檢查項目。
+1947 年，聯合國「國際民航組織」（ICAO）成立，為了管理與發展世界民用航空業務，每三年集會一次並召開理事會，制定相關規定。除此之外，它也會針對全球層級之航空事故，以中立身分進行跨國調查。
+在國際法規上，由 52 個國家立定的《國際民用航空公約》針對任何有關空領域、航空器安全等制定，是具有法律效益的國際公約。其中也包含 18 條附約，規範航空器相關的規定、規格、操作，以及搜索服務等。其中，與黑盒子有關的法規則集中在第 6 號附約「航空器之操作」，以及第 13 號附約「航空器失事及意外調查」。臺灣所制定黑盒子的法規，以及標準都是從此而來。
+臺灣在 1987 年跟進附約要求，規定當民航機「最大起飛重量（航空器起飛時所容許的最大重量）」超過 5,700 公斤時，就要安裝黑盒子。
+在臺灣的「航空器飛航作業管理規則」中，規定每年都須進行年度檢查，確保紀錄器在記錄期間內能正常運作。
+針對黑盒子的兩部分——飛航資料紀錄器及座艙通話紀錄器，則有各自不同的檢查方式。
+飛航資料紀錄的年度檢查中，只要出現有一重要區間的資料品質不佳，信號不可理解，或其中一項或多項主要之參數未被正確記錄。這些都會將飛航紀錄系統視為不可用。另外在民航局要求下，年度檢查報告應隨時能夠提供飛航資料紀錄作為監視之用。
+座艙通話紀錄器的年度檢查，會以重新播放所記錄信號之方式實施。當裝置於飛機上時，座艙通話紀錄器應記錄來自每一個信號源及相關外部信號源之測試信號，以確認所有必要之信號達到可辨識的標準。
+2014 年 3 月 8 日凌晨，一架從馬來西亞的吉隆坡前往北京的馬航 MH370 航班，起飛後失去聯繫後，至今仍下落不明。
+這起事故引發大眾對黑盒子的討論，也因此有廠商針對飛機下落不明的情況，提出增加即時資料傳輸的設計。但這項提議仍存在著侵犯機組人員隱私，以及不信任飛行的爭議。
+在黑盒子問世之後，人們藉由黑盒子的紀錄，得以逐漸增強飛航的安全性，使失事率急速下降。時至今日，加強黑盒子可用性的同時，也必須維持機組人員的隱私，如何取得兩者間的平衡或許是黑盒子的下一個發展重點。</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>scienceinmovies</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
